--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686CC4C4-9FC3-544C-BD2A-7835233D5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="9120" yWindow="4160" windowWidth="27940" windowHeight="12080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -112,26 +118,15 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
+    <t>MapManager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +138,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,6 +146,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,6 +154,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -164,140 +162,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,182 +198,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -505,256 +207,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -766,61 +232,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1107,30 +531,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CUA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2575">
+    <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3721,7 +3145,7 @@
       <c r="CTZ1" s="4"/>
       <c r="CUA1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2575">
+    <row r="2" spans="1:2575" s="2" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -6312,7 +5736,7 @@
       <c r="CTZ2" s="4"/>
       <c r="CUA2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2575">
+    <row r="3" spans="1:2575" s="1" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -8903,7 +8327,7 @@
       <c r="CTZ3" s="4"/>
       <c r="CUA3" s="4"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:2575">
       <c r="B4" s="6">
         <v>101</v>
       </c>
@@ -8923,7 +8347,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:2575">
       <c r="B5" s="6">
         <v>102</v>
       </c>
@@ -8943,7 +8367,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:2575">
       <c r="B6" s="6">
         <v>103</v>
       </c>
@@ -8963,7 +8387,7 @@
         <v>10103</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:2575">
       <c r="B7" s="6">
         <v>104</v>
       </c>
@@ -8983,7 +8407,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:2575">
       <c r="B8" s="6">
         <v>105</v>
       </c>
@@ -9004,29 +8428,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CUA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="6" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:2575">
+    <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11617,7 +11040,7 @@
       <c r="CTZ1" s="4"/>
       <c r="CUA1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:2575">
+    <row r="2" spans="1:2575" s="2" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -14208,7 +13631,7 @@
       <c r="CTZ2" s="4"/>
       <c r="CUA2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:2575">
+    <row r="3" spans="1:2575" s="1" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -16799,7 +16222,7 @@
       <c r="CTZ3" s="4"/>
       <c r="CUA3" s="4"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="14.25" spans="2:8">
+    <row r="4" spans="1:2575" s="3" customFormat="1">
       <c r="B4" s="6">
         <v>201</v>
       </c>
@@ -16821,23 +16244,26 @@
       <c r="H4" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CUA8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:CUA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:2575">
+    <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19428,7 +18854,7 @@
       <c r="CTZ1" s="4"/>
       <c r="CUA1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:2575">
+    <row r="2" spans="1:2575" s="2" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -22019,7 +21445,7 @@
       <c r="CTZ2" s="4"/>
       <c r="CUA2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:2575">
+    <row r="3" spans="1:2575" s="1" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -24610,12 +24036,12 @@
       <c r="CTZ3" s="4"/>
       <c r="CUA3" s="4"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="14.25" spans="2:8">
+    <row r="4" spans="1:2575" s="3" customFormat="1">
       <c r="B4" s="6">
         <v>301</v>
       </c>
       <c r="C4" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -24631,12 +24057,12 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" ht="14.25" spans="2:7">
+    <row r="5" spans="1:2575" ht="15">
       <c r="B5" s="6">
         <v>302</v>
       </c>
       <c r="C5" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -24651,12 +24077,12 @@
         <v>30102</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:7">
+    <row r="6" spans="1:2575" ht="15">
       <c r="B6" s="6">
         <v>303</v>
       </c>
       <c r="C6" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -24669,12 +24095,12 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" ht="14.25" spans="2:7">
+    <row r="7" spans="1:2575" ht="15">
       <c r="B7" s="6">
         <v>304</v>
       </c>
       <c r="C7" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -24683,30 +24109,12 @@
         <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="6">
-        <v>305</v>
-      </c>
-      <c r="C8" s="6">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686CC4C4-9FC3-544C-BD2A-7835233D5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4697559-5DFA-9542-8EBB-C6A92FAC9929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="4160" windowWidth="27940" windowHeight="12080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="4160" windowWidth="27940" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CUA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8332,7 +8332,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -8372,7 +8372,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -8392,7 +8392,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -8412,7 +8412,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -8439,7 +8439,7 @@
   <dimension ref="A1:CUA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -16227,7 +16227,7 @@
         <v>201</v>
       </c>
       <c r="C4" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -16253,7 +16253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CUA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
@@ -24041,7 +24041,7 @@
         <v>301</v>
       </c>
       <c r="C4" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -24062,7 +24062,7 @@
         <v>302</v>
       </c>
       <c r="C5" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -24082,7 +24082,7 @@
         <v>303</v>
       </c>
       <c r="C6" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -24100,7 +24100,7 @@
         <v>304</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4697559-5DFA-9542-8EBB-C6A92FAC9929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA80E1E-EECD-504D-8418-87BCC033E132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="4160" windowWidth="27940" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="4160" windowWidth="27940" windowHeight="12080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -121,12 +121,15 @@
     <t>MapManager</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>ServiceDiscovery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +174,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD69D85"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -217,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -231,6 +240,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -539,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CUA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8332,7 +8342,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -8352,7 +8362,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -8372,7 +8382,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -8392,7 +8402,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -8412,7 +8422,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -8436,17 +8446,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CUA4"/>
+  <dimension ref="A1:CUA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
@@ -16222,7 +16233,7 @@
       <c r="CTZ3" s="4"/>
       <c r="CUA3" s="4"/>
     </row>
-    <row r="4" spans="1:2575" s="3" customFormat="1">
+    <row r="4" spans="1:2575" s="3" customFormat="1" ht="15">
       <c r="B4" s="6">
         <v>201</v>
       </c>
@@ -16232,16 +16243,36 @@
       <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>20101</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:2575">
+      <c r="B5" s="6">
+        <v>202</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2575">
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -16254,7 +16285,7 @@
   <dimension ref="A1:CUA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -24041,7 +24072,7 @@
         <v>301</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -24062,7 +24093,7 @@
         <v>302</v>
       </c>
       <c r="C5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -24082,7 +24113,7 @@
         <v>303</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -24100,7 +24131,7 @@
         <v>304</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA80E1E-EECD-504D-8418-87BCC033E132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041844A9-4271-F44A-9F9A-BC6E4A0C7D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="4160" windowWidth="27940" windowHeight="12080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2220" windowWidth="27840" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
     <sheet name="Realm" sheetId="2" r:id="rId2"/>
-    <sheet name="Game" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -547,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CUA8"/>
+  <dimension ref="A1:CUA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8337,7 +8336,7 @@
       <c r="CTZ3" s="4"/>
       <c r="CUA3" s="4"/>
     </row>
-    <row r="4" spans="1:2575">
+    <row r="4" spans="1:2575" customFormat="1">
       <c r="B4" s="6">
         <v>101</v>
       </c>
@@ -8345,16 +8344,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10101</v>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2575">
@@ -8362,19 +8358,19 @@
         <v>102</v>
       </c>
       <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6">
-        <v>10102</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="6" spans="1:2575">
@@ -8382,19 +8378,19 @@
         <v>103</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6">
-        <v>10103</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="7" spans="1:2575">
@@ -8402,19 +8398,19 @@
         <v>104</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6">
-        <v>10104</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="8" spans="1:2575">
@@ -8422,18 +8418,38 @@
         <v>105</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2575">
+      <c r="B9" s="6">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>10105</v>
       </c>
     </row>
@@ -8446,10 +8462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CUA6"/>
+  <dimension ref="A1:CUA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -16238,7 +16254,7 @@
         <v>201</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -16249,7903 +16265,90 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>20101</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:2575">
+    <row r="5" spans="1:2575" s="3" customFormat="1">
       <c r="B5" s="6">
         <v>202</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20102</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:2575" ht="15">
+      <c r="B6" s="6">
+        <v>203</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20103</v>
       </c>
     </row>
-    <row r="6" spans="1:2575">
-      <c r="C6" s="6"/>
+    <row r="7" spans="1:2575" ht="15">
+      <c r="B7" s="6">
+        <v>204</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:2575" ht="15">
+      <c r="B8" s="6">
+        <v>205</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CUA7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
-      <c r="EB1" s="4"/>
-      <c r="EC1" s="4"/>
-      <c r="ED1" s="4"/>
-      <c r="EE1" s="4"/>
-      <c r="EF1" s="4"/>
-      <c r="EG1" s="4"/>
-      <c r="EH1" s="4"/>
-      <c r="EI1" s="4"/>
-      <c r="EJ1" s="4"/>
-      <c r="EK1" s="4"/>
-      <c r="EL1" s="4"/>
-      <c r="EM1" s="4"/>
-      <c r="EN1" s="4"/>
-      <c r="EO1" s="4"/>
-      <c r="EP1" s="4"/>
-      <c r="EQ1" s="4"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
-      <c r="ET1" s="4"/>
-      <c r="EU1" s="4"/>
-      <c r="EV1" s="4"/>
-      <c r="EW1" s="4"/>
-      <c r="EX1" s="4"/>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-      <c r="FO1" s="4"/>
-      <c r="FP1" s="4"/>
-      <c r="FQ1" s="4"/>
-      <c r="FR1" s="4"/>
-      <c r="FS1" s="4"/>
-      <c r="FT1" s="4"/>
-      <c r="FU1" s="4"/>
-      <c r="FV1" s="4"/>
-      <c r="FW1" s="4"/>
-      <c r="FX1" s="4"/>
-      <c r="FY1" s="4"/>
-      <c r="FZ1" s="4"/>
-      <c r="GA1" s="4"/>
-      <c r="GB1" s="4"/>
-      <c r="GC1" s="4"/>
-      <c r="GD1" s="4"/>
-      <c r="GE1" s="4"/>
-      <c r="GF1" s="4"/>
-      <c r="GG1" s="4"/>
-      <c r="GH1" s="4"/>
-      <c r="GI1" s="4"/>
-      <c r="GJ1" s="4"/>
-      <c r="GK1" s="4"/>
-      <c r="GL1" s="4"/>
-      <c r="GM1" s="4"/>
-      <c r="GN1" s="4"/>
-      <c r="GO1" s="4"/>
-      <c r="GP1" s="4"/>
-      <c r="GQ1" s="4"/>
-      <c r="GR1" s="4"/>
-      <c r="GS1" s="4"/>
-      <c r="GT1" s="4"/>
-      <c r="GU1" s="4"/>
-      <c r="GV1" s="4"/>
-      <c r="GW1" s="4"/>
-      <c r="GX1" s="4"/>
-      <c r="GY1" s="4"/>
-      <c r="GZ1" s="4"/>
-      <c r="HA1" s="4"/>
-      <c r="HB1" s="4"/>
-      <c r="HC1" s="4"/>
-      <c r="HD1" s="4"/>
-      <c r="HE1" s="4"/>
-      <c r="HF1" s="4"/>
-      <c r="HG1" s="4"/>
-      <c r="HH1" s="4"/>
-      <c r="HI1" s="4"/>
-      <c r="HJ1" s="4"/>
-      <c r="HK1" s="4"/>
-      <c r="HL1" s="4"/>
-      <c r="HM1" s="4"/>
-      <c r="HN1" s="4"/>
-      <c r="HO1" s="4"/>
-      <c r="HP1" s="4"/>
-      <c r="HQ1" s="4"/>
-      <c r="HR1" s="4"/>
-      <c r="HS1" s="4"/>
-      <c r="HT1" s="4"/>
-      <c r="HU1" s="4"/>
-      <c r="HV1" s="4"/>
-      <c r="HW1" s="4"/>
-      <c r="HX1" s="4"/>
-      <c r="HY1" s="4"/>
-      <c r="HZ1" s="4"/>
-      <c r="IA1" s="4"/>
-      <c r="IB1" s="4"/>
-      <c r="IC1" s="4"/>
-      <c r="ID1" s="4"/>
-      <c r="IE1" s="4"/>
-      <c r="IF1" s="4"/>
-      <c r="IG1" s="4"/>
-      <c r="IH1" s="4"/>
-      <c r="II1" s="4"/>
-      <c r="IJ1" s="4"/>
-      <c r="IK1" s="4"/>
-      <c r="IL1" s="4"/>
-      <c r="IM1" s="4"/>
-      <c r="IN1" s="4"/>
-      <c r="IO1" s="4"/>
-      <c r="IP1" s="4"/>
-      <c r="IQ1" s="4"/>
-      <c r="IR1" s="4"/>
-      <c r="IS1" s="4"/>
-      <c r="IT1" s="4"/>
-      <c r="IU1" s="4"/>
-      <c r="IV1" s="4"/>
-      <c r="IW1" s="4"/>
-      <c r="IX1" s="4"/>
-      <c r="IY1" s="4"/>
-      <c r="IZ1" s="4"/>
-      <c r="JA1" s="4"/>
-      <c r="JB1" s="4"/>
-      <c r="JC1" s="4"/>
-      <c r="JD1" s="4"/>
-      <c r="JE1" s="4"/>
-      <c r="JF1" s="4"/>
-      <c r="JG1" s="4"/>
-      <c r="JH1" s="4"/>
-      <c r="JI1" s="4"/>
-      <c r="JJ1" s="4"/>
-      <c r="JK1" s="4"/>
-      <c r="JL1" s="4"/>
-      <c r="JM1" s="4"/>
-      <c r="JN1" s="4"/>
-      <c r="JO1" s="4"/>
-      <c r="JP1" s="4"/>
-      <c r="JQ1" s="4"/>
-      <c r="JR1" s="4"/>
-      <c r="JS1" s="4"/>
-      <c r="JT1" s="4"/>
-      <c r="JU1" s="4"/>
-      <c r="JV1" s="4"/>
-      <c r="JW1" s="4"/>
-      <c r="JX1" s="4"/>
-      <c r="JY1" s="4"/>
-      <c r="JZ1" s="4"/>
-      <c r="KA1" s="4"/>
-      <c r="KB1" s="4"/>
-      <c r="KC1" s="4"/>
-      <c r="KD1" s="4"/>
-      <c r="KE1" s="4"/>
-      <c r="KF1" s="4"/>
-      <c r="KG1" s="4"/>
-      <c r="KH1" s="4"/>
-      <c r="KI1" s="4"/>
-      <c r="KJ1" s="4"/>
-      <c r="KK1" s="4"/>
-      <c r="KL1" s="4"/>
-      <c r="KM1" s="4"/>
-      <c r="KN1" s="4"/>
-      <c r="KO1" s="4"/>
-      <c r="KP1" s="4"/>
-      <c r="KQ1" s="4"/>
-      <c r="KR1" s="4"/>
-      <c r="KS1" s="4"/>
-      <c r="KT1" s="4"/>
-      <c r="KU1" s="4"/>
-      <c r="KV1" s="4"/>
-      <c r="KW1" s="4"/>
-      <c r="KX1" s="4"/>
-      <c r="KY1" s="4"/>
-      <c r="KZ1" s="4"/>
-      <c r="LA1" s="4"/>
-      <c r="LB1" s="4"/>
-      <c r="LC1" s="4"/>
-      <c r="LD1" s="4"/>
-      <c r="LE1" s="4"/>
-      <c r="LF1" s="4"/>
-      <c r="LG1" s="4"/>
-      <c r="LH1" s="4"/>
-      <c r="LI1" s="4"/>
-      <c r="LJ1" s="4"/>
-      <c r="LK1" s="4"/>
-      <c r="LL1" s="4"/>
-      <c r="LM1" s="4"/>
-      <c r="LN1" s="4"/>
-      <c r="LO1" s="4"/>
-      <c r="LP1" s="4"/>
-      <c r="LQ1" s="4"/>
-      <c r="LR1" s="4"/>
-      <c r="LS1" s="4"/>
-      <c r="LT1" s="4"/>
-      <c r="LU1" s="4"/>
-      <c r="LV1" s="4"/>
-      <c r="LW1" s="4"/>
-      <c r="LX1" s="4"/>
-      <c r="LY1" s="4"/>
-      <c r="LZ1" s="4"/>
-      <c r="MA1" s="4"/>
-      <c r="MB1" s="4"/>
-      <c r="MC1" s="4"/>
-      <c r="MD1" s="4"/>
-      <c r="ME1" s="4"/>
-      <c r="MF1" s="4"/>
-      <c r="MG1" s="4"/>
-      <c r="MH1" s="4"/>
-      <c r="MI1" s="4"/>
-      <c r="MJ1" s="4"/>
-      <c r="MK1" s="4"/>
-      <c r="ML1" s="4"/>
-      <c r="MM1" s="4"/>
-      <c r="MN1" s="4"/>
-      <c r="MO1" s="4"/>
-      <c r="MP1" s="4"/>
-      <c r="MQ1" s="4"/>
-      <c r="MR1" s="4"/>
-      <c r="MS1" s="4"/>
-      <c r="MT1" s="4"/>
-      <c r="MU1" s="4"/>
-      <c r="MV1" s="4"/>
-      <c r="MW1" s="4"/>
-      <c r="MX1" s="4"/>
-      <c r="MY1" s="4"/>
-      <c r="MZ1" s="4"/>
-      <c r="NA1" s="4"/>
-      <c r="NB1" s="4"/>
-      <c r="NC1" s="4"/>
-      <c r="ND1" s="4"/>
-      <c r="NE1" s="4"/>
-      <c r="NF1" s="4"/>
-      <c r="NG1" s="4"/>
-      <c r="NH1" s="4"/>
-      <c r="NI1" s="4"/>
-      <c r="NJ1" s="4"/>
-      <c r="NK1" s="4"/>
-      <c r="NL1" s="4"/>
-      <c r="NM1" s="4"/>
-      <c r="NN1" s="4"/>
-      <c r="NO1" s="4"/>
-      <c r="NP1" s="4"/>
-      <c r="NQ1" s="4"/>
-      <c r="NR1" s="4"/>
-      <c r="NS1" s="4"/>
-      <c r="NT1" s="4"/>
-      <c r="NU1" s="4"/>
-      <c r="NV1" s="4"/>
-      <c r="NW1" s="4"/>
-      <c r="NX1" s="4"/>
-      <c r="NY1" s="4"/>
-      <c r="NZ1" s="4"/>
-      <c r="OA1" s="4"/>
-      <c r="OB1" s="4"/>
-      <c r="OC1" s="4"/>
-      <c r="OD1" s="4"/>
-      <c r="OE1" s="4"/>
-      <c r="OF1" s="4"/>
-      <c r="OG1" s="4"/>
-      <c r="OH1" s="4"/>
-      <c r="OI1" s="4"/>
-      <c r="OJ1" s="4"/>
-      <c r="OK1" s="4"/>
-      <c r="OL1" s="4"/>
-      <c r="OM1" s="4"/>
-      <c r="ON1" s="4"/>
-      <c r="OO1" s="4"/>
-      <c r="OP1" s="4"/>
-      <c r="OQ1" s="4"/>
-      <c r="OR1" s="4"/>
-      <c r="OS1" s="4"/>
-      <c r="OT1" s="4"/>
-      <c r="OU1" s="4"/>
-      <c r="OV1" s="4"/>
-      <c r="OW1" s="4"/>
-      <c r="OX1" s="4"/>
-      <c r="OY1" s="4"/>
-      <c r="OZ1" s="4"/>
-      <c r="PA1" s="4"/>
-      <c r="PB1" s="4"/>
-      <c r="PC1" s="4"/>
-      <c r="PD1" s="4"/>
-      <c r="PE1" s="4"/>
-      <c r="PF1" s="4"/>
-      <c r="PG1" s="4"/>
-      <c r="PH1" s="4"/>
-      <c r="PI1" s="4"/>
-      <c r="PJ1" s="4"/>
-      <c r="PK1" s="4"/>
-      <c r="PL1" s="4"/>
-      <c r="PM1" s="4"/>
-      <c r="PN1" s="4"/>
-      <c r="PO1" s="4"/>
-      <c r="PP1" s="4"/>
-      <c r="PQ1" s="4"/>
-      <c r="PR1" s="4"/>
-      <c r="PS1" s="4"/>
-      <c r="PT1" s="4"/>
-      <c r="PU1" s="4"/>
-      <c r="PV1" s="4"/>
-      <c r="PW1" s="4"/>
-      <c r="PX1" s="4"/>
-      <c r="PY1" s="4"/>
-      <c r="PZ1" s="4"/>
-      <c r="QA1" s="4"/>
-      <c r="QB1" s="4"/>
-      <c r="QC1" s="4"/>
-      <c r="QD1" s="4"/>
-      <c r="QE1" s="4"/>
-      <c r="QF1" s="4"/>
-      <c r="QG1" s="4"/>
-      <c r="QH1" s="4"/>
-      <c r="QI1" s="4"/>
-      <c r="QJ1" s="4"/>
-      <c r="QK1" s="4"/>
-      <c r="QL1" s="4"/>
-      <c r="QM1" s="4"/>
-      <c r="QN1" s="4"/>
-      <c r="QO1" s="4"/>
-      <c r="QP1" s="4"/>
-      <c r="QQ1" s="4"/>
-      <c r="QR1" s="4"/>
-      <c r="QS1" s="4"/>
-      <c r="QT1" s="4"/>
-      <c r="QU1" s="4"/>
-      <c r="QV1" s="4"/>
-      <c r="QW1" s="4"/>
-      <c r="QX1" s="4"/>
-      <c r="QY1" s="4"/>
-      <c r="QZ1" s="4"/>
-      <c r="RA1" s="4"/>
-      <c r="RB1" s="4"/>
-      <c r="RC1" s="4"/>
-      <c r="RD1" s="4"/>
-      <c r="RE1" s="4"/>
-      <c r="RF1" s="4"/>
-      <c r="RG1" s="4"/>
-      <c r="RH1" s="4"/>
-      <c r="RI1" s="4"/>
-      <c r="RJ1" s="4"/>
-      <c r="RK1" s="4"/>
-      <c r="RL1" s="4"/>
-      <c r="RM1" s="4"/>
-      <c r="RN1" s="4"/>
-      <c r="RO1" s="4"/>
-      <c r="RP1" s="4"/>
-      <c r="RQ1" s="4"/>
-      <c r="RR1" s="4"/>
-      <c r="RS1" s="4"/>
-      <c r="RT1" s="4"/>
-      <c r="RU1" s="4"/>
-      <c r="RV1" s="4"/>
-      <c r="RW1" s="4"/>
-      <c r="RX1" s="4"/>
-      <c r="RY1" s="4"/>
-      <c r="RZ1" s="4"/>
-      <c r="SA1" s="4"/>
-      <c r="SB1" s="4"/>
-      <c r="SC1" s="4"/>
-      <c r="SD1" s="4"/>
-      <c r="SE1" s="4"/>
-      <c r="SF1" s="4"/>
-      <c r="SG1" s="4"/>
-      <c r="SH1" s="4"/>
-      <c r="SI1" s="4"/>
-      <c r="SJ1" s="4"/>
-      <c r="SK1" s="4"/>
-      <c r="SL1" s="4"/>
-      <c r="SM1" s="4"/>
-      <c r="SN1" s="4"/>
-      <c r="SO1" s="4"/>
-      <c r="SP1" s="4"/>
-      <c r="SQ1" s="4"/>
-      <c r="SR1" s="4"/>
-      <c r="SS1" s="4"/>
-      <c r="ST1" s="4"/>
-      <c r="SU1" s="4"/>
-      <c r="SV1" s="4"/>
-      <c r="SW1" s="4"/>
-      <c r="SX1" s="4"/>
-      <c r="SY1" s="4"/>
-      <c r="SZ1" s="4"/>
-      <c r="TA1" s="4"/>
-      <c r="TB1" s="4"/>
-      <c r="TC1" s="4"/>
-      <c r="TD1" s="4"/>
-      <c r="TE1" s="4"/>
-      <c r="TF1" s="4"/>
-      <c r="TG1" s="4"/>
-      <c r="TH1" s="4"/>
-      <c r="TI1" s="4"/>
-      <c r="TJ1" s="4"/>
-      <c r="TK1" s="4"/>
-      <c r="TL1" s="4"/>
-      <c r="TM1" s="4"/>
-      <c r="TN1" s="4"/>
-      <c r="TO1" s="4"/>
-      <c r="TP1" s="4"/>
-      <c r="TQ1" s="4"/>
-      <c r="TR1" s="4"/>
-      <c r="TS1" s="4"/>
-      <c r="TT1" s="4"/>
-      <c r="TU1" s="4"/>
-      <c r="TV1" s="4"/>
-      <c r="TW1" s="4"/>
-      <c r="TX1" s="4"/>
-      <c r="TY1" s="4"/>
-      <c r="TZ1" s="4"/>
-      <c r="UA1" s="4"/>
-      <c r="UB1" s="4"/>
-      <c r="UC1" s="4"/>
-      <c r="UD1" s="4"/>
-      <c r="UE1" s="4"/>
-      <c r="UF1" s="4"/>
-      <c r="UG1" s="4"/>
-      <c r="UH1" s="4"/>
-      <c r="UI1" s="4"/>
-      <c r="UJ1" s="4"/>
-      <c r="UK1" s="4"/>
-      <c r="UL1" s="4"/>
-      <c r="UM1" s="4"/>
-      <c r="UN1" s="4"/>
-      <c r="UO1" s="4"/>
-      <c r="UP1" s="4"/>
-      <c r="UQ1" s="4"/>
-      <c r="UR1" s="4"/>
-      <c r="US1" s="4"/>
-      <c r="UT1" s="4"/>
-      <c r="UU1" s="4"/>
-      <c r="UV1" s="4"/>
-      <c r="UW1" s="4"/>
-      <c r="UX1" s="4"/>
-      <c r="UY1" s="4"/>
-      <c r="UZ1" s="4"/>
-      <c r="VA1" s="4"/>
-      <c r="VB1" s="4"/>
-      <c r="VC1" s="4"/>
-      <c r="VD1" s="4"/>
-      <c r="VE1" s="4"/>
-      <c r="VF1" s="4"/>
-      <c r="VG1" s="4"/>
-      <c r="VH1" s="4"/>
-      <c r="VI1" s="4"/>
-      <c r="VJ1" s="4"/>
-      <c r="VK1" s="4"/>
-      <c r="VL1" s="4"/>
-      <c r="VM1" s="4"/>
-      <c r="VN1" s="4"/>
-      <c r="VO1" s="4"/>
-      <c r="VP1" s="4"/>
-      <c r="VQ1" s="4"/>
-      <c r="VR1" s="4"/>
-      <c r="VS1" s="4"/>
-      <c r="VT1" s="4"/>
-      <c r="VU1" s="4"/>
-      <c r="VV1" s="4"/>
-      <c r="VW1" s="4"/>
-      <c r="VX1" s="4"/>
-      <c r="VY1" s="4"/>
-      <c r="VZ1" s="4"/>
-      <c r="WA1" s="4"/>
-      <c r="WB1" s="4"/>
-      <c r="WC1" s="4"/>
-      <c r="WD1" s="4"/>
-      <c r="WE1" s="4"/>
-      <c r="WF1" s="4"/>
-      <c r="WG1" s="4"/>
-      <c r="WH1" s="4"/>
-      <c r="WI1" s="4"/>
-      <c r="WJ1" s="4"/>
-      <c r="WK1" s="4"/>
-      <c r="WL1" s="4"/>
-      <c r="WM1" s="4"/>
-      <c r="WN1" s="4"/>
-      <c r="WO1" s="4"/>
-      <c r="WP1" s="4"/>
-      <c r="WQ1" s="4"/>
-      <c r="WR1" s="4"/>
-      <c r="WS1" s="4"/>
-      <c r="WT1" s="4"/>
-      <c r="WU1" s="4"/>
-      <c r="WV1" s="4"/>
-      <c r="WW1" s="4"/>
-      <c r="WX1" s="4"/>
-      <c r="WY1" s="4"/>
-      <c r="WZ1" s="4"/>
-      <c r="XA1" s="4"/>
-      <c r="XB1" s="4"/>
-      <c r="XC1" s="4"/>
-      <c r="XD1" s="4"/>
-      <c r="XE1" s="4"/>
-      <c r="XF1" s="4"/>
-      <c r="XG1" s="4"/>
-      <c r="XH1" s="4"/>
-      <c r="XI1" s="4"/>
-      <c r="XJ1" s="4"/>
-      <c r="XK1" s="4"/>
-      <c r="XL1" s="4"/>
-      <c r="XM1" s="4"/>
-      <c r="XN1" s="4"/>
-      <c r="XO1" s="4"/>
-      <c r="XP1" s="4"/>
-      <c r="XQ1" s="4"/>
-      <c r="XR1" s="4"/>
-      <c r="XS1" s="4"/>
-      <c r="XT1" s="4"/>
-      <c r="XU1" s="4"/>
-      <c r="XV1" s="4"/>
-      <c r="XW1" s="4"/>
-      <c r="XX1" s="4"/>
-      <c r="XY1" s="4"/>
-      <c r="XZ1" s="4"/>
-      <c r="YA1" s="4"/>
-      <c r="YB1" s="4"/>
-      <c r="YC1" s="4"/>
-      <c r="YD1" s="4"/>
-      <c r="YE1" s="4"/>
-      <c r="YF1" s="4"/>
-      <c r="YG1" s="4"/>
-      <c r="YH1" s="4"/>
-      <c r="YI1" s="4"/>
-      <c r="YJ1" s="4"/>
-      <c r="YK1" s="4"/>
-      <c r="YL1" s="4"/>
-      <c r="YM1" s="4"/>
-      <c r="YN1" s="4"/>
-      <c r="YO1" s="4"/>
-      <c r="YP1" s="4"/>
-      <c r="YQ1" s="4"/>
-      <c r="YR1" s="4"/>
-      <c r="YS1" s="4"/>
-      <c r="YT1" s="4"/>
-      <c r="YU1" s="4"/>
-      <c r="YV1" s="4"/>
-      <c r="YW1" s="4"/>
-      <c r="YX1" s="4"/>
-      <c r="YY1" s="4"/>
-      <c r="YZ1" s="4"/>
-      <c r="ZA1" s="4"/>
-      <c r="ZB1" s="4"/>
-      <c r="ZC1" s="4"/>
-      <c r="ZD1" s="4"/>
-      <c r="ZE1" s="4"/>
-      <c r="ZF1" s="4"/>
-      <c r="ZG1" s="4"/>
-      <c r="ZH1" s="4"/>
-      <c r="ZI1" s="4"/>
-      <c r="ZJ1" s="4"/>
-      <c r="ZK1" s="4"/>
-      <c r="ZL1" s="4"/>
-      <c r="ZM1" s="4"/>
-      <c r="ZN1" s="4"/>
-      <c r="ZO1" s="4"/>
-      <c r="ZP1" s="4"/>
-      <c r="ZQ1" s="4"/>
-      <c r="ZR1" s="4"/>
-      <c r="ZS1" s="4"/>
-      <c r="ZT1" s="4"/>
-      <c r="ZU1" s="4"/>
-      <c r="ZV1" s="4"/>
-      <c r="ZW1" s="4"/>
-      <c r="ZX1" s="4"/>
-      <c r="ZY1" s="4"/>
-      <c r="ZZ1" s="4"/>
-      <c r="AAA1" s="4"/>
-      <c r="AAB1" s="4"/>
-      <c r="AAC1" s="4"/>
-      <c r="AAD1" s="4"/>
-      <c r="AAE1" s="4"/>
-      <c r="AAF1" s="4"/>
-      <c r="AAG1" s="4"/>
-      <c r="AAH1" s="4"/>
-      <c r="AAI1" s="4"/>
-      <c r="AAJ1" s="4"/>
-      <c r="AAK1" s="4"/>
-      <c r="AAL1" s="4"/>
-      <c r="AAM1" s="4"/>
-      <c r="AAN1" s="4"/>
-      <c r="AAO1" s="4"/>
-      <c r="AAP1" s="4"/>
-      <c r="AAQ1" s="4"/>
-      <c r="AAR1" s="4"/>
-      <c r="AAS1" s="4"/>
-      <c r="AAT1" s="4"/>
-      <c r="AAU1" s="4"/>
-      <c r="AAV1" s="4"/>
-      <c r="AAW1" s="4"/>
-      <c r="AAX1" s="4"/>
-      <c r="AAY1" s="4"/>
-      <c r="AAZ1" s="4"/>
-      <c r="ABA1" s="4"/>
-      <c r="ABB1" s="4"/>
-      <c r="ABC1" s="4"/>
-      <c r="ABD1" s="4"/>
-      <c r="ABE1" s="4"/>
-      <c r="ABF1" s="4"/>
-      <c r="ABG1" s="4"/>
-      <c r="ABH1" s="4"/>
-      <c r="ABI1" s="4"/>
-      <c r="ABJ1" s="4"/>
-      <c r="ABK1" s="4"/>
-      <c r="ABL1" s="4"/>
-      <c r="ABM1" s="4"/>
-      <c r="ABN1" s="4"/>
-      <c r="ABO1" s="4"/>
-      <c r="ABP1" s="4"/>
-      <c r="ABQ1" s="4"/>
-      <c r="ABR1" s="4"/>
-      <c r="ABS1" s="4"/>
-      <c r="ABT1" s="4"/>
-      <c r="ABU1" s="4"/>
-      <c r="ABV1" s="4"/>
-      <c r="ABW1" s="4"/>
-      <c r="ABX1" s="4"/>
-      <c r="ABY1" s="4"/>
-      <c r="ABZ1" s="4"/>
-      <c r="ACA1" s="4"/>
-      <c r="ACB1" s="4"/>
-      <c r="ACC1" s="4"/>
-      <c r="ACD1" s="4"/>
-      <c r="ACE1" s="4"/>
-      <c r="ACF1" s="4"/>
-      <c r="ACG1" s="4"/>
-      <c r="ACH1" s="4"/>
-      <c r="ACI1" s="4"/>
-      <c r="ACJ1" s="4"/>
-      <c r="ACK1" s="4"/>
-      <c r="ACL1" s="4"/>
-      <c r="ACM1" s="4"/>
-      <c r="ACN1" s="4"/>
-      <c r="ACO1" s="4"/>
-      <c r="ACP1" s="4"/>
-      <c r="ACQ1" s="4"/>
-      <c r="ACR1" s="4"/>
-      <c r="ACS1" s="4"/>
-      <c r="ACT1" s="4"/>
-      <c r="ACU1" s="4"/>
-      <c r="ACV1" s="4"/>
-      <c r="ACW1" s="4"/>
-      <c r="ACX1" s="4"/>
-      <c r="ACY1" s="4"/>
-      <c r="ACZ1" s="4"/>
-      <c r="ADA1" s="4"/>
-      <c r="ADB1" s="4"/>
-      <c r="ADC1" s="4"/>
-      <c r="ADD1" s="4"/>
-      <c r="ADE1" s="4"/>
-      <c r="ADF1" s="4"/>
-      <c r="ADG1" s="4"/>
-      <c r="ADH1" s="4"/>
-      <c r="ADI1" s="4"/>
-      <c r="ADJ1" s="4"/>
-      <c r="ADK1" s="4"/>
-      <c r="ADL1" s="4"/>
-      <c r="ADM1" s="4"/>
-      <c r="ADN1" s="4"/>
-      <c r="ADO1" s="4"/>
-      <c r="ADP1" s="4"/>
-      <c r="ADQ1" s="4"/>
-      <c r="ADR1" s="4"/>
-      <c r="ADS1" s="4"/>
-      <c r="ADT1" s="4"/>
-      <c r="ADU1" s="4"/>
-      <c r="ADV1" s="4"/>
-      <c r="ADW1" s="4"/>
-      <c r="ADX1" s="4"/>
-      <c r="ADY1" s="4"/>
-      <c r="ADZ1" s="4"/>
-      <c r="AEA1" s="4"/>
-      <c r="AEB1" s="4"/>
-      <c r="AEC1" s="4"/>
-      <c r="AED1" s="4"/>
-      <c r="AEE1" s="4"/>
-      <c r="AEF1" s="4"/>
-      <c r="AEG1" s="4"/>
-      <c r="AEH1" s="4"/>
-      <c r="AEI1" s="4"/>
-      <c r="AEJ1" s="4"/>
-      <c r="AEK1" s="4"/>
-      <c r="AEL1" s="4"/>
-      <c r="AEM1" s="4"/>
-      <c r="AEN1" s="4"/>
-      <c r="AEO1" s="4"/>
-      <c r="AEP1" s="4"/>
-      <c r="AEQ1" s="4"/>
-      <c r="AER1" s="4"/>
-      <c r="AES1" s="4"/>
-      <c r="AET1" s="4"/>
-      <c r="AEU1" s="4"/>
-      <c r="AEV1" s="4"/>
-      <c r="AEW1" s="4"/>
-      <c r="AEX1" s="4"/>
-      <c r="AEY1" s="4"/>
-      <c r="AEZ1" s="4"/>
-      <c r="AFA1" s="4"/>
-      <c r="AFB1" s="4"/>
-      <c r="AFC1" s="4"/>
-      <c r="AFD1" s="4"/>
-      <c r="AFE1" s="4"/>
-      <c r="AFF1" s="4"/>
-      <c r="AFG1" s="4"/>
-      <c r="AFH1" s="4"/>
-      <c r="AFI1" s="4"/>
-      <c r="AFJ1" s="4"/>
-      <c r="AFK1" s="4"/>
-      <c r="AFL1" s="4"/>
-      <c r="AFM1" s="4"/>
-      <c r="AFN1" s="4"/>
-      <c r="AFO1" s="4"/>
-      <c r="AFP1" s="4"/>
-      <c r="AFQ1" s="4"/>
-      <c r="AFR1" s="4"/>
-      <c r="AFS1" s="4"/>
-      <c r="AFT1" s="4"/>
-      <c r="AFU1" s="4"/>
-      <c r="AFV1" s="4"/>
-      <c r="AFW1" s="4"/>
-      <c r="AFX1" s="4"/>
-      <c r="AFY1" s="4"/>
-      <c r="AFZ1" s="4"/>
-      <c r="AGA1" s="4"/>
-      <c r="AGB1" s="4"/>
-      <c r="AGC1" s="4"/>
-      <c r="AGD1" s="4"/>
-      <c r="AGE1" s="4"/>
-      <c r="AGF1" s="4"/>
-      <c r="AGG1" s="4"/>
-      <c r="AGH1" s="4"/>
-      <c r="AGI1" s="4"/>
-      <c r="AGJ1" s="4"/>
-      <c r="AGK1" s="4"/>
-      <c r="AGL1" s="4"/>
-      <c r="AGM1" s="4"/>
-      <c r="AGN1" s="4"/>
-      <c r="AGO1" s="4"/>
-      <c r="AGP1" s="4"/>
-      <c r="AGQ1" s="4"/>
-      <c r="AGR1" s="4"/>
-      <c r="AGS1" s="4"/>
-      <c r="AGT1" s="4"/>
-      <c r="AGU1" s="4"/>
-      <c r="AGV1" s="4"/>
-      <c r="AGW1" s="4"/>
-      <c r="AGX1" s="4"/>
-      <c r="AGY1" s="4"/>
-      <c r="AGZ1" s="4"/>
-      <c r="AHA1" s="4"/>
-      <c r="AHB1" s="4"/>
-      <c r="AHC1" s="4"/>
-      <c r="AHD1" s="4"/>
-      <c r="AHE1" s="4"/>
-      <c r="AHF1" s="4"/>
-      <c r="AHG1" s="4"/>
-      <c r="AHH1" s="4"/>
-      <c r="AHI1" s="4"/>
-      <c r="AHJ1" s="4"/>
-      <c r="AHK1" s="4"/>
-      <c r="AHL1" s="4"/>
-      <c r="AHM1" s="4"/>
-      <c r="AHN1" s="4"/>
-      <c r="AHO1" s="4"/>
-      <c r="AHP1" s="4"/>
-      <c r="AHQ1" s="4"/>
-      <c r="AHR1" s="4"/>
-      <c r="AHS1" s="4"/>
-      <c r="AHT1" s="4"/>
-      <c r="AHU1" s="4"/>
-      <c r="AHV1" s="4"/>
-      <c r="AHW1" s="4"/>
-      <c r="AHX1" s="4"/>
-      <c r="AHY1" s="4"/>
-      <c r="AHZ1" s="4"/>
-      <c r="AIA1" s="4"/>
-      <c r="AIB1" s="4"/>
-      <c r="AIC1" s="4"/>
-      <c r="AID1" s="4"/>
-      <c r="AIE1" s="4"/>
-      <c r="AIF1" s="4"/>
-      <c r="AIG1" s="4"/>
-      <c r="AIH1" s="4"/>
-      <c r="AII1" s="4"/>
-      <c r="AIJ1" s="4"/>
-      <c r="AIK1" s="4"/>
-      <c r="AIL1" s="4"/>
-      <c r="AIM1" s="4"/>
-      <c r="AIN1" s="4"/>
-      <c r="AIO1" s="4"/>
-      <c r="AIP1" s="4"/>
-      <c r="AIQ1" s="4"/>
-      <c r="AIR1" s="4"/>
-      <c r="AIS1" s="4"/>
-      <c r="AIT1" s="4"/>
-      <c r="AIU1" s="4"/>
-      <c r="AIV1" s="4"/>
-      <c r="AIW1" s="4"/>
-      <c r="AIX1" s="4"/>
-      <c r="AIY1" s="4"/>
-      <c r="AIZ1" s="4"/>
-      <c r="AJA1" s="4"/>
-      <c r="AJB1" s="4"/>
-      <c r="AJC1" s="4"/>
-      <c r="AJD1" s="4"/>
-      <c r="AJE1" s="4"/>
-      <c r="AJF1" s="4"/>
-      <c r="AJG1" s="4"/>
-      <c r="AJH1" s="4"/>
-      <c r="AJI1" s="4"/>
-      <c r="AJJ1" s="4"/>
-      <c r="AJK1" s="4"/>
-      <c r="AJL1" s="4"/>
-      <c r="AJM1" s="4"/>
-      <c r="AJN1" s="4"/>
-      <c r="AJO1" s="4"/>
-      <c r="AJP1" s="4"/>
-      <c r="AJQ1" s="4"/>
-      <c r="AJR1" s="4"/>
-      <c r="AJS1" s="4"/>
-      <c r="AJT1" s="4"/>
-      <c r="AJU1" s="4"/>
-      <c r="AJV1" s="4"/>
-      <c r="AJW1" s="4"/>
-      <c r="AJX1" s="4"/>
-      <c r="AJY1" s="4"/>
-      <c r="AJZ1" s="4"/>
-      <c r="AKA1" s="4"/>
-      <c r="AKB1" s="4"/>
-      <c r="AKC1" s="4"/>
-      <c r="AKD1" s="4"/>
-      <c r="AKE1" s="4"/>
-      <c r="AKF1" s="4"/>
-      <c r="AKG1" s="4"/>
-      <c r="AKH1" s="4"/>
-      <c r="AKI1" s="4"/>
-      <c r="AKJ1" s="4"/>
-      <c r="AKK1" s="4"/>
-      <c r="AKL1" s="4"/>
-      <c r="AKM1" s="4"/>
-      <c r="AKN1" s="4"/>
-      <c r="AKO1" s="4"/>
-      <c r="AKP1" s="4"/>
-      <c r="AKQ1" s="4"/>
-      <c r="AKR1" s="4"/>
-      <c r="AKS1" s="4"/>
-      <c r="AKT1" s="4"/>
-      <c r="AKU1" s="4"/>
-      <c r="AKV1" s="4"/>
-      <c r="AKW1" s="4"/>
-      <c r="AKX1" s="4"/>
-      <c r="AKY1" s="4"/>
-      <c r="AKZ1" s="4"/>
-      <c r="ALA1" s="4"/>
-      <c r="ALB1" s="4"/>
-      <c r="ALC1" s="4"/>
-      <c r="ALD1" s="4"/>
-      <c r="ALE1" s="4"/>
-      <c r="ALF1" s="4"/>
-      <c r="ALG1" s="4"/>
-      <c r="ALH1" s="4"/>
-      <c r="ALI1" s="4"/>
-      <c r="ALJ1" s="4"/>
-      <c r="ALK1" s="4"/>
-      <c r="ALL1" s="4"/>
-      <c r="ALM1" s="4"/>
-      <c r="ALN1" s="4"/>
-      <c r="ALO1" s="4"/>
-      <c r="ALP1" s="4"/>
-      <c r="ALQ1" s="4"/>
-      <c r="ALR1" s="4"/>
-      <c r="ALS1" s="4"/>
-      <c r="ALT1" s="4"/>
-      <c r="ALU1" s="4"/>
-      <c r="ALV1" s="4"/>
-      <c r="ALW1" s="4"/>
-      <c r="ALX1" s="4"/>
-      <c r="ALY1" s="4"/>
-      <c r="ALZ1" s="4"/>
-      <c r="AMA1" s="4"/>
-      <c r="AMB1" s="4"/>
-      <c r="AMC1" s="4"/>
-      <c r="AMD1" s="4"/>
-      <c r="AME1" s="4"/>
-      <c r="AMF1" s="4"/>
-      <c r="AMG1" s="4"/>
-      <c r="AMH1" s="4"/>
-      <c r="AMI1" s="4"/>
-      <c r="AMJ1" s="4"/>
-      <c r="AMK1" s="4"/>
-      <c r="AML1" s="4"/>
-      <c r="AMM1" s="4"/>
-      <c r="AMN1" s="4"/>
-      <c r="AMO1" s="4"/>
-      <c r="AMP1" s="4"/>
-      <c r="AMQ1" s="4"/>
-      <c r="AMR1" s="4"/>
-      <c r="AMS1" s="4"/>
-      <c r="AMT1" s="4"/>
-      <c r="AMU1" s="4"/>
-      <c r="AMV1" s="4"/>
-      <c r="AMW1" s="4"/>
-      <c r="AMX1" s="4"/>
-      <c r="AMY1" s="4"/>
-      <c r="AMZ1" s="4"/>
-      <c r="ANA1" s="4"/>
-      <c r="ANB1" s="4"/>
-      <c r="ANC1" s="4"/>
-      <c r="AND1" s="4"/>
-      <c r="ANE1" s="4"/>
-      <c r="ANF1" s="4"/>
-      <c r="ANG1" s="4"/>
-      <c r="ANH1" s="4"/>
-      <c r="ANI1" s="4"/>
-      <c r="ANJ1" s="4"/>
-      <c r="ANK1" s="4"/>
-      <c r="ANL1" s="4"/>
-      <c r="ANM1" s="4"/>
-      <c r="ANN1" s="4"/>
-      <c r="ANO1" s="4"/>
-      <c r="ANP1" s="4"/>
-      <c r="ANQ1" s="4"/>
-      <c r="ANR1" s="4"/>
-      <c r="ANS1" s="4"/>
-      <c r="ANT1" s="4"/>
-      <c r="ANU1" s="4"/>
-      <c r="ANV1" s="4"/>
-      <c r="ANW1" s="4"/>
-      <c r="ANX1" s="4"/>
-      <c r="ANY1" s="4"/>
-      <c r="ANZ1" s="4"/>
-      <c r="AOA1" s="4"/>
-      <c r="AOB1" s="4"/>
-      <c r="AOC1" s="4"/>
-      <c r="AOD1" s="4"/>
-      <c r="AOE1" s="4"/>
-      <c r="AOF1" s="4"/>
-      <c r="AOG1" s="4"/>
-      <c r="AOH1" s="4"/>
-      <c r="AOI1" s="4"/>
-      <c r="AOJ1" s="4"/>
-      <c r="AOK1" s="4"/>
-      <c r="AOL1" s="4"/>
-      <c r="AOM1" s="4"/>
-      <c r="AON1" s="4"/>
-      <c r="AOO1" s="4"/>
-      <c r="AOP1" s="4"/>
-      <c r="AOQ1" s="4"/>
-      <c r="AOR1" s="4"/>
-      <c r="AOS1" s="4"/>
-      <c r="AOT1" s="4"/>
-      <c r="AOU1" s="4"/>
-      <c r="AOV1" s="4"/>
-      <c r="AOW1" s="4"/>
-      <c r="AOX1" s="4"/>
-      <c r="AOY1" s="4"/>
-      <c r="AOZ1" s="4"/>
-      <c r="APA1" s="4"/>
-      <c r="APB1" s="4"/>
-      <c r="APC1" s="4"/>
-      <c r="APD1" s="4"/>
-      <c r="APE1" s="4"/>
-      <c r="APF1" s="4"/>
-      <c r="APG1" s="4"/>
-      <c r="APH1" s="4"/>
-      <c r="API1" s="4"/>
-      <c r="APJ1" s="4"/>
-      <c r="APK1" s="4"/>
-      <c r="APL1" s="4"/>
-      <c r="APM1" s="4"/>
-      <c r="APN1" s="4"/>
-      <c r="APO1" s="4"/>
-      <c r="APP1" s="4"/>
-      <c r="APQ1" s="4"/>
-      <c r="APR1" s="4"/>
-      <c r="APS1" s="4"/>
-      <c r="APT1" s="4"/>
-      <c r="APU1" s="4"/>
-      <c r="APV1" s="4"/>
-      <c r="APW1" s="4"/>
-      <c r="APX1" s="4"/>
-      <c r="APY1" s="4"/>
-      <c r="APZ1" s="4"/>
-      <c r="AQA1" s="4"/>
-      <c r="AQB1" s="4"/>
-      <c r="AQC1" s="4"/>
-      <c r="AQD1" s="4"/>
-      <c r="AQE1" s="4"/>
-      <c r="AQF1" s="4"/>
-      <c r="AQG1" s="4"/>
-      <c r="AQH1" s="4"/>
-      <c r="AQI1" s="4"/>
-      <c r="AQJ1" s="4"/>
-      <c r="AQK1" s="4"/>
-      <c r="AQL1" s="4"/>
-      <c r="AQM1" s="4"/>
-      <c r="AQN1" s="4"/>
-      <c r="AQO1" s="4"/>
-      <c r="AQP1" s="4"/>
-      <c r="AQQ1" s="4"/>
-      <c r="AQR1" s="4"/>
-      <c r="AQS1" s="4"/>
-      <c r="AQT1" s="4"/>
-      <c r="AQU1" s="4"/>
-      <c r="AQV1" s="4"/>
-      <c r="AQW1" s="4"/>
-      <c r="AQX1" s="4"/>
-      <c r="AQY1" s="4"/>
-      <c r="AQZ1" s="4"/>
-      <c r="ARA1" s="4"/>
-      <c r="ARB1" s="4"/>
-      <c r="ARC1" s="4"/>
-      <c r="ARD1" s="4"/>
-      <c r="ARE1" s="4"/>
-      <c r="ARF1" s="4"/>
-      <c r="ARG1" s="4"/>
-      <c r="ARH1" s="4"/>
-      <c r="ARI1" s="4"/>
-      <c r="ARJ1" s="4"/>
-      <c r="ARK1" s="4"/>
-      <c r="ARL1" s="4"/>
-      <c r="ARM1" s="4"/>
-      <c r="ARN1" s="4"/>
-      <c r="ARO1" s="4"/>
-      <c r="ARP1" s="4"/>
-      <c r="ARQ1" s="4"/>
-      <c r="ARR1" s="4"/>
-      <c r="ARS1" s="4"/>
-      <c r="ART1" s="4"/>
-      <c r="ARU1" s="4"/>
-      <c r="ARV1" s="4"/>
-      <c r="ARW1" s="4"/>
-      <c r="ARX1" s="4"/>
-      <c r="ARY1" s="4"/>
-      <c r="ARZ1" s="4"/>
-      <c r="ASA1" s="4"/>
-      <c r="ASB1" s="4"/>
-      <c r="ASC1" s="4"/>
-      <c r="ASD1" s="4"/>
-      <c r="ASE1" s="4"/>
-      <c r="ASF1" s="4"/>
-      <c r="ASG1" s="4"/>
-      <c r="ASH1" s="4"/>
-      <c r="ASI1" s="4"/>
-      <c r="ASJ1" s="4"/>
-      <c r="ASK1" s="4"/>
-      <c r="ASL1" s="4"/>
-      <c r="ASM1" s="4"/>
-      <c r="ASN1" s="4"/>
-      <c r="ASO1" s="4"/>
-      <c r="ASP1" s="4"/>
-      <c r="ASQ1" s="4"/>
-      <c r="ASR1" s="4"/>
-      <c r="ASS1" s="4"/>
-      <c r="AST1" s="4"/>
-      <c r="ASU1" s="4"/>
-      <c r="ASV1" s="4"/>
-      <c r="ASW1" s="4"/>
-      <c r="ASX1" s="4"/>
-      <c r="ASY1" s="4"/>
-      <c r="ASZ1" s="4"/>
-      <c r="ATA1" s="4"/>
-      <c r="ATB1" s="4"/>
-      <c r="ATC1" s="4"/>
-      <c r="ATD1" s="4"/>
-      <c r="ATE1" s="4"/>
-      <c r="ATF1" s="4"/>
-      <c r="ATG1" s="4"/>
-      <c r="ATH1" s="4"/>
-      <c r="ATI1" s="4"/>
-      <c r="ATJ1" s="4"/>
-      <c r="ATK1" s="4"/>
-      <c r="ATL1" s="4"/>
-      <c r="ATM1" s="4"/>
-      <c r="ATN1" s="4"/>
-      <c r="ATO1" s="4"/>
-      <c r="ATP1" s="4"/>
-      <c r="ATQ1" s="4"/>
-      <c r="ATR1" s="4"/>
-      <c r="ATS1" s="4"/>
-      <c r="ATT1" s="4"/>
-      <c r="ATU1" s="4"/>
-      <c r="ATV1" s="4"/>
-      <c r="ATW1" s="4"/>
-      <c r="ATX1" s="4"/>
-      <c r="ATY1" s="4"/>
-      <c r="ATZ1" s="4"/>
-      <c r="AUA1" s="4"/>
-      <c r="AUB1" s="4"/>
-      <c r="AUC1" s="4"/>
-      <c r="AUD1" s="4"/>
-      <c r="AUE1" s="4"/>
-      <c r="AUF1" s="4"/>
-      <c r="AUG1" s="4"/>
-      <c r="AUH1" s="4"/>
-      <c r="AUI1" s="4"/>
-      <c r="AUJ1" s="4"/>
-      <c r="AUK1" s="4"/>
-      <c r="AUL1" s="4"/>
-      <c r="AUM1" s="4"/>
-      <c r="AUN1" s="4"/>
-      <c r="AUO1" s="4"/>
-      <c r="AUP1" s="4"/>
-      <c r="AUQ1" s="4"/>
-      <c r="AUR1" s="4"/>
-      <c r="AUS1" s="4"/>
-      <c r="AUT1" s="4"/>
-      <c r="AUU1" s="4"/>
-      <c r="AUV1" s="4"/>
-      <c r="AUW1" s="4"/>
-      <c r="AUX1" s="4"/>
-      <c r="AUY1" s="4"/>
-      <c r="AUZ1" s="4"/>
-      <c r="AVA1" s="4"/>
-      <c r="AVB1" s="4"/>
-      <c r="AVC1" s="4"/>
-      <c r="AVD1" s="4"/>
-      <c r="AVE1" s="4"/>
-      <c r="AVF1" s="4"/>
-      <c r="AVG1" s="4"/>
-      <c r="AVH1" s="4"/>
-      <c r="AVI1" s="4"/>
-      <c r="AVJ1" s="4"/>
-      <c r="AVK1" s="4"/>
-      <c r="AVL1" s="4"/>
-      <c r="AVM1" s="4"/>
-      <c r="AVN1" s="4"/>
-      <c r="AVO1" s="4"/>
-      <c r="AVP1" s="4"/>
-      <c r="AVQ1" s="4"/>
-      <c r="AVR1" s="4"/>
-      <c r="AVS1" s="4"/>
-      <c r="AVT1" s="4"/>
-      <c r="AVU1" s="4"/>
-      <c r="AVV1" s="4"/>
-      <c r="AVW1" s="4"/>
-      <c r="AVX1" s="4"/>
-      <c r="AVY1" s="4"/>
-      <c r="AVZ1" s="4"/>
-      <c r="AWA1" s="4"/>
-      <c r="AWB1" s="4"/>
-      <c r="AWC1" s="4"/>
-      <c r="AWD1" s="4"/>
-      <c r="AWE1" s="4"/>
-      <c r="AWF1" s="4"/>
-      <c r="AWG1" s="4"/>
-      <c r="AWH1" s="4"/>
-      <c r="AWI1" s="4"/>
-      <c r="AWJ1" s="4"/>
-      <c r="AWK1" s="4"/>
-      <c r="AWL1" s="4"/>
-      <c r="AWM1" s="4"/>
-      <c r="AWN1" s="4"/>
-      <c r="AWO1" s="4"/>
-      <c r="AWP1" s="4"/>
-      <c r="AWQ1" s="4"/>
-      <c r="AWR1" s="4"/>
-      <c r="AWS1" s="4"/>
-      <c r="AWT1" s="4"/>
-      <c r="AWU1" s="4"/>
-      <c r="AWV1" s="4"/>
-      <c r="AWW1" s="4"/>
-      <c r="AWX1" s="4"/>
-      <c r="AWY1" s="4"/>
-      <c r="AWZ1" s="4"/>
-      <c r="AXA1" s="4"/>
-      <c r="AXB1" s="4"/>
-      <c r="AXC1" s="4"/>
-      <c r="AXD1" s="4"/>
-      <c r="AXE1" s="4"/>
-      <c r="AXF1" s="4"/>
-      <c r="AXG1" s="4"/>
-      <c r="AXH1" s="4"/>
-      <c r="AXI1" s="4"/>
-      <c r="AXJ1" s="4"/>
-      <c r="AXK1" s="4"/>
-      <c r="AXL1" s="4"/>
-      <c r="AXM1" s="4"/>
-      <c r="AXN1" s="4"/>
-      <c r="AXO1" s="4"/>
-      <c r="AXP1" s="4"/>
-      <c r="AXQ1" s="4"/>
-      <c r="AXR1" s="4"/>
-      <c r="AXS1" s="4"/>
-      <c r="AXT1" s="4"/>
-      <c r="AXU1" s="4"/>
-      <c r="AXV1" s="4"/>
-      <c r="AXW1" s="4"/>
-      <c r="AXX1" s="4"/>
-      <c r="AXY1" s="4"/>
-      <c r="AXZ1" s="4"/>
-      <c r="AYA1" s="4"/>
-      <c r="AYB1" s="4"/>
-      <c r="AYC1" s="4"/>
-      <c r="AYD1" s="4"/>
-      <c r="AYE1" s="4"/>
-      <c r="AYF1" s="4"/>
-      <c r="AYG1" s="4"/>
-      <c r="AYH1" s="4"/>
-      <c r="AYI1" s="4"/>
-      <c r="AYJ1" s="4"/>
-      <c r="AYK1" s="4"/>
-      <c r="AYL1" s="4"/>
-      <c r="AYM1" s="4"/>
-      <c r="AYN1" s="4"/>
-      <c r="AYO1" s="4"/>
-      <c r="AYP1" s="4"/>
-      <c r="AYQ1" s="4"/>
-      <c r="AYR1" s="4"/>
-      <c r="AYS1" s="4"/>
-      <c r="AYT1" s="4"/>
-      <c r="AYU1" s="4"/>
-      <c r="AYV1" s="4"/>
-      <c r="AYW1" s="4"/>
-      <c r="AYX1" s="4"/>
-      <c r="AYY1" s="4"/>
-      <c r="AYZ1" s="4"/>
-      <c r="AZA1" s="4"/>
-      <c r="AZB1" s="4"/>
-      <c r="AZC1" s="4"/>
-      <c r="AZD1" s="4"/>
-      <c r="AZE1" s="4"/>
-      <c r="AZF1" s="4"/>
-      <c r="AZG1" s="4"/>
-      <c r="AZH1" s="4"/>
-      <c r="AZI1" s="4"/>
-      <c r="AZJ1" s="4"/>
-      <c r="AZK1" s="4"/>
-      <c r="AZL1" s="4"/>
-      <c r="AZM1" s="4"/>
-      <c r="AZN1" s="4"/>
-      <c r="AZO1" s="4"/>
-      <c r="AZP1" s="4"/>
-      <c r="AZQ1" s="4"/>
-      <c r="AZR1" s="4"/>
-      <c r="AZS1" s="4"/>
-      <c r="AZT1" s="4"/>
-      <c r="AZU1" s="4"/>
-      <c r="AZV1" s="4"/>
-      <c r="AZW1" s="4"/>
-      <c r="AZX1" s="4"/>
-      <c r="AZY1" s="4"/>
-      <c r="AZZ1" s="4"/>
-      <c r="BAA1" s="4"/>
-      <c r="BAB1" s="4"/>
-      <c r="BAC1" s="4"/>
-      <c r="BAD1" s="4"/>
-      <c r="BAE1" s="4"/>
-      <c r="BAF1" s="4"/>
-      <c r="BAG1" s="4"/>
-      <c r="BAH1" s="4"/>
-      <c r="BAI1" s="4"/>
-      <c r="BAJ1" s="4"/>
-      <c r="BAK1" s="4"/>
-      <c r="BAL1" s="4"/>
-      <c r="BAM1" s="4"/>
-      <c r="BAN1" s="4"/>
-      <c r="BAO1" s="4"/>
-      <c r="BAP1" s="4"/>
-      <c r="BAQ1" s="4"/>
-      <c r="BAR1" s="4"/>
-      <c r="BAS1" s="4"/>
-      <c r="BAT1" s="4"/>
-      <c r="BAU1" s="4"/>
-      <c r="BAV1" s="4"/>
-      <c r="BAW1" s="4"/>
-      <c r="BAX1" s="4"/>
-      <c r="BAY1" s="4"/>
-      <c r="BAZ1" s="4"/>
-      <c r="BBA1" s="4"/>
-      <c r="BBB1" s="4"/>
-      <c r="BBC1" s="4"/>
-      <c r="BBD1" s="4"/>
-      <c r="BBE1" s="4"/>
-      <c r="BBF1" s="4"/>
-      <c r="BBG1" s="4"/>
-      <c r="BBH1" s="4"/>
-      <c r="BBI1" s="4"/>
-      <c r="BBJ1" s="4"/>
-      <c r="BBK1" s="4"/>
-      <c r="BBL1" s="4"/>
-      <c r="BBM1" s="4"/>
-      <c r="BBN1" s="4"/>
-      <c r="BBO1" s="4"/>
-      <c r="BBP1" s="4"/>
-      <c r="BBQ1" s="4"/>
-      <c r="BBR1" s="4"/>
-      <c r="BBS1" s="4"/>
-      <c r="BBT1" s="4"/>
-      <c r="BBU1" s="4"/>
-      <c r="BBV1" s="4"/>
-      <c r="BBW1" s="4"/>
-      <c r="BBX1" s="4"/>
-      <c r="BBY1" s="4"/>
-      <c r="BBZ1" s="4"/>
-      <c r="BCA1" s="4"/>
-      <c r="BCB1" s="4"/>
-      <c r="BCC1" s="4"/>
-      <c r="BCD1" s="4"/>
-      <c r="BCE1" s="4"/>
-      <c r="BCF1" s="4"/>
-      <c r="BCG1" s="4"/>
-      <c r="BCH1" s="4"/>
-      <c r="BCI1" s="4"/>
-      <c r="BCJ1" s="4"/>
-      <c r="BCK1" s="4"/>
-      <c r="BCL1" s="4"/>
-      <c r="BCM1" s="4"/>
-      <c r="BCN1" s="4"/>
-      <c r="BCO1" s="4"/>
-      <c r="BCP1" s="4"/>
-      <c r="BCQ1" s="4"/>
-      <c r="BCR1" s="4"/>
-      <c r="BCS1" s="4"/>
-      <c r="BCT1" s="4"/>
-      <c r="BCU1" s="4"/>
-      <c r="BCV1" s="4"/>
-      <c r="BCW1" s="4"/>
-      <c r="BCX1" s="4"/>
-      <c r="BCY1" s="4"/>
-      <c r="BCZ1" s="4"/>
-      <c r="BDA1" s="4"/>
-      <c r="BDB1" s="4"/>
-      <c r="BDC1" s="4"/>
-      <c r="BDD1" s="4"/>
-      <c r="BDE1" s="4"/>
-      <c r="BDF1" s="4"/>
-      <c r="BDG1" s="4"/>
-      <c r="BDH1" s="4"/>
-      <c r="BDI1" s="4"/>
-      <c r="BDJ1" s="4"/>
-      <c r="BDK1" s="4"/>
-      <c r="BDL1" s="4"/>
-      <c r="BDM1" s="4"/>
-      <c r="BDN1" s="4"/>
-      <c r="BDO1" s="4"/>
-      <c r="BDP1" s="4"/>
-      <c r="BDQ1" s="4"/>
-      <c r="BDR1" s="4"/>
-      <c r="BDS1" s="4"/>
-      <c r="BDT1" s="4"/>
-      <c r="BDU1" s="4"/>
-      <c r="BDV1" s="4"/>
-      <c r="BDW1" s="4"/>
-      <c r="BDX1" s="4"/>
-      <c r="BDY1" s="4"/>
-      <c r="BDZ1" s="4"/>
-      <c r="BEA1" s="4"/>
-      <c r="BEB1" s="4"/>
-      <c r="BEC1" s="4"/>
-      <c r="BED1" s="4"/>
-      <c r="BEE1" s="4"/>
-      <c r="BEF1" s="4"/>
-      <c r="BEG1" s="4"/>
-      <c r="BEH1" s="4"/>
-      <c r="BEI1" s="4"/>
-      <c r="BEJ1" s="4"/>
-      <c r="BEK1" s="4"/>
-      <c r="BEL1" s="4"/>
-      <c r="BEM1" s="4"/>
-      <c r="BEN1" s="4"/>
-      <c r="BEO1" s="4"/>
-      <c r="BEP1" s="4"/>
-      <c r="BEQ1" s="4"/>
-      <c r="BER1" s="4"/>
-      <c r="BES1" s="4"/>
-      <c r="BET1" s="4"/>
-      <c r="BEU1" s="4"/>
-      <c r="BEV1" s="4"/>
-      <c r="BEW1" s="4"/>
-      <c r="BEX1" s="4"/>
-      <c r="BEY1" s="4"/>
-      <c r="BEZ1" s="4"/>
-      <c r="BFA1" s="4"/>
-      <c r="BFB1" s="4"/>
-      <c r="BFC1" s="4"/>
-      <c r="BFD1" s="4"/>
-      <c r="BFE1" s="4"/>
-      <c r="BFF1" s="4"/>
-      <c r="BFG1" s="4"/>
-      <c r="BFH1" s="4"/>
-      <c r="BFI1" s="4"/>
-      <c r="BFJ1" s="4"/>
-      <c r="BFK1" s="4"/>
-      <c r="BFL1" s="4"/>
-      <c r="BFM1" s="4"/>
-      <c r="BFN1" s="4"/>
-      <c r="BFO1" s="4"/>
-      <c r="BFP1" s="4"/>
-      <c r="BFQ1" s="4"/>
-      <c r="BFR1" s="4"/>
-      <c r="BFS1" s="4"/>
-      <c r="BFT1" s="4"/>
-      <c r="BFU1" s="4"/>
-      <c r="BFV1" s="4"/>
-      <c r="BFW1" s="4"/>
-      <c r="BFX1" s="4"/>
-      <c r="BFY1" s="4"/>
-      <c r="BFZ1" s="4"/>
-      <c r="BGA1" s="4"/>
-      <c r="BGB1" s="4"/>
-      <c r="BGC1" s="4"/>
-      <c r="BGD1" s="4"/>
-      <c r="BGE1" s="4"/>
-      <c r="BGF1" s="4"/>
-      <c r="BGG1" s="4"/>
-      <c r="BGH1" s="4"/>
-      <c r="BGI1" s="4"/>
-      <c r="BGJ1" s="4"/>
-      <c r="BGK1" s="4"/>
-      <c r="BGL1" s="4"/>
-      <c r="BGM1" s="4"/>
-      <c r="BGN1" s="4"/>
-      <c r="BGO1" s="4"/>
-      <c r="BGP1" s="4"/>
-      <c r="BGQ1" s="4"/>
-      <c r="BGR1" s="4"/>
-      <c r="BGS1" s="4"/>
-      <c r="BGT1" s="4"/>
-      <c r="BGU1" s="4"/>
-      <c r="BGV1" s="4"/>
-      <c r="BGW1" s="4"/>
-      <c r="BGX1" s="4"/>
-      <c r="BGY1" s="4"/>
-      <c r="BGZ1" s="4"/>
-      <c r="BHA1" s="4"/>
-      <c r="BHB1" s="4"/>
-      <c r="BHC1" s="4"/>
-      <c r="BHD1" s="4"/>
-      <c r="BHE1" s="4"/>
-      <c r="BHF1" s="4"/>
-      <c r="BHG1" s="4"/>
-      <c r="BHH1" s="4"/>
-      <c r="BHI1" s="4"/>
-      <c r="BHJ1" s="4"/>
-      <c r="BHK1" s="4"/>
-      <c r="BHL1" s="4"/>
-      <c r="BHM1" s="4"/>
-      <c r="BHN1" s="4"/>
-      <c r="BHO1" s="4"/>
-      <c r="BHP1" s="4"/>
-      <c r="BHQ1" s="4"/>
-      <c r="BHR1" s="4"/>
-      <c r="BHS1" s="4"/>
-      <c r="BHT1" s="4"/>
-      <c r="BHU1" s="4"/>
-      <c r="BHV1" s="4"/>
-      <c r="BHW1" s="4"/>
-      <c r="BHX1" s="4"/>
-      <c r="BHY1" s="4"/>
-      <c r="BHZ1" s="4"/>
-      <c r="BIA1" s="4"/>
-      <c r="BIB1" s="4"/>
-      <c r="BIC1" s="4"/>
-      <c r="BID1" s="4"/>
-      <c r="BIE1" s="4"/>
-      <c r="BIF1" s="4"/>
-      <c r="BIG1" s="4"/>
-      <c r="BIH1" s="4"/>
-      <c r="BII1" s="4"/>
-      <c r="BIJ1" s="4"/>
-      <c r="BIK1" s="4"/>
-      <c r="BIL1" s="4"/>
-      <c r="BIM1" s="4"/>
-      <c r="BIN1" s="4"/>
-      <c r="BIO1" s="4"/>
-      <c r="BIP1" s="4"/>
-      <c r="BIQ1" s="4"/>
-      <c r="BIR1" s="4"/>
-      <c r="BIS1" s="4"/>
-      <c r="BIT1" s="4"/>
-      <c r="BIU1" s="4"/>
-      <c r="BIV1" s="4"/>
-      <c r="BIW1" s="4"/>
-      <c r="BIX1" s="4"/>
-      <c r="BIY1" s="4"/>
-      <c r="BIZ1" s="4"/>
-      <c r="BJA1" s="4"/>
-      <c r="BJB1" s="4"/>
-      <c r="BJC1" s="4"/>
-      <c r="BJD1" s="4"/>
-      <c r="BJE1" s="4"/>
-      <c r="BJF1" s="4"/>
-      <c r="BJG1" s="4"/>
-      <c r="BJH1" s="4"/>
-      <c r="BJI1" s="4"/>
-      <c r="BJJ1" s="4"/>
-      <c r="BJK1" s="4"/>
-      <c r="BJL1" s="4"/>
-      <c r="BJM1" s="4"/>
-      <c r="BJN1" s="4"/>
-      <c r="BJO1" s="4"/>
-      <c r="BJP1" s="4"/>
-      <c r="BJQ1" s="4"/>
-      <c r="BJR1" s="4"/>
-      <c r="BJS1" s="4"/>
-      <c r="BJT1" s="4"/>
-      <c r="BJU1" s="4"/>
-      <c r="BJV1" s="4"/>
-      <c r="BJW1" s="4"/>
-      <c r="BJX1" s="4"/>
-      <c r="BJY1" s="4"/>
-      <c r="BJZ1" s="4"/>
-      <c r="BKA1" s="4"/>
-      <c r="BKB1" s="4"/>
-      <c r="BKC1" s="4"/>
-      <c r="BKD1" s="4"/>
-      <c r="BKE1" s="4"/>
-      <c r="BKF1" s="4"/>
-      <c r="BKG1" s="4"/>
-      <c r="BKH1" s="4"/>
-      <c r="BKI1" s="4"/>
-      <c r="BKJ1" s="4"/>
-      <c r="BKK1" s="4"/>
-      <c r="BKL1" s="4"/>
-      <c r="BKM1" s="4"/>
-      <c r="BKN1" s="4"/>
-      <c r="BKO1" s="4"/>
-      <c r="BKP1" s="4"/>
-      <c r="BKQ1" s="4"/>
-      <c r="BKR1" s="4"/>
-      <c r="BKS1" s="4"/>
-      <c r="BKT1" s="4"/>
-      <c r="BKU1" s="4"/>
-      <c r="BKV1" s="4"/>
-      <c r="BKW1" s="4"/>
-      <c r="BKX1" s="4"/>
-      <c r="BKY1" s="4"/>
-      <c r="BKZ1" s="4"/>
-      <c r="BLA1" s="4"/>
-      <c r="BLB1" s="4"/>
-      <c r="BLC1" s="4"/>
-      <c r="BLD1" s="4"/>
-      <c r="BLE1" s="4"/>
-      <c r="BLF1" s="4"/>
-      <c r="BLG1" s="4"/>
-      <c r="BLH1" s="4"/>
-      <c r="BLI1" s="4"/>
-      <c r="BLJ1" s="4"/>
-      <c r="BLK1" s="4"/>
-      <c r="BLL1" s="4"/>
-      <c r="BLM1" s="4"/>
-      <c r="BLN1" s="4"/>
-      <c r="BLO1" s="4"/>
-      <c r="BLP1" s="4"/>
-      <c r="BLQ1" s="4"/>
-      <c r="BLR1" s="4"/>
-      <c r="BLS1" s="4"/>
-      <c r="BLT1" s="4"/>
-      <c r="BLU1" s="4"/>
-      <c r="BLV1" s="4"/>
-      <c r="BLW1" s="4"/>
-      <c r="BLX1" s="4"/>
-      <c r="BLY1" s="4"/>
-      <c r="BLZ1" s="4"/>
-      <c r="BMA1" s="4"/>
-      <c r="BMB1" s="4"/>
-      <c r="BMC1" s="4"/>
-      <c r="BMD1" s="4"/>
-      <c r="BME1" s="4"/>
-      <c r="BMF1" s="4"/>
-      <c r="BMG1" s="4"/>
-      <c r="BMH1" s="4"/>
-      <c r="BMI1" s="4"/>
-      <c r="BMJ1" s="4"/>
-      <c r="BMK1" s="4"/>
-      <c r="BML1" s="4"/>
-      <c r="BMM1" s="4"/>
-      <c r="BMN1" s="4"/>
-      <c r="BMO1" s="4"/>
-      <c r="BMP1" s="4"/>
-      <c r="BMQ1" s="4"/>
-      <c r="BMR1" s="4"/>
-      <c r="BMS1" s="4"/>
-      <c r="BMT1" s="4"/>
-      <c r="BMU1" s="4"/>
-      <c r="BMV1" s="4"/>
-      <c r="BMW1" s="4"/>
-      <c r="BMX1" s="4"/>
-      <c r="BMY1" s="4"/>
-      <c r="BMZ1" s="4"/>
-      <c r="BNA1" s="4"/>
-      <c r="BNB1" s="4"/>
-      <c r="BNC1" s="4"/>
-      <c r="BND1" s="4"/>
-      <c r="BNE1" s="4"/>
-      <c r="BNF1" s="4"/>
-      <c r="BNG1" s="4"/>
-      <c r="BNH1" s="4"/>
-      <c r="BNI1" s="4"/>
-      <c r="BNJ1" s="4"/>
-      <c r="BNK1" s="4"/>
-      <c r="BNL1" s="4"/>
-      <c r="BNM1" s="4"/>
-      <c r="BNN1" s="4"/>
-      <c r="BNO1" s="4"/>
-      <c r="BNP1" s="4"/>
-      <c r="BNQ1" s="4"/>
-      <c r="BNR1" s="4"/>
-      <c r="BNS1" s="4"/>
-      <c r="BNT1" s="4"/>
-      <c r="BNU1" s="4"/>
-      <c r="BNV1" s="4"/>
-      <c r="BNW1" s="4"/>
-      <c r="BNX1" s="4"/>
-      <c r="BNY1" s="4"/>
-      <c r="BNZ1" s="4"/>
-      <c r="BOA1" s="4"/>
-      <c r="BOB1" s="4"/>
-      <c r="BOC1" s="4"/>
-      <c r="BOD1" s="4"/>
-      <c r="BOE1" s="4"/>
-      <c r="BOF1" s="4"/>
-      <c r="BOG1" s="4"/>
-      <c r="BOH1" s="4"/>
-      <c r="BOI1" s="4"/>
-      <c r="BOJ1" s="4"/>
-      <c r="BOK1" s="4"/>
-      <c r="BOL1" s="4"/>
-      <c r="BOM1" s="4"/>
-      <c r="BON1" s="4"/>
-      <c r="BOO1" s="4"/>
-      <c r="BOP1" s="4"/>
-      <c r="BOQ1" s="4"/>
-      <c r="BOR1" s="4"/>
-      <c r="BOS1" s="4"/>
-      <c r="BOT1" s="4"/>
-      <c r="BOU1" s="4"/>
-      <c r="BOV1" s="4"/>
-      <c r="BOW1" s="4"/>
-      <c r="BOX1" s="4"/>
-      <c r="BOY1" s="4"/>
-      <c r="BOZ1" s="4"/>
-      <c r="BPA1" s="4"/>
-      <c r="BPB1" s="4"/>
-      <c r="BPC1" s="4"/>
-      <c r="BPD1" s="4"/>
-      <c r="BPE1" s="4"/>
-      <c r="BPF1" s="4"/>
-      <c r="BPG1" s="4"/>
-      <c r="BPH1" s="4"/>
-      <c r="BPI1" s="4"/>
-      <c r="BPJ1" s="4"/>
-      <c r="BPK1" s="4"/>
-      <c r="BPL1" s="4"/>
-      <c r="BPM1" s="4"/>
-      <c r="BPN1" s="4"/>
-      <c r="BPO1" s="4"/>
-      <c r="BPP1" s="4"/>
-      <c r="BPQ1" s="4"/>
-      <c r="BPR1" s="4"/>
-      <c r="BPS1" s="4"/>
-      <c r="BPT1" s="4"/>
-      <c r="BPU1" s="4"/>
-      <c r="BPV1" s="4"/>
-      <c r="BPW1" s="4"/>
-      <c r="BPX1" s="4"/>
-      <c r="BPY1" s="4"/>
-      <c r="BPZ1" s="4"/>
-      <c r="BQA1" s="4"/>
-      <c r="BQB1" s="4"/>
-      <c r="BQC1" s="4"/>
-      <c r="BQD1" s="4"/>
-      <c r="BQE1" s="4"/>
-      <c r="BQF1" s="4"/>
-      <c r="BQG1" s="4"/>
-      <c r="BQH1" s="4"/>
-      <c r="BQI1" s="4"/>
-      <c r="BQJ1" s="4"/>
-      <c r="BQK1" s="4"/>
-      <c r="BQL1" s="4"/>
-      <c r="BQM1" s="4"/>
-      <c r="BQN1" s="4"/>
-      <c r="BQO1" s="4"/>
-      <c r="BQP1" s="4"/>
-      <c r="BQQ1" s="4"/>
-      <c r="BQR1" s="4"/>
-      <c r="BQS1" s="4"/>
-      <c r="BQT1" s="4"/>
-      <c r="BQU1" s="4"/>
-      <c r="BQV1" s="4"/>
-      <c r="BQW1" s="4"/>
-      <c r="BQX1" s="4"/>
-      <c r="BQY1" s="4"/>
-      <c r="BQZ1" s="4"/>
-      <c r="BRA1" s="4"/>
-      <c r="BRB1" s="4"/>
-      <c r="BRC1" s="4"/>
-      <c r="BRD1" s="4"/>
-      <c r="BRE1" s="4"/>
-      <c r="BRF1" s="4"/>
-      <c r="BRG1" s="4"/>
-      <c r="BRH1" s="4"/>
-      <c r="BRI1" s="4"/>
-      <c r="BRJ1" s="4"/>
-      <c r="BRK1" s="4"/>
-      <c r="BRL1" s="4"/>
-      <c r="BRM1" s="4"/>
-      <c r="BRN1" s="4"/>
-      <c r="BRO1" s="4"/>
-      <c r="BRP1" s="4"/>
-      <c r="BRQ1" s="4"/>
-      <c r="BRR1" s="4"/>
-      <c r="BRS1" s="4"/>
-      <c r="BRT1" s="4"/>
-      <c r="BRU1" s="4"/>
-      <c r="BRV1" s="4"/>
-      <c r="BRW1" s="4"/>
-      <c r="BRX1" s="4"/>
-      <c r="BRY1" s="4"/>
-      <c r="BRZ1" s="4"/>
-      <c r="BSA1" s="4"/>
-      <c r="BSB1" s="4"/>
-      <c r="BSC1" s="4"/>
-      <c r="BSD1" s="4"/>
-      <c r="BSE1" s="4"/>
-      <c r="BSF1" s="4"/>
-      <c r="BSG1" s="4"/>
-      <c r="BSH1" s="4"/>
-      <c r="BSI1" s="4"/>
-      <c r="BSJ1" s="4"/>
-      <c r="BSK1" s="4"/>
-      <c r="BSL1" s="4"/>
-      <c r="BSM1" s="4"/>
-      <c r="BSN1" s="4"/>
-      <c r="BSO1" s="4"/>
-      <c r="BSP1" s="4"/>
-      <c r="BSQ1" s="4"/>
-      <c r="BSR1" s="4"/>
-      <c r="BSS1" s="4"/>
-      <c r="BST1" s="4"/>
-      <c r="BSU1" s="4"/>
-      <c r="BSV1" s="4"/>
-      <c r="BSW1" s="4"/>
-      <c r="BSX1" s="4"/>
-      <c r="BSY1" s="4"/>
-      <c r="BSZ1" s="4"/>
-      <c r="BTA1" s="4"/>
-      <c r="BTB1" s="4"/>
-      <c r="BTC1" s="4"/>
-      <c r="BTD1" s="4"/>
-      <c r="BTE1" s="4"/>
-      <c r="BTF1" s="4"/>
-      <c r="BTG1" s="4"/>
-      <c r="BTH1" s="4"/>
-      <c r="BTI1" s="4"/>
-      <c r="BTJ1" s="4"/>
-      <c r="BTK1" s="4"/>
-      <c r="BTL1" s="4"/>
-      <c r="BTM1" s="4"/>
-      <c r="BTN1" s="4"/>
-      <c r="BTO1" s="4"/>
-      <c r="BTP1" s="4"/>
-      <c r="BTQ1" s="4"/>
-      <c r="BTR1" s="4"/>
-      <c r="BTS1" s="4"/>
-      <c r="BTT1" s="4"/>
-      <c r="BTU1" s="4"/>
-      <c r="BTV1" s="4"/>
-      <c r="BTW1" s="4"/>
-      <c r="BTX1" s="4"/>
-      <c r="BTY1" s="4"/>
-      <c r="BTZ1" s="4"/>
-      <c r="BUA1" s="4"/>
-      <c r="BUB1" s="4"/>
-      <c r="BUC1" s="4"/>
-      <c r="BUD1" s="4"/>
-      <c r="BUE1" s="4"/>
-      <c r="BUF1" s="4"/>
-      <c r="BUG1" s="4"/>
-      <c r="BUH1" s="4"/>
-      <c r="BUI1" s="4"/>
-      <c r="BUJ1" s="4"/>
-      <c r="BUK1" s="4"/>
-      <c r="BUL1" s="4"/>
-      <c r="BUM1" s="4"/>
-      <c r="BUN1" s="4"/>
-      <c r="BUO1" s="4"/>
-      <c r="BUP1" s="4"/>
-      <c r="BUQ1" s="4"/>
-      <c r="BUR1" s="4"/>
-      <c r="BUS1" s="4"/>
-      <c r="BUT1" s="4"/>
-      <c r="BUU1" s="4"/>
-      <c r="BUV1" s="4"/>
-      <c r="BUW1" s="4"/>
-      <c r="BUX1" s="4"/>
-      <c r="BUY1" s="4"/>
-      <c r="BUZ1" s="4"/>
-      <c r="BVA1" s="4"/>
-      <c r="BVB1" s="4"/>
-      <c r="BVC1" s="4"/>
-      <c r="BVD1" s="4"/>
-      <c r="BVE1" s="4"/>
-      <c r="BVF1" s="4"/>
-      <c r="BVG1" s="4"/>
-      <c r="BVH1" s="4"/>
-      <c r="BVI1" s="4"/>
-      <c r="BVJ1" s="4"/>
-      <c r="BVK1" s="4"/>
-      <c r="BVL1" s="4"/>
-      <c r="BVM1" s="4"/>
-      <c r="BVN1" s="4"/>
-      <c r="BVO1" s="4"/>
-      <c r="BVP1" s="4"/>
-      <c r="BVQ1" s="4"/>
-      <c r="BVR1" s="4"/>
-      <c r="BVS1" s="4"/>
-      <c r="BVT1" s="4"/>
-      <c r="BVU1" s="4"/>
-      <c r="BVV1" s="4"/>
-      <c r="BVW1" s="4"/>
-      <c r="BVX1" s="4"/>
-      <c r="BVY1" s="4"/>
-      <c r="BVZ1" s="4"/>
-      <c r="BWA1" s="4"/>
-      <c r="BWB1" s="4"/>
-      <c r="BWC1" s="4"/>
-      <c r="BWD1" s="4"/>
-      <c r="BWE1" s="4"/>
-      <c r="BWF1" s="4"/>
-      <c r="BWG1" s="4"/>
-      <c r="BWH1" s="4"/>
-      <c r="BWI1" s="4"/>
-      <c r="BWJ1" s="4"/>
-      <c r="BWK1" s="4"/>
-      <c r="BWL1" s="4"/>
-      <c r="BWM1" s="4"/>
-      <c r="BWN1" s="4"/>
-      <c r="BWO1" s="4"/>
-      <c r="BWP1" s="4"/>
-      <c r="BWQ1" s="4"/>
-      <c r="BWR1" s="4"/>
-      <c r="BWS1" s="4"/>
-      <c r="BWT1" s="4"/>
-      <c r="BWU1" s="4"/>
-      <c r="BWV1" s="4"/>
-      <c r="BWW1" s="4"/>
-      <c r="BWX1" s="4"/>
-      <c r="BWY1" s="4"/>
-      <c r="BWZ1" s="4"/>
-      <c r="BXA1" s="4"/>
-      <c r="BXB1" s="4"/>
-      <c r="BXC1" s="4"/>
-      <c r="BXD1" s="4"/>
-      <c r="BXE1" s="4"/>
-      <c r="BXF1" s="4"/>
-      <c r="BXG1" s="4"/>
-      <c r="BXH1" s="4"/>
-      <c r="BXI1" s="4"/>
-      <c r="BXJ1" s="4"/>
-      <c r="BXK1" s="4"/>
-      <c r="BXL1" s="4"/>
-      <c r="BXM1" s="4"/>
-      <c r="BXN1" s="4"/>
-      <c r="BXO1" s="4"/>
-      <c r="BXP1" s="4"/>
-      <c r="BXQ1" s="4"/>
-      <c r="BXR1" s="4"/>
-      <c r="BXS1" s="4"/>
-      <c r="BXT1" s="4"/>
-      <c r="BXU1" s="4"/>
-      <c r="BXV1" s="4"/>
-      <c r="BXW1" s="4"/>
-      <c r="BXX1" s="4"/>
-      <c r="BXY1" s="4"/>
-      <c r="BXZ1" s="4"/>
-      <c r="BYA1" s="4"/>
-      <c r="BYB1" s="4"/>
-      <c r="BYC1" s="4"/>
-      <c r="BYD1" s="4"/>
-      <c r="BYE1" s="4"/>
-      <c r="BYF1" s="4"/>
-      <c r="BYG1" s="4"/>
-      <c r="BYH1" s="4"/>
-      <c r="BYI1" s="4"/>
-      <c r="BYJ1" s="4"/>
-      <c r="BYK1" s="4"/>
-      <c r="BYL1" s="4"/>
-      <c r="BYM1" s="4"/>
-      <c r="BYN1" s="4"/>
-      <c r="BYO1" s="4"/>
-      <c r="BYP1" s="4"/>
-      <c r="BYQ1" s="4"/>
-      <c r="BYR1" s="4"/>
-      <c r="BYS1" s="4"/>
-      <c r="BYT1" s="4"/>
-      <c r="BYU1" s="4"/>
-      <c r="BYV1" s="4"/>
-      <c r="BYW1" s="4"/>
-      <c r="BYX1" s="4"/>
-      <c r="BYY1" s="4"/>
-      <c r="BYZ1" s="4"/>
-      <c r="BZA1" s="4"/>
-      <c r="BZB1" s="4"/>
-      <c r="BZC1" s="4"/>
-      <c r="BZD1" s="4"/>
-      <c r="BZE1" s="4"/>
-      <c r="BZF1" s="4"/>
-      <c r="BZG1" s="4"/>
-      <c r="BZH1" s="4"/>
-      <c r="BZI1" s="4"/>
-      <c r="BZJ1" s="4"/>
-      <c r="BZK1" s="4"/>
-      <c r="BZL1" s="4"/>
-      <c r="BZM1" s="4"/>
-      <c r="BZN1" s="4"/>
-      <c r="BZO1" s="4"/>
-      <c r="BZP1" s="4"/>
-      <c r="BZQ1" s="4"/>
-      <c r="BZR1" s="4"/>
-      <c r="BZS1" s="4"/>
-      <c r="BZT1" s="4"/>
-      <c r="BZU1" s="4"/>
-      <c r="BZV1" s="4"/>
-      <c r="BZW1" s="4"/>
-      <c r="BZX1" s="4"/>
-      <c r="BZY1" s="4"/>
-      <c r="BZZ1" s="4"/>
-      <c r="CAA1" s="4"/>
-      <c r="CAB1" s="4"/>
-      <c r="CAC1" s="4"/>
-      <c r="CAD1" s="4"/>
-      <c r="CAE1" s="4"/>
-      <c r="CAF1" s="4"/>
-      <c r="CAG1" s="4"/>
-      <c r="CAH1" s="4"/>
-      <c r="CAI1" s="4"/>
-      <c r="CAJ1" s="4"/>
-      <c r="CAK1" s="4"/>
-      <c r="CAL1" s="4"/>
-      <c r="CAM1" s="4"/>
-      <c r="CAN1" s="4"/>
-      <c r="CAO1" s="4"/>
-      <c r="CAP1" s="4"/>
-      <c r="CAQ1" s="4"/>
-      <c r="CAR1" s="4"/>
-      <c r="CAS1" s="4"/>
-      <c r="CAT1" s="4"/>
-      <c r="CAU1" s="4"/>
-      <c r="CAV1" s="4"/>
-      <c r="CAW1" s="4"/>
-      <c r="CAX1" s="4"/>
-      <c r="CAY1" s="4"/>
-      <c r="CAZ1" s="4"/>
-      <c r="CBA1" s="4"/>
-      <c r="CBB1" s="4"/>
-      <c r="CBC1" s="4"/>
-      <c r="CBD1" s="4"/>
-      <c r="CBE1" s="4"/>
-      <c r="CBF1" s="4"/>
-      <c r="CBG1" s="4"/>
-      <c r="CBH1" s="4"/>
-      <c r="CBI1" s="4"/>
-      <c r="CBJ1" s="4"/>
-      <c r="CBK1" s="4"/>
-      <c r="CBL1" s="4"/>
-      <c r="CBM1" s="4"/>
-      <c r="CBN1" s="4"/>
-      <c r="CBO1" s="4"/>
-      <c r="CBP1" s="4"/>
-      <c r="CBQ1" s="4"/>
-      <c r="CBR1" s="4"/>
-      <c r="CBS1" s="4"/>
-      <c r="CBT1" s="4"/>
-      <c r="CBU1" s="4"/>
-      <c r="CBV1" s="4"/>
-      <c r="CBW1" s="4"/>
-      <c r="CBX1" s="4"/>
-      <c r="CBY1" s="4"/>
-      <c r="CBZ1" s="4"/>
-      <c r="CCA1" s="4"/>
-      <c r="CCB1" s="4"/>
-      <c r="CCC1" s="4"/>
-      <c r="CCD1" s="4"/>
-      <c r="CCE1" s="4"/>
-      <c r="CCF1" s="4"/>
-      <c r="CCG1" s="4"/>
-      <c r="CCH1" s="4"/>
-      <c r="CCI1" s="4"/>
-      <c r="CCJ1" s="4"/>
-      <c r="CCK1" s="4"/>
-      <c r="CCL1" s="4"/>
-      <c r="CCM1" s="4"/>
-      <c r="CCN1" s="4"/>
-      <c r="CCO1" s="4"/>
-      <c r="CCP1" s="4"/>
-      <c r="CCQ1" s="4"/>
-      <c r="CCR1" s="4"/>
-      <c r="CCS1" s="4"/>
-      <c r="CCT1" s="4"/>
-      <c r="CCU1" s="4"/>
-      <c r="CCV1" s="4"/>
-      <c r="CCW1" s="4"/>
-      <c r="CCX1" s="4"/>
-      <c r="CCY1" s="4"/>
-      <c r="CCZ1" s="4"/>
-      <c r="CDA1" s="4"/>
-      <c r="CDB1" s="4"/>
-      <c r="CDC1" s="4"/>
-      <c r="CDD1" s="4"/>
-      <c r="CDE1" s="4"/>
-      <c r="CDF1" s="4"/>
-      <c r="CDG1" s="4"/>
-      <c r="CDH1" s="4"/>
-      <c r="CDI1" s="4"/>
-      <c r="CDJ1" s="4"/>
-      <c r="CDK1" s="4"/>
-      <c r="CDL1" s="4"/>
-      <c r="CDM1" s="4"/>
-      <c r="CDN1" s="4"/>
-      <c r="CDO1" s="4"/>
-      <c r="CDP1" s="4"/>
-      <c r="CDQ1" s="4"/>
-      <c r="CDR1" s="4"/>
-      <c r="CDS1" s="4"/>
-      <c r="CDT1" s="4"/>
-      <c r="CDU1" s="4"/>
-      <c r="CDV1" s="4"/>
-      <c r="CDW1" s="4"/>
-      <c r="CDX1" s="4"/>
-      <c r="CDY1" s="4"/>
-      <c r="CDZ1" s="4"/>
-      <c r="CEA1" s="4"/>
-      <c r="CEB1" s="4"/>
-      <c r="CEC1" s="4"/>
-      <c r="CED1" s="4"/>
-      <c r="CEE1" s="4"/>
-      <c r="CEF1" s="4"/>
-      <c r="CEG1" s="4"/>
-      <c r="CEH1" s="4"/>
-      <c r="CEI1" s="4"/>
-      <c r="CEJ1" s="4"/>
-      <c r="CEK1" s="4"/>
-      <c r="CEL1" s="4"/>
-      <c r="CEM1" s="4"/>
-      <c r="CEN1" s="4"/>
-      <c r="CEO1" s="4"/>
-      <c r="CEP1" s="4"/>
-      <c r="CEQ1" s="4"/>
-      <c r="CER1" s="4"/>
-      <c r="CES1" s="4"/>
-      <c r="CET1" s="4"/>
-      <c r="CEU1" s="4"/>
-      <c r="CEV1" s="4"/>
-      <c r="CEW1" s="4"/>
-      <c r="CEX1" s="4"/>
-      <c r="CEY1" s="4"/>
-      <c r="CEZ1" s="4"/>
-      <c r="CFA1" s="4"/>
-      <c r="CFB1" s="4"/>
-      <c r="CFC1" s="4"/>
-      <c r="CFD1" s="4"/>
-      <c r="CFE1" s="4"/>
-      <c r="CFF1" s="4"/>
-      <c r="CFG1" s="4"/>
-      <c r="CFH1" s="4"/>
-      <c r="CFI1" s="4"/>
-      <c r="CFJ1" s="4"/>
-      <c r="CFK1" s="4"/>
-      <c r="CFL1" s="4"/>
-      <c r="CFM1" s="4"/>
-      <c r="CFN1" s="4"/>
-      <c r="CFO1" s="4"/>
-      <c r="CFP1" s="4"/>
-      <c r="CFQ1" s="4"/>
-      <c r="CFR1" s="4"/>
-      <c r="CFS1" s="4"/>
-      <c r="CFT1" s="4"/>
-      <c r="CFU1" s="4"/>
-      <c r="CFV1" s="4"/>
-      <c r="CFW1" s="4"/>
-      <c r="CFX1" s="4"/>
-      <c r="CFY1" s="4"/>
-      <c r="CFZ1" s="4"/>
-      <c r="CGA1" s="4"/>
-      <c r="CGB1" s="4"/>
-      <c r="CGC1" s="4"/>
-      <c r="CGD1" s="4"/>
-      <c r="CGE1" s="4"/>
-      <c r="CGF1" s="4"/>
-      <c r="CGG1" s="4"/>
-      <c r="CGH1" s="4"/>
-      <c r="CGI1" s="4"/>
-      <c r="CGJ1" s="4"/>
-      <c r="CGK1" s="4"/>
-      <c r="CGL1" s="4"/>
-      <c r="CGM1" s="4"/>
-      <c r="CGN1" s="4"/>
-      <c r="CGO1" s="4"/>
-      <c r="CGP1" s="4"/>
-      <c r="CGQ1" s="4"/>
-      <c r="CGR1" s="4"/>
-      <c r="CGS1" s="4"/>
-      <c r="CGT1" s="4"/>
-      <c r="CGU1" s="4"/>
-      <c r="CGV1" s="4"/>
-      <c r="CGW1" s="4"/>
-      <c r="CGX1" s="4"/>
-      <c r="CGY1" s="4"/>
-      <c r="CGZ1" s="4"/>
-      <c r="CHA1" s="4"/>
-      <c r="CHB1" s="4"/>
-      <c r="CHC1" s="4"/>
-      <c r="CHD1" s="4"/>
-      <c r="CHE1" s="4"/>
-      <c r="CHF1" s="4"/>
-      <c r="CHG1" s="4"/>
-      <c r="CHH1" s="4"/>
-      <c r="CHI1" s="4"/>
-      <c r="CHJ1" s="4"/>
-      <c r="CHK1" s="4"/>
-      <c r="CHL1" s="4"/>
-      <c r="CHM1" s="4"/>
-      <c r="CHN1" s="4"/>
-      <c r="CHO1" s="4"/>
-      <c r="CHP1" s="4"/>
-      <c r="CHQ1" s="4"/>
-      <c r="CHR1" s="4"/>
-      <c r="CHS1" s="4"/>
-      <c r="CHT1" s="4"/>
-      <c r="CHU1" s="4"/>
-      <c r="CHV1" s="4"/>
-      <c r="CHW1" s="4"/>
-      <c r="CHX1" s="4"/>
-      <c r="CHY1" s="4"/>
-      <c r="CHZ1" s="4"/>
-      <c r="CIA1" s="4"/>
-      <c r="CIB1" s="4"/>
-      <c r="CIC1" s="4"/>
-      <c r="CID1" s="4"/>
-      <c r="CIE1" s="4"/>
-      <c r="CIF1" s="4"/>
-      <c r="CIG1" s="4"/>
-      <c r="CIH1" s="4"/>
-      <c r="CII1" s="4"/>
-      <c r="CIJ1" s="4"/>
-      <c r="CIK1" s="4"/>
-      <c r="CIL1" s="4"/>
-      <c r="CIM1" s="4"/>
-      <c r="CIN1" s="4"/>
-      <c r="CIO1" s="4"/>
-      <c r="CIP1" s="4"/>
-      <c r="CIQ1" s="4"/>
-      <c r="CIR1" s="4"/>
-      <c r="CIS1" s="4"/>
-      <c r="CIT1" s="4"/>
-      <c r="CIU1" s="4"/>
-      <c r="CIV1" s="4"/>
-      <c r="CIW1" s="4"/>
-      <c r="CIX1" s="4"/>
-      <c r="CIY1" s="4"/>
-      <c r="CIZ1" s="4"/>
-      <c r="CJA1" s="4"/>
-      <c r="CJB1" s="4"/>
-      <c r="CJC1" s="4"/>
-      <c r="CJD1" s="4"/>
-      <c r="CJE1" s="4"/>
-      <c r="CJF1" s="4"/>
-      <c r="CJG1" s="4"/>
-      <c r="CJH1" s="4"/>
-      <c r="CJI1" s="4"/>
-      <c r="CJJ1" s="4"/>
-      <c r="CJK1" s="4"/>
-      <c r="CJL1" s="4"/>
-      <c r="CJM1" s="4"/>
-      <c r="CJN1" s="4"/>
-      <c r="CJO1" s="4"/>
-      <c r="CJP1" s="4"/>
-      <c r="CJQ1" s="4"/>
-      <c r="CJR1" s="4"/>
-      <c r="CJS1" s="4"/>
-      <c r="CJT1" s="4"/>
-      <c r="CJU1" s="4"/>
-      <c r="CJV1" s="4"/>
-      <c r="CJW1" s="4"/>
-      <c r="CJX1" s="4"/>
-      <c r="CJY1" s="4"/>
-      <c r="CJZ1" s="4"/>
-      <c r="CKA1" s="4"/>
-      <c r="CKB1" s="4"/>
-      <c r="CKC1" s="4"/>
-      <c r="CKD1" s="4"/>
-      <c r="CKE1" s="4"/>
-      <c r="CKF1" s="4"/>
-      <c r="CKG1" s="4"/>
-      <c r="CKH1" s="4"/>
-      <c r="CKI1" s="4"/>
-      <c r="CKJ1" s="4"/>
-      <c r="CKK1" s="4"/>
-      <c r="CKL1" s="4"/>
-      <c r="CKM1" s="4"/>
-      <c r="CKN1" s="4"/>
-      <c r="CKO1" s="4"/>
-      <c r="CKP1" s="4"/>
-      <c r="CKQ1" s="4"/>
-      <c r="CKR1" s="4"/>
-      <c r="CKS1" s="4"/>
-      <c r="CKT1" s="4"/>
-      <c r="CKU1" s="4"/>
-      <c r="CKV1" s="4"/>
-      <c r="CKW1" s="4"/>
-      <c r="CKX1" s="4"/>
-      <c r="CKY1" s="4"/>
-      <c r="CKZ1" s="4"/>
-      <c r="CLA1" s="4"/>
-      <c r="CLB1" s="4"/>
-      <c r="CLC1" s="4"/>
-      <c r="CLD1" s="4"/>
-      <c r="CLE1" s="4"/>
-      <c r="CLF1" s="4"/>
-      <c r="CLG1" s="4"/>
-      <c r="CLH1" s="4"/>
-      <c r="CLI1" s="4"/>
-      <c r="CLJ1" s="4"/>
-      <c r="CLK1" s="4"/>
-      <c r="CLL1" s="4"/>
-      <c r="CLM1" s="4"/>
-      <c r="CLN1" s="4"/>
-      <c r="CLO1" s="4"/>
-      <c r="CLP1" s="4"/>
-      <c r="CLQ1" s="4"/>
-      <c r="CLR1" s="4"/>
-      <c r="CLS1" s="4"/>
-      <c r="CLT1" s="4"/>
-      <c r="CLU1" s="4"/>
-      <c r="CLV1" s="4"/>
-      <c r="CLW1" s="4"/>
-      <c r="CLX1" s="4"/>
-      <c r="CLY1" s="4"/>
-      <c r="CLZ1" s="4"/>
-      <c r="CMA1" s="4"/>
-      <c r="CMB1" s="4"/>
-      <c r="CMC1" s="4"/>
-      <c r="CMD1" s="4"/>
-      <c r="CME1" s="4"/>
-      <c r="CMF1" s="4"/>
-      <c r="CMG1" s="4"/>
-      <c r="CMH1" s="4"/>
-      <c r="CMI1" s="4"/>
-      <c r="CMJ1" s="4"/>
-      <c r="CMK1" s="4"/>
-      <c r="CML1" s="4"/>
-      <c r="CMM1" s="4"/>
-      <c r="CMN1" s="4"/>
-      <c r="CMO1" s="4"/>
-      <c r="CMP1" s="4"/>
-      <c r="CMQ1" s="4"/>
-      <c r="CMR1" s="4"/>
-      <c r="CMS1" s="4"/>
-      <c r="CMT1" s="4"/>
-      <c r="CMU1" s="4"/>
-      <c r="CMV1" s="4"/>
-      <c r="CMW1" s="4"/>
-      <c r="CMX1" s="4"/>
-      <c r="CMY1" s="4"/>
-      <c r="CMZ1" s="4"/>
-      <c r="CNA1" s="4"/>
-      <c r="CNB1" s="4"/>
-      <c r="CNC1" s="4"/>
-      <c r="CND1" s="4"/>
-      <c r="CNE1" s="4"/>
-      <c r="CNF1" s="4"/>
-      <c r="CNG1" s="4"/>
-      <c r="CNH1" s="4"/>
-      <c r="CNI1" s="4"/>
-      <c r="CNJ1" s="4"/>
-      <c r="CNK1" s="4"/>
-      <c r="CNL1" s="4"/>
-      <c r="CNM1" s="4"/>
-      <c r="CNN1" s="4"/>
-      <c r="CNO1" s="4"/>
-      <c r="CNP1" s="4"/>
-      <c r="CNQ1" s="4"/>
-      <c r="CNR1" s="4"/>
-      <c r="CNS1" s="4"/>
-      <c r="CNT1" s="4"/>
-      <c r="CNU1" s="4"/>
-      <c r="CNV1" s="4"/>
-      <c r="CNW1" s="4"/>
-      <c r="CNX1" s="4"/>
-      <c r="CNY1" s="4"/>
-      <c r="CNZ1" s="4"/>
-      <c r="COA1" s="4"/>
-      <c r="COB1" s="4"/>
-      <c r="COC1" s="4"/>
-      <c r="COD1" s="4"/>
-      <c r="COE1" s="4"/>
-      <c r="COF1" s="4"/>
-      <c r="COG1" s="4"/>
-      <c r="COH1" s="4"/>
-      <c r="COI1" s="4"/>
-      <c r="COJ1" s="4"/>
-      <c r="COK1" s="4"/>
-      <c r="COL1" s="4"/>
-      <c r="COM1" s="4"/>
-      <c r="CON1" s="4"/>
-      <c r="COO1" s="4"/>
-      <c r="COP1" s="4"/>
-      <c r="COQ1" s="4"/>
-      <c r="COR1" s="4"/>
-      <c r="COS1" s="4"/>
-      <c r="COT1" s="4"/>
-      <c r="COU1" s="4"/>
-      <c r="COV1" s="4"/>
-      <c r="COW1" s="4"/>
-      <c r="COX1" s="4"/>
-      <c r="COY1" s="4"/>
-      <c r="COZ1" s="4"/>
-      <c r="CPA1" s="4"/>
-      <c r="CPB1" s="4"/>
-      <c r="CPC1" s="4"/>
-      <c r="CPD1" s="4"/>
-      <c r="CPE1" s="4"/>
-      <c r="CPF1" s="4"/>
-      <c r="CPG1" s="4"/>
-      <c r="CPH1" s="4"/>
-      <c r="CPI1" s="4"/>
-      <c r="CPJ1" s="4"/>
-      <c r="CPK1" s="4"/>
-      <c r="CPL1" s="4"/>
-      <c r="CPM1" s="4"/>
-      <c r="CPN1" s="4"/>
-      <c r="CPO1" s="4"/>
-      <c r="CPP1" s="4"/>
-      <c r="CPQ1" s="4"/>
-      <c r="CPR1" s="4"/>
-      <c r="CPS1" s="4"/>
-      <c r="CPT1" s="4"/>
-      <c r="CPU1" s="4"/>
-      <c r="CPV1" s="4"/>
-      <c r="CPW1" s="4"/>
-      <c r="CPX1" s="4"/>
-      <c r="CPY1" s="4"/>
-      <c r="CPZ1" s="4"/>
-      <c r="CQA1" s="4"/>
-      <c r="CQB1" s="4"/>
-      <c r="CQC1" s="4"/>
-      <c r="CQD1" s="4"/>
-      <c r="CQE1" s="4"/>
-      <c r="CQF1" s="4"/>
-      <c r="CQG1" s="4"/>
-      <c r="CQH1" s="4"/>
-      <c r="CQI1" s="4"/>
-      <c r="CQJ1" s="4"/>
-      <c r="CQK1" s="4"/>
-      <c r="CQL1" s="4"/>
-      <c r="CQM1" s="4"/>
-      <c r="CQN1" s="4"/>
-      <c r="CQO1" s="4"/>
-      <c r="CQP1" s="4"/>
-      <c r="CQQ1" s="4"/>
-      <c r="CQR1" s="4"/>
-      <c r="CQS1" s="4"/>
-      <c r="CQT1" s="4"/>
-      <c r="CQU1" s="4"/>
-      <c r="CQV1" s="4"/>
-      <c r="CQW1" s="4"/>
-      <c r="CQX1" s="4"/>
-      <c r="CQY1" s="4"/>
-      <c r="CQZ1" s="4"/>
-      <c r="CRA1" s="4"/>
-      <c r="CRB1" s="4"/>
-      <c r="CRC1" s="4"/>
-      <c r="CRD1" s="4"/>
-      <c r="CRE1" s="4"/>
-      <c r="CRF1" s="4"/>
-      <c r="CRG1" s="4"/>
-      <c r="CRH1" s="4"/>
-      <c r="CRI1" s="4"/>
-      <c r="CRJ1" s="4"/>
-      <c r="CRK1" s="4"/>
-      <c r="CRL1" s="4"/>
-      <c r="CRM1" s="4"/>
-      <c r="CRN1" s="4"/>
-      <c r="CRO1" s="4"/>
-      <c r="CRP1" s="4"/>
-      <c r="CRQ1" s="4"/>
-      <c r="CRR1" s="4"/>
-      <c r="CRS1" s="4"/>
-      <c r="CRT1" s="4"/>
-      <c r="CRU1" s="4"/>
-      <c r="CRV1" s="4"/>
-      <c r="CRW1" s="4"/>
-      <c r="CRX1" s="4"/>
-      <c r="CRY1" s="4"/>
-      <c r="CRZ1" s="4"/>
-      <c r="CSA1" s="4"/>
-      <c r="CSB1" s="4"/>
-      <c r="CSC1" s="4"/>
-      <c r="CSD1" s="4"/>
-      <c r="CSE1" s="4"/>
-      <c r="CSF1" s="4"/>
-      <c r="CSG1" s="4"/>
-      <c r="CSH1" s="4"/>
-      <c r="CSI1" s="4"/>
-      <c r="CSJ1" s="4"/>
-      <c r="CSK1" s="4"/>
-      <c r="CSL1" s="4"/>
-      <c r="CSM1" s="4"/>
-      <c r="CSN1" s="4"/>
-      <c r="CSO1" s="4"/>
-      <c r="CSP1" s="4"/>
-      <c r="CSQ1" s="4"/>
-      <c r="CSR1" s="4"/>
-      <c r="CSS1" s="4"/>
-      <c r="CST1" s="4"/>
-      <c r="CSU1" s="4"/>
-      <c r="CSV1" s="4"/>
-      <c r="CSW1" s="4"/>
-      <c r="CSX1" s="4"/>
-      <c r="CSY1" s="4"/>
-      <c r="CSZ1" s="4"/>
-      <c r="CTA1" s="4"/>
-      <c r="CTB1" s="4"/>
-      <c r="CTC1" s="4"/>
-      <c r="CTD1" s="4"/>
-      <c r="CTE1" s="4"/>
-      <c r="CTF1" s="4"/>
-      <c r="CTG1" s="4"/>
-      <c r="CTH1" s="4"/>
-      <c r="CTI1" s="4"/>
-      <c r="CTJ1" s="4"/>
-      <c r="CTK1" s="4"/>
-      <c r="CTL1" s="4"/>
-      <c r="CTM1" s="4"/>
-      <c r="CTN1" s="4"/>
-      <c r="CTO1" s="4"/>
-      <c r="CTP1" s="4"/>
-      <c r="CTQ1" s="4"/>
-      <c r="CTR1" s="4"/>
-      <c r="CTS1" s="4"/>
-      <c r="CTT1" s="4"/>
-      <c r="CTU1" s="4"/>
-      <c r="CTV1" s="4"/>
-      <c r="CTW1" s="4"/>
-      <c r="CTX1" s="4"/>
-      <c r="CTY1" s="4"/>
-      <c r="CTZ1" s="4"/>
-      <c r="CUA1" s="4"/>
-    </row>
-    <row r="2" spans="1:2575" s="2" customFormat="1" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
-      <c r="DM2" s="4"/>
-      <c r="DN2" s="4"/>
-      <c r="DO2" s="4"/>
-      <c r="DP2" s="4"/>
-      <c r="DQ2" s="4"/>
-      <c r="DR2" s="4"/>
-      <c r="DS2" s="4"/>
-      <c r="DT2" s="4"/>
-      <c r="DU2" s="4"/>
-      <c r="DV2" s="4"/>
-      <c r="DW2" s="4"/>
-      <c r="DX2" s="4"/>
-      <c r="DY2" s="4"/>
-      <c r="DZ2" s="4"/>
-      <c r="EA2" s="4"/>
-      <c r="EB2" s="4"/>
-      <c r="EC2" s="4"/>
-      <c r="ED2" s="4"/>
-      <c r="EE2" s="4"/>
-      <c r="EF2" s="4"/>
-      <c r="EG2" s="4"/>
-      <c r="EH2" s="4"/>
-      <c r="EI2" s="4"/>
-      <c r="EJ2" s="4"/>
-      <c r="EK2" s="4"/>
-      <c r="EL2" s="4"/>
-      <c r="EM2" s="4"/>
-      <c r="EN2" s="4"/>
-      <c r="EO2" s="4"/>
-      <c r="EP2" s="4"/>
-      <c r="EQ2" s="4"/>
-      <c r="ER2" s="4"/>
-      <c r="ES2" s="4"/>
-      <c r="ET2" s="4"/>
-      <c r="EU2" s="4"/>
-      <c r="EV2" s="4"/>
-      <c r="EW2" s="4"/>
-      <c r="EX2" s="4"/>
-      <c r="EY2" s="4"/>
-      <c r="EZ2" s="4"/>
-      <c r="FA2" s="4"/>
-      <c r="FB2" s="4"/>
-      <c r="FC2" s="4"/>
-      <c r="FD2" s="4"/>
-      <c r="FE2" s="4"/>
-      <c r="FF2" s="4"/>
-      <c r="FG2" s="4"/>
-      <c r="FH2" s="4"/>
-      <c r="FI2" s="4"/>
-      <c r="FJ2" s="4"/>
-      <c r="FK2" s="4"/>
-      <c r="FL2" s="4"/>
-      <c r="FM2" s="4"/>
-      <c r="FN2" s="4"/>
-      <c r="FO2" s="4"/>
-      <c r="FP2" s="4"/>
-      <c r="FQ2" s="4"/>
-      <c r="FR2" s="4"/>
-      <c r="FS2" s="4"/>
-      <c r="FT2" s="4"/>
-      <c r="FU2" s="4"/>
-      <c r="FV2" s="4"/>
-      <c r="FW2" s="4"/>
-      <c r="FX2" s="4"/>
-      <c r="FY2" s="4"/>
-      <c r="FZ2" s="4"/>
-      <c r="GA2" s="4"/>
-      <c r="GB2" s="4"/>
-      <c r="GC2" s="4"/>
-      <c r="GD2" s="4"/>
-      <c r="GE2" s="4"/>
-      <c r="GF2" s="4"/>
-      <c r="GG2" s="4"/>
-      <c r="GH2" s="4"/>
-      <c r="GI2" s="4"/>
-      <c r="GJ2" s="4"/>
-      <c r="GK2" s="4"/>
-      <c r="GL2" s="4"/>
-      <c r="GM2" s="4"/>
-      <c r="GN2" s="4"/>
-      <c r="GO2" s="4"/>
-      <c r="GP2" s="4"/>
-      <c r="GQ2" s="4"/>
-      <c r="GR2" s="4"/>
-      <c r="GS2" s="4"/>
-      <c r="GT2" s="4"/>
-      <c r="GU2" s="4"/>
-      <c r="GV2" s="4"/>
-      <c r="GW2" s="4"/>
-      <c r="GX2" s="4"/>
-      <c r="GY2" s="4"/>
-      <c r="GZ2" s="4"/>
-      <c r="HA2" s="4"/>
-      <c r="HB2" s="4"/>
-      <c r="HC2" s="4"/>
-      <c r="HD2" s="4"/>
-      <c r="HE2" s="4"/>
-      <c r="HF2" s="4"/>
-      <c r="HG2" s="4"/>
-      <c r="HH2" s="4"/>
-      <c r="HI2" s="4"/>
-      <c r="HJ2" s="4"/>
-      <c r="HK2" s="4"/>
-      <c r="HL2" s="4"/>
-      <c r="HM2" s="4"/>
-      <c r="HN2" s="4"/>
-      <c r="HO2" s="4"/>
-      <c r="HP2" s="4"/>
-      <c r="HQ2" s="4"/>
-      <c r="HR2" s="4"/>
-      <c r="HS2" s="4"/>
-      <c r="HT2" s="4"/>
-      <c r="HU2" s="4"/>
-      <c r="HV2" s="4"/>
-      <c r="HW2" s="4"/>
-      <c r="HX2" s="4"/>
-      <c r="HY2" s="4"/>
-      <c r="HZ2" s="4"/>
-      <c r="IA2" s="4"/>
-      <c r="IB2" s="4"/>
-      <c r="IC2" s="4"/>
-      <c r="ID2" s="4"/>
-      <c r="IE2" s="4"/>
-      <c r="IF2" s="4"/>
-      <c r="IG2" s="4"/>
-      <c r="IH2" s="4"/>
-      <c r="II2" s="4"/>
-      <c r="IJ2" s="4"/>
-      <c r="IK2" s="4"/>
-      <c r="IL2" s="4"/>
-      <c r="IM2" s="4"/>
-      <c r="IN2" s="4"/>
-      <c r="IO2" s="4"/>
-      <c r="IP2" s="4"/>
-      <c r="IQ2" s="4"/>
-      <c r="IR2" s="4"/>
-      <c r="IS2" s="4"/>
-      <c r="IT2" s="4"/>
-      <c r="IU2" s="4"/>
-      <c r="IV2" s="4"/>
-      <c r="IW2" s="4"/>
-      <c r="IX2" s="4"/>
-      <c r="IY2" s="4"/>
-      <c r="IZ2" s="4"/>
-      <c r="JA2" s="4"/>
-      <c r="JB2" s="4"/>
-      <c r="JC2" s="4"/>
-      <c r="JD2" s="4"/>
-      <c r="JE2" s="4"/>
-      <c r="JF2" s="4"/>
-      <c r="JG2" s="4"/>
-      <c r="JH2" s="4"/>
-      <c r="JI2" s="4"/>
-      <c r="JJ2" s="4"/>
-      <c r="JK2" s="4"/>
-      <c r="JL2" s="4"/>
-      <c r="JM2" s="4"/>
-      <c r="JN2" s="4"/>
-      <c r="JO2" s="4"/>
-      <c r="JP2" s="4"/>
-      <c r="JQ2" s="4"/>
-      <c r="JR2" s="4"/>
-      <c r="JS2" s="4"/>
-      <c r="JT2" s="4"/>
-      <c r="JU2" s="4"/>
-      <c r="JV2" s="4"/>
-      <c r="JW2" s="4"/>
-      <c r="JX2" s="4"/>
-      <c r="JY2" s="4"/>
-      <c r="JZ2" s="4"/>
-      <c r="KA2" s="4"/>
-      <c r="KB2" s="4"/>
-      <c r="KC2" s="4"/>
-      <c r="KD2" s="4"/>
-      <c r="KE2" s="4"/>
-      <c r="KF2" s="4"/>
-      <c r="KG2" s="4"/>
-      <c r="KH2" s="4"/>
-      <c r="KI2" s="4"/>
-      <c r="KJ2" s="4"/>
-      <c r="KK2" s="4"/>
-      <c r="KL2" s="4"/>
-      <c r="KM2" s="4"/>
-      <c r="KN2" s="4"/>
-      <c r="KO2" s="4"/>
-      <c r="KP2" s="4"/>
-      <c r="KQ2" s="4"/>
-      <c r="KR2" s="4"/>
-      <c r="KS2" s="4"/>
-      <c r="KT2" s="4"/>
-      <c r="KU2" s="4"/>
-      <c r="KV2" s="4"/>
-      <c r="KW2" s="4"/>
-      <c r="KX2" s="4"/>
-      <c r="KY2" s="4"/>
-      <c r="KZ2" s="4"/>
-      <c r="LA2" s="4"/>
-      <c r="LB2" s="4"/>
-      <c r="LC2" s="4"/>
-      <c r="LD2" s="4"/>
-      <c r="LE2" s="4"/>
-      <c r="LF2" s="4"/>
-      <c r="LG2" s="4"/>
-      <c r="LH2" s="4"/>
-      <c r="LI2" s="4"/>
-      <c r="LJ2" s="4"/>
-      <c r="LK2" s="4"/>
-      <c r="LL2" s="4"/>
-      <c r="LM2" s="4"/>
-      <c r="LN2" s="4"/>
-      <c r="LO2" s="4"/>
-      <c r="LP2" s="4"/>
-      <c r="LQ2" s="4"/>
-      <c r="LR2" s="4"/>
-      <c r="LS2" s="4"/>
-      <c r="LT2" s="4"/>
-      <c r="LU2" s="4"/>
-      <c r="LV2" s="4"/>
-      <c r="LW2" s="4"/>
-      <c r="LX2" s="4"/>
-      <c r="LY2" s="4"/>
-      <c r="LZ2" s="4"/>
-      <c r="MA2" s="4"/>
-      <c r="MB2" s="4"/>
-      <c r="MC2" s="4"/>
-      <c r="MD2" s="4"/>
-      <c r="ME2" s="4"/>
-      <c r="MF2" s="4"/>
-      <c r="MG2" s="4"/>
-      <c r="MH2" s="4"/>
-      <c r="MI2" s="4"/>
-      <c r="MJ2" s="4"/>
-      <c r="MK2" s="4"/>
-      <c r="ML2" s="4"/>
-      <c r="MM2" s="4"/>
-      <c r="MN2" s="4"/>
-      <c r="MO2" s="4"/>
-      <c r="MP2" s="4"/>
-      <c r="MQ2" s="4"/>
-      <c r="MR2" s="4"/>
-      <c r="MS2" s="4"/>
-      <c r="MT2" s="4"/>
-      <c r="MU2" s="4"/>
-      <c r="MV2" s="4"/>
-      <c r="MW2" s="4"/>
-      <c r="MX2" s="4"/>
-      <c r="MY2" s="4"/>
-      <c r="MZ2" s="4"/>
-      <c r="NA2" s="4"/>
-      <c r="NB2" s="4"/>
-      <c r="NC2" s="4"/>
-      <c r="ND2" s="4"/>
-      <c r="NE2" s="4"/>
-      <c r="NF2" s="4"/>
-      <c r="NG2" s="4"/>
-      <c r="NH2" s="4"/>
-      <c r="NI2" s="4"/>
-      <c r="NJ2" s="4"/>
-      <c r="NK2" s="4"/>
-      <c r="NL2" s="4"/>
-      <c r="NM2" s="4"/>
-      <c r="NN2" s="4"/>
-      <c r="NO2" s="4"/>
-      <c r="NP2" s="4"/>
-      <c r="NQ2" s="4"/>
-      <c r="NR2" s="4"/>
-      <c r="NS2" s="4"/>
-      <c r="NT2" s="4"/>
-      <c r="NU2" s="4"/>
-      <c r="NV2" s="4"/>
-      <c r="NW2" s="4"/>
-      <c r="NX2" s="4"/>
-      <c r="NY2" s="4"/>
-      <c r="NZ2" s="4"/>
-      <c r="OA2" s="4"/>
-      <c r="OB2" s="4"/>
-      <c r="OC2" s="4"/>
-      <c r="OD2" s="4"/>
-      <c r="OE2" s="4"/>
-      <c r="OF2" s="4"/>
-      <c r="OG2" s="4"/>
-      <c r="OH2" s="4"/>
-      <c r="OI2" s="4"/>
-      <c r="OJ2" s="4"/>
-      <c r="OK2" s="4"/>
-      <c r="OL2" s="4"/>
-      <c r="OM2" s="4"/>
-      <c r="ON2" s="4"/>
-      <c r="OO2" s="4"/>
-      <c r="OP2" s="4"/>
-      <c r="OQ2" s="4"/>
-      <c r="OR2" s="4"/>
-      <c r="OS2" s="4"/>
-      <c r="OT2" s="4"/>
-      <c r="OU2" s="4"/>
-      <c r="OV2" s="4"/>
-      <c r="OW2" s="4"/>
-      <c r="OX2" s="4"/>
-      <c r="OY2" s="4"/>
-      <c r="OZ2" s="4"/>
-      <c r="PA2" s="4"/>
-      <c r="PB2" s="4"/>
-      <c r="PC2" s="4"/>
-      <c r="PD2" s="4"/>
-      <c r="PE2" s="4"/>
-      <c r="PF2" s="4"/>
-      <c r="PG2" s="4"/>
-      <c r="PH2" s="4"/>
-      <c r="PI2" s="4"/>
-      <c r="PJ2" s="4"/>
-      <c r="PK2" s="4"/>
-      <c r="PL2" s="4"/>
-      <c r="PM2" s="4"/>
-      <c r="PN2" s="4"/>
-      <c r="PO2" s="4"/>
-      <c r="PP2" s="4"/>
-      <c r="PQ2" s="4"/>
-      <c r="PR2" s="4"/>
-      <c r="PS2" s="4"/>
-      <c r="PT2" s="4"/>
-      <c r="PU2" s="4"/>
-      <c r="PV2" s="4"/>
-      <c r="PW2" s="4"/>
-      <c r="PX2" s="4"/>
-      <c r="PY2" s="4"/>
-      <c r="PZ2" s="4"/>
-      <c r="QA2" s="4"/>
-      <c r="QB2" s="4"/>
-      <c r="QC2" s="4"/>
-      <c r="QD2" s="4"/>
-      <c r="QE2" s="4"/>
-      <c r="QF2" s="4"/>
-      <c r="QG2" s="4"/>
-      <c r="QH2" s="4"/>
-      <c r="QI2" s="4"/>
-      <c r="QJ2" s="4"/>
-      <c r="QK2" s="4"/>
-      <c r="QL2" s="4"/>
-      <c r="QM2" s="4"/>
-      <c r="QN2" s="4"/>
-      <c r="QO2" s="4"/>
-      <c r="QP2" s="4"/>
-      <c r="QQ2" s="4"/>
-      <c r="QR2" s="4"/>
-      <c r="QS2" s="4"/>
-      <c r="QT2" s="4"/>
-      <c r="QU2" s="4"/>
-      <c r="QV2" s="4"/>
-      <c r="QW2" s="4"/>
-      <c r="QX2" s="4"/>
-      <c r="QY2" s="4"/>
-      <c r="QZ2" s="4"/>
-      <c r="RA2" s="4"/>
-      <c r="RB2" s="4"/>
-      <c r="RC2" s="4"/>
-      <c r="RD2" s="4"/>
-      <c r="RE2" s="4"/>
-      <c r="RF2" s="4"/>
-      <c r="RG2" s="4"/>
-      <c r="RH2" s="4"/>
-      <c r="RI2" s="4"/>
-      <c r="RJ2" s="4"/>
-      <c r="RK2" s="4"/>
-      <c r="RL2" s="4"/>
-      <c r="RM2" s="4"/>
-      <c r="RN2" s="4"/>
-      <c r="RO2" s="4"/>
-      <c r="RP2" s="4"/>
-      <c r="RQ2" s="4"/>
-      <c r="RR2" s="4"/>
-      <c r="RS2" s="4"/>
-      <c r="RT2" s="4"/>
-      <c r="RU2" s="4"/>
-      <c r="RV2" s="4"/>
-      <c r="RW2" s="4"/>
-      <c r="RX2" s="4"/>
-      <c r="RY2" s="4"/>
-      <c r="RZ2" s="4"/>
-      <c r="SA2" s="4"/>
-      <c r="SB2" s="4"/>
-      <c r="SC2" s="4"/>
-      <c r="SD2" s="4"/>
-      <c r="SE2" s="4"/>
-      <c r="SF2" s="4"/>
-      <c r="SG2" s="4"/>
-      <c r="SH2" s="4"/>
-      <c r="SI2" s="4"/>
-      <c r="SJ2" s="4"/>
-      <c r="SK2" s="4"/>
-      <c r="SL2" s="4"/>
-      <c r="SM2" s="4"/>
-      <c r="SN2" s="4"/>
-      <c r="SO2" s="4"/>
-      <c r="SP2" s="4"/>
-      <c r="SQ2" s="4"/>
-      <c r="SR2" s="4"/>
-      <c r="SS2" s="4"/>
-      <c r="ST2" s="4"/>
-      <c r="SU2" s="4"/>
-      <c r="SV2" s="4"/>
-      <c r="SW2" s="4"/>
-      <c r="SX2" s="4"/>
-      <c r="SY2" s="4"/>
-      <c r="SZ2" s="4"/>
-      <c r="TA2" s="4"/>
-      <c r="TB2" s="4"/>
-      <c r="TC2" s="4"/>
-      <c r="TD2" s="4"/>
-      <c r="TE2" s="4"/>
-      <c r="TF2" s="4"/>
-      <c r="TG2" s="4"/>
-      <c r="TH2" s="4"/>
-      <c r="TI2" s="4"/>
-      <c r="TJ2" s="4"/>
-      <c r="TK2" s="4"/>
-      <c r="TL2" s="4"/>
-      <c r="TM2" s="4"/>
-      <c r="TN2" s="4"/>
-      <c r="TO2" s="4"/>
-      <c r="TP2" s="4"/>
-      <c r="TQ2" s="4"/>
-      <c r="TR2" s="4"/>
-      <c r="TS2" s="4"/>
-      <c r="TT2" s="4"/>
-      <c r="TU2" s="4"/>
-      <c r="TV2" s="4"/>
-      <c r="TW2" s="4"/>
-      <c r="TX2" s="4"/>
-      <c r="TY2" s="4"/>
-      <c r="TZ2" s="4"/>
-      <c r="UA2" s="4"/>
-      <c r="UB2" s="4"/>
-      <c r="UC2" s="4"/>
-      <c r="UD2" s="4"/>
-      <c r="UE2" s="4"/>
-      <c r="UF2" s="4"/>
-      <c r="UG2" s="4"/>
-      <c r="UH2" s="4"/>
-      <c r="UI2" s="4"/>
-      <c r="UJ2" s="4"/>
-      <c r="UK2" s="4"/>
-      <c r="UL2" s="4"/>
-      <c r="UM2" s="4"/>
-      <c r="UN2" s="4"/>
-      <c r="UO2" s="4"/>
-      <c r="UP2" s="4"/>
-      <c r="UQ2" s="4"/>
-      <c r="UR2" s="4"/>
-      <c r="US2" s="4"/>
-      <c r="UT2" s="4"/>
-      <c r="UU2" s="4"/>
-      <c r="UV2" s="4"/>
-      <c r="UW2" s="4"/>
-      <c r="UX2" s="4"/>
-      <c r="UY2" s="4"/>
-      <c r="UZ2" s="4"/>
-      <c r="VA2" s="4"/>
-      <c r="VB2" s="4"/>
-      <c r="VC2" s="4"/>
-      <c r="VD2" s="4"/>
-      <c r="VE2" s="4"/>
-      <c r="VF2" s="4"/>
-      <c r="VG2" s="4"/>
-      <c r="VH2" s="4"/>
-      <c r="VI2" s="4"/>
-      <c r="VJ2" s="4"/>
-      <c r="VK2" s="4"/>
-      <c r="VL2" s="4"/>
-      <c r="VM2" s="4"/>
-      <c r="VN2" s="4"/>
-      <c r="VO2" s="4"/>
-      <c r="VP2" s="4"/>
-      <c r="VQ2" s="4"/>
-      <c r="VR2" s="4"/>
-      <c r="VS2" s="4"/>
-      <c r="VT2" s="4"/>
-      <c r="VU2" s="4"/>
-      <c r="VV2" s="4"/>
-      <c r="VW2" s="4"/>
-      <c r="VX2" s="4"/>
-      <c r="VY2" s="4"/>
-      <c r="VZ2" s="4"/>
-      <c r="WA2" s="4"/>
-      <c r="WB2" s="4"/>
-      <c r="WC2" s="4"/>
-      <c r="WD2" s="4"/>
-      <c r="WE2" s="4"/>
-      <c r="WF2" s="4"/>
-      <c r="WG2" s="4"/>
-      <c r="WH2" s="4"/>
-      <c r="WI2" s="4"/>
-      <c r="WJ2" s="4"/>
-      <c r="WK2" s="4"/>
-      <c r="WL2" s="4"/>
-      <c r="WM2" s="4"/>
-      <c r="WN2" s="4"/>
-      <c r="WO2" s="4"/>
-      <c r="WP2" s="4"/>
-      <c r="WQ2" s="4"/>
-      <c r="WR2" s="4"/>
-      <c r="WS2" s="4"/>
-      <c r="WT2" s="4"/>
-      <c r="WU2" s="4"/>
-      <c r="WV2" s="4"/>
-      <c r="WW2" s="4"/>
-      <c r="WX2" s="4"/>
-      <c r="WY2" s="4"/>
-      <c r="WZ2" s="4"/>
-      <c r="XA2" s="4"/>
-      <c r="XB2" s="4"/>
-      <c r="XC2" s="4"/>
-      <c r="XD2" s="4"/>
-      <c r="XE2" s="4"/>
-      <c r="XF2" s="4"/>
-      <c r="XG2" s="4"/>
-      <c r="XH2" s="4"/>
-      <c r="XI2" s="4"/>
-      <c r="XJ2" s="4"/>
-      <c r="XK2" s="4"/>
-      <c r="XL2" s="4"/>
-      <c r="XM2" s="4"/>
-      <c r="XN2" s="4"/>
-      <c r="XO2" s="4"/>
-      <c r="XP2" s="4"/>
-      <c r="XQ2" s="4"/>
-      <c r="XR2" s="4"/>
-      <c r="XS2" s="4"/>
-      <c r="XT2" s="4"/>
-      <c r="XU2" s="4"/>
-      <c r="XV2" s="4"/>
-      <c r="XW2" s="4"/>
-      <c r="XX2" s="4"/>
-      <c r="XY2" s="4"/>
-      <c r="XZ2" s="4"/>
-      <c r="YA2" s="4"/>
-      <c r="YB2" s="4"/>
-      <c r="YC2" s="4"/>
-      <c r="YD2" s="4"/>
-      <c r="YE2" s="4"/>
-      <c r="YF2" s="4"/>
-      <c r="YG2" s="4"/>
-      <c r="YH2" s="4"/>
-      <c r="YI2" s="4"/>
-      <c r="YJ2" s="4"/>
-      <c r="YK2" s="4"/>
-      <c r="YL2" s="4"/>
-      <c r="YM2" s="4"/>
-      <c r="YN2" s="4"/>
-      <c r="YO2" s="4"/>
-      <c r="YP2" s="4"/>
-      <c r="YQ2" s="4"/>
-      <c r="YR2" s="4"/>
-      <c r="YS2" s="4"/>
-      <c r="YT2" s="4"/>
-      <c r="YU2" s="4"/>
-      <c r="YV2" s="4"/>
-      <c r="YW2" s="4"/>
-      <c r="YX2" s="4"/>
-      <c r="YY2" s="4"/>
-      <c r="YZ2" s="4"/>
-      <c r="ZA2" s="4"/>
-      <c r="ZB2" s="4"/>
-      <c r="ZC2" s="4"/>
-      <c r="ZD2" s="4"/>
-      <c r="ZE2" s="4"/>
-      <c r="ZF2" s="4"/>
-      <c r="ZG2" s="4"/>
-      <c r="ZH2" s="4"/>
-      <c r="ZI2" s="4"/>
-      <c r="ZJ2" s="4"/>
-      <c r="ZK2" s="4"/>
-      <c r="ZL2" s="4"/>
-      <c r="ZM2" s="4"/>
-      <c r="ZN2" s="4"/>
-      <c r="ZO2" s="4"/>
-      <c r="ZP2" s="4"/>
-      <c r="ZQ2" s="4"/>
-      <c r="ZR2" s="4"/>
-      <c r="ZS2" s="4"/>
-      <c r="ZT2" s="4"/>
-      <c r="ZU2" s="4"/>
-      <c r="ZV2" s="4"/>
-      <c r="ZW2" s="4"/>
-      <c r="ZX2" s="4"/>
-      <c r="ZY2" s="4"/>
-      <c r="ZZ2" s="4"/>
-      <c r="AAA2" s="4"/>
-      <c r="AAB2" s="4"/>
-      <c r="AAC2" s="4"/>
-      <c r="AAD2" s="4"/>
-      <c r="AAE2" s="4"/>
-      <c r="AAF2" s="4"/>
-      <c r="AAG2" s="4"/>
-      <c r="AAH2" s="4"/>
-      <c r="AAI2" s="4"/>
-      <c r="AAJ2" s="4"/>
-      <c r="AAK2" s="4"/>
-      <c r="AAL2" s="4"/>
-      <c r="AAM2" s="4"/>
-      <c r="AAN2" s="4"/>
-      <c r="AAO2" s="4"/>
-      <c r="AAP2" s="4"/>
-      <c r="AAQ2" s="4"/>
-      <c r="AAR2" s="4"/>
-      <c r="AAS2" s="4"/>
-      <c r="AAT2" s="4"/>
-      <c r="AAU2" s="4"/>
-      <c r="AAV2" s="4"/>
-      <c r="AAW2" s="4"/>
-      <c r="AAX2" s="4"/>
-      <c r="AAY2" s="4"/>
-      <c r="AAZ2" s="4"/>
-      <c r="ABA2" s="4"/>
-      <c r="ABB2" s="4"/>
-      <c r="ABC2" s="4"/>
-      <c r="ABD2" s="4"/>
-      <c r="ABE2" s="4"/>
-      <c r="ABF2" s="4"/>
-      <c r="ABG2" s="4"/>
-      <c r="ABH2" s="4"/>
-      <c r="ABI2" s="4"/>
-      <c r="ABJ2" s="4"/>
-      <c r="ABK2" s="4"/>
-      <c r="ABL2" s="4"/>
-      <c r="ABM2" s="4"/>
-      <c r="ABN2" s="4"/>
-      <c r="ABO2" s="4"/>
-      <c r="ABP2" s="4"/>
-      <c r="ABQ2" s="4"/>
-      <c r="ABR2" s="4"/>
-      <c r="ABS2" s="4"/>
-      <c r="ABT2" s="4"/>
-      <c r="ABU2" s="4"/>
-      <c r="ABV2" s="4"/>
-      <c r="ABW2" s="4"/>
-      <c r="ABX2" s="4"/>
-      <c r="ABY2" s="4"/>
-      <c r="ABZ2" s="4"/>
-      <c r="ACA2" s="4"/>
-      <c r="ACB2" s="4"/>
-      <c r="ACC2" s="4"/>
-      <c r="ACD2" s="4"/>
-      <c r="ACE2" s="4"/>
-      <c r="ACF2" s="4"/>
-      <c r="ACG2" s="4"/>
-      <c r="ACH2" s="4"/>
-      <c r="ACI2" s="4"/>
-      <c r="ACJ2" s="4"/>
-      <c r="ACK2" s="4"/>
-      <c r="ACL2" s="4"/>
-      <c r="ACM2" s="4"/>
-      <c r="ACN2" s="4"/>
-      <c r="ACO2" s="4"/>
-      <c r="ACP2" s="4"/>
-      <c r="ACQ2" s="4"/>
-      <c r="ACR2" s="4"/>
-      <c r="ACS2" s="4"/>
-      <c r="ACT2" s="4"/>
-      <c r="ACU2" s="4"/>
-      <c r="ACV2" s="4"/>
-      <c r="ACW2" s="4"/>
-      <c r="ACX2" s="4"/>
-      <c r="ACY2" s="4"/>
-      <c r="ACZ2" s="4"/>
-      <c r="ADA2" s="4"/>
-      <c r="ADB2" s="4"/>
-      <c r="ADC2" s="4"/>
-      <c r="ADD2" s="4"/>
-      <c r="ADE2" s="4"/>
-      <c r="ADF2" s="4"/>
-      <c r="ADG2" s="4"/>
-      <c r="ADH2" s="4"/>
-      <c r="ADI2" s="4"/>
-      <c r="ADJ2" s="4"/>
-      <c r="ADK2" s="4"/>
-      <c r="ADL2" s="4"/>
-      <c r="ADM2" s="4"/>
-      <c r="ADN2" s="4"/>
-      <c r="ADO2" s="4"/>
-      <c r="ADP2" s="4"/>
-      <c r="ADQ2" s="4"/>
-      <c r="ADR2" s="4"/>
-      <c r="ADS2" s="4"/>
-      <c r="ADT2" s="4"/>
-      <c r="ADU2" s="4"/>
-      <c r="ADV2" s="4"/>
-      <c r="ADW2" s="4"/>
-      <c r="ADX2" s="4"/>
-      <c r="ADY2" s="4"/>
-      <c r="ADZ2" s="4"/>
-      <c r="AEA2" s="4"/>
-      <c r="AEB2" s="4"/>
-      <c r="AEC2" s="4"/>
-      <c r="AED2" s="4"/>
-      <c r="AEE2" s="4"/>
-      <c r="AEF2" s="4"/>
-      <c r="AEG2" s="4"/>
-      <c r="AEH2" s="4"/>
-      <c r="AEI2" s="4"/>
-      <c r="AEJ2" s="4"/>
-      <c r="AEK2" s="4"/>
-      <c r="AEL2" s="4"/>
-      <c r="AEM2" s="4"/>
-      <c r="AEN2" s="4"/>
-      <c r="AEO2" s="4"/>
-      <c r="AEP2" s="4"/>
-      <c r="AEQ2" s="4"/>
-      <c r="AER2" s="4"/>
-      <c r="AES2" s="4"/>
-      <c r="AET2" s="4"/>
-      <c r="AEU2" s="4"/>
-      <c r="AEV2" s="4"/>
-      <c r="AEW2" s="4"/>
-      <c r="AEX2" s="4"/>
-      <c r="AEY2" s="4"/>
-      <c r="AEZ2" s="4"/>
-      <c r="AFA2" s="4"/>
-      <c r="AFB2" s="4"/>
-      <c r="AFC2" s="4"/>
-      <c r="AFD2" s="4"/>
-      <c r="AFE2" s="4"/>
-      <c r="AFF2" s="4"/>
-      <c r="AFG2" s="4"/>
-      <c r="AFH2" s="4"/>
-      <c r="AFI2" s="4"/>
-      <c r="AFJ2" s="4"/>
-      <c r="AFK2" s="4"/>
-      <c r="AFL2" s="4"/>
-      <c r="AFM2" s="4"/>
-      <c r="AFN2" s="4"/>
-      <c r="AFO2" s="4"/>
-      <c r="AFP2" s="4"/>
-      <c r="AFQ2" s="4"/>
-      <c r="AFR2" s="4"/>
-      <c r="AFS2" s="4"/>
-      <c r="AFT2" s="4"/>
-      <c r="AFU2" s="4"/>
-      <c r="AFV2" s="4"/>
-      <c r="AFW2" s="4"/>
-      <c r="AFX2" s="4"/>
-      <c r="AFY2" s="4"/>
-      <c r="AFZ2" s="4"/>
-      <c r="AGA2" s="4"/>
-      <c r="AGB2" s="4"/>
-      <c r="AGC2" s="4"/>
-      <c r="AGD2" s="4"/>
-      <c r="AGE2" s="4"/>
-      <c r="AGF2" s="4"/>
-      <c r="AGG2" s="4"/>
-      <c r="AGH2" s="4"/>
-      <c r="AGI2" s="4"/>
-      <c r="AGJ2" s="4"/>
-      <c r="AGK2" s="4"/>
-      <c r="AGL2" s="4"/>
-      <c r="AGM2" s="4"/>
-      <c r="AGN2" s="4"/>
-      <c r="AGO2" s="4"/>
-      <c r="AGP2" s="4"/>
-      <c r="AGQ2" s="4"/>
-      <c r="AGR2" s="4"/>
-      <c r="AGS2" s="4"/>
-      <c r="AGT2" s="4"/>
-      <c r="AGU2" s="4"/>
-      <c r="AGV2" s="4"/>
-      <c r="AGW2" s="4"/>
-      <c r="AGX2" s="4"/>
-      <c r="AGY2" s="4"/>
-      <c r="AGZ2" s="4"/>
-      <c r="AHA2" s="4"/>
-      <c r="AHB2" s="4"/>
-      <c r="AHC2" s="4"/>
-      <c r="AHD2" s="4"/>
-      <c r="AHE2" s="4"/>
-      <c r="AHF2" s="4"/>
-      <c r="AHG2" s="4"/>
-      <c r="AHH2" s="4"/>
-      <c r="AHI2" s="4"/>
-      <c r="AHJ2" s="4"/>
-      <c r="AHK2" s="4"/>
-      <c r="AHL2" s="4"/>
-      <c r="AHM2" s="4"/>
-      <c r="AHN2" s="4"/>
-      <c r="AHO2" s="4"/>
-      <c r="AHP2" s="4"/>
-      <c r="AHQ2" s="4"/>
-      <c r="AHR2" s="4"/>
-      <c r="AHS2" s="4"/>
-      <c r="AHT2" s="4"/>
-      <c r="AHU2" s="4"/>
-      <c r="AHV2" s="4"/>
-      <c r="AHW2" s="4"/>
-      <c r="AHX2" s="4"/>
-      <c r="AHY2" s="4"/>
-      <c r="AHZ2" s="4"/>
-      <c r="AIA2" s="4"/>
-      <c r="AIB2" s="4"/>
-      <c r="AIC2" s="4"/>
-      <c r="AID2" s="4"/>
-      <c r="AIE2" s="4"/>
-      <c r="AIF2" s="4"/>
-      <c r="AIG2" s="4"/>
-      <c r="AIH2" s="4"/>
-      <c r="AII2" s="4"/>
-      <c r="AIJ2" s="4"/>
-      <c r="AIK2" s="4"/>
-      <c r="AIL2" s="4"/>
-      <c r="AIM2" s="4"/>
-      <c r="AIN2" s="4"/>
-      <c r="AIO2" s="4"/>
-      <c r="AIP2" s="4"/>
-      <c r="AIQ2" s="4"/>
-      <c r="AIR2" s="4"/>
-      <c r="AIS2" s="4"/>
-      <c r="AIT2" s="4"/>
-      <c r="AIU2" s="4"/>
-      <c r="AIV2" s="4"/>
-      <c r="AIW2" s="4"/>
-      <c r="AIX2" s="4"/>
-      <c r="AIY2" s="4"/>
-      <c r="AIZ2" s="4"/>
-      <c r="AJA2" s="4"/>
-      <c r="AJB2" s="4"/>
-      <c r="AJC2" s="4"/>
-      <c r="AJD2" s="4"/>
-      <c r="AJE2" s="4"/>
-      <c r="AJF2" s="4"/>
-      <c r="AJG2" s="4"/>
-      <c r="AJH2" s="4"/>
-      <c r="AJI2" s="4"/>
-      <c r="AJJ2" s="4"/>
-      <c r="AJK2" s="4"/>
-      <c r="AJL2" s="4"/>
-      <c r="AJM2" s="4"/>
-      <c r="AJN2" s="4"/>
-      <c r="AJO2" s="4"/>
-      <c r="AJP2" s="4"/>
-      <c r="AJQ2" s="4"/>
-      <c r="AJR2" s="4"/>
-      <c r="AJS2" s="4"/>
-      <c r="AJT2" s="4"/>
-      <c r="AJU2" s="4"/>
-      <c r="AJV2" s="4"/>
-      <c r="AJW2" s="4"/>
-      <c r="AJX2" s="4"/>
-      <c r="AJY2" s="4"/>
-      <c r="AJZ2" s="4"/>
-      <c r="AKA2" s="4"/>
-      <c r="AKB2" s="4"/>
-      <c r="AKC2" s="4"/>
-      <c r="AKD2" s="4"/>
-      <c r="AKE2" s="4"/>
-      <c r="AKF2" s="4"/>
-      <c r="AKG2" s="4"/>
-      <c r="AKH2" s="4"/>
-      <c r="AKI2" s="4"/>
-      <c r="AKJ2" s="4"/>
-      <c r="AKK2" s="4"/>
-      <c r="AKL2" s="4"/>
-      <c r="AKM2" s="4"/>
-      <c r="AKN2" s="4"/>
-      <c r="AKO2" s="4"/>
-      <c r="AKP2" s="4"/>
-      <c r="AKQ2" s="4"/>
-      <c r="AKR2" s="4"/>
-      <c r="AKS2" s="4"/>
-      <c r="AKT2" s="4"/>
-      <c r="AKU2" s="4"/>
-      <c r="AKV2" s="4"/>
-      <c r="AKW2" s="4"/>
-      <c r="AKX2" s="4"/>
-      <c r="AKY2" s="4"/>
-      <c r="AKZ2" s="4"/>
-      <c r="ALA2" s="4"/>
-      <c r="ALB2" s="4"/>
-      <c r="ALC2" s="4"/>
-      <c r="ALD2" s="4"/>
-      <c r="ALE2" s="4"/>
-      <c r="ALF2" s="4"/>
-      <c r="ALG2" s="4"/>
-      <c r="ALH2" s="4"/>
-      <c r="ALI2" s="4"/>
-      <c r="ALJ2" s="4"/>
-      <c r="ALK2" s="4"/>
-      <c r="ALL2" s="4"/>
-      <c r="ALM2" s="4"/>
-      <c r="ALN2" s="4"/>
-      <c r="ALO2" s="4"/>
-      <c r="ALP2" s="4"/>
-      <c r="ALQ2" s="4"/>
-      <c r="ALR2" s="4"/>
-      <c r="ALS2" s="4"/>
-      <c r="ALT2" s="4"/>
-      <c r="ALU2" s="4"/>
-      <c r="ALV2" s="4"/>
-      <c r="ALW2" s="4"/>
-      <c r="ALX2" s="4"/>
-      <c r="ALY2" s="4"/>
-      <c r="ALZ2" s="4"/>
-      <c r="AMA2" s="4"/>
-      <c r="AMB2" s="4"/>
-      <c r="AMC2" s="4"/>
-      <c r="AMD2" s="4"/>
-      <c r="AME2" s="4"/>
-      <c r="AMF2" s="4"/>
-      <c r="AMG2" s="4"/>
-      <c r="AMH2" s="4"/>
-      <c r="AMI2" s="4"/>
-      <c r="AMJ2" s="4"/>
-      <c r="AMK2" s="4"/>
-      <c r="AML2" s="4"/>
-      <c r="AMM2" s="4"/>
-      <c r="AMN2" s="4"/>
-      <c r="AMO2" s="4"/>
-      <c r="AMP2" s="4"/>
-      <c r="AMQ2" s="4"/>
-      <c r="AMR2" s="4"/>
-      <c r="AMS2" s="4"/>
-      <c r="AMT2" s="4"/>
-      <c r="AMU2" s="4"/>
-      <c r="AMV2" s="4"/>
-      <c r="AMW2" s="4"/>
-      <c r="AMX2" s="4"/>
-      <c r="AMY2" s="4"/>
-      <c r="AMZ2" s="4"/>
-      <c r="ANA2" s="4"/>
-      <c r="ANB2" s="4"/>
-      <c r="ANC2" s="4"/>
-      <c r="AND2" s="4"/>
-      <c r="ANE2" s="4"/>
-      <c r="ANF2" s="4"/>
-      <c r="ANG2" s="4"/>
-      <c r="ANH2" s="4"/>
-      <c r="ANI2" s="4"/>
-      <c r="ANJ2" s="4"/>
-      <c r="ANK2" s="4"/>
-      <c r="ANL2" s="4"/>
-      <c r="ANM2" s="4"/>
-      <c r="ANN2" s="4"/>
-      <c r="ANO2" s="4"/>
-      <c r="ANP2" s="4"/>
-      <c r="ANQ2" s="4"/>
-      <c r="ANR2" s="4"/>
-      <c r="ANS2" s="4"/>
-      <c r="ANT2" s="4"/>
-      <c r="ANU2" s="4"/>
-      <c r="ANV2" s="4"/>
-      <c r="ANW2" s="4"/>
-      <c r="ANX2" s="4"/>
-      <c r="ANY2" s="4"/>
-      <c r="ANZ2" s="4"/>
-      <c r="AOA2" s="4"/>
-      <c r="AOB2" s="4"/>
-      <c r="AOC2" s="4"/>
-      <c r="AOD2" s="4"/>
-      <c r="AOE2" s="4"/>
-      <c r="AOF2" s="4"/>
-      <c r="AOG2" s="4"/>
-      <c r="AOH2" s="4"/>
-      <c r="AOI2" s="4"/>
-      <c r="AOJ2" s="4"/>
-      <c r="AOK2" s="4"/>
-      <c r="AOL2" s="4"/>
-      <c r="AOM2" s="4"/>
-      <c r="AON2" s="4"/>
-      <c r="AOO2" s="4"/>
-      <c r="AOP2" s="4"/>
-      <c r="AOQ2" s="4"/>
-      <c r="AOR2" s="4"/>
-      <c r="AOS2" s="4"/>
-      <c r="AOT2" s="4"/>
-      <c r="AOU2" s="4"/>
-      <c r="AOV2" s="4"/>
-      <c r="AOW2" s="4"/>
-      <c r="AOX2" s="4"/>
-      <c r="AOY2" s="4"/>
-      <c r="AOZ2" s="4"/>
-      <c r="APA2" s="4"/>
-      <c r="APB2" s="4"/>
-      <c r="APC2" s="4"/>
-      <c r="APD2" s="4"/>
-      <c r="APE2" s="4"/>
-      <c r="APF2" s="4"/>
-      <c r="APG2" s="4"/>
-      <c r="APH2" s="4"/>
-      <c r="API2" s="4"/>
-      <c r="APJ2" s="4"/>
-      <c r="APK2" s="4"/>
-      <c r="APL2" s="4"/>
-      <c r="APM2" s="4"/>
-      <c r="APN2" s="4"/>
-      <c r="APO2" s="4"/>
-      <c r="APP2" s="4"/>
-      <c r="APQ2" s="4"/>
-      <c r="APR2" s="4"/>
-      <c r="APS2" s="4"/>
-      <c r="APT2" s="4"/>
-      <c r="APU2" s="4"/>
-      <c r="APV2" s="4"/>
-      <c r="APW2" s="4"/>
-      <c r="APX2" s="4"/>
-      <c r="APY2" s="4"/>
-      <c r="APZ2" s="4"/>
-      <c r="AQA2" s="4"/>
-      <c r="AQB2" s="4"/>
-      <c r="AQC2" s="4"/>
-      <c r="AQD2" s="4"/>
-      <c r="AQE2" s="4"/>
-      <c r="AQF2" s="4"/>
-      <c r="AQG2" s="4"/>
-      <c r="AQH2" s="4"/>
-      <c r="AQI2" s="4"/>
-      <c r="AQJ2" s="4"/>
-      <c r="AQK2" s="4"/>
-      <c r="AQL2" s="4"/>
-      <c r="AQM2" s="4"/>
-      <c r="AQN2" s="4"/>
-      <c r="AQO2" s="4"/>
-      <c r="AQP2" s="4"/>
-      <c r="AQQ2" s="4"/>
-      <c r="AQR2" s="4"/>
-      <c r="AQS2" s="4"/>
-      <c r="AQT2" s="4"/>
-      <c r="AQU2" s="4"/>
-      <c r="AQV2" s="4"/>
-      <c r="AQW2" s="4"/>
-      <c r="AQX2" s="4"/>
-      <c r="AQY2" s="4"/>
-      <c r="AQZ2" s="4"/>
-      <c r="ARA2" s="4"/>
-      <c r="ARB2" s="4"/>
-      <c r="ARC2" s="4"/>
-      <c r="ARD2" s="4"/>
-      <c r="ARE2" s="4"/>
-      <c r="ARF2" s="4"/>
-      <c r="ARG2" s="4"/>
-      <c r="ARH2" s="4"/>
-      <c r="ARI2" s="4"/>
-      <c r="ARJ2" s="4"/>
-      <c r="ARK2" s="4"/>
-      <c r="ARL2" s="4"/>
-      <c r="ARM2" s="4"/>
-      <c r="ARN2" s="4"/>
-      <c r="ARO2" s="4"/>
-      <c r="ARP2" s="4"/>
-      <c r="ARQ2" s="4"/>
-      <c r="ARR2" s="4"/>
-      <c r="ARS2" s="4"/>
-      <c r="ART2" s="4"/>
-      <c r="ARU2" s="4"/>
-      <c r="ARV2" s="4"/>
-      <c r="ARW2" s="4"/>
-      <c r="ARX2" s="4"/>
-      <c r="ARY2" s="4"/>
-      <c r="ARZ2" s="4"/>
-      <c r="ASA2" s="4"/>
-      <c r="ASB2" s="4"/>
-      <c r="ASC2" s="4"/>
-      <c r="ASD2" s="4"/>
-      <c r="ASE2" s="4"/>
-      <c r="ASF2" s="4"/>
-      <c r="ASG2" s="4"/>
-      <c r="ASH2" s="4"/>
-      <c r="ASI2" s="4"/>
-      <c r="ASJ2" s="4"/>
-      <c r="ASK2" s="4"/>
-      <c r="ASL2" s="4"/>
-      <c r="ASM2" s="4"/>
-      <c r="ASN2" s="4"/>
-      <c r="ASO2" s="4"/>
-      <c r="ASP2" s="4"/>
-      <c r="ASQ2" s="4"/>
-      <c r="ASR2" s="4"/>
-      <c r="ASS2" s="4"/>
-      <c r="AST2" s="4"/>
-      <c r="ASU2" s="4"/>
-      <c r="ASV2" s="4"/>
-      <c r="ASW2" s="4"/>
-      <c r="ASX2" s="4"/>
-      <c r="ASY2" s="4"/>
-      <c r="ASZ2" s="4"/>
-      <c r="ATA2" s="4"/>
-      <c r="ATB2" s="4"/>
-      <c r="ATC2" s="4"/>
-      <c r="ATD2" s="4"/>
-      <c r="ATE2" s="4"/>
-      <c r="ATF2" s="4"/>
-      <c r="ATG2" s="4"/>
-      <c r="ATH2" s="4"/>
-      <c r="ATI2" s="4"/>
-      <c r="ATJ2" s="4"/>
-      <c r="ATK2" s="4"/>
-      <c r="ATL2" s="4"/>
-      <c r="ATM2" s="4"/>
-      <c r="ATN2" s="4"/>
-      <c r="ATO2" s="4"/>
-      <c r="ATP2" s="4"/>
-      <c r="ATQ2" s="4"/>
-      <c r="ATR2" s="4"/>
-      <c r="ATS2" s="4"/>
-      <c r="ATT2" s="4"/>
-      <c r="ATU2" s="4"/>
-      <c r="ATV2" s="4"/>
-      <c r="ATW2" s="4"/>
-      <c r="ATX2" s="4"/>
-      <c r="ATY2" s="4"/>
-      <c r="ATZ2" s="4"/>
-      <c r="AUA2" s="4"/>
-      <c r="AUB2" s="4"/>
-      <c r="AUC2" s="4"/>
-      <c r="AUD2" s="4"/>
-      <c r="AUE2" s="4"/>
-      <c r="AUF2" s="4"/>
-      <c r="AUG2" s="4"/>
-      <c r="AUH2" s="4"/>
-      <c r="AUI2" s="4"/>
-      <c r="AUJ2" s="4"/>
-      <c r="AUK2" s="4"/>
-      <c r="AUL2" s="4"/>
-      <c r="AUM2" s="4"/>
-      <c r="AUN2" s="4"/>
-      <c r="AUO2" s="4"/>
-      <c r="AUP2" s="4"/>
-      <c r="AUQ2" s="4"/>
-      <c r="AUR2" s="4"/>
-      <c r="AUS2" s="4"/>
-      <c r="AUT2" s="4"/>
-      <c r="AUU2" s="4"/>
-      <c r="AUV2" s="4"/>
-      <c r="AUW2" s="4"/>
-      <c r="AUX2" s="4"/>
-      <c r="AUY2" s="4"/>
-      <c r="AUZ2" s="4"/>
-      <c r="AVA2" s="4"/>
-      <c r="AVB2" s="4"/>
-      <c r="AVC2" s="4"/>
-      <c r="AVD2" s="4"/>
-      <c r="AVE2" s="4"/>
-      <c r="AVF2" s="4"/>
-      <c r="AVG2" s="4"/>
-      <c r="AVH2" s="4"/>
-      <c r="AVI2" s="4"/>
-      <c r="AVJ2" s="4"/>
-      <c r="AVK2" s="4"/>
-      <c r="AVL2" s="4"/>
-      <c r="AVM2" s="4"/>
-      <c r="AVN2" s="4"/>
-      <c r="AVO2" s="4"/>
-      <c r="AVP2" s="4"/>
-      <c r="AVQ2" s="4"/>
-      <c r="AVR2" s="4"/>
-      <c r="AVS2" s="4"/>
-      <c r="AVT2" s="4"/>
-      <c r="AVU2" s="4"/>
-      <c r="AVV2" s="4"/>
-      <c r="AVW2" s="4"/>
-      <c r="AVX2" s="4"/>
-      <c r="AVY2" s="4"/>
-      <c r="AVZ2" s="4"/>
-      <c r="AWA2" s="4"/>
-      <c r="AWB2" s="4"/>
-      <c r="AWC2" s="4"/>
-      <c r="AWD2" s="4"/>
-      <c r="AWE2" s="4"/>
-      <c r="AWF2" s="4"/>
-      <c r="AWG2" s="4"/>
-      <c r="AWH2" s="4"/>
-      <c r="AWI2" s="4"/>
-      <c r="AWJ2" s="4"/>
-      <c r="AWK2" s="4"/>
-      <c r="AWL2" s="4"/>
-      <c r="AWM2" s="4"/>
-      <c r="AWN2" s="4"/>
-      <c r="AWO2" s="4"/>
-      <c r="AWP2" s="4"/>
-      <c r="AWQ2" s="4"/>
-      <c r="AWR2" s="4"/>
-      <c r="AWS2" s="4"/>
-      <c r="AWT2" s="4"/>
-      <c r="AWU2" s="4"/>
-      <c r="AWV2" s="4"/>
-      <c r="AWW2" s="4"/>
-      <c r="AWX2" s="4"/>
-      <c r="AWY2" s="4"/>
-      <c r="AWZ2" s="4"/>
-      <c r="AXA2" s="4"/>
-      <c r="AXB2" s="4"/>
-      <c r="AXC2" s="4"/>
-      <c r="AXD2" s="4"/>
-      <c r="AXE2" s="4"/>
-      <c r="AXF2" s="4"/>
-      <c r="AXG2" s="4"/>
-      <c r="AXH2" s="4"/>
-      <c r="AXI2" s="4"/>
-      <c r="AXJ2" s="4"/>
-      <c r="AXK2" s="4"/>
-      <c r="AXL2" s="4"/>
-      <c r="AXM2" s="4"/>
-      <c r="AXN2" s="4"/>
-      <c r="AXO2" s="4"/>
-      <c r="AXP2" s="4"/>
-      <c r="AXQ2" s="4"/>
-      <c r="AXR2" s="4"/>
-      <c r="AXS2" s="4"/>
-      <c r="AXT2" s="4"/>
-      <c r="AXU2" s="4"/>
-      <c r="AXV2" s="4"/>
-      <c r="AXW2" s="4"/>
-      <c r="AXX2" s="4"/>
-      <c r="AXY2" s="4"/>
-      <c r="AXZ2" s="4"/>
-      <c r="AYA2" s="4"/>
-      <c r="AYB2" s="4"/>
-      <c r="AYC2" s="4"/>
-      <c r="AYD2" s="4"/>
-      <c r="AYE2" s="4"/>
-      <c r="AYF2" s="4"/>
-      <c r="AYG2" s="4"/>
-      <c r="AYH2" s="4"/>
-      <c r="AYI2" s="4"/>
-      <c r="AYJ2" s="4"/>
-      <c r="AYK2" s="4"/>
-      <c r="AYL2" s="4"/>
-      <c r="AYM2" s="4"/>
-      <c r="AYN2" s="4"/>
-      <c r="AYO2" s="4"/>
-      <c r="AYP2" s="4"/>
-      <c r="AYQ2" s="4"/>
-      <c r="AYR2" s="4"/>
-      <c r="AYS2" s="4"/>
-      <c r="AYT2" s="4"/>
-      <c r="AYU2" s="4"/>
-      <c r="AYV2" s="4"/>
-      <c r="AYW2" s="4"/>
-      <c r="AYX2" s="4"/>
-      <c r="AYY2" s="4"/>
-      <c r="AYZ2" s="4"/>
-      <c r="AZA2" s="4"/>
-      <c r="AZB2" s="4"/>
-      <c r="AZC2" s="4"/>
-      <c r="AZD2" s="4"/>
-      <c r="AZE2" s="4"/>
-      <c r="AZF2" s="4"/>
-      <c r="AZG2" s="4"/>
-      <c r="AZH2" s="4"/>
-      <c r="AZI2" s="4"/>
-      <c r="AZJ2" s="4"/>
-      <c r="AZK2" s="4"/>
-      <c r="AZL2" s="4"/>
-      <c r="AZM2" s="4"/>
-      <c r="AZN2" s="4"/>
-      <c r="AZO2" s="4"/>
-      <c r="AZP2" s="4"/>
-      <c r="AZQ2" s="4"/>
-      <c r="AZR2" s="4"/>
-      <c r="AZS2" s="4"/>
-      <c r="AZT2" s="4"/>
-      <c r="AZU2" s="4"/>
-      <c r="AZV2" s="4"/>
-      <c r="AZW2" s="4"/>
-      <c r="AZX2" s="4"/>
-      <c r="AZY2" s="4"/>
-      <c r="AZZ2" s="4"/>
-      <c r="BAA2" s="4"/>
-      <c r="BAB2" s="4"/>
-      <c r="BAC2" s="4"/>
-      <c r="BAD2" s="4"/>
-      <c r="BAE2" s="4"/>
-      <c r="BAF2" s="4"/>
-      <c r="BAG2" s="4"/>
-      <c r="BAH2" s="4"/>
-      <c r="BAI2" s="4"/>
-      <c r="BAJ2" s="4"/>
-      <c r="BAK2" s="4"/>
-      <c r="BAL2" s="4"/>
-      <c r="BAM2" s="4"/>
-      <c r="BAN2" s="4"/>
-      <c r="BAO2" s="4"/>
-      <c r="BAP2" s="4"/>
-      <c r="BAQ2" s="4"/>
-      <c r="BAR2" s="4"/>
-      <c r="BAS2" s="4"/>
-      <c r="BAT2" s="4"/>
-      <c r="BAU2" s="4"/>
-      <c r="BAV2" s="4"/>
-      <c r="BAW2" s="4"/>
-      <c r="BAX2" s="4"/>
-      <c r="BAY2" s="4"/>
-      <c r="BAZ2" s="4"/>
-      <c r="BBA2" s="4"/>
-      <c r="BBB2" s="4"/>
-      <c r="BBC2" s="4"/>
-      <c r="BBD2" s="4"/>
-      <c r="BBE2" s="4"/>
-      <c r="BBF2" s="4"/>
-      <c r="BBG2" s="4"/>
-      <c r="BBH2" s="4"/>
-      <c r="BBI2" s="4"/>
-      <c r="BBJ2" s="4"/>
-      <c r="BBK2" s="4"/>
-      <c r="BBL2" s="4"/>
-      <c r="BBM2" s="4"/>
-      <c r="BBN2" s="4"/>
-      <c r="BBO2" s="4"/>
-      <c r="BBP2" s="4"/>
-      <c r="BBQ2" s="4"/>
-      <c r="BBR2" s="4"/>
-      <c r="BBS2" s="4"/>
-      <c r="BBT2" s="4"/>
-      <c r="BBU2" s="4"/>
-      <c r="BBV2" s="4"/>
-      <c r="BBW2" s="4"/>
-      <c r="BBX2" s="4"/>
-      <c r="BBY2" s="4"/>
-      <c r="BBZ2" s="4"/>
-      <c r="BCA2" s="4"/>
-      <c r="BCB2" s="4"/>
-      <c r="BCC2" s="4"/>
-      <c r="BCD2" s="4"/>
-      <c r="BCE2" s="4"/>
-      <c r="BCF2" s="4"/>
-      <c r="BCG2" s="4"/>
-      <c r="BCH2" s="4"/>
-      <c r="BCI2" s="4"/>
-      <c r="BCJ2" s="4"/>
-      <c r="BCK2" s="4"/>
-      <c r="BCL2" s="4"/>
-      <c r="BCM2" s="4"/>
-      <c r="BCN2" s="4"/>
-      <c r="BCO2" s="4"/>
-      <c r="BCP2" s="4"/>
-      <c r="BCQ2" s="4"/>
-      <c r="BCR2" s="4"/>
-      <c r="BCS2" s="4"/>
-      <c r="BCT2" s="4"/>
-      <c r="BCU2" s="4"/>
-      <c r="BCV2" s="4"/>
-      <c r="BCW2" s="4"/>
-      <c r="BCX2" s="4"/>
-      <c r="BCY2" s="4"/>
-      <c r="BCZ2" s="4"/>
-      <c r="BDA2" s="4"/>
-      <c r="BDB2" s="4"/>
-      <c r="BDC2" s="4"/>
-      <c r="BDD2" s="4"/>
-      <c r="BDE2" s="4"/>
-      <c r="BDF2" s="4"/>
-      <c r="BDG2" s="4"/>
-      <c r="BDH2" s="4"/>
-      <c r="BDI2" s="4"/>
-      <c r="BDJ2" s="4"/>
-      <c r="BDK2" s="4"/>
-      <c r="BDL2" s="4"/>
-      <c r="BDM2" s="4"/>
-      <c r="BDN2" s="4"/>
-      <c r="BDO2" s="4"/>
-      <c r="BDP2" s="4"/>
-      <c r="BDQ2" s="4"/>
-      <c r="BDR2" s="4"/>
-      <c r="BDS2" s="4"/>
-      <c r="BDT2" s="4"/>
-      <c r="BDU2" s="4"/>
-      <c r="BDV2" s="4"/>
-      <c r="BDW2" s="4"/>
-      <c r="BDX2" s="4"/>
-      <c r="BDY2" s="4"/>
-      <c r="BDZ2" s="4"/>
-      <c r="BEA2" s="4"/>
-      <c r="BEB2" s="4"/>
-      <c r="BEC2" s="4"/>
-      <c r="BED2" s="4"/>
-      <c r="BEE2" s="4"/>
-      <c r="BEF2" s="4"/>
-      <c r="BEG2" s="4"/>
-      <c r="BEH2" s="4"/>
-      <c r="BEI2" s="4"/>
-      <c r="BEJ2" s="4"/>
-      <c r="BEK2" s="4"/>
-      <c r="BEL2" s="4"/>
-      <c r="BEM2" s="4"/>
-      <c r="BEN2" s="4"/>
-      <c r="BEO2" s="4"/>
-      <c r="BEP2" s="4"/>
-      <c r="BEQ2" s="4"/>
-      <c r="BER2" s="4"/>
-      <c r="BES2" s="4"/>
-      <c r="BET2" s="4"/>
-      <c r="BEU2" s="4"/>
-      <c r="BEV2" s="4"/>
-      <c r="BEW2" s="4"/>
-      <c r="BEX2" s="4"/>
-      <c r="BEY2" s="4"/>
-      <c r="BEZ2" s="4"/>
-      <c r="BFA2" s="4"/>
-      <c r="BFB2" s="4"/>
-      <c r="BFC2" s="4"/>
-      <c r="BFD2" s="4"/>
-      <c r="BFE2" s="4"/>
-      <c r="BFF2" s="4"/>
-      <c r="BFG2" s="4"/>
-      <c r="BFH2" s="4"/>
-      <c r="BFI2" s="4"/>
-      <c r="BFJ2" s="4"/>
-      <c r="BFK2" s="4"/>
-      <c r="BFL2" s="4"/>
-      <c r="BFM2" s="4"/>
-      <c r="BFN2" s="4"/>
-      <c r="BFO2" s="4"/>
-      <c r="BFP2" s="4"/>
-      <c r="BFQ2" s="4"/>
-      <c r="BFR2" s="4"/>
-      <c r="BFS2" s="4"/>
-      <c r="BFT2" s="4"/>
-      <c r="BFU2" s="4"/>
-      <c r="BFV2" s="4"/>
-      <c r="BFW2" s="4"/>
-      <c r="BFX2" s="4"/>
-      <c r="BFY2" s="4"/>
-      <c r="BFZ2" s="4"/>
-      <c r="BGA2" s="4"/>
-      <c r="BGB2" s="4"/>
-      <c r="BGC2" s="4"/>
-      <c r="BGD2" s="4"/>
-      <c r="BGE2" s="4"/>
-      <c r="BGF2" s="4"/>
-      <c r="BGG2" s="4"/>
-      <c r="BGH2" s="4"/>
-      <c r="BGI2" s="4"/>
-      <c r="BGJ2" s="4"/>
-      <c r="BGK2" s="4"/>
-      <c r="BGL2" s="4"/>
-      <c r="BGM2" s="4"/>
-      <c r="BGN2" s="4"/>
-      <c r="BGO2" s="4"/>
-      <c r="BGP2" s="4"/>
-      <c r="BGQ2" s="4"/>
-      <c r="BGR2" s="4"/>
-      <c r="BGS2" s="4"/>
-      <c r="BGT2" s="4"/>
-      <c r="BGU2" s="4"/>
-      <c r="BGV2" s="4"/>
-      <c r="BGW2" s="4"/>
-      <c r="BGX2" s="4"/>
-      <c r="BGY2" s="4"/>
-      <c r="BGZ2" s="4"/>
-      <c r="BHA2" s="4"/>
-      <c r="BHB2" s="4"/>
-      <c r="BHC2" s="4"/>
-      <c r="BHD2" s="4"/>
-      <c r="BHE2" s="4"/>
-      <c r="BHF2" s="4"/>
-      <c r="BHG2" s="4"/>
-      <c r="BHH2" s="4"/>
-      <c r="BHI2" s="4"/>
-      <c r="BHJ2" s="4"/>
-      <c r="BHK2" s="4"/>
-      <c r="BHL2" s="4"/>
-      <c r="BHM2" s="4"/>
-      <c r="BHN2" s="4"/>
-      <c r="BHO2" s="4"/>
-      <c r="BHP2" s="4"/>
-      <c r="BHQ2" s="4"/>
-      <c r="BHR2" s="4"/>
-      <c r="BHS2" s="4"/>
-      <c r="BHT2" s="4"/>
-      <c r="BHU2" s="4"/>
-      <c r="BHV2" s="4"/>
-      <c r="BHW2" s="4"/>
-      <c r="BHX2" s="4"/>
-      <c r="BHY2" s="4"/>
-      <c r="BHZ2" s="4"/>
-      <c r="BIA2" s="4"/>
-      <c r="BIB2" s="4"/>
-      <c r="BIC2" s="4"/>
-      <c r="BID2" s="4"/>
-      <c r="BIE2" s="4"/>
-      <c r="BIF2" s="4"/>
-      <c r="BIG2" s="4"/>
-      <c r="BIH2" s="4"/>
-      <c r="BII2" s="4"/>
-      <c r="BIJ2" s="4"/>
-      <c r="BIK2" s="4"/>
-      <c r="BIL2" s="4"/>
-      <c r="BIM2" s="4"/>
-      <c r="BIN2" s="4"/>
-      <c r="BIO2" s="4"/>
-      <c r="BIP2" s="4"/>
-      <c r="BIQ2" s="4"/>
-      <c r="BIR2" s="4"/>
-      <c r="BIS2" s="4"/>
-      <c r="BIT2" s="4"/>
-      <c r="BIU2" s="4"/>
-      <c r="BIV2" s="4"/>
-      <c r="BIW2" s="4"/>
-      <c r="BIX2" s="4"/>
-      <c r="BIY2" s="4"/>
-      <c r="BIZ2" s="4"/>
-      <c r="BJA2" s="4"/>
-      <c r="BJB2" s="4"/>
-      <c r="BJC2" s="4"/>
-      <c r="BJD2" s="4"/>
-      <c r="BJE2" s="4"/>
-      <c r="BJF2" s="4"/>
-      <c r="BJG2" s="4"/>
-      <c r="BJH2" s="4"/>
-      <c r="BJI2" s="4"/>
-      <c r="BJJ2" s="4"/>
-      <c r="BJK2" s="4"/>
-      <c r="BJL2" s="4"/>
-      <c r="BJM2" s="4"/>
-      <c r="BJN2" s="4"/>
-      <c r="BJO2" s="4"/>
-      <c r="BJP2" s="4"/>
-      <c r="BJQ2" s="4"/>
-      <c r="BJR2" s="4"/>
-      <c r="BJS2" s="4"/>
-      <c r="BJT2" s="4"/>
-      <c r="BJU2" s="4"/>
-      <c r="BJV2" s="4"/>
-      <c r="BJW2" s="4"/>
-      <c r="BJX2" s="4"/>
-      <c r="BJY2" s="4"/>
-      <c r="BJZ2" s="4"/>
-      <c r="BKA2" s="4"/>
-      <c r="BKB2" s="4"/>
-      <c r="BKC2" s="4"/>
-      <c r="BKD2" s="4"/>
-      <c r="BKE2" s="4"/>
-      <c r="BKF2" s="4"/>
-      <c r="BKG2" s="4"/>
-      <c r="BKH2" s="4"/>
-      <c r="BKI2" s="4"/>
-      <c r="BKJ2" s="4"/>
-      <c r="BKK2" s="4"/>
-      <c r="BKL2" s="4"/>
-      <c r="BKM2" s="4"/>
-      <c r="BKN2" s="4"/>
-      <c r="BKO2" s="4"/>
-      <c r="BKP2" s="4"/>
-      <c r="BKQ2" s="4"/>
-      <c r="BKR2" s="4"/>
-      <c r="BKS2" s="4"/>
-      <c r="BKT2" s="4"/>
-      <c r="BKU2" s="4"/>
-      <c r="BKV2" s="4"/>
-      <c r="BKW2" s="4"/>
-      <c r="BKX2" s="4"/>
-      <c r="BKY2" s="4"/>
-      <c r="BKZ2" s="4"/>
-      <c r="BLA2" s="4"/>
-      <c r="BLB2" s="4"/>
-      <c r="BLC2" s="4"/>
-      <c r="BLD2" s="4"/>
-      <c r="BLE2" s="4"/>
-      <c r="BLF2" s="4"/>
-      <c r="BLG2" s="4"/>
-      <c r="BLH2" s="4"/>
-      <c r="BLI2" s="4"/>
-      <c r="BLJ2" s="4"/>
-      <c r="BLK2" s="4"/>
-      <c r="BLL2" s="4"/>
-      <c r="BLM2" s="4"/>
-      <c r="BLN2" s="4"/>
-      <c r="BLO2" s="4"/>
-      <c r="BLP2" s="4"/>
-      <c r="BLQ2" s="4"/>
-      <c r="BLR2" s="4"/>
-      <c r="BLS2" s="4"/>
-      <c r="BLT2" s="4"/>
-      <c r="BLU2" s="4"/>
-      <c r="BLV2" s="4"/>
-      <c r="BLW2" s="4"/>
-      <c r="BLX2" s="4"/>
-      <c r="BLY2" s="4"/>
-      <c r="BLZ2" s="4"/>
-      <c r="BMA2" s="4"/>
-      <c r="BMB2" s="4"/>
-      <c r="BMC2" s="4"/>
-      <c r="BMD2" s="4"/>
-      <c r="BME2" s="4"/>
-      <c r="BMF2" s="4"/>
-      <c r="BMG2" s="4"/>
-      <c r="BMH2" s="4"/>
-      <c r="BMI2" s="4"/>
-      <c r="BMJ2" s="4"/>
-      <c r="BMK2" s="4"/>
-      <c r="BML2" s="4"/>
-      <c r="BMM2" s="4"/>
-      <c r="BMN2" s="4"/>
-      <c r="BMO2" s="4"/>
-      <c r="BMP2" s="4"/>
-      <c r="BMQ2" s="4"/>
-      <c r="BMR2" s="4"/>
-      <c r="BMS2" s="4"/>
-      <c r="BMT2" s="4"/>
-      <c r="BMU2" s="4"/>
-      <c r="BMV2" s="4"/>
-      <c r="BMW2" s="4"/>
-      <c r="BMX2" s="4"/>
-      <c r="BMY2" s="4"/>
-      <c r="BMZ2" s="4"/>
-      <c r="BNA2" s="4"/>
-      <c r="BNB2" s="4"/>
-      <c r="BNC2" s="4"/>
-      <c r="BND2" s="4"/>
-      <c r="BNE2" s="4"/>
-      <c r="BNF2" s="4"/>
-      <c r="BNG2" s="4"/>
-      <c r="BNH2" s="4"/>
-      <c r="BNI2" s="4"/>
-      <c r="BNJ2" s="4"/>
-      <c r="BNK2" s="4"/>
-      <c r="BNL2" s="4"/>
-      <c r="BNM2" s="4"/>
-      <c r="BNN2" s="4"/>
-      <c r="BNO2" s="4"/>
-      <c r="BNP2" s="4"/>
-      <c r="BNQ2" s="4"/>
-      <c r="BNR2" s="4"/>
-      <c r="BNS2" s="4"/>
-      <c r="BNT2" s="4"/>
-      <c r="BNU2" s="4"/>
-      <c r="BNV2" s="4"/>
-      <c r="BNW2" s="4"/>
-      <c r="BNX2" s="4"/>
-      <c r="BNY2" s="4"/>
-      <c r="BNZ2" s="4"/>
-      <c r="BOA2" s="4"/>
-      <c r="BOB2" s="4"/>
-      <c r="BOC2" s="4"/>
-      <c r="BOD2" s="4"/>
-      <c r="BOE2" s="4"/>
-      <c r="BOF2" s="4"/>
-      <c r="BOG2" s="4"/>
-      <c r="BOH2" s="4"/>
-      <c r="BOI2" s="4"/>
-      <c r="BOJ2" s="4"/>
-      <c r="BOK2" s="4"/>
-      <c r="BOL2" s="4"/>
-      <c r="BOM2" s="4"/>
-      <c r="BON2" s="4"/>
-      <c r="BOO2" s="4"/>
-      <c r="BOP2" s="4"/>
-      <c r="BOQ2" s="4"/>
-      <c r="BOR2" s="4"/>
-      <c r="BOS2" s="4"/>
-      <c r="BOT2" s="4"/>
-      <c r="BOU2" s="4"/>
-      <c r="BOV2" s="4"/>
-      <c r="BOW2" s="4"/>
-      <c r="BOX2" s="4"/>
-      <c r="BOY2" s="4"/>
-      <c r="BOZ2" s="4"/>
-      <c r="BPA2" s="4"/>
-      <c r="BPB2" s="4"/>
-      <c r="BPC2" s="4"/>
-      <c r="BPD2" s="4"/>
-      <c r="BPE2" s="4"/>
-      <c r="BPF2" s="4"/>
-      <c r="BPG2" s="4"/>
-      <c r="BPH2" s="4"/>
-      <c r="BPI2" s="4"/>
-      <c r="BPJ2" s="4"/>
-      <c r="BPK2" s="4"/>
-      <c r="BPL2" s="4"/>
-      <c r="BPM2" s="4"/>
-      <c r="BPN2" s="4"/>
-      <c r="BPO2" s="4"/>
-      <c r="BPP2" s="4"/>
-      <c r="BPQ2" s="4"/>
-      <c r="BPR2" s="4"/>
-      <c r="BPS2" s="4"/>
-      <c r="BPT2" s="4"/>
-      <c r="BPU2" s="4"/>
-      <c r="BPV2" s="4"/>
-      <c r="BPW2" s="4"/>
-      <c r="BPX2" s="4"/>
-      <c r="BPY2" s="4"/>
-      <c r="BPZ2" s="4"/>
-      <c r="BQA2" s="4"/>
-      <c r="BQB2" s="4"/>
-      <c r="BQC2" s="4"/>
-      <c r="BQD2" s="4"/>
-      <c r="BQE2" s="4"/>
-      <c r="BQF2" s="4"/>
-      <c r="BQG2" s="4"/>
-      <c r="BQH2" s="4"/>
-      <c r="BQI2" s="4"/>
-      <c r="BQJ2" s="4"/>
-      <c r="BQK2" s="4"/>
-      <c r="BQL2" s="4"/>
-      <c r="BQM2" s="4"/>
-      <c r="BQN2" s="4"/>
-      <c r="BQO2" s="4"/>
-      <c r="BQP2" s="4"/>
-      <c r="BQQ2" s="4"/>
-      <c r="BQR2" s="4"/>
-      <c r="BQS2" s="4"/>
-      <c r="BQT2" s="4"/>
-      <c r="BQU2" s="4"/>
-      <c r="BQV2" s="4"/>
-      <c r="BQW2" s="4"/>
-      <c r="BQX2" s="4"/>
-      <c r="BQY2" s="4"/>
-      <c r="BQZ2" s="4"/>
-      <c r="BRA2" s="4"/>
-      <c r="BRB2" s="4"/>
-      <c r="BRC2" s="4"/>
-      <c r="BRD2" s="4"/>
-      <c r="BRE2" s="4"/>
-      <c r="BRF2" s="4"/>
-      <c r="BRG2" s="4"/>
-      <c r="BRH2" s="4"/>
-      <c r="BRI2" s="4"/>
-      <c r="BRJ2" s="4"/>
-      <c r="BRK2" s="4"/>
-      <c r="BRL2" s="4"/>
-      <c r="BRM2" s="4"/>
-      <c r="BRN2" s="4"/>
-      <c r="BRO2" s="4"/>
-      <c r="BRP2" s="4"/>
-      <c r="BRQ2" s="4"/>
-      <c r="BRR2" s="4"/>
-      <c r="BRS2" s="4"/>
-      <c r="BRT2" s="4"/>
-      <c r="BRU2" s="4"/>
-      <c r="BRV2" s="4"/>
-      <c r="BRW2" s="4"/>
-      <c r="BRX2" s="4"/>
-      <c r="BRY2" s="4"/>
-      <c r="BRZ2" s="4"/>
-      <c r="BSA2" s="4"/>
-      <c r="BSB2" s="4"/>
-      <c r="BSC2" s="4"/>
-      <c r="BSD2" s="4"/>
-      <c r="BSE2" s="4"/>
-      <c r="BSF2" s="4"/>
-      <c r="BSG2" s="4"/>
-      <c r="BSH2" s="4"/>
-      <c r="BSI2" s="4"/>
-      <c r="BSJ2" s="4"/>
-      <c r="BSK2" s="4"/>
-      <c r="BSL2" s="4"/>
-      <c r="BSM2" s="4"/>
-      <c r="BSN2" s="4"/>
-      <c r="BSO2" s="4"/>
-      <c r="BSP2" s="4"/>
-      <c r="BSQ2" s="4"/>
-      <c r="BSR2" s="4"/>
-      <c r="BSS2" s="4"/>
-      <c r="BST2" s="4"/>
-      <c r="BSU2" s="4"/>
-      <c r="BSV2" s="4"/>
-      <c r="BSW2" s="4"/>
-      <c r="BSX2" s="4"/>
-      <c r="BSY2" s="4"/>
-      <c r="BSZ2" s="4"/>
-      <c r="BTA2" s="4"/>
-      <c r="BTB2" s="4"/>
-      <c r="BTC2" s="4"/>
-      <c r="BTD2" s="4"/>
-      <c r="BTE2" s="4"/>
-      <c r="BTF2" s="4"/>
-      <c r="BTG2" s="4"/>
-      <c r="BTH2" s="4"/>
-      <c r="BTI2" s="4"/>
-      <c r="BTJ2" s="4"/>
-      <c r="BTK2" s="4"/>
-      <c r="BTL2" s="4"/>
-      <c r="BTM2" s="4"/>
-      <c r="BTN2" s="4"/>
-      <c r="BTO2" s="4"/>
-      <c r="BTP2" s="4"/>
-      <c r="BTQ2" s="4"/>
-      <c r="BTR2" s="4"/>
-      <c r="BTS2" s="4"/>
-      <c r="BTT2" s="4"/>
-      <c r="BTU2" s="4"/>
-      <c r="BTV2" s="4"/>
-      <c r="BTW2" s="4"/>
-      <c r="BTX2" s="4"/>
-      <c r="BTY2" s="4"/>
-      <c r="BTZ2" s="4"/>
-      <c r="BUA2" s="4"/>
-      <c r="BUB2" s="4"/>
-      <c r="BUC2" s="4"/>
-      <c r="BUD2" s="4"/>
-      <c r="BUE2" s="4"/>
-      <c r="BUF2" s="4"/>
-      <c r="BUG2" s="4"/>
-      <c r="BUH2" s="4"/>
-      <c r="BUI2" s="4"/>
-      <c r="BUJ2" s="4"/>
-      <c r="BUK2" s="4"/>
-      <c r="BUL2" s="4"/>
-      <c r="BUM2" s="4"/>
-      <c r="BUN2" s="4"/>
-      <c r="BUO2" s="4"/>
-      <c r="BUP2" s="4"/>
-      <c r="BUQ2" s="4"/>
-      <c r="BUR2" s="4"/>
-      <c r="BUS2" s="4"/>
-      <c r="BUT2" s="4"/>
-      <c r="BUU2" s="4"/>
-      <c r="BUV2" s="4"/>
-      <c r="BUW2" s="4"/>
-      <c r="BUX2" s="4"/>
-      <c r="BUY2" s="4"/>
-      <c r="BUZ2" s="4"/>
-      <c r="BVA2" s="4"/>
-      <c r="BVB2" s="4"/>
-      <c r="BVC2" s="4"/>
-      <c r="BVD2" s="4"/>
-      <c r="BVE2" s="4"/>
-      <c r="BVF2" s="4"/>
-      <c r="BVG2" s="4"/>
-      <c r="BVH2" s="4"/>
-      <c r="BVI2" s="4"/>
-      <c r="BVJ2" s="4"/>
-      <c r="BVK2" s="4"/>
-      <c r="BVL2" s="4"/>
-      <c r="BVM2" s="4"/>
-      <c r="BVN2" s="4"/>
-      <c r="BVO2" s="4"/>
-      <c r="BVP2" s="4"/>
-      <c r="BVQ2" s="4"/>
-      <c r="BVR2" s="4"/>
-      <c r="BVS2" s="4"/>
-      <c r="BVT2" s="4"/>
-      <c r="BVU2" s="4"/>
-      <c r="BVV2" s="4"/>
-      <c r="BVW2" s="4"/>
-      <c r="BVX2" s="4"/>
-      <c r="BVY2" s="4"/>
-      <c r="BVZ2" s="4"/>
-      <c r="BWA2" s="4"/>
-      <c r="BWB2" s="4"/>
-      <c r="BWC2" s="4"/>
-      <c r="BWD2" s="4"/>
-      <c r="BWE2" s="4"/>
-      <c r="BWF2" s="4"/>
-      <c r="BWG2" s="4"/>
-      <c r="BWH2" s="4"/>
-      <c r="BWI2" s="4"/>
-      <c r="BWJ2" s="4"/>
-      <c r="BWK2" s="4"/>
-      <c r="BWL2" s="4"/>
-      <c r="BWM2" s="4"/>
-      <c r="BWN2" s="4"/>
-      <c r="BWO2" s="4"/>
-      <c r="BWP2" s="4"/>
-      <c r="BWQ2" s="4"/>
-      <c r="BWR2" s="4"/>
-      <c r="BWS2" s="4"/>
-      <c r="BWT2" s="4"/>
-      <c r="BWU2" s="4"/>
-      <c r="BWV2" s="4"/>
-      <c r="BWW2" s="4"/>
-      <c r="BWX2" s="4"/>
-      <c r="BWY2" s="4"/>
-      <c r="BWZ2" s="4"/>
-      <c r="BXA2" s="4"/>
-      <c r="BXB2" s="4"/>
-      <c r="BXC2" s="4"/>
-      <c r="BXD2" s="4"/>
-      <c r="BXE2" s="4"/>
-      <c r="BXF2" s="4"/>
-      <c r="BXG2" s="4"/>
-      <c r="BXH2" s="4"/>
-      <c r="BXI2" s="4"/>
-      <c r="BXJ2" s="4"/>
-      <c r="BXK2" s="4"/>
-      <c r="BXL2" s="4"/>
-      <c r="BXM2" s="4"/>
-      <c r="BXN2" s="4"/>
-      <c r="BXO2" s="4"/>
-      <c r="BXP2" s="4"/>
-      <c r="BXQ2" s="4"/>
-      <c r="BXR2" s="4"/>
-      <c r="BXS2" s="4"/>
-      <c r="BXT2" s="4"/>
-      <c r="BXU2" s="4"/>
-      <c r="BXV2" s="4"/>
-      <c r="BXW2" s="4"/>
-      <c r="BXX2" s="4"/>
-      <c r="BXY2" s="4"/>
-      <c r="BXZ2" s="4"/>
-      <c r="BYA2" s="4"/>
-      <c r="BYB2" s="4"/>
-      <c r="BYC2" s="4"/>
-      <c r="BYD2" s="4"/>
-      <c r="BYE2" s="4"/>
-      <c r="BYF2" s="4"/>
-      <c r="BYG2" s="4"/>
-      <c r="BYH2" s="4"/>
-      <c r="BYI2" s="4"/>
-      <c r="BYJ2" s="4"/>
-      <c r="BYK2" s="4"/>
-      <c r="BYL2" s="4"/>
-      <c r="BYM2" s="4"/>
-      <c r="BYN2" s="4"/>
-      <c r="BYO2" s="4"/>
-      <c r="BYP2" s="4"/>
-      <c r="BYQ2" s="4"/>
-      <c r="BYR2" s="4"/>
-      <c r="BYS2" s="4"/>
-      <c r="BYT2" s="4"/>
-      <c r="BYU2" s="4"/>
-      <c r="BYV2" s="4"/>
-      <c r="BYW2" s="4"/>
-      <c r="BYX2" s="4"/>
-      <c r="BYY2" s="4"/>
-      <c r="BYZ2" s="4"/>
-      <c r="BZA2" s="4"/>
-      <c r="BZB2" s="4"/>
-      <c r="BZC2" s="4"/>
-      <c r="BZD2" s="4"/>
-      <c r="BZE2" s="4"/>
-      <c r="BZF2" s="4"/>
-      <c r="BZG2" s="4"/>
-      <c r="BZH2" s="4"/>
-      <c r="BZI2" s="4"/>
-      <c r="BZJ2" s="4"/>
-      <c r="BZK2" s="4"/>
-      <c r="BZL2" s="4"/>
-      <c r="BZM2" s="4"/>
-      <c r="BZN2" s="4"/>
-      <c r="BZO2" s="4"/>
-      <c r="BZP2" s="4"/>
-      <c r="BZQ2" s="4"/>
-      <c r="BZR2" s="4"/>
-      <c r="BZS2" s="4"/>
-      <c r="BZT2" s="4"/>
-      <c r="BZU2" s="4"/>
-      <c r="BZV2" s="4"/>
-      <c r="BZW2" s="4"/>
-      <c r="BZX2" s="4"/>
-      <c r="BZY2" s="4"/>
-      <c r="BZZ2" s="4"/>
-      <c r="CAA2" s="4"/>
-      <c r="CAB2" s="4"/>
-      <c r="CAC2" s="4"/>
-      <c r="CAD2" s="4"/>
-      <c r="CAE2" s="4"/>
-      <c r="CAF2" s="4"/>
-      <c r="CAG2" s="4"/>
-      <c r="CAH2" s="4"/>
-      <c r="CAI2" s="4"/>
-      <c r="CAJ2" s="4"/>
-      <c r="CAK2" s="4"/>
-      <c r="CAL2" s="4"/>
-      <c r="CAM2" s="4"/>
-      <c r="CAN2" s="4"/>
-      <c r="CAO2" s="4"/>
-      <c r="CAP2" s="4"/>
-      <c r="CAQ2" s="4"/>
-      <c r="CAR2" s="4"/>
-      <c r="CAS2" s="4"/>
-      <c r="CAT2" s="4"/>
-      <c r="CAU2" s="4"/>
-      <c r="CAV2" s="4"/>
-      <c r="CAW2" s="4"/>
-      <c r="CAX2" s="4"/>
-      <c r="CAY2" s="4"/>
-      <c r="CAZ2" s="4"/>
-      <c r="CBA2" s="4"/>
-      <c r="CBB2" s="4"/>
-      <c r="CBC2" s="4"/>
-      <c r="CBD2" s="4"/>
-      <c r="CBE2" s="4"/>
-      <c r="CBF2" s="4"/>
-      <c r="CBG2" s="4"/>
-      <c r="CBH2" s="4"/>
-      <c r="CBI2" s="4"/>
-      <c r="CBJ2" s="4"/>
-      <c r="CBK2" s="4"/>
-      <c r="CBL2" s="4"/>
-      <c r="CBM2" s="4"/>
-      <c r="CBN2" s="4"/>
-      <c r="CBO2" s="4"/>
-      <c r="CBP2" s="4"/>
-      <c r="CBQ2" s="4"/>
-      <c r="CBR2" s="4"/>
-      <c r="CBS2" s="4"/>
-      <c r="CBT2" s="4"/>
-      <c r="CBU2" s="4"/>
-      <c r="CBV2" s="4"/>
-      <c r="CBW2" s="4"/>
-      <c r="CBX2" s="4"/>
-      <c r="CBY2" s="4"/>
-      <c r="CBZ2" s="4"/>
-      <c r="CCA2" s="4"/>
-      <c r="CCB2" s="4"/>
-      <c r="CCC2" s="4"/>
-      <c r="CCD2" s="4"/>
-      <c r="CCE2" s="4"/>
-      <c r="CCF2" s="4"/>
-      <c r="CCG2" s="4"/>
-      <c r="CCH2" s="4"/>
-      <c r="CCI2" s="4"/>
-      <c r="CCJ2" s="4"/>
-      <c r="CCK2" s="4"/>
-      <c r="CCL2" s="4"/>
-      <c r="CCM2" s="4"/>
-      <c r="CCN2" s="4"/>
-      <c r="CCO2" s="4"/>
-      <c r="CCP2" s="4"/>
-      <c r="CCQ2" s="4"/>
-      <c r="CCR2" s="4"/>
-      <c r="CCS2" s="4"/>
-      <c r="CCT2" s="4"/>
-      <c r="CCU2" s="4"/>
-      <c r="CCV2" s="4"/>
-      <c r="CCW2" s="4"/>
-      <c r="CCX2" s="4"/>
-      <c r="CCY2" s="4"/>
-      <c r="CCZ2" s="4"/>
-      <c r="CDA2" s="4"/>
-      <c r="CDB2" s="4"/>
-      <c r="CDC2" s="4"/>
-      <c r="CDD2" s="4"/>
-      <c r="CDE2" s="4"/>
-      <c r="CDF2" s="4"/>
-      <c r="CDG2" s="4"/>
-      <c r="CDH2" s="4"/>
-      <c r="CDI2" s="4"/>
-      <c r="CDJ2" s="4"/>
-      <c r="CDK2" s="4"/>
-      <c r="CDL2" s="4"/>
-      <c r="CDM2" s="4"/>
-      <c r="CDN2" s="4"/>
-      <c r="CDO2" s="4"/>
-      <c r="CDP2" s="4"/>
-      <c r="CDQ2" s="4"/>
-      <c r="CDR2" s="4"/>
-      <c r="CDS2" s="4"/>
-      <c r="CDT2" s="4"/>
-      <c r="CDU2" s="4"/>
-      <c r="CDV2" s="4"/>
-      <c r="CDW2" s="4"/>
-      <c r="CDX2" s="4"/>
-      <c r="CDY2" s="4"/>
-      <c r="CDZ2" s="4"/>
-      <c r="CEA2" s="4"/>
-      <c r="CEB2" s="4"/>
-      <c r="CEC2" s="4"/>
-      <c r="CED2" s="4"/>
-      <c r="CEE2" s="4"/>
-      <c r="CEF2" s="4"/>
-      <c r="CEG2" s="4"/>
-      <c r="CEH2" s="4"/>
-      <c r="CEI2" s="4"/>
-      <c r="CEJ2" s="4"/>
-      <c r="CEK2" s="4"/>
-      <c r="CEL2" s="4"/>
-      <c r="CEM2" s="4"/>
-      <c r="CEN2" s="4"/>
-      <c r="CEO2" s="4"/>
-      <c r="CEP2" s="4"/>
-      <c r="CEQ2" s="4"/>
-      <c r="CER2" s="4"/>
-      <c r="CES2" s="4"/>
-      <c r="CET2" s="4"/>
-      <c r="CEU2" s="4"/>
-      <c r="CEV2" s="4"/>
-      <c r="CEW2" s="4"/>
-      <c r="CEX2" s="4"/>
-      <c r="CEY2" s="4"/>
-      <c r="CEZ2" s="4"/>
-      <c r="CFA2" s="4"/>
-      <c r="CFB2" s="4"/>
-      <c r="CFC2" s="4"/>
-      <c r="CFD2" s="4"/>
-      <c r="CFE2" s="4"/>
-      <c r="CFF2" s="4"/>
-      <c r="CFG2" s="4"/>
-      <c r="CFH2" s="4"/>
-      <c r="CFI2" s="4"/>
-      <c r="CFJ2" s="4"/>
-      <c r="CFK2" s="4"/>
-      <c r="CFL2" s="4"/>
-      <c r="CFM2" s="4"/>
-      <c r="CFN2" s="4"/>
-      <c r="CFO2" s="4"/>
-      <c r="CFP2" s="4"/>
-      <c r="CFQ2" s="4"/>
-      <c r="CFR2" s="4"/>
-      <c r="CFS2" s="4"/>
-      <c r="CFT2" s="4"/>
-      <c r="CFU2" s="4"/>
-      <c r="CFV2" s="4"/>
-      <c r="CFW2" s="4"/>
-      <c r="CFX2" s="4"/>
-      <c r="CFY2" s="4"/>
-      <c r="CFZ2" s="4"/>
-      <c r="CGA2" s="4"/>
-      <c r="CGB2" s="4"/>
-      <c r="CGC2" s="4"/>
-      <c r="CGD2" s="4"/>
-      <c r="CGE2" s="4"/>
-      <c r="CGF2" s="4"/>
-      <c r="CGG2" s="4"/>
-      <c r="CGH2" s="4"/>
-      <c r="CGI2" s="4"/>
-      <c r="CGJ2" s="4"/>
-      <c r="CGK2" s="4"/>
-      <c r="CGL2" s="4"/>
-      <c r="CGM2" s="4"/>
-      <c r="CGN2" s="4"/>
-      <c r="CGO2" s="4"/>
-      <c r="CGP2" s="4"/>
-      <c r="CGQ2" s="4"/>
-      <c r="CGR2" s="4"/>
-      <c r="CGS2" s="4"/>
-      <c r="CGT2" s="4"/>
-      <c r="CGU2" s="4"/>
-      <c r="CGV2" s="4"/>
-      <c r="CGW2" s="4"/>
-      <c r="CGX2" s="4"/>
-      <c r="CGY2" s="4"/>
-      <c r="CGZ2" s="4"/>
-      <c r="CHA2" s="4"/>
-      <c r="CHB2" s="4"/>
-      <c r="CHC2" s="4"/>
-      <c r="CHD2" s="4"/>
-      <c r="CHE2" s="4"/>
-      <c r="CHF2" s="4"/>
-      <c r="CHG2" s="4"/>
-      <c r="CHH2" s="4"/>
-      <c r="CHI2" s="4"/>
-      <c r="CHJ2" s="4"/>
-      <c r="CHK2" s="4"/>
-      <c r="CHL2" s="4"/>
-      <c r="CHM2" s="4"/>
-      <c r="CHN2" s="4"/>
-      <c r="CHO2" s="4"/>
-      <c r="CHP2" s="4"/>
-      <c r="CHQ2" s="4"/>
-      <c r="CHR2" s="4"/>
-      <c r="CHS2" s="4"/>
-      <c r="CHT2" s="4"/>
-      <c r="CHU2" s="4"/>
-      <c r="CHV2" s="4"/>
-      <c r="CHW2" s="4"/>
-      <c r="CHX2" s="4"/>
-      <c r="CHY2" s="4"/>
-      <c r="CHZ2" s="4"/>
-      <c r="CIA2" s="4"/>
-      <c r="CIB2" s="4"/>
-      <c r="CIC2" s="4"/>
-      <c r="CID2" s="4"/>
-      <c r="CIE2" s="4"/>
-      <c r="CIF2" s="4"/>
-      <c r="CIG2" s="4"/>
-      <c r="CIH2" s="4"/>
-      <c r="CII2" s="4"/>
-      <c r="CIJ2" s="4"/>
-      <c r="CIK2" s="4"/>
-      <c r="CIL2" s="4"/>
-      <c r="CIM2" s="4"/>
-      <c r="CIN2" s="4"/>
-      <c r="CIO2" s="4"/>
-      <c r="CIP2" s="4"/>
-      <c r="CIQ2" s="4"/>
-      <c r="CIR2" s="4"/>
-      <c r="CIS2" s="4"/>
-      <c r="CIT2" s="4"/>
-      <c r="CIU2" s="4"/>
-      <c r="CIV2" s="4"/>
-      <c r="CIW2" s="4"/>
-      <c r="CIX2" s="4"/>
-      <c r="CIY2" s="4"/>
-      <c r="CIZ2" s="4"/>
-      <c r="CJA2" s="4"/>
-      <c r="CJB2" s="4"/>
-      <c r="CJC2" s="4"/>
-      <c r="CJD2" s="4"/>
-      <c r="CJE2" s="4"/>
-      <c r="CJF2" s="4"/>
-      <c r="CJG2" s="4"/>
-      <c r="CJH2" s="4"/>
-      <c r="CJI2" s="4"/>
-      <c r="CJJ2" s="4"/>
-      <c r="CJK2" s="4"/>
-      <c r="CJL2" s="4"/>
-      <c r="CJM2" s="4"/>
-      <c r="CJN2" s="4"/>
-      <c r="CJO2" s="4"/>
-      <c r="CJP2" s="4"/>
-      <c r="CJQ2" s="4"/>
-      <c r="CJR2" s="4"/>
-      <c r="CJS2" s="4"/>
-      <c r="CJT2" s="4"/>
-      <c r="CJU2" s="4"/>
-      <c r="CJV2" s="4"/>
-      <c r="CJW2" s="4"/>
-      <c r="CJX2" s="4"/>
-      <c r="CJY2" s="4"/>
-      <c r="CJZ2" s="4"/>
-      <c r="CKA2" s="4"/>
-      <c r="CKB2" s="4"/>
-      <c r="CKC2" s="4"/>
-      <c r="CKD2" s="4"/>
-      <c r="CKE2" s="4"/>
-      <c r="CKF2" s="4"/>
-      <c r="CKG2" s="4"/>
-      <c r="CKH2" s="4"/>
-      <c r="CKI2" s="4"/>
-      <c r="CKJ2" s="4"/>
-      <c r="CKK2" s="4"/>
-      <c r="CKL2" s="4"/>
-      <c r="CKM2" s="4"/>
-      <c r="CKN2" s="4"/>
-      <c r="CKO2" s="4"/>
-      <c r="CKP2" s="4"/>
-      <c r="CKQ2" s="4"/>
-      <c r="CKR2" s="4"/>
-      <c r="CKS2" s="4"/>
-      <c r="CKT2" s="4"/>
-      <c r="CKU2" s="4"/>
-      <c r="CKV2" s="4"/>
-      <c r="CKW2" s="4"/>
-      <c r="CKX2" s="4"/>
-      <c r="CKY2" s="4"/>
-      <c r="CKZ2" s="4"/>
-      <c r="CLA2" s="4"/>
-      <c r="CLB2" s="4"/>
-      <c r="CLC2" s="4"/>
-      <c r="CLD2" s="4"/>
-      <c r="CLE2" s="4"/>
-      <c r="CLF2" s="4"/>
-      <c r="CLG2" s="4"/>
-      <c r="CLH2" s="4"/>
-      <c r="CLI2" s="4"/>
-      <c r="CLJ2" s="4"/>
-      <c r="CLK2" s="4"/>
-      <c r="CLL2" s="4"/>
-      <c r="CLM2" s="4"/>
-      <c r="CLN2" s="4"/>
-      <c r="CLO2" s="4"/>
-      <c r="CLP2" s="4"/>
-      <c r="CLQ2" s="4"/>
-      <c r="CLR2" s="4"/>
-      <c r="CLS2" s="4"/>
-      <c r="CLT2" s="4"/>
-      <c r="CLU2" s="4"/>
-      <c r="CLV2" s="4"/>
-      <c r="CLW2" s="4"/>
-      <c r="CLX2" s="4"/>
-      <c r="CLY2" s="4"/>
-      <c r="CLZ2" s="4"/>
-      <c r="CMA2" s="4"/>
-      <c r="CMB2" s="4"/>
-      <c r="CMC2" s="4"/>
-      <c r="CMD2" s="4"/>
-      <c r="CME2" s="4"/>
-      <c r="CMF2" s="4"/>
-      <c r="CMG2" s="4"/>
-      <c r="CMH2" s="4"/>
-      <c r="CMI2" s="4"/>
-      <c r="CMJ2" s="4"/>
-      <c r="CMK2" s="4"/>
-      <c r="CML2" s="4"/>
-      <c r="CMM2" s="4"/>
-      <c r="CMN2" s="4"/>
-      <c r="CMO2" s="4"/>
-      <c r="CMP2" s="4"/>
-      <c r="CMQ2" s="4"/>
-      <c r="CMR2" s="4"/>
-      <c r="CMS2" s="4"/>
-      <c r="CMT2" s="4"/>
-      <c r="CMU2" s="4"/>
-      <c r="CMV2" s="4"/>
-      <c r="CMW2" s="4"/>
-      <c r="CMX2" s="4"/>
-      <c r="CMY2" s="4"/>
-      <c r="CMZ2" s="4"/>
-      <c r="CNA2" s="4"/>
-      <c r="CNB2" s="4"/>
-      <c r="CNC2" s="4"/>
-      <c r="CND2" s="4"/>
-      <c r="CNE2" s="4"/>
-      <c r="CNF2" s="4"/>
-      <c r="CNG2" s="4"/>
-      <c r="CNH2" s="4"/>
-      <c r="CNI2" s="4"/>
-      <c r="CNJ2" s="4"/>
-      <c r="CNK2" s="4"/>
-      <c r="CNL2" s="4"/>
-      <c r="CNM2" s="4"/>
-      <c r="CNN2" s="4"/>
-      <c r="CNO2" s="4"/>
-      <c r="CNP2" s="4"/>
-      <c r="CNQ2" s="4"/>
-      <c r="CNR2" s="4"/>
-      <c r="CNS2" s="4"/>
-      <c r="CNT2" s="4"/>
-      <c r="CNU2" s="4"/>
-      <c r="CNV2" s="4"/>
-      <c r="CNW2" s="4"/>
-      <c r="CNX2" s="4"/>
-      <c r="CNY2" s="4"/>
-      <c r="CNZ2" s="4"/>
-      <c r="COA2" s="4"/>
-      <c r="COB2" s="4"/>
-      <c r="COC2" s="4"/>
-      <c r="COD2" s="4"/>
-      <c r="COE2" s="4"/>
-      <c r="COF2" s="4"/>
-      <c r="COG2" s="4"/>
-      <c r="COH2" s="4"/>
-      <c r="COI2" s="4"/>
-      <c r="COJ2" s="4"/>
-      <c r="COK2" s="4"/>
-      <c r="COL2" s="4"/>
-      <c r="COM2" s="4"/>
-      <c r="CON2" s="4"/>
-      <c r="COO2" s="4"/>
-      <c r="COP2" s="4"/>
-      <c r="COQ2" s="4"/>
-      <c r="COR2" s="4"/>
-      <c r="COS2" s="4"/>
-      <c r="COT2" s="4"/>
-      <c r="COU2" s="4"/>
-      <c r="COV2" s="4"/>
-      <c r="COW2" s="4"/>
-      <c r="COX2" s="4"/>
-      <c r="COY2" s="4"/>
-      <c r="COZ2" s="4"/>
-      <c r="CPA2" s="4"/>
-      <c r="CPB2" s="4"/>
-      <c r="CPC2" s="4"/>
-      <c r="CPD2" s="4"/>
-      <c r="CPE2" s="4"/>
-      <c r="CPF2" s="4"/>
-      <c r="CPG2" s="4"/>
-      <c r="CPH2" s="4"/>
-      <c r="CPI2" s="4"/>
-      <c r="CPJ2" s="4"/>
-      <c r="CPK2" s="4"/>
-      <c r="CPL2" s="4"/>
-      <c r="CPM2" s="4"/>
-      <c r="CPN2" s="4"/>
-      <c r="CPO2" s="4"/>
-      <c r="CPP2" s="4"/>
-      <c r="CPQ2" s="4"/>
-      <c r="CPR2" s="4"/>
-      <c r="CPS2" s="4"/>
-      <c r="CPT2" s="4"/>
-      <c r="CPU2" s="4"/>
-      <c r="CPV2" s="4"/>
-      <c r="CPW2" s="4"/>
-      <c r="CPX2" s="4"/>
-      <c r="CPY2" s="4"/>
-      <c r="CPZ2" s="4"/>
-      <c r="CQA2" s="4"/>
-      <c r="CQB2" s="4"/>
-      <c r="CQC2" s="4"/>
-      <c r="CQD2" s="4"/>
-      <c r="CQE2" s="4"/>
-      <c r="CQF2" s="4"/>
-      <c r="CQG2" s="4"/>
-      <c r="CQH2" s="4"/>
-      <c r="CQI2" s="4"/>
-      <c r="CQJ2" s="4"/>
-      <c r="CQK2" s="4"/>
-      <c r="CQL2" s="4"/>
-      <c r="CQM2" s="4"/>
-      <c r="CQN2" s="4"/>
-      <c r="CQO2" s="4"/>
-      <c r="CQP2" s="4"/>
-      <c r="CQQ2" s="4"/>
-      <c r="CQR2" s="4"/>
-      <c r="CQS2" s="4"/>
-      <c r="CQT2" s="4"/>
-      <c r="CQU2" s="4"/>
-      <c r="CQV2" s="4"/>
-      <c r="CQW2" s="4"/>
-      <c r="CQX2" s="4"/>
-      <c r="CQY2" s="4"/>
-      <c r="CQZ2" s="4"/>
-      <c r="CRA2" s="4"/>
-      <c r="CRB2" s="4"/>
-      <c r="CRC2" s="4"/>
-      <c r="CRD2" s="4"/>
-      <c r="CRE2" s="4"/>
-      <c r="CRF2" s="4"/>
-      <c r="CRG2" s="4"/>
-      <c r="CRH2" s="4"/>
-      <c r="CRI2" s="4"/>
-      <c r="CRJ2" s="4"/>
-      <c r="CRK2" s="4"/>
-      <c r="CRL2" s="4"/>
-      <c r="CRM2" s="4"/>
-      <c r="CRN2" s="4"/>
-      <c r="CRO2" s="4"/>
-      <c r="CRP2" s="4"/>
-      <c r="CRQ2" s="4"/>
-      <c r="CRR2" s="4"/>
-      <c r="CRS2" s="4"/>
-      <c r="CRT2" s="4"/>
-      <c r="CRU2" s="4"/>
-      <c r="CRV2" s="4"/>
-      <c r="CRW2" s="4"/>
-      <c r="CRX2" s="4"/>
-      <c r="CRY2" s="4"/>
-      <c r="CRZ2" s="4"/>
-      <c r="CSA2" s="4"/>
-      <c r="CSB2" s="4"/>
-      <c r="CSC2" s="4"/>
-      <c r="CSD2" s="4"/>
-      <c r="CSE2" s="4"/>
-      <c r="CSF2" s="4"/>
-      <c r="CSG2" s="4"/>
-      <c r="CSH2" s="4"/>
-      <c r="CSI2" s="4"/>
-      <c r="CSJ2" s="4"/>
-      <c r="CSK2" s="4"/>
-      <c r="CSL2" s="4"/>
-      <c r="CSM2" s="4"/>
-      <c r="CSN2" s="4"/>
-      <c r="CSO2" s="4"/>
-      <c r="CSP2" s="4"/>
-      <c r="CSQ2" s="4"/>
-      <c r="CSR2" s="4"/>
-      <c r="CSS2" s="4"/>
-      <c r="CST2" s="4"/>
-      <c r="CSU2" s="4"/>
-      <c r="CSV2" s="4"/>
-      <c r="CSW2" s="4"/>
-      <c r="CSX2" s="4"/>
-      <c r="CSY2" s="4"/>
-      <c r="CSZ2" s="4"/>
-      <c r="CTA2" s="4"/>
-      <c r="CTB2" s="4"/>
-      <c r="CTC2" s="4"/>
-      <c r="CTD2" s="4"/>
-      <c r="CTE2" s="4"/>
-      <c r="CTF2" s="4"/>
-      <c r="CTG2" s="4"/>
-      <c r="CTH2" s="4"/>
-      <c r="CTI2" s="4"/>
-      <c r="CTJ2" s="4"/>
-      <c r="CTK2" s="4"/>
-      <c r="CTL2" s="4"/>
-      <c r="CTM2" s="4"/>
-      <c r="CTN2" s="4"/>
-      <c r="CTO2" s="4"/>
-      <c r="CTP2" s="4"/>
-      <c r="CTQ2" s="4"/>
-      <c r="CTR2" s="4"/>
-      <c r="CTS2" s="4"/>
-      <c r="CTT2" s="4"/>
-      <c r="CTU2" s="4"/>
-      <c r="CTV2" s="4"/>
-      <c r="CTW2" s="4"/>
-      <c r="CTX2" s="4"/>
-      <c r="CTY2" s="4"/>
-      <c r="CTZ2" s="4"/>
-      <c r="CUA2" s="4"/>
-    </row>
-    <row r="3" spans="1:2575" s="1" customFormat="1" ht="15">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
-      <c r="CA3" s="4"/>
-      <c r="CB3" s="4"/>
-      <c r="CC3" s="4"/>
-      <c r="CD3" s="4"/>
-      <c r="CE3" s="4"/>
-      <c r="CF3" s="4"/>
-      <c r="CG3" s="4"/>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="4"/>
-      <c r="CM3" s="4"/>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
-      <c r="CP3" s="4"/>
-      <c r="CQ3" s="4"/>
-      <c r="CR3" s="4"/>
-      <c r="CS3" s="4"/>
-      <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
-      <c r="CY3" s="4"/>
-      <c r="CZ3" s="4"/>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="4"/>
-      <c r="DC3" s="4"/>
-      <c r="DD3" s="4"/>
-      <c r="DE3" s="4"/>
-      <c r="DF3" s="4"/>
-      <c r="DG3" s="4"/>
-      <c r="DH3" s="4"/>
-      <c r="DI3" s="4"/>
-      <c r="DJ3" s="4"/>
-      <c r="DK3" s="4"/>
-      <c r="DL3" s="4"/>
-      <c r="DM3" s="4"/>
-      <c r="DN3" s="4"/>
-      <c r="DO3" s="4"/>
-      <c r="DP3" s="4"/>
-      <c r="DQ3" s="4"/>
-      <c r="DR3" s="4"/>
-      <c r="DS3" s="4"/>
-      <c r="DT3" s="4"/>
-      <c r="DU3" s="4"/>
-      <c r="DV3" s="4"/>
-      <c r="DW3" s="4"/>
-      <c r="DX3" s="4"/>
-      <c r="DY3" s="4"/>
-      <c r="DZ3" s="4"/>
-      <c r="EA3" s="4"/>
-      <c r="EB3" s="4"/>
-      <c r="EC3" s="4"/>
-      <c r="ED3" s="4"/>
-      <c r="EE3" s="4"/>
-      <c r="EF3" s="4"/>
-      <c r="EG3" s="4"/>
-      <c r="EH3" s="4"/>
-      <c r="EI3" s="4"/>
-      <c r="EJ3" s="4"/>
-      <c r="EK3" s="4"/>
-      <c r="EL3" s="4"/>
-      <c r="EM3" s="4"/>
-      <c r="EN3" s="4"/>
-      <c r="EO3" s="4"/>
-      <c r="EP3" s="4"/>
-      <c r="EQ3" s="4"/>
-      <c r="ER3" s="4"/>
-      <c r="ES3" s="4"/>
-      <c r="ET3" s="4"/>
-      <c r="EU3" s="4"/>
-      <c r="EV3" s="4"/>
-      <c r="EW3" s="4"/>
-      <c r="EX3" s="4"/>
-      <c r="EY3" s="4"/>
-      <c r="EZ3" s="4"/>
-      <c r="FA3" s="4"/>
-      <c r="FB3" s="4"/>
-      <c r="FC3" s="4"/>
-      <c r="FD3" s="4"/>
-      <c r="FE3" s="4"/>
-      <c r="FF3" s="4"/>
-      <c r="FG3" s="4"/>
-      <c r="FH3" s="4"/>
-      <c r="FI3" s="4"/>
-      <c r="FJ3" s="4"/>
-      <c r="FK3" s="4"/>
-      <c r="FL3" s="4"/>
-      <c r="FM3" s="4"/>
-      <c r="FN3" s="4"/>
-      <c r="FO3" s="4"/>
-      <c r="FP3" s="4"/>
-      <c r="FQ3" s="4"/>
-      <c r="FR3" s="4"/>
-      <c r="FS3" s="4"/>
-      <c r="FT3" s="4"/>
-      <c r="FU3" s="4"/>
-      <c r="FV3" s="4"/>
-      <c r="FW3" s="4"/>
-      <c r="FX3" s="4"/>
-      <c r="FY3" s="4"/>
-      <c r="FZ3" s="4"/>
-      <c r="GA3" s="4"/>
-      <c r="GB3" s="4"/>
-      <c r="GC3" s="4"/>
-      <c r="GD3" s="4"/>
-      <c r="GE3" s="4"/>
-      <c r="GF3" s="4"/>
-      <c r="GG3" s="4"/>
-      <c r="GH3" s="4"/>
-      <c r="GI3" s="4"/>
-      <c r="GJ3" s="4"/>
-      <c r="GK3" s="4"/>
-      <c r="GL3" s="4"/>
-      <c r="GM3" s="4"/>
-      <c r="GN3" s="4"/>
-      <c r="GO3" s="4"/>
-      <c r="GP3" s="4"/>
-      <c r="GQ3" s="4"/>
-      <c r="GR3" s="4"/>
-      <c r="GS3" s="4"/>
-      <c r="GT3" s="4"/>
-      <c r="GU3" s="4"/>
-      <c r="GV3" s="4"/>
-      <c r="GW3" s="4"/>
-      <c r="GX3" s="4"/>
-      <c r="GY3" s="4"/>
-      <c r="GZ3" s="4"/>
-      <c r="HA3" s="4"/>
-      <c r="HB3" s="4"/>
-      <c r="HC3" s="4"/>
-      <c r="HD3" s="4"/>
-      <c r="HE3" s="4"/>
-      <c r="HF3" s="4"/>
-      <c r="HG3" s="4"/>
-      <c r="HH3" s="4"/>
-      <c r="HI3" s="4"/>
-      <c r="HJ3" s="4"/>
-      <c r="HK3" s="4"/>
-      <c r="HL3" s="4"/>
-      <c r="HM3" s="4"/>
-      <c r="HN3" s="4"/>
-      <c r="HO3" s="4"/>
-      <c r="HP3" s="4"/>
-      <c r="HQ3" s="4"/>
-      <c r="HR3" s="4"/>
-      <c r="HS3" s="4"/>
-      <c r="HT3" s="4"/>
-      <c r="HU3" s="4"/>
-      <c r="HV3" s="4"/>
-      <c r="HW3" s="4"/>
-      <c r="HX3" s="4"/>
-      <c r="HY3" s="4"/>
-      <c r="HZ3" s="4"/>
-      <c r="IA3" s="4"/>
-      <c r="IB3" s="4"/>
-      <c r="IC3" s="4"/>
-      <c r="ID3" s="4"/>
-      <c r="IE3" s="4"/>
-      <c r="IF3" s="4"/>
-      <c r="IG3" s="4"/>
-      <c r="IH3" s="4"/>
-      <c r="II3" s="4"/>
-      <c r="IJ3" s="4"/>
-      <c r="IK3" s="4"/>
-      <c r="IL3" s="4"/>
-      <c r="IM3" s="4"/>
-      <c r="IN3" s="4"/>
-      <c r="IO3" s="4"/>
-      <c r="IP3" s="4"/>
-      <c r="IQ3" s="4"/>
-      <c r="IR3" s="4"/>
-      <c r="IS3" s="4"/>
-      <c r="IT3" s="4"/>
-      <c r="IU3" s="4"/>
-      <c r="IV3" s="4"/>
-      <c r="IW3" s="4"/>
-      <c r="IX3" s="4"/>
-      <c r="IY3" s="4"/>
-      <c r="IZ3" s="4"/>
-      <c r="JA3" s="4"/>
-      <c r="JB3" s="4"/>
-      <c r="JC3" s="4"/>
-      <c r="JD3" s="4"/>
-      <c r="JE3" s="4"/>
-      <c r="JF3" s="4"/>
-      <c r="JG3" s="4"/>
-      <c r="JH3" s="4"/>
-      <c r="JI3" s="4"/>
-      <c r="JJ3" s="4"/>
-      <c r="JK3" s="4"/>
-      <c r="JL3" s="4"/>
-      <c r="JM3" s="4"/>
-      <c r="JN3" s="4"/>
-      <c r="JO3" s="4"/>
-      <c r="JP3" s="4"/>
-      <c r="JQ3" s="4"/>
-      <c r="JR3" s="4"/>
-      <c r="JS3" s="4"/>
-      <c r="JT3" s="4"/>
-      <c r="JU3" s="4"/>
-      <c r="JV3" s="4"/>
-      <c r="JW3" s="4"/>
-      <c r="JX3" s="4"/>
-      <c r="JY3" s="4"/>
-      <c r="JZ3" s="4"/>
-      <c r="KA3" s="4"/>
-      <c r="KB3" s="4"/>
-      <c r="KC3" s="4"/>
-      <c r="KD3" s="4"/>
-      <c r="KE3" s="4"/>
-      <c r="KF3" s="4"/>
-      <c r="KG3" s="4"/>
-      <c r="KH3" s="4"/>
-      <c r="KI3" s="4"/>
-      <c r="KJ3" s="4"/>
-      <c r="KK3" s="4"/>
-      <c r="KL3" s="4"/>
-      <c r="KM3" s="4"/>
-      <c r="KN3" s="4"/>
-      <c r="KO3" s="4"/>
-      <c r="KP3" s="4"/>
-      <c r="KQ3" s="4"/>
-      <c r="KR3" s="4"/>
-      <c r="KS3" s="4"/>
-      <c r="KT3" s="4"/>
-      <c r="KU3" s="4"/>
-      <c r="KV3" s="4"/>
-      <c r="KW3" s="4"/>
-      <c r="KX3" s="4"/>
-      <c r="KY3" s="4"/>
-      <c r="KZ3" s="4"/>
-      <c r="LA3" s="4"/>
-      <c r="LB3" s="4"/>
-      <c r="LC3" s="4"/>
-      <c r="LD3" s="4"/>
-      <c r="LE3" s="4"/>
-      <c r="LF3" s="4"/>
-      <c r="LG3" s="4"/>
-      <c r="LH3" s="4"/>
-      <c r="LI3" s="4"/>
-      <c r="LJ3" s="4"/>
-      <c r="LK3" s="4"/>
-      <c r="LL3" s="4"/>
-      <c r="LM3" s="4"/>
-      <c r="LN3" s="4"/>
-      <c r="LO3" s="4"/>
-      <c r="LP3" s="4"/>
-      <c r="LQ3" s="4"/>
-      <c r="LR3" s="4"/>
-      <c r="LS3" s="4"/>
-      <c r="LT3" s="4"/>
-      <c r="LU3" s="4"/>
-      <c r="LV3" s="4"/>
-      <c r="LW3" s="4"/>
-      <c r="LX3" s="4"/>
-      <c r="LY3" s="4"/>
-      <c r="LZ3" s="4"/>
-      <c r="MA3" s="4"/>
-      <c r="MB3" s="4"/>
-      <c r="MC3" s="4"/>
-      <c r="MD3" s="4"/>
-      <c r="ME3" s="4"/>
-      <c r="MF3" s="4"/>
-      <c r="MG3" s="4"/>
-      <c r="MH3" s="4"/>
-      <c r="MI3" s="4"/>
-      <c r="MJ3" s="4"/>
-      <c r="MK3" s="4"/>
-      <c r="ML3" s="4"/>
-      <c r="MM3" s="4"/>
-      <c r="MN3" s="4"/>
-      <c r="MO3" s="4"/>
-      <c r="MP3" s="4"/>
-      <c r="MQ3" s="4"/>
-      <c r="MR3" s="4"/>
-      <c r="MS3" s="4"/>
-      <c r="MT3" s="4"/>
-      <c r="MU3" s="4"/>
-      <c r="MV3" s="4"/>
-      <c r="MW3" s="4"/>
-      <c r="MX3" s="4"/>
-      <c r="MY3" s="4"/>
-      <c r="MZ3" s="4"/>
-      <c r="NA3" s="4"/>
-      <c r="NB3" s="4"/>
-      <c r="NC3" s="4"/>
-      <c r="ND3" s="4"/>
-      <c r="NE3" s="4"/>
-      <c r="NF3" s="4"/>
-      <c r="NG3" s="4"/>
-      <c r="NH3" s="4"/>
-      <c r="NI3" s="4"/>
-      <c r="NJ3" s="4"/>
-      <c r="NK3" s="4"/>
-      <c r="NL3" s="4"/>
-      <c r="NM3" s="4"/>
-      <c r="NN3" s="4"/>
-      <c r="NO3" s="4"/>
-      <c r="NP3" s="4"/>
-      <c r="NQ3" s="4"/>
-      <c r="NR3" s="4"/>
-      <c r="NS3" s="4"/>
-      <c r="NT3" s="4"/>
-      <c r="NU3" s="4"/>
-      <c r="NV3" s="4"/>
-      <c r="NW3" s="4"/>
-      <c r="NX3" s="4"/>
-      <c r="NY3" s="4"/>
-      <c r="NZ3" s="4"/>
-      <c r="OA3" s="4"/>
-      <c r="OB3" s="4"/>
-      <c r="OC3" s="4"/>
-      <c r="OD3" s="4"/>
-      <c r="OE3" s="4"/>
-      <c r="OF3" s="4"/>
-      <c r="OG3" s="4"/>
-      <c r="OH3" s="4"/>
-      <c r="OI3" s="4"/>
-      <c r="OJ3" s="4"/>
-      <c r="OK3" s="4"/>
-      <c r="OL3" s="4"/>
-      <c r="OM3" s="4"/>
-      <c r="ON3" s="4"/>
-      <c r="OO3" s="4"/>
-      <c r="OP3" s="4"/>
-      <c r="OQ3" s="4"/>
-      <c r="OR3" s="4"/>
-      <c r="OS3" s="4"/>
-      <c r="OT3" s="4"/>
-      <c r="OU3" s="4"/>
-      <c r="OV3" s="4"/>
-      <c r="OW3" s="4"/>
-      <c r="OX3" s="4"/>
-      <c r="OY3" s="4"/>
-      <c r="OZ3" s="4"/>
-      <c r="PA3" s="4"/>
-      <c r="PB3" s="4"/>
-      <c r="PC3" s="4"/>
-      <c r="PD3" s="4"/>
-      <c r="PE3" s="4"/>
-      <c r="PF3" s="4"/>
-      <c r="PG3" s="4"/>
-      <c r="PH3" s="4"/>
-      <c r="PI3" s="4"/>
-      <c r="PJ3" s="4"/>
-      <c r="PK3" s="4"/>
-      <c r="PL3" s="4"/>
-      <c r="PM3" s="4"/>
-      <c r="PN3" s="4"/>
-      <c r="PO3" s="4"/>
-      <c r="PP3" s="4"/>
-      <c r="PQ3" s="4"/>
-      <c r="PR3" s="4"/>
-      <c r="PS3" s="4"/>
-      <c r="PT3" s="4"/>
-      <c r="PU3" s="4"/>
-      <c r="PV3" s="4"/>
-      <c r="PW3" s="4"/>
-      <c r="PX3" s="4"/>
-      <c r="PY3" s="4"/>
-      <c r="PZ3" s="4"/>
-      <c r="QA3" s="4"/>
-      <c r="QB3" s="4"/>
-      <c r="QC3" s="4"/>
-      <c r="QD3" s="4"/>
-      <c r="QE3" s="4"/>
-      <c r="QF3" s="4"/>
-      <c r="QG3" s="4"/>
-      <c r="QH3" s="4"/>
-      <c r="QI3" s="4"/>
-      <c r="QJ3" s="4"/>
-      <c r="QK3" s="4"/>
-      <c r="QL3" s="4"/>
-      <c r="QM3" s="4"/>
-      <c r="QN3" s="4"/>
-      <c r="QO3" s="4"/>
-      <c r="QP3" s="4"/>
-      <c r="QQ3" s="4"/>
-      <c r="QR3" s="4"/>
-      <c r="QS3" s="4"/>
-      <c r="QT3" s="4"/>
-      <c r="QU3" s="4"/>
-      <c r="QV3" s="4"/>
-      <c r="QW3" s="4"/>
-      <c r="QX3" s="4"/>
-      <c r="QY3" s="4"/>
-      <c r="QZ3" s="4"/>
-      <c r="RA3" s="4"/>
-      <c r="RB3" s="4"/>
-      <c r="RC3" s="4"/>
-      <c r="RD3" s="4"/>
-      <c r="RE3" s="4"/>
-      <c r="RF3" s="4"/>
-      <c r="RG3" s="4"/>
-      <c r="RH3" s="4"/>
-      <c r="RI3" s="4"/>
-      <c r="RJ3" s="4"/>
-      <c r="RK3" s="4"/>
-      <c r="RL3" s="4"/>
-      <c r="RM3" s="4"/>
-      <c r="RN3" s="4"/>
-      <c r="RO3" s="4"/>
-      <c r="RP3" s="4"/>
-      <c r="RQ3" s="4"/>
-      <c r="RR3" s="4"/>
-      <c r="RS3" s="4"/>
-      <c r="RT3" s="4"/>
-      <c r="RU3" s="4"/>
-      <c r="RV3" s="4"/>
-      <c r="RW3" s="4"/>
-      <c r="RX3" s="4"/>
-      <c r="RY3" s="4"/>
-      <c r="RZ3" s="4"/>
-      <c r="SA3" s="4"/>
-      <c r="SB3" s="4"/>
-      <c r="SC3" s="4"/>
-      <c r="SD3" s="4"/>
-      <c r="SE3" s="4"/>
-      <c r="SF3" s="4"/>
-      <c r="SG3" s="4"/>
-      <c r="SH3" s="4"/>
-      <c r="SI3" s="4"/>
-      <c r="SJ3" s="4"/>
-      <c r="SK3" s="4"/>
-      <c r="SL3" s="4"/>
-      <c r="SM3" s="4"/>
-      <c r="SN3" s="4"/>
-      <c r="SO3" s="4"/>
-      <c r="SP3" s="4"/>
-      <c r="SQ3" s="4"/>
-      <c r="SR3" s="4"/>
-      <c r="SS3" s="4"/>
-      <c r="ST3" s="4"/>
-      <c r="SU3" s="4"/>
-      <c r="SV3" s="4"/>
-      <c r="SW3" s="4"/>
-      <c r="SX3" s="4"/>
-      <c r="SY3" s="4"/>
-      <c r="SZ3" s="4"/>
-      <c r="TA3" s="4"/>
-      <c r="TB3" s="4"/>
-      <c r="TC3" s="4"/>
-      <c r="TD3" s="4"/>
-      <c r="TE3" s="4"/>
-      <c r="TF3" s="4"/>
-      <c r="TG3" s="4"/>
-      <c r="TH3" s="4"/>
-      <c r="TI3" s="4"/>
-      <c r="TJ3" s="4"/>
-      <c r="TK3" s="4"/>
-      <c r="TL3" s="4"/>
-      <c r="TM3" s="4"/>
-      <c r="TN3" s="4"/>
-      <c r="TO3" s="4"/>
-      <c r="TP3" s="4"/>
-      <c r="TQ3" s="4"/>
-      <c r="TR3" s="4"/>
-      <c r="TS3" s="4"/>
-      <c r="TT3" s="4"/>
-      <c r="TU3" s="4"/>
-      <c r="TV3" s="4"/>
-      <c r="TW3" s="4"/>
-      <c r="TX3" s="4"/>
-      <c r="TY3" s="4"/>
-      <c r="TZ3" s="4"/>
-      <c r="UA3" s="4"/>
-      <c r="UB3" s="4"/>
-      <c r="UC3" s="4"/>
-      <c r="UD3" s="4"/>
-      <c r="UE3" s="4"/>
-      <c r="UF3" s="4"/>
-      <c r="UG3" s="4"/>
-      <c r="UH3" s="4"/>
-      <c r="UI3" s="4"/>
-      <c r="UJ3" s="4"/>
-      <c r="UK3" s="4"/>
-      <c r="UL3" s="4"/>
-      <c r="UM3" s="4"/>
-      <c r="UN3" s="4"/>
-      <c r="UO3" s="4"/>
-      <c r="UP3" s="4"/>
-      <c r="UQ3" s="4"/>
-      <c r="UR3" s="4"/>
-      <c r="US3" s="4"/>
-      <c r="UT3" s="4"/>
-      <c r="UU3" s="4"/>
-      <c r="UV3" s="4"/>
-      <c r="UW3" s="4"/>
-      <c r="UX3" s="4"/>
-      <c r="UY3" s="4"/>
-      <c r="UZ3" s="4"/>
-      <c r="VA3" s="4"/>
-      <c r="VB3" s="4"/>
-      <c r="VC3" s="4"/>
-      <c r="VD3" s="4"/>
-      <c r="VE3" s="4"/>
-      <c r="VF3" s="4"/>
-      <c r="VG3" s="4"/>
-      <c r="VH3" s="4"/>
-      <c r="VI3" s="4"/>
-      <c r="VJ3" s="4"/>
-      <c r="VK3" s="4"/>
-      <c r="VL3" s="4"/>
-      <c r="VM3" s="4"/>
-      <c r="VN3" s="4"/>
-      <c r="VO3" s="4"/>
-      <c r="VP3" s="4"/>
-      <c r="VQ3" s="4"/>
-      <c r="VR3" s="4"/>
-      <c r="VS3" s="4"/>
-      <c r="VT3" s="4"/>
-      <c r="VU3" s="4"/>
-      <c r="VV3" s="4"/>
-      <c r="VW3" s="4"/>
-      <c r="VX3" s="4"/>
-      <c r="VY3" s="4"/>
-      <c r="VZ3" s="4"/>
-      <c r="WA3" s="4"/>
-      <c r="WB3" s="4"/>
-      <c r="WC3" s="4"/>
-      <c r="WD3" s="4"/>
-      <c r="WE3" s="4"/>
-      <c r="WF3" s="4"/>
-      <c r="WG3" s="4"/>
-      <c r="WH3" s="4"/>
-      <c r="WI3" s="4"/>
-      <c r="WJ3" s="4"/>
-      <c r="WK3" s="4"/>
-      <c r="WL3" s="4"/>
-      <c r="WM3" s="4"/>
-      <c r="WN3" s="4"/>
-      <c r="WO3" s="4"/>
-      <c r="WP3" s="4"/>
-      <c r="WQ3" s="4"/>
-      <c r="WR3" s="4"/>
-      <c r="WS3" s="4"/>
-      <c r="WT3" s="4"/>
-      <c r="WU3" s="4"/>
-      <c r="WV3" s="4"/>
-      <c r="WW3" s="4"/>
-      <c r="WX3" s="4"/>
-      <c r="WY3" s="4"/>
-      <c r="WZ3" s="4"/>
-      <c r="XA3" s="4"/>
-      <c r="XB3" s="4"/>
-      <c r="XC3" s="4"/>
-      <c r="XD3" s="4"/>
-      <c r="XE3" s="4"/>
-      <c r="XF3" s="4"/>
-      <c r="XG3" s="4"/>
-      <c r="XH3" s="4"/>
-      <c r="XI3" s="4"/>
-      <c r="XJ3" s="4"/>
-      <c r="XK3" s="4"/>
-      <c r="XL3" s="4"/>
-      <c r="XM3" s="4"/>
-      <c r="XN3" s="4"/>
-      <c r="XO3" s="4"/>
-      <c r="XP3" s="4"/>
-      <c r="XQ3" s="4"/>
-      <c r="XR3" s="4"/>
-      <c r="XS3" s="4"/>
-      <c r="XT3" s="4"/>
-      <c r="XU3" s="4"/>
-      <c r="XV3" s="4"/>
-      <c r="XW3" s="4"/>
-      <c r="XX3" s="4"/>
-      <c r="XY3" s="4"/>
-      <c r="XZ3" s="4"/>
-      <c r="YA3" s="4"/>
-      <c r="YB3" s="4"/>
-      <c r="YC3" s="4"/>
-      <c r="YD3" s="4"/>
-      <c r="YE3" s="4"/>
-      <c r="YF3" s="4"/>
-      <c r="YG3" s="4"/>
-      <c r="YH3" s="4"/>
-      <c r="YI3" s="4"/>
-      <c r="YJ3" s="4"/>
-      <c r="YK3" s="4"/>
-      <c r="YL3" s="4"/>
-      <c r="YM3" s="4"/>
-      <c r="YN3" s="4"/>
-      <c r="YO3" s="4"/>
-      <c r="YP3" s="4"/>
-      <c r="YQ3" s="4"/>
-      <c r="YR3" s="4"/>
-      <c r="YS3" s="4"/>
-      <c r="YT3" s="4"/>
-      <c r="YU3" s="4"/>
-      <c r="YV3" s="4"/>
-      <c r="YW3" s="4"/>
-      <c r="YX3" s="4"/>
-      <c r="YY3" s="4"/>
-      <c r="YZ3" s="4"/>
-      <c r="ZA3" s="4"/>
-      <c r="ZB3" s="4"/>
-      <c r="ZC3" s="4"/>
-      <c r="ZD3" s="4"/>
-      <c r="ZE3" s="4"/>
-      <c r="ZF3" s="4"/>
-      <c r="ZG3" s="4"/>
-      <c r="ZH3" s="4"/>
-      <c r="ZI3" s="4"/>
-      <c r="ZJ3" s="4"/>
-      <c r="ZK3" s="4"/>
-      <c r="ZL3" s="4"/>
-      <c r="ZM3" s="4"/>
-      <c r="ZN3" s="4"/>
-      <c r="ZO3" s="4"/>
-      <c r="ZP3" s="4"/>
-      <c r="ZQ3" s="4"/>
-      <c r="ZR3" s="4"/>
-      <c r="ZS3" s="4"/>
-      <c r="ZT3" s="4"/>
-      <c r="ZU3" s="4"/>
-      <c r="ZV3" s="4"/>
-      <c r="ZW3" s="4"/>
-      <c r="ZX3" s="4"/>
-      <c r="ZY3" s="4"/>
-      <c r="ZZ3" s="4"/>
-      <c r="AAA3" s="4"/>
-      <c r="AAB3" s="4"/>
-      <c r="AAC3" s="4"/>
-      <c r="AAD3" s="4"/>
-      <c r="AAE3" s="4"/>
-      <c r="AAF3" s="4"/>
-      <c r="AAG3" s="4"/>
-      <c r="AAH3" s="4"/>
-      <c r="AAI3" s="4"/>
-      <c r="AAJ3" s="4"/>
-      <c r="AAK3" s="4"/>
-      <c r="AAL3" s="4"/>
-      <c r="AAM3" s="4"/>
-      <c r="AAN3" s="4"/>
-      <c r="AAO3" s="4"/>
-      <c r="AAP3" s="4"/>
-      <c r="AAQ3" s="4"/>
-      <c r="AAR3" s="4"/>
-      <c r="AAS3" s="4"/>
-      <c r="AAT3" s="4"/>
-      <c r="AAU3" s="4"/>
-      <c r="AAV3" s="4"/>
-      <c r="AAW3" s="4"/>
-      <c r="AAX3" s="4"/>
-      <c r="AAY3" s="4"/>
-      <c r="AAZ3" s="4"/>
-      <c r="ABA3" s="4"/>
-      <c r="ABB3" s="4"/>
-      <c r="ABC3" s="4"/>
-      <c r="ABD3" s="4"/>
-      <c r="ABE3" s="4"/>
-      <c r="ABF3" s="4"/>
-      <c r="ABG3" s="4"/>
-      <c r="ABH3" s="4"/>
-      <c r="ABI3" s="4"/>
-      <c r="ABJ3" s="4"/>
-      <c r="ABK3" s="4"/>
-      <c r="ABL3" s="4"/>
-      <c r="ABM3" s="4"/>
-      <c r="ABN3" s="4"/>
-      <c r="ABO3" s="4"/>
-      <c r="ABP3" s="4"/>
-      <c r="ABQ3" s="4"/>
-      <c r="ABR3" s="4"/>
-      <c r="ABS3" s="4"/>
-      <c r="ABT3" s="4"/>
-      <c r="ABU3" s="4"/>
-      <c r="ABV3" s="4"/>
-      <c r="ABW3" s="4"/>
-      <c r="ABX3" s="4"/>
-      <c r="ABY3" s="4"/>
-      <c r="ABZ3" s="4"/>
-      <c r="ACA3" s="4"/>
-      <c r="ACB3" s="4"/>
-      <c r="ACC3" s="4"/>
-      <c r="ACD3" s="4"/>
-      <c r="ACE3" s="4"/>
-      <c r="ACF3" s="4"/>
-      <c r="ACG3" s="4"/>
-      <c r="ACH3" s="4"/>
-      <c r="ACI3" s="4"/>
-      <c r="ACJ3" s="4"/>
-      <c r="ACK3" s="4"/>
-      <c r="ACL3" s="4"/>
-      <c r="ACM3" s="4"/>
-      <c r="ACN3" s="4"/>
-      <c r="ACO3" s="4"/>
-      <c r="ACP3" s="4"/>
-      <c r="ACQ3" s="4"/>
-      <c r="ACR3" s="4"/>
-      <c r="ACS3" s="4"/>
-      <c r="ACT3" s="4"/>
-      <c r="ACU3" s="4"/>
-      <c r="ACV3" s="4"/>
-      <c r="ACW3" s="4"/>
-      <c r="ACX3" s="4"/>
-      <c r="ACY3" s="4"/>
-      <c r="ACZ3" s="4"/>
-      <c r="ADA3" s="4"/>
-      <c r="ADB3" s="4"/>
-      <c r="ADC3" s="4"/>
-      <c r="ADD3" s="4"/>
-      <c r="ADE3" s="4"/>
-      <c r="ADF3" s="4"/>
-      <c r="ADG3" s="4"/>
-      <c r="ADH3" s="4"/>
-      <c r="ADI3" s="4"/>
-      <c r="ADJ3" s="4"/>
-      <c r="ADK3" s="4"/>
-      <c r="ADL3" s="4"/>
-      <c r="ADM3" s="4"/>
-      <c r="ADN3" s="4"/>
-      <c r="ADO3" s="4"/>
-      <c r="ADP3" s="4"/>
-      <c r="ADQ3" s="4"/>
-      <c r="ADR3" s="4"/>
-      <c r="ADS3" s="4"/>
-      <c r="ADT3" s="4"/>
-      <c r="ADU3" s="4"/>
-      <c r="ADV3" s="4"/>
-      <c r="ADW3" s="4"/>
-      <c r="ADX3" s="4"/>
-      <c r="ADY3" s="4"/>
-      <c r="ADZ3" s="4"/>
-      <c r="AEA3" s="4"/>
-      <c r="AEB3" s="4"/>
-      <c r="AEC3" s="4"/>
-      <c r="AED3" s="4"/>
-      <c r="AEE3" s="4"/>
-      <c r="AEF3" s="4"/>
-      <c r="AEG3" s="4"/>
-      <c r="AEH3" s="4"/>
-      <c r="AEI3" s="4"/>
-      <c r="AEJ3" s="4"/>
-      <c r="AEK3" s="4"/>
-      <c r="AEL3" s="4"/>
-      <c r="AEM3" s="4"/>
-      <c r="AEN3" s="4"/>
-      <c r="AEO3" s="4"/>
-      <c r="AEP3" s="4"/>
-      <c r="AEQ3" s="4"/>
-      <c r="AER3" s="4"/>
-      <c r="AES3" s="4"/>
-      <c r="AET3" s="4"/>
-      <c r="AEU3" s="4"/>
-      <c r="AEV3" s="4"/>
-      <c r="AEW3" s="4"/>
-      <c r="AEX3" s="4"/>
-      <c r="AEY3" s="4"/>
-      <c r="AEZ3" s="4"/>
-      <c r="AFA3" s="4"/>
-      <c r="AFB3" s="4"/>
-      <c r="AFC3" s="4"/>
-      <c r="AFD3" s="4"/>
-      <c r="AFE3" s="4"/>
-      <c r="AFF3" s="4"/>
-      <c r="AFG3" s="4"/>
-      <c r="AFH3" s="4"/>
-      <c r="AFI3" s="4"/>
-      <c r="AFJ3" s="4"/>
-      <c r="AFK3" s="4"/>
-      <c r="AFL3" s="4"/>
-      <c r="AFM3" s="4"/>
-      <c r="AFN3" s="4"/>
-      <c r="AFO3" s="4"/>
-      <c r="AFP3" s="4"/>
-      <c r="AFQ3" s="4"/>
-      <c r="AFR3" s="4"/>
-      <c r="AFS3" s="4"/>
-      <c r="AFT3" s="4"/>
-      <c r="AFU3" s="4"/>
-      <c r="AFV3" s="4"/>
-      <c r="AFW3" s="4"/>
-      <c r="AFX3" s="4"/>
-      <c r="AFY3" s="4"/>
-      <c r="AFZ3" s="4"/>
-      <c r="AGA3" s="4"/>
-      <c r="AGB3" s="4"/>
-      <c r="AGC3" s="4"/>
-      <c r="AGD3" s="4"/>
-      <c r="AGE3" s="4"/>
-      <c r="AGF3" s="4"/>
-      <c r="AGG3" s="4"/>
-      <c r="AGH3" s="4"/>
-      <c r="AGI3" s="4"/>
-      <c r="AGJ3" s="4"/>
-      <c r="AGK3" s="4"/>
-      <c r="AGL3" s="4"/>
-      <c r="AGM3" s="4"/>
-      <c r="AGN3" s="4"/>
-      <c r="AGO3" s="4"/>
-      <c r="AGP3" s="4"/>
-      <c r="AGQ3" s="4"/>
-      <c r="AGR3" s="4"/>
-      <c r="AGS3" s="4"/>
-      <c r="AGT3" s="4"/>
-      <c r="AGU3" s="4"/>
-      <c r="AGV3" s="4"/>
-      <c r="AGW3" s="4"/>
-      <c r="AGX3" s="4"/>
-      <c r="AGY3" s="4"/>
-      <c r="AGZ3" s="4"/>
-      <c r="AHA3" s="4"/>
-      <c r="AHB3" s="4"/>
-      <c r="AHC3" s="4"/>
-      <c r="AHD3" s="4"/>
-      <c r="AHE3" s="4"/>
-      <c r="AHF3" s="4"/>
-      <c r="AHG3" s="4"/>
-      <c r="AHH3" s="4"/>
-      <c r="AHI3" s="4"/>
-      <c r="AHJ3" s="4"/>
-      <c r="AHK3" s="4"/>
-      <c r="AHL3" s="4"/>
-      <c r="AHM3" s="4"/>
-      <c r="AHN3" s="4"/>
-      <c r="AHO3" s="4"/>
-      <c r="AHP3" s="4"/>
-      <c r="AHQ3" s="4"/>
-      <c r="AHR3" s="4"/>
-      <c r="AHS3" s="4"/>
-      <c r="AHT3" s="4"/>
-      <c r="AHU3" s="4"/>
-      <c r="AHV3" s="4"/>
-      <c r="AHW3" s="4"/>
-      <c r="AHX3" s="4"/>
-      <c r="AHY3" s="4"/>
-      <c r="AHZ3" s="4"/>
-      <c r="AIA3" s="4"/>
-      <c r="AIB3" s="4"/>
-      <c r="AIC3" s="4"/>
-      <c r="AID3" s="4"/>
-      <c r="AIE3" s="4"/>
-      <c r="AIF3" s="4"/>
-      <c r="AIG3" s="4"/>
-      <c r="AIH3" s="4"/>
-      <c r="AII3" s="4"/>
-      <c r="AIJ3" s="4"/>
-      <c r="AIK3" s="4"/>
-      <c r="AIL3" s="4"/>
-      <c r="AIM3" s="4"/>
-      <c r="AIN3" s="4"/>
-      <c r="AIO3" s="4"/>
-      <c r="AIP3" s="4"/>
-      <c r="AIQ3" s="4"/>
-      <c r="AIR3" s="4"/>
-      <c r="AIS3" s="4"/>
-      <c r="AIT3" s="4"/>
-      <c r="AIU3" s="4"/>
-      <c r="AIV3" s="4"/>
-      <c r="AIW3" s="4"/>
-      <c r="AIX3" s="4"/>
-      <c r="AIY3" s="4"/>
-      <c r="AIZ3" s="4"/>
-      <c r="AJA3" s="4"/>
-      <c r="AJB3" s="4"/>
-      <c r="AJC3" s="4"/>
-      <c r="AJD3" s="4"/>
-      <c r="AJE3" s="4"/>
-      <c r="AJF3" s="4"/>
-      <c r="AJG3" s="4"/>
-      <c r="AJH3" s="4"/>
-      <c r="AJI3" s="4"/>
-      <c r="AJJ3" s="4"/>
-      <c r="AJK3" s="4"/>
-      <c r="AJL3" s="4"/>
-      <c r="AJM3" s="4"/>
-      <c r="AJN3" s="4"/>
-      <c r="AJO3" s="4"/>
-      <c r="AJP3" s="4"/>
-      <c r="AJQ3" s="4"/>
-      <c r="AJR3" s="4"/>
-      <c r="AJS3" s="4"/>
-      <c r="AJT3" s="4"/>
-      <c r="AJU3" s="4"/>
-      <c r="AJV3" s="4"/>
-      <c r="AJW3" s="4"/>
-      <c r="AJX3" s="4"/>
-      <c r="AJY3" s="4"/>
-      <c r="AJZ3" s="4"/>
-      <c r="AKA3" s="4"/>
-      <c r="AKB3" s="4"/>
-      <c r="AKC3" s="4"/>
-      <c r="AKD3" s="4"/>
-      <c r="AKE3" s="4"/>
-      <c r="AKF3" s="4"/>
-      <c r="AKG3" s="4"/>
-      <c r="AKH3" s="4"/>
-      <c r="AKI3" s="4"/>
-      <c r="AKJ3" s="4"/>
-      <c r="AKK3" s="4"/>
-      <c r="AKL3" s="4"/>
-      <c r="AKM3" s="4"/>
-      <c r="AKN3" s="4"/>
-      <c r="AKO3" s="4"/>
-      <c r="AKP3" s="4"/>
-      <c r="AKQ3" s="4"/>
-      <c r="AKR3" s="4"/>
-      <c r="AKS3" s="4"/>
-      <c r="AKT3" s="4"/>
-      <c r="AKU3" s="4"/>
-      <c r="AKV3" s="4"/>
-      <c r="AKW3" s="4"/>
-      <c r="AKX3" s="4"/>
-      <c r="AKY3" s="4"/>
-      <c r="AKZ3" s="4"/>
-      <c r="ALA3" s="4"/>
-      <c r="ALB3" s="4"/>
-      <c r="ALC3" s="4"/>
-      <c r="ALD3" s="4"/>
-      <c r="ALE3" s="4"/>
-      <c r="ALF3" s="4"/>
-      <c r="ALG3" s="4"/>
-      <c r="ALH3" s="4"/>
-      <c r="ALI3" s="4"/>
-      <c r="ALJ3" s="4"/>
-      <c r="ALK3" s="4"/>
-      <c r="ALL3" s="4"/>
-      <c r="ALM3" s="4"/>
-      <c r="ALN3" s="4"/>
-      <c r="ALO3" s="4"/>
-      <c r="ALP3" s="4"/>
-      <c r="ALQ3" s="4"/>
-      <c r="ALR3" s="4"/>
-      <c r="ALS3" s="4"/>
-      <c r="ALT3" s="4"/>
-      <c r="ALU3" s="4"/>
-      <c r="ALV3" s="4"/>
-      <c r="ALW3" s="4"/>
-      <c r="ALX3" s="4"/>
-      <c r="ALY3" s="4"/>
-      <c r="ALZ3" s="4"/>
-      <c r="AMA3" s="4"/>
-      <c r="AMB3" s="4"/>
-      <c r="AMC3" s="4"/>
-      <c r="AMD3" s="4"/>
-      <c r="AME3" s="4"/>
-      <c r="AMF3" s="4"/>
-      <c r="AMG3" s="4"/>
-      <c r="AMH3" s="4"/>
-      <c r="AMI3" s="4"/>
-      <c r="AMJ3" s="4"/>
-      <c r="AMK3" s="4"/>
-      <c r="AML3" s="4"/>
-      <c r="AMM3" s="4"/>
-      <c r="AMN3" s="4"/>
-      <c r="AMO3" s="4"/>
-      <c r="AMP3" s="4"/>
-      <c r="AMQ3" s="4"/>
-      <c r="AMR3" s="4"/>
-      <c r="AMS3" s="4"/>
-      <c r="AMT3" s="4"/>
-      <c r="AMU3" s="4"/>
-      <c r="AMV3" s="4"/>
-      <c r="AMW3" s="4"/>
-      <c r="AMX3" s="4"/>
-      <c r="AMY3" s="4"/>
-      <c r="AMZ3" s="4"/>
-      <c r="ANA3" s="4"/>
-      <c r="ANB3" s="4"/>
-      <c r="ANC3" s="4"/>
-      <c r="AND3" s="4"/>
-      <c r="ANE3" s="4"/>
-      <c r="ANF3" s="4"/>
-      <c r="ANG3" s="4"/>
-      <c r="ANH3" s="4"/>
-      <c r="ANI3" s="4"/>
-      <c r="ANJ3" s="4"/>
-      <c r="ANK3" s="4"/>
-      <c r="ANL3" s="4"/>
-      <c r="ANM3" s="4"/>
-      <c r="ANN3" s="4"/>
-      <c r="ANO3" s="4"/>
-      <c r="ANP3" s="4"/>
-      <c r="ANQ3" s="4"/>
-      <c r="ANR3" s="4"/>
-      <c r="ANS3" s="4"/>
-      <c r="ANT3" s="4"/>
-      <c r="ANU3" s="4"/>
-      <c r="ANV3" s="4"/>
-      <c r="ANW3" s="4"/>
-      <c r="ANX3" s="4"/>
-      <c r="ANY3" s="4"/>
-      <c r="ANZ3" s="4"/>
-      <c r="AOA3" s="4"/>
-      <c r="AOB3" s="4"/>
-      <c r="AOC3" s="4"/>
-      <c r="AOD3" s="4"/>
-      <c r="AOE3" s="4"/>
-      <c r="AOF3" s="4"/>
-      <c r="AOG3" s="4"/>
-      <c r="AOH3" s="4"/>
-      <c r="AOI3" s="4"/>
-      <c r="AOJ3" s="4"/>
-      <c r="AOK3" s="4"/>
-      <c r="AOL3" s="4"/>
-      <c r="AOM3" s="4"/>
-      <c r="AON3" s="4"/>
-      <c r="AOO3" s="4"/>
-      <c r="AOP3" s="4"/>
-      <c r="AOQ3" s="4"/>
-      <c r="AOR3" s="4"/>
-      <c r="AOS3" s="4"/>
-      <c r="AOT3" s="4"/>
-      <c r="AOU3" s="4"/>
-      <c r="AOV3" s="4"/>
-      <c r="AOW3" s="4"/>
-      <c r="AOX3" s="4"/>
-      <c r="AOY3" s="4"/>
-      <c r="AOZ3" s="4"/>
-      <c r="APA3" s="4"/>
-      <c r="APB3" s="4"/>
-      <c r="APC3" s="4"/>
-      <c r="APD3" s="4"/>
-      <c r="APE3" s="4"/>
-      <c r="APF3" s="4"/>
-      <c r="APG3" s="4"/>
-      <c r="APH3" s="4"/>
-      <c r="API3" s="4"/>
-      <c r="APJ3" s="4"/>
-      <c r="APK3" s="4"/>
-      <c r="APL3" s="4"/>
-      <c r="APM3" s="4"/>
-      <c r="APN3" s="4"/>
-      <c r="APO3" s="4"/>
-      <c r="APP3" s="4"/>
-      <c r="APQ3" s="4"/>
-      <c r="APR3" s="4"/>
-      <c r="APS3" s="4"/>
-      <c r="APT3" s="4"/>
-      <c r="APU3" s="4"/>
-      <c r="APV3" s="4"/>
-      <c r="APW3" s="4"/>
-      <c r="APX3" s="4"/>
-      <c r="APY3" s="4"/>
-      <c r="APZ3" s="4"/>
-      <c r="AQA3" s="4"/>
-      <c r="AQB3" s="4"/>
-      <c r="AQC3" s="4"/>
-      <c r="AQD3" s="4"/>
-      <c r="AQE3" s="4"/>
-      <c r="AQF3" s="4"/>
-      <c r="AQG3" s="4"/>
-      <c r="AQH3" s="4"/>
-      <c r="AQI3" s="4"/>
-      <c r="AQJ3" s="4"/>
-      <c r="AQK3" s="4"/>
-      <c r="AQL3" s="4"/>
-      <c r="AQM3" s="4"/>
-      <c r="AQN3" s="4"/>
-      <c r="AQO3" s="4"/>
-      <c r="AQP3" s="4"/>
-      <c r="AQQ3" s="4"/>
-      <c r="AQR3" s="4"/>
-      <c r="AQS3" s="4"/>
-      <c r="AQT3" s="4"/>
-      <c r="AQU3" s="4"/>
-      <c r="AQV3" s="4"/>
-      <c r="AQW3" s="4"/>
-      <c r="AQX3" s="4"/>
-      <c r="AQY3" s="4"/>
-      <c r="AQZ3" s="4"/>
-      <c r="ARA3" s="4"/>
-      <c r="ARB3" s="4"/>
-      <c r="ARC3" s="4"/>
-      <c r="ARD3" s="4"/>
-      <c r="ARE3" s="4"/>
-      <c r="ARF3" s="4"/>
-      <c r="ARG3" s="4"/>
-      <c r="ARH3" s="4"/>
-      <c r="ARI3" s="4"/>
-      <c r="ARJ3" s="4"/>
-      <c r="ARK3" s="4"/>
-      <c r="ARL3" s="4"/>
-      <c r="ARM3" s="4"/>
-      <c r="ARN3" s="4"/>
-      <c r="ARO3" s="4"/>
-      <c r="ARP3" s="4"/>
-      <c r="ARQ3" s="4"/>
-      <c r="ARR3" s="4"/>
-      <c r="ARS3" s="4"/>
-      <c r="ART3" s="4"/>
-      <c r="ARU3" s="4"/>
-      <c r="ARV3" s="4"/>
-      <c r="ARW3" s="4"/>
-      <c r="ARX3" s="4"/>
-      <c r="ARY3" s="4"/>
-      <c r="ARZ3" s="4"/>
-      <c r="ASA3" s="4"/>
-      <c r="ASB3" s="4"/>
-      <c r="ASC3" s="4"/>
-      <c r="ASD3" s="4"/>
-      <c r="ASE3" s="4"/>
-      <c r="ASF3" s="4"/>
-      <c r="ASG3" s="4"/>
-      <c r="ASH3" s="4"/>
-      <c r="ASI3" s="4"/>
-      <c r="ASJ3" s="4"/>
-      <c r="ASK3" s="4"/>
-      <c r="ASL3" s="4"/>
-      <c r="ASM3" s="4"/>
-      <c r="ASN3" s="4"/>
-      <c r="ASO3" s="4"/>
-      <c r="ASP3" s="4"/>
-      <c r="ASQ3" s="4"/>
-      <c r="ASR3" s="4"/>
-      <c r="ASS3" s="4"/>
-      <c r="AST3" s="4"/>
-      <c r="ASU3" s="4"/>
-      <c r="ASV3" s="4"/>
-      <c r="ASW3" s="4"/>
-      <c r="ASX3" s="4"/>
-      <c r="ASY3" s="4"/>
-      <c r="ASZ3" s="4"/>
-      <c r="ATA3" s="4"/>
-      <c r="ATB3" s="4"/>
-      <c r="ATC3" s="4"/>
-      <c r="ATD3" s="4"/>
-      <c r="ATE3" s="4"/>
-      <c r="ATF3" s="4"/>
-      <c r="ATG3" s="4"/>
-      <c r="ATH3" s="4"/>
-      <c r="ATI3" s="4"/>
-      <c r="ATJ3" s="4"/>
-      <c r="ATK3" s="4"/>
-      <c r="ATL3" s="4"/>
-      <c r="ATM3" s="4"/>
-      <c r="ATN3" s="4"/>
-      <c r="ATO3" s="4"/>
-      <c r="ATP3" s="4"/>
-      <c r="ATQ3" s="4"/>
-      <c r="ATR3" s="4"/>
-      <c r="ATS3" s="4"/>
-      <c r="ATT3" s="4"/>
-      <c r="ATU3" s="4"/>
-      <c r="ATV3" s="4"/>
-      <c r="ATW3" s="4"/>
-      <c r="ATX3" s="4"/>
-      <c r="ATY3" s="4"/>
-      <c r="ATZ3" s="4"/>
-      <c r="AUA3" s="4"/>
-      <c r="AUB3" s="4"/>
-      <c r="AUC3" s="4"/>
-      <c r="AUD3" s="4"/>
-      <c r="AUE3" s="4"/>
-      <c r="AUF3" s="4"/>
-      <c r="AUG3" s="4"/>
-      <c r="AUH3" s="4"/>
-      <c r="AUI3" s="4"/>
-      <c r="AUJ3" s="4"/>
-      <c r="AUK3" s="4"/>
-      <c r="AUL3" s="4"/>
-      <c r="AUM3" s="4"/>
-      <c r="AUN3" s="4"/>
-      <c r="AUO3" s="4"/>
-      <c r="AUP3" s="4"/>
-      <c r="AUQ3" s="4"/>
-      <c r="AUR3" s="4"/>
-      <c r="AUS3" s="4"/>
-      <c r="AUT3" s="4"/>
-      <c r="AUU3" s="4"/>
-      <c r="AUV3" s="4"/>
-      <c r="AUW3" s="4"/>
-      <c r="AUX3" s="4"/>
-      <c r="AUY3" s="4"/>
-      <c r="AUZ3" s="4"/>
-      <c r="AVA3" s="4"/>
-      <c r="AVB3" s="4"/>
-      <c r="AVC3" s="4"/>
-      <c r="AVD3" s="4"/>
-      <c r="AVE3" s="4"/>
-      <c r="AVF3" s="4"/>
-      <c r="AVG3" s="4"/>
-      <c r="AVH3" s="4"/>
-      <c r="AVI3" s="4"/>
-      <c r="AVJ3" s="4"/>
-      <c r="AVK3" s="4"/>
-      <c r="AVL3" s="4"/>
-      <c r="AVM3" s="4"/>
-      <c r="AVN3" s="4"/>
-      <c r="AVO3" s="4"/>
-      <c r="AVP3" s="4"/>
-      <c r="AVQ3" s="4"/>
-      <c r="AVR3" s="4"/>
-      <c r="AVS3" s="4"/>
-      <c r="AVT3" s="4"/>
-      <c r="AVU3" s="4"/>
-      <c r="AVV3" s="4"/>
-      <c r="AVW3" s="4"/>
-      <c r="AVX3" s="4"/>
-      <c r="AVY3" s="4"/>
-      <c r="AVZ3" s="4"/>
-      <c r="AWA3" s="4"/>
-      <c r="AWB3" s="4"/>
-      <c r="AWC3" s="4"/>
-      <c r="AWD3" s="4"/>
-      <c r="AWE3" s="4"/>
-      <c r="AWF3" s="4"/>
-      <c r="AWG3" s="4"/>
-      <c r="AWH3" s="4"/>
-      <c r="AWI3" s="4"/>
-      <c r="AWJ3" s="4"/>
-      <c r="AWK3" s="4"/>
-      <c r="AWL3" s="4"/>
-      <c r="AWM3" s="4"/>
-      <c r="AWN3" s="4"/>
-      <c r="AWO3" s="4"/>
-      <c r="AWP3" s="4"/>
-      <c r="AWQ3" s="4"/>
-      <c r="AWR3" s="4"/>
-      <c r="AWS3" s="4"/>
-      <c r="AWT3" s="4"/>
-      <c r="AWU3" s="4"/>
-      <c r="AWV3" s="4"/>
-      <c r="AWW3" s="4"/>
-      <c r="AWX3" s="4"/>
-      <c r="AWY3" s="4"/>
-      <c r="AWZ3" s="4"/>
-      <c r="AXA3" s="4"/>
-      <c r="AXB3" s="4"/>
-      <c r="AXC3" s="4"/>
-      <c r="AXD3" s="4"/>
-      <c r="AXE3" s="4"/>
-      <c r="AXF3" s="4"/>
-      <c r="AXG3" s="4"/>
-      <c r="AXH3" s="4"/>
-      <c r="AXI3" s="4"/>
-      <c r="AXJ3" s="4"/>
-      <c r="AXK3" s="4"/>
-      <c r="AXL3" s="4"/>
-      <c r="AXM3" s="4"/>
-      <c r="AXN3" s="4"/>
-      <c r="AXO3" s="4"/>
-      <c r="AXP3" s="4"/>
-      <c r="AXQ3" s="4"/>
-      <c r="AXR3" s="4"/>
-      <c r="AXS3" s="4"/>
-      <c r="AXT3" s="4"/>
-      <c r="AXU3" s="4"/>
-      <c r="AXV3" s="4"/>
-      <c r="AXW3" s="4"/>
-      <c r="AXX3" s="4"/>
-      <c r="AXY3" s="4"/>
-      <c r="AXZ3" s="4"/>
-      <c r="AYA3" s="4"/>
-      <c r="AYB3" s="4"/>
-      <c r="AYC3" s="4"/>
-      <c r="AYD3" s="4"/>
-      <c r="AYE3" s="4"/>
-      <c r="AYF3" s="4"/>
-      <c r="AYG3" s="4"/>
-      <c r="AYH3" s="4"/>
-      <c r="AYI3" s="4"/>
-      <c r="AYJ3" s="4"/>
-      <c r="AYK3" s="4"/>
-      <c r="AYL3" s="4"/>
-      <c r="AYM3" s="4"/>
-      <c r="AYN3" s="4"/>
-      <c r="AYO3" s="4"/>
-      <c r="AYP3" s="4"/>
-      <c r="AYQ3" s="4"/>
-      <c r="AYR3" s="4"/>
-      <c r="AYS3" s="4"/>
-      <c r="AYT3" s="4"/>
-      <c r="AYU3" s="4"/>
-      <c r="AYV3" s="4"/>
-      <c r="AYW3" s="4"/>
-      <c r="AYX3" s="4"/>
-      <c r="AYY3" s="4"/>
-      <c r="AYZ3" s="4"/>
-      <c r="AZA3" s="4"/>
-      <c r="AZB3" s="4"/>
-      <c r="AZC3" s="4"/>
-      <c r="AZD3" s="4"/>
-      <c r="AZE3" s="4"/>
-      <c r="AZF3" s="4"/>
-      <c r="AZG3" s="4"/>
-      <c r="AZH3" s="4"/>
-      <c r="AZI3" s="4"/>
-      <c r="AZJ3" s="4"/>
-      <c r="AZK3" s="4"/>
-      <c r="AZL3" s="4"/>
-      <c r="AZM3" s="4"/>
-      <c r="AZN3" s="4"/>
-      <c r="AZO3" s="4"/>
-      <c r="AZP3" s="4"/>
-      <c r="AZQ3" s="4"/>
-      <c r="AZR3" s="4"/>
-      <c r="AZS3" s="4"/>
-      <c r="AZT3" s="4"/>
-      <c r="AZU3" s="4"/>
-      <c r="AZV3" s="4"/>
-      <c r="AZW3" s="4"/>
-      <c r="AZX3" s="4"/>
-      <c r="AZY3" s="4"/>
-      <c r="AZZ3" s="4"/>
-      <c r="BAA3" s="4"/>
-      <c r="BAB3" s="4"/>
-      <c r="BAC3" s="4"/>
-      <c r="BAD3" s="4"/>
-      <c r="BAE3" s="4"/>
-      <c r="BAF3" s="4"/>
-      <c r="BAG3" s="4"/>
-      <c r="BAH3" s="4"/>
-      <c r="BAI3" s="4"/>
-      <c r="BAJ3" s="4"/>
-      <c r="BAK3" s="4"/>
-      <c r="BAL3" s="4"/>
-      <c r="BAM3" s="4"/>
-      <c r="BAN3" s="4"/>
-      <c r="BAO3" s="4"/>
-      <c r="BAP3" s="4"/>
-      <c r="BAQ3" s="4"/>
-      <c r="BAR3" s="4"/>
-      <c r="BAS3" s="4"/>
-      <c r="BAT3" s="4"/>
-      <c r="BAU3" s="4"/>
-      <c r="BAV3" s="4"/>
-      <c r="BAW3" s="4"/>
-      <c r="BAX3" s="4"/>
-      <c r="BAY3" s="4"/>
-      <c r="BAZ3" s="4"/>
-      <c r="BBA3" s="4"/>
-      <c r="BBB3" s="4"/>
-      <c r="BBC3" s="4"/>
-      <c r="BBD3" s="4"/>
-      <c r="BBE3" s="4"/>
-      <c r="BBF3" s="4"/>
-      <c r="BBG3" s="4"/>
-      <c r="BBH3" s="4"/>
-      <c r="BBI3" s="4"/>
-      <c r="BBJ3" s="4"/>
-      <c r="BBK3" s="4"/>
-      <c r="BBL3" s="4"/>
-      <c r="BBM3" s="4"/>
-      <c r="BBN3" s="4"/>
-      <c r="BBO3" s="4"/>
-      <c r="BBP3" s="4"/>
-      <c r="BBQ3" s="4"/>
-      <c r="BBR3" s="4"/>
-      <c r="BBS3" s="4"/>
-      <c r="BBT3" s="4"/>
-      <c r="BBU3" s="4"/>
-      <c r="BBV3" s="4"/>
-      <c r="BBW3" s="4"/>
-      <c r="BBX3" s="4"/>
-      <c r="BBY3" s="4"/>
-      <c r="BBZ3" s="4"/>
-      <c r="BCA3" s="4"/>
-      <c r="BCB3" s="4"/>
-      <c r="BCC3" s="4"/>
-      <c r="BCD3" s="4"/>
-      <c r="BCE3" s="4"/>
-      <c r="BCF3" s="4"/>
-      <c r="BCG3" s="4"/>
-      <c r="BCH3" s="4"/>
-      <c r="BCI3" s="4"/>
-      <c r="BCJ3" s="4"/>
-      <c r="BCK3" s="4"/>
-      <c r="BCL3" s="4"/>
-      <c r="BCM3" s="4"/>
-      <c r="BCN3" s="4"/>
-      <c r="BCO3" s="4"/>
-      <c r="BCP3" s="4"/>
-      <c r="BCQ3" s="4"/>
-      <c r="BCR3" s="4"/>
-      <c r="BCS3" s="4"/>
-      <c r="BCT3" s="4"/>
-      <c r="BCU3" s="4"/>
-      <c r="BCV3" s="4"/>
-      <c r="BCW3" s="4"/>
-      <c r="BCX3" s="4"/>
-      <c r="BCY3" s="4"/>
-      <c r="BCZ3" s="4"/>
-      <c r="BDA3" s="4"/>
-      <c r="BDB3" s="4"/>
-      <c r="BDC3" s="4"/>
-      <c r="BDD3" s="4"/>
-      <c r="BDE3" s="4"/>
-      <c r="BDF3" s="4"/>
-      <c r="BDG3" s="4"/>
-      <c r="BDH3" s="4"/>
-      <c r="BDI3" s="4"/>
-      <c r="BDJ3" s="4"/>
-      <c r="BDK3" s="4"/>
-      <c r="BDL3" s="4"/>
-      <c r="BDM3" s="4"/>
-      <c r="BDN3" s="4"/>
-      <c r="BDO3" s="4"/>
-      <c r="BDP3" s="4"/>
-      <c r="BDQ3" s="4"/>
-      <c r="BDR3" s="4"/>
-      <c r="BDS3" s="4"/>
-      <c r="BDT3" s="4"/>
-      <c r="BDU3" s="4"/>
-      <c r="BDV3" s="4"/>
-      <c r="BDW3" s="4"/>
-      <c r="BDX3" s="4"/>
-      <c r="BDY3" s="4"/>
-      <c r="BDZ3" s="4"/>
-      <c r="BEA3" s="4"/>
-      <c r="BEB3" s="4"/>
-      <c r="BEC3" s="4"/>
-      <c r="BED3" s="4"/>
-      <c r="BEE3" s="4"/>
-      <c r="BEF3" s="4"/>
-      <c r="BEG3" s="4"/>
-      <c r="BEH3" s="4"/>
-      <c r="BEI3" s="4"/>
-      <c r="BEJ3" s="4"/>
-      <c r="BEK3" s="4"/>
-      <c r="BEL3" s="4"/>
-      <c r="BEM3" s="4"/>
-      <c r="BEN3" s="4"/>
-      <c r="BEO3" s="4"/>
-      <c r="BEP3" s="4"/>
-      <c r="BEQ3" s="4"/>
-      <c r="BER3" s="4"/>
-      <c r="BES3" s="4"/>
-      <c r="BET3" s="4"/>
-      <c r="BEU3" s="4"/>
-      <c r="BEV3" s="4"/>
-      <c r="BEW3" s="4"/>
-      <c r="BEX3" s="4"/>
-      <c r="BEY3" s="4"/>
-      <c r="BEZ3" s="4"/>
-      <c r="BFA3" s="4"/>
-      <c r="BFB3" s="4"/>
-      <c r="BFC3" s="4"/>
-      <c r="BFD3" s="4"/>
-      <c r="BFE3" s="4"/>
-      <c r="BFF3" s="4"/>
-      <c r="BFG3" s="4"/>
-      <c r="BFH3" s="4"/>
-      <c r="BFI3" s="4"/>
-      <c r="BFJ3" s="4"/>
-      <c r="BFK3" s="4"/>
-      <c r="BFL3" s="4"/>
-      <c r="BFM3" s="4"/>
-      <c r="BFN3" s="4"/>
-      <c r="BFO3" s="4"/>
-      <c r="BFP3" s="4"/>
-      <c r="BFQ3" s="4"/>
-      <c r="BFR3" s="4"/>
-      <c r="BFS3" s="4"/>
-      <c r="BFT3" s="4"/>
-      <c r="BFU3" s="4"/>
-      <c r="BFV3" s="4"/>
-      <c r="BFW3" s="4"/>
-      <c r="BFX3" s="4"/>
-      <c r="BFY3" s="4"/>
-      <c r="BFZ3" s="4"/>
-      <c r="BGA3" s="4"/>
-      <c r="BGB3" s="4"/>
-      <c r="BGC3" s="4"/>
-      <c r="BGD3" s="4"/>
-      <c r="BGE3" s="4"/>
-      <c r="BGF3" s="4"/>
-      <c r="BGG3" s="4"/>
-      <c r="BGH3" s="4"/>
-      <c r="BGI3" s="4"/>
-      <c r="BGJ3" s="4"/>
-      <c r="BGK3" s="4"/>
-      <c r="BGL3" s="4"/>
-      <c r="BGM3" s="4"/>
-      <c r="BGN3" s="4"/>
-      <c r="BGO3" s="4"/>
-      <c r="BGP3" s="4"/>
-      <c r="BGQ3" s="4"/>
-      <c r="BGR3" s="4"/>
-      <c r="BGS3" s="4"/>
-      <c r="BGT3" s="4"/>
-      <c r="BGU3" s="4"/>
-      <c r="BGV3" s="4"/>
-      <c r="BGW3" s="4"/>
-      <c r="BGX3" s="4"/>
-      <c r="BGY3" s="4"/>
-      <c r="BGZ3" s="4"/>
-      <c r="BHA3" s="4"/>
-      <c r="BHB3" s="4"/>
-      <c r="BHC3" s="4"/>
-      <c r="BHD3" s="4"/>
-      <c r="BHE3" s="4"/>
-      <c r="BHF3" s="4"/>
-      <c r="BHG3" s="4"/>
-      <c r="BHH3" s="4"/>
-      <c r="BHI3" s="4"/>
-      <c r="BHJ3" s="4"/>
-      <c r="BHK3" s="4"/>
-      <c r="BHL3" s="4"/>
-      <c r="BHM3" s="4"/>
-      <c r="BHN3" s="4"/>
-      <c r="BHO3" s="4"/>
-      <c r="BHP3" s="4"/>
-      <c r="BHQ3" s="4"/>
-      <c r="BHR3" s="4"/>
-      <c r="BHS3" s="4"/>
-      <c r="BHT3" s="4"/>
-      <c r="BHU3" s="4"/>
-      <c r="BHV3" s="4"/>
-      <c r="BHW3" s="4"/>
-      <c r="BHX3" s="4"/>
-      <c r="BHY3" s="4"/>
-      <c r="BHZ3" s="4"/>
-      <c r="BIA3" s="4"/>
-      <c r="BIB3" s="4"/>
-      <c r="BIC3" s="4"/>
-      <c r="BID3" s="4"/>
-      <c r="BIE3" s="4"/>
-      <c r="BIF3" s="4"/>
-      <c r="BIG3" s="4"/>
-      <c r="BIH3" s="4"/>
-      <c r="BII3" s="4"/>
-      <c r="BIJ3" s="4"/>
-      <c r="BIK3" s="4"/>
-      <c r="BIL3" s="4"/>
-      <c r="BIM3" s="4"/>
-      <c r="BIN3" s="4"/>
-      <c r="BIO3" s="4"/>
-      <c r="BIP3" s="4"/>
-      <c r="BIQ3" s="4"/>
-      <c r="BIR3" s="4"/>
-      <c r="BIS3" s="4"/>
-      <c r="BIT3" s="4"/>
-      <c r="BIU3" s="4"/>
-      <c r="BIV3" s="4"/>
-      <c r="BIW3" s="4"/>
-      <c r="BIX3" s="4"/>
-      <c r="BIY3" s="4"/>
-      <c r="BIZ3" s="4"/>
-      <c r="BJA3" s="4"/>
-      <c r="BJB3" s="4"/>
-      <c r="BJC3" s="4"/>
-      <c r="BJD3" s="4"/>
-      <c r="BJE3" s="4"/>
-      <c r="BJF3" s="4"/>
-      <c r="BJG3" s="4"/>
-      <c r="BJH3" s="4"/>
-      <c r="BJI3" s="4"/>
-      <c r="BJJ3" s="4"/>
-      <c r="BJK3" s="4"/>
-      <c r="BJL3" s="4"/>
-      <c r="BJM3" s="4"/>
-      <c r="BJN3" s="4"/>
-      <c r="BJO3" s="4"/>
-      <c r="BJP3" s="4"/>
-      <c r="BJQ3" s="4"/>
-      <c r="BJR3" s="4"/>
-      <c r="BJS3" s="4"/>
-      <c r="BJT3" s="4"/>
-      <c r="BJU3" s="4"/>
-      <c r="BJV3" s="4"/>
-      <c r="BJW3" s="4"/>
-      <c r="BJX3" s="4"/>
-      <c r="BJY3" s="4"/>
-      <c r="BJZ3" s="4"/>
-      <c r="BKA3" s="4"/>
-      <c r="BKB3" s="4"/>
-      <c r="BKC3" s="4"/>
-      <c r="BKD3" s="4"/>
-      <c r="BKE3" s="4"/>
-      <c r="BKF3" s="4"/>
-      <c r="BKG3" s="4"/>
-      <c r="BKH3" s="4"/>
-      <c r="BKI3" s="4"/>
-      <c r="BKJ3" s="4"/>
-      <c r="BKK3" s="4"/>
-      <c r="BKL3" s="4"/>
-      <c r="BKM3" s="4"/>
-      <c r="BKN3" s="4"/>
-      <c r="BKO3" s="4"/>
-      <c r="BKP3" s="4"/>
-      <c r="BKQ3" s="4"/>
-      <c r="BKR3" s="4"/>
-      <c r="BKS3" s="4"/>
-      <c r="BKT3" s="4"/>
-      <c r="BKU3" s="4"/>
-      <c r="BKV3" s="4"/>
-      <c r="BKW3" s="4"/>
-      <c r="BKX3" s="4"/>
-      <c r="BKY3" s="4"/>
-      <c r="BKZ3" s="4"/>
-      <c r="BLA3" s="4"/>
-      <c r="BLB3" s="4"/>
-      <c r="BLC3" s="4"/>
-      <c r="BLD3" s="4"/>
-      <c r="BLE3" s="4"/>
-      <c r="BLF3" s="4"/>
-      <c r="BLG3" s="4"/>
-      <c r="BLH3" s="4"/>
-      <c r="BLI3" s="4"/>
-      <c r="BLJ3" s="4"/>
-      <c r="BLK3" s="4"/>
-      <c r="BLL3" s="4"/>
-      <c r="BLM3" s="4"/>
-      <c r="BLN3" s="4"/>
-      <c r="BLO3" s="4"/>
-      <c r="BLP3" s="4"/>
-      <c r="BLQ3" s="4"/>
-      <c r="BLR3" s="4"/>
-      <c r="BLS3" s="4"/>
-      <c r="BLT3" s="4"/>
-      <c r="BLU3" s="4"/>
-      <c r="BLV3" s="4"/>
-      <c r="BLW3" s="4"/>
-      <c r="BLX3" s="4"/>
-      <c r="BLY3" s="4"/>
-      <c r="BLZ3" s="4"/>
-      <c r="BMA3" s="4"/>
-      <c r="BMB3" s="4"/>
-      <c r="BMC3" s="4"/>
-      <c r="BMD3" s="4"/>
-      <c r="BME3" s="4"/>
-      <c r="BMF3" s="4"/>
-      <c r="BMG3" s="4"/>
-      <c r="BMH3" s="4"/>
-      <c r="BMI3" s="4"/>
-      <c r="BMJ3" s="4"/>
-      <c r="BMK3" s="4"/>
-      <c r="BML3" s="4"/>
-      <c r="BMM3" s="4"/>
-      <c r="BMN3" s="4"/>
-      <c r="BMO3" s="4"/>
-      <c r="BMP3" s="4"/>
-      <c r="BMQ3" s="4"/>
-      <c r="BMR3" s="4"/>
-      <c r="BMS3" s="4"/>
-      <c r="BMT3" s="4"/>
-      <c r="BMU3" s="4"/>
-      <c r="BMV3" s="4"/>
-      <c r="BMW3" s="4"/>
-      <c r="BMX3" s="4"/>
-      <c r="BMY3" s="4"/>
-      <c r="BMZ3" s="4"/>
-      <c r="BNA3" s="4"/>
-      <c r="BNB3" s="4"/>
-      <c r="BNC3" s="4"/>
-      <c r="BND3" s="4"/>
-      <c r="BNE3" s="4"/>
-      <c r="BNF3" s="4"/>
-      <c r="BNG3" s="4"/>
-      <c r="BNH3" s="4"/>
-      <c r="BNI3" s="4"/>
-      <c r="BNJ3" s="4"/>
-      <c r="BNK3" s="4"/>
-      <c r="BNL3" s="4"/>
-      <c r="BNM3" s="4"/>
-      <c r="BNN3" s="4"/>
-      <c r="BNO3" s="4"/>
-      <c r="BNP3" s="4"/>
-      <c r="BNQ3" s="4"/>
-      <c r="BNR3" s="4"/>
-      <c r="BNS3" s="4"/>
-      <c r="BNT3" s="4"/>
-      <c r="BNU3" s="4"/>
-      <c r="BNV3" s="4"/>
-      <c r="BNW3" s="4"/>
-      <c r="BNX3" s="4"/>
-      <c r="BNY3" s="4"/>
-      <c r="BNZ3" s="4"/>
-      <c r="BOA3" s="4"/>
-      <c r="BOB3" s="4"/>
-      <c r="BOC3" s="4"/>
-      <c r="BOD3" s="4"/>
-      <c r="BOE3" s="4"/>
-      <c r="BOF3" s="4"/>
-      <c r="BOG3" s="4"/>
-      <c r="BOH3" s="4"/>
-      <c r="BOI3" s="4"/>
-      <c r="BOJ3" s="4"/>
-      <c r="BOK3" s="4"/>
-      <c r="BOL3" s="4"/>
-      <c r="BOM3" s="4"/>
-      <c r="BON3" s="4"/>
-      <c r="BOO3" s="4"/>
-      <c r="BOP3" s="4"/>
-      <c r="BOQ3" s="4"/>
-      <c r="BOR3" s="4"/>
-      <c r="BOS3" s="4"/>
-      <c r="BOT3" s="4"/>
-      <c r="BOU3" s="4"/>
-      <c r="BOV3" s="4"/>
-      <c r="BOW3" s="4"/>
-      <c r="BOX3" s="4"/>
-      <c r="BOY3" s="4"/>
-      <c r="BOZ3" s="4"/>
-      <c r="BPA3" s="4"/>
-      <c r="BPB3" s="4"/>
-      <c r="BPC3" s="4"/>
-      <c r="BPD3" s="4"/>
-      <c r="BPE3" s="4"/>
-      <c r="BPF3" s="4"/>
-      <c r="BPG3" s="4"/>
-      <c r="BPH3" s="4"/>
-      <c r="BPI3" s="4"/>
-      <c r="BPJ3" s="4"/>
-      <c r="BPK3" s="4"/>
-      <c r="BPL3" s="4"/>
-      <c r="BPM3" s="4"/>
-      <c r="BPN3" s="4"/>
-      <c r="BPO3" s="4"/>
-      <c r="BPP3" s="4"/>
-      <c r="BPQ3" s="4"/>
-      <c r="BPR3" s="4"/>
-      <c r="BPS3" s="4"/>
-      <c r="BPT3" s="4"/>
-      <c r="BPU3" s="4"/>
-      <c r="BPV3" s="4"/>
-      <c r="BPW3" s="4"/>
-      <c r="BPX3" s="4"/>
-      <c r="BPY3" s="4"/>
-      <c r="BPZ3" s="4"/>
-      <c r="BQA3" s="4"/>
-      <c r="BQB3" s="4"/>
-      <c r="BQC3" s="4"/>
-      <c r="BQD3" s="4"/>
-      <c r="BQE3" s="4"/>
-      <c r="BQF3" s="4"/>
-      <c r="BQG3" s="4"/>
-      <c r="BQH3" s="4"/>
-      <c r="BQI3" s="4"/>
-      <c r="BQJ3" s="4"/>
-      <c r="BQK3" s="4"/>
-      <c r="BQL3" s="4"/>
-      <c r="BQM3" s="4"/>
-      <c r="BQN3" s="4"/>
-      <c r="BQO3" s="4"/>
-      <c r="BQP3" s="4"/>
-      <c r="BQQ3" s="4"/>
-      <c r="BQR3" s="4"/>
-      <c r="BQS3" s="4"/>
-      <c r="BQT3" s="4"/>
-      <c r="BQU3" s="4"/>
-      <c r="BQV3" s="4"/>
-      <c r="BQW3" s="4"/>
-      <c r="BQX3" s="4"/>
-      <c r="BQY3" s="4"/>
-      <c r="BQZ3" s="4"/>
-      <c r="BRA3" s="4"/>
-      <c r="BRB3" s="4"/>
-      <c r="BRC3" s="4"/>
-      <c r="BRD3" s="4"/>
-      <c r="BRE3" s="4"/>
-      <c r="BRF3" s="4"/>
-      <c r="BRG3" s="4"/>
-      <c r="BRH3" s="4"/>
-      <c r="BRI3" s="4"/>
-      <c r="BRJ3" s="4"/>
-      <c r="BRK3" s="4"/>
-      <c r="BRL3" s="4"/>
-      <c r="BRM3" s="4"/>
-      <c r="BRN3" s="4"/>
-      <c r="BRO3" s="4"/>
-      <c r="BRP3" s="4"/>
-      <c r="BRQ3" s="4"/>
-      <c r="BRR3" s="4"/>
-      <c r="BRS3" s="4"/>
-      <c r="BRT3" s="4"/>
-      <c r="BRU3" s="4"/>
-      <c r="BRV3" s="4"/>
-      <c r="BRW3" s="4"/>
-      <c r="BRX3" s="4"/>
-      <c r="BRY3" s="4"/>
-      <c r="BRZ3" s="4"/>
-      <c r="BSA3" s="4"/>
-      <c r="BSB3" s="4"/>
-      <c r="BSC3" s="4"/>
-      <c r="BSD3" s="4"/>
-      <c r="BSE3" s="4"/>
-      <c r="BSF3" s="4"/>
-      <c r="BSG3" s="4"/>
-      <c r="BSH3" s="4"/>
-      <c r="BSI3" s="4"/>
-      <c r="BSJ3" s="4"/>
-      <c r="BSK3" s="4"/>
-      <c r="BSL3" s="4"/>
-      <c r="BSM3" s="4"/>
-      <c r="BSN3" s="4"/>
-      <c r="BSO3" s="4"/>
-      <c r="BSP3" s="4"/>
-      <c r="BSQ3" s="4"/>
-      <c r="BSR3" s="4"/>
-      <c r="BSS3" s="4"/>
-      <c r="BST3" s="4"/>
-      <c r="BSU3" s="4"/>
-      <c r="BSV3" s="4"/>
-      <c r="BSW3" s="4"/>
-      <c r="BSX3" s="4"/>
-      <c r="BSY3" s="4"/>
-      <c r="BSZ3" s="4"/>
-      <c r="BTA3" s="4"/>
-      <c r="BTB3" s="4"/>
-      <c r="BTC3" s="4"/>
-      <c r="BTD3" s="4"/>
-      <c r="BTE3" s="4"/>
-      <c r="BTF3" s="4"/>
-      <c r="BTG3" s="4"/>
-      <c r="BTH3" s="4"/>
-      <c r="BTI3" s="4"/>
-      <c r="BTJ3" s="4"/>
-      <c r="BTK3" s="4"/>
-      <c r="BTL3" s="4"/>
-      <c r="BTM3" s="4"/>
-      <c r="BTN3" s="4"/>
-      <c r="BTO3" s="4"/>
-      <c r="BTP3" s="4"/>
-      <c r="BTQ3" s="4"/>
-      <c r="BTR3" s="4"/>
-      <c r="BTS3" s="4"/>
-      <c r="BTT3" s="4"/>
-      <c r="BTU3" s="4"/>
-      <c r="BTV3" s="4"/>
-      <c r="BTW3" s="4"/>
-      <c r="BTX3" s="4"/>
-      <c r="BTY3" s="4"/>
-      <c r="BTZ3" s="4"/>
-      <c r="BUA3" s="4"/>
-      <c r="BUB3" s="4"/>
-      <c r="BUC3" s="4"/>
-      <c r="BUD3" s="4"/>
-      <c r="BUE3" s="4"/>
-      <c r="BUF3" s="4"/>
-      <c r="BUG3" s="4"/>
-      <c r="BUH3" s="4"/>
-      <c r="BUI3" s="4"/>
-      <c r="BUJ3" s="4"/>
-      <c r="BUK3" s="4"/>
-      <c r="BUL3" s="4"/>
-      <c r="BUM3" s="4"/>
-      <c r="BUN3" s="4"/>
-      <c r="BUO3" s="4"/>
-      <c r="BUP3" s="4"/>
-      <c r="BUQ3" s="4"/>
-      <c r="BUR3" s="4"/>
-      <c r="BUS3" s="4"/>
-      <c r="BUT3" s="4"/>
-      <c r="BUU3" s="4"/>
-      <c r="BUV3" s="4"/>
-      <c r="BUW3" s="4"/>
-      <c r="BUX3" s="4"/>
-      <c r="BUY3" s="4"/>
-      <c r="BUZ3" s="4"/>
-      <c r="BVA3" s="4"/>
-      <c r="BVB3" s="4"/>
-      <c r="BVC3" s="4"/>
-      <c r="BVD3" s="4"/>
-      <c r="BVE3" s="4"/>
-      <c r="BVF3" s="4"/>
-      <c r="BVG3" s="4"/>
-      <c r="BVH3" s="4"/>
-      <c r="BVI3" s="4"/>
-      <c r="BVJ3" s="4"/>
-      <c r="BVK3" s="4"/>
-      <c r="BVL3" s="4"/>
-      <c r="BVM3" s="4"/>
-      <c r="BVN3" s="4"/>
-      <c r="BVO3" s="4"/>
-      <c r="BVP3" s="4"/>
-      <c r="BVQ3" s="4"/>
-      <c r="BVR3" s="4"/>
-      <c r="BVS3" s="4"/>
-      <c r="BVT3" s="4"/>
-      <c r="BVU3" s="4"/>
-      <c r="BVV3" s="4"/>
-      <c r="BVW3" s="4"/>
-      <c r="BVX3" s="4"/>
-      <c r="BVY3" s="4"/>
-      <c r="BVZ3" s="4"/>
-      <c r="BWA3" s="4"/>
-      <c r="BWB3" s="4"/>
-      <c r="BWC3" s="4"/>
-      <c r="BWD3" s="4"/>
-      <c r="BWE3" s="4"/>
-      <c r="BWF3" s="4"/>
-      <c r="BWG3" s="4"/>
-      <c r="BWH3" s="4"/>
-      <c r="BWI3" s="4"/>
-      <c r="BWJ3" s="4"/>
-      <c r="BWK3" s="4"/>
-      <c r="BWL3" s="4"/>
-      <c r="BWM3" s="4"/>
-      <c r="BWN3" s="4"/>
-      <c r="BWO3" s="4"/>
-      <c r="BWP3" s="4"/>
-      <c r="BWQ3" s="4"/>
-      <c r="BWR3" s="4"/>
-      <c r="BWS3" s="4"/>
-      <c r="BWT3" s="4"/>
-      <c r="BWU3" s="4"/>
-      <c r="BWV3" s="4"/>
-      <c r="BWW3" s="4"/>
-      <c r="BWX3" s="4"/>
-      <c r="BWY3" s="4"/>
-      <c r="BWZ3" s="4"/>
-      <c r="BXA3" s="4"/>
-      <c r="BXB3" s="4"/>
-      <c r="BXC3" s="4"/>
-      <c r="BXD3" s="4"/>
-      <c r="BXE3" s="4"/>
-      <c r="BXF3" s="4"/>
-      <c r="BXG3" s="4"/>
-      <c r="BXH3" s="4"/>
-      <c r="BXI3" s="4"/>
-      <c r="BXJ3" s="4"/>
-      <c r="BXK3" s="4"/>
-      <c r="BXL3" s="4"/>
-      <c r="BXM3" s="4"/>
-      <c r="BXN3" s="4"/>
-      <c r="BXO3" s="4"/>
-      <c r="BXP3" s="4"/>
-      <c r="BXQ3" s="4"/>
-      <c r="BXR3" s="4"/>
-      <c r="BXS3" s="4"/>
-      <c r="BXT3" s="4"/>
-      <c r="BXU3" s="4"/>
-      <c r="BXV3" s="4"/>
-      <c r="BXW3" s="4"/>
-      <c r="BXX3" s="4"/>
-      <c r="BXY3" s="4"/>
-      <c r="BXZ3" s="4"/>
-      <c r="BYA3" s="4"/>
-      <c r="BYB3" s="4"/>
-      <c r="BYC3" s="4"/>
-      <c r="BYD3" s="4"/>
-      <c r="BYE3" s="4"/>
-      <c r="BYF3" s="4"/>
-      <c r="BYG3" s="4"/>
-      <c r="BYH3" s="4"/>
-      <c r="BYI3" s="4"/>
-      <c r="BYJ3" s="4"/>
-      <c r="BYK3" s="4"/>
-      <c r="BYL3" s="4"/>
-      <c r="BYM3" s="4"/>
-      <c r="BYN3" s="4"/>
-      <c r="BYO3" s="4"/>
-      <c r="BYP3" s="4"/>
-      <c r="BYQ3" s="4"/>
-      <c r="BYR3" s="4"/>
-      <c r="BYS3" s="4"/>
-      <c r="BYT3" s="4"/>
-      <c r="BYU3" s="4"/>
-      <c r="BYV3" s="4"/>
-      <c r="BYW3" s="4"/>
-      <c r="BYX3" s="4"/>
-      <c r="BYY3" s="4"/>
-      <c r="BYZ3" s="4"/>
-      <c r="BZA3" s="4"/>
-      <c r="BZB3" s="4"/>
-      <c r="BZC3" s="4"/>
-      <c r="BZD3" s="4"/>
-      <c r="BZE3" s="4"/>
-      <c r="BZF3" s="4"/>
-      <c r="BZG3" s="4"/>
-      <c r="BZH3" s="4"/>
-      <c r="BZI3" s="4"/>
-      <c r="BZJ3" s="4"/>
-      <c r="BZK3" s="4"/>
-      <c r="BZL3" s="4"/>
-      <c r="BZM3" s="4"/>
-      <c r="BZN3" s="4"/>
-      <c r="BZO3" s="4"/>
-      <c r="BZP3" s="4"/>
-      <c r="BZQ3" s="4"/>
-      <c r="BZR3" s="4"/>
-      <c r="BZS3" s="4"/>
-      <c r="BZT3" s="4"/>
-      <c r="BZU3" s="4"/>
-      <c r="BZV3" s="4"/>
-      <c r="BZW3" s="4"/>
-      <c r="BZX3" s="4"/>
-      <c r="BZY3" s="4"/>
-      <c r="BZZ3" s="4"/>
-      <c r="CAA3" s="4"/>
-      <c r="CAB3" s="4"/>
-      <c r="CAC3" s="4"/>
-      <c r="CAD3" s="4"/>
-      <c r="CAE3" s="4"/>
-      <c r="CAF3" s="4"/>
-      <c r="CAG3" s="4"/>
-      <c r="CAH3" s="4"/>
-      <c r="CAI3" s="4"/>
-      <c r="CAJ3" s="4"/>
-      <c r="CAK3" s="4"/>
-      <c r="CAL3" s="4"/>
-      <c r="CAM3" s="4"/>
-      <c r="CAN3" s="4"/>
-      <c r="CAO3" s="4"/>
-      <c r="CAP3" s="4"/>
-      <c r="CAQ3" s="4"/>
-      <c r="CAR3" s="4"/>
-      <c r="CAS3" s="4"/>
-      <c r="CAT3" s="4"/>
-      <c r="CAU3" s="4"/>
-      <c r="CAV3" s="4"/>
-      <c r="CAW3" s="4"/>
-      <c r="CAX3" s="4"/>
-      <c r="CAY3" s="4"/>
-      <c r="CAZ3" s="4"/>
-      <c r="CBA3" s="4"/>
-      <c r="CBB3" s="4"/>
-      <c r="CBC3" s="4"/>
-      <c r="CBD3" s="4"/>
-      <c r="CBE3" s="4"/>
-      <c r="CBF3" s="4"/>
-      <c r="CBG3" s="4"/>
-      <c r="CBH3" s="4"/>
-      <c r="CBI3" s="4"/>
-      <c r="CBJ3" s="4"/>
-      <c r="CBK3" s="4"/>
-      <c r="CBL3" s="4"/>
-      <c r="CBM3" s="4"/>
-      <c r="CBN3" s="4"/>
-      <c r="CBO3" s="4"/>
-      <c r="CBP3" s="4"/>
-      <c r="CBQ3" s="4"/>
-      <c r="CBR3" s="4"/>
-      <c r="CBS3" s="4"/>
-      <c r="CBT3" s="4"/>
-      <c r="CBU3" s="4"/>
-      <c r="CBV3" s="4"/>
-      <c r="CBW3" s="4"/>
-      <c r="CBX3" s="4"/>
-      <c r="CBY3" s="4"/>
-      <c r="CBZ3" s="4"/>
-      <c r="CCA3" s="4"/>
-      <c r="CCB3" s="4"/>
-      <c r="CCC3" s="4"/>
-      <c r="CCD3" s="4"/>
-      <c r="CCE3" s="4"/>
-      <c r="CCF3" s="4"/>
-      <c r="CCG3" s="4"/>
-      <c r="CCH3" s="4"/>
-      <c r="CCI3" s="4"/>
-      <c r="CCJ3" s="4"/>
-      <c r="CCK3" s="4"/>
-      <c r="CCL3" s="4"/>
-      <c r="CCM3" s="4"/>
-      <c r="CCN3" s="4"/>
-      <c r="CCO3" s="4"/>
-      <c r="CCP3" s="4"/>
-      <c r="CCQ3" s="4"/>
-      <c r="CCR3" s="4"/>
-      <c r="CCS3" s="4"/>
-      <c r="CCT3" s="4"/>
-      <c r="CCU3" s="4"/>
-      <c r="CCV3" s="4"/>
-      <c r="CCW3" s="4"/>
-      <c r="CCX3" s="4"/>
-      <c r="CCY3" s="4"/>
-      <c r="CCZ3" s="4"/>
-      <c r="CDA3" s="4"/>
-      <c r="CDB3" s="4"/>
-      <c r="CDC3" s="4"/>
-      <c r="CDD3" s="4"/>
-      <c r="CDE3" s="4"/>
-      <c r="CDF3" s="4"/>
-      <c r="CDG3" s="4"/>
-      <c r="CDH3" s="4"/>
-      <c r="CDI3" s="4"/>
-      <c r="CDJ3" s="4"/>
-      <c r="CDK3" s="4"/>
-      <c r="CDL3" s="4"/>
-      <c r="CDM3" s="4"/>
-      <c r="CDN3" s="4"/>
-      <c r="CDO3" s="4"/>
-      <c r="CDP3" s="4"/>
-      <c r="CDQ3" s="4"/>
-      <c r="CDR3" s="4"/>
-      <c r="CDS3" s="4"/>
-      <c r="CDT3" s="4"/>
-      <c r="CDU3" s="4"/>
-      <c r="CDV3" s="4"/>
-      <c r="CDW3" s="4"/>
-      <c r="CDX3" s="4"/>
-      <c r="CDY3" s="4"/>
-      <c r="CDZ3" s="4"/>
-      <c r="CEA3" s="4"/>
-      <c r="CEB3" s="4"/>
-      <c r="CEC3" s="4"/>
-      <c r="CED3" s="4"/>
-      <c r="CEE3" s="4"/>
-      <c r="CEF3" s="4"/>
-      <c r="CEG3" s="4"/>
-      <c r="CEH3" s="4"/>
-      <c r="CEI3" s="4"/>
-      <c r="CEJ3" s="4"/>
-      <c r="CEK3" s="4"/>
-      <c r="CEL3" s="4"/>
-      <c r="CEM3" s="4"/>
-      <c r="CEN3" s="4"/>
-      <c r="CEO3" s="4"/>
-      <c r="CEP3" s="4"/>
-      <c r="CEQ3" s="4"/>
-      <c r="CER3" s="4"/>
-      <c r="CES3" s="4"/>
-      <c r="CET3" s="4"/>
-      <c r="CEU3" s="4"/>
-      <c r="CEV3" s="4"/>
-      <c r="CEW3" s="4"/>
-      <c r="CEX3" s="4"/>
-      <c r="CEY3" s="4"/>
-      <c r="CEZ3" s="4"/>
-      <c r="CFA3" s="4"/>
-      <c r="CFB3" s="4"/>
-      <c r="CFC3" s="4"/>
-      <c r="CFD3" s="4"/>
-      <c r="CFE3" s="4"/>
-      <c r="CFF3" s="4"/>
-      <c r="CFG3" s="4"/>
-      <c r="CFH3" s="4"/>
-      <c r="CFI3" s="4"/>
-      <c r="CFJ3" s="4"/>
-      <c r="CFK3" s="4"/>
-      <c r="CFL3" s="4"/>
-      <c r="CFM3" s="4"/>
-      <c r="CFN3" s="4"/>
-      <c r="CFO3" s="4"/>
-      <c r="CFP3" s="4"/>
-      <c r="CFQ3" s="4"/>
-      <c r="CFR3" s="4"/>
-      <c r="CFS3" s="4"/>
-      <c r="CFT3" s="4"/>
-      <c r="CFU3" s="4"/>
-      <c r="CFV3" s="4"/>
-      <c r="CFW3" s="4"/>
-      <c r="CFX3" s="4"/>
-      <c r="CFY3" s="4"/>
-      <c r="CFZ3" s="4"/>
-      <c r="CGA3" s="4"/>
-      <c r="CGB3" s="4"/>
-      <c r="CGC3" s="4"/>
-      <c r="CGD3" s="4"/>
-      <c r="CGE3" s="4"/>
-      <c r="CGF3" s="4"/>
-      <c r="CGG3" s="4"/>
-      <c r="CGH3" s="4"/>
-      <c r="CGI3" s="4"/>
-      <c r="CGJ3" s="4"/>
-      <c r="CGK3" s="4"/>
-      <c r="CGL3" s="4"/>
-      <c r="CGM3" s="4"/>
-      <c r="CGN3" s="4"/>
-      <c r="CGO3" s="4"/>
-      <c r="CGP3" s="4"/>
-      <c r="CGQ3" s="4"/>
-      <c r="CGR3" s="4"/>
-      <c r="CGS3" s="4"/>
-      <c r="CGT3" s="4"/>
-      <c r="CGU3" s="4"/>
-      <c r="CGV3" s="4"/>
-      <c r="CGW3" s="4"/>
-      <c r="CGX3" s="4"/>
-      <c r="CGY3" s="4"/>
-      <c r="CGZ3" s="4"/>
-      <c r="CHA3" s="4"/>
-      <c r="CHB3" s="4"/>
-      <c r="CHC3" s="4"/>
-      <c r="CHD3" s="4"/>
-      <c r="CHE3" s="4"/>
-      <c r="CHF3" s="4"/>
-      <c r="CHG3" s="4"/>
-      <c r="CHH3" s="4"/>
-      <c r="CHI3" s="4"/>
-      <c r="CHJ3" s="4"/>
-      <c r="CHK3" s="4"/>
-      <c r="CHL3" s="4"/>
-      <c r="CHM3" s="4"/>
-      <c r="CHN3" s="4"/>
-      <c r="CHO3" s="4"/>
-      <c r="CHP3" s="4"/>
-      <c r="CHQ3" s="4"/>
-      <c r="CHR3" s="4"/>
-      <c r="CHS3" s="4"/>
-      <c r="CHT3" s="4"/>
-      <c r="CHU3" s="4"/>
-      <c r="CHV3" s="4"/>
-      <c r="CHW3" s="4"/>
-      <c r="CHX3" s="4"/>
-      <c r="CHY3" s="4"/>
-      <c r="CHZ3" s="4"/>
-      <c r="CIA3" s="4"/>
-      <c r="CIB3" s="4"/>
-      <c r="CIC3" s="4"/>
-      <c r="CID3" s="4"/>
-      <c r="CIE3" s="4"/>
-      <c r="CIF3" s="4"/>
-      <c r="CIG3" s="4"/>
-      <c r="CIH3" s="4"/>
-      <c r="CII3" s="4"/>
-      <c r="CIJ3" s="4"/>
-      <c r="CIK3" s="4"/>
-      <c r="CIL3" s="4"/>
-      <c r="CIM3" s="4"/>
-      <c r="CIN3" s="4"/>
-      <c r="CIO3" s="4"/>
-      <c r="CIP3" s="4"/>
-      <c r="CIQ3" s="4"/>
-      <c r="CIR3" s="4"/>
-      <c r="CIS3" s="4"/>
-      <c r="CIT3" s="4"/>
-      <c r="CIU3" s="4"/>
-      <c r="CIV3" s="4"/>
-      <c r="CIW3" s="4"/>
-      <c r="CIX3" s="4"/>
-      <c r="CIY3" s="4"/>
-      <c r="CIZ3" s="4"/>
-      <c r="CJA3" s="4"/>
-      <c r="CJB3" s="4"/>
-      <c r="CJC3" s="4"/>
-      <c r="CJD3" s="4"/>
-      <c r="CJE3" s="4"/>
-      <c r="CJF3" s="4"/>
-      <c r="CJG3" s="4"/>
-      <c r="CJH3" s="4"/>
-      <c r="CJI3" s="4"/>
-      <c r="CJJ3" s="4"/>
-      <c r="CJK3" s="4"/>
-      <c r="CJL3" s="4"/>
-      <c r="CJM3" s="4"/>
-      <c r="CJN3" s="4"/>
-      <c r="CJO3" s="4"/>
-      <c r="CJP3" s="4"/>
-      <c r="CJQ3" s="4"/>
-      <c r="CJR3" s="4"/>
-      <c r="CJS3" s="4"/>
-      <c r="CJT3" s="4"/>
-      <c r="CJU3" s="4"/>
-      <c r="CJV3" s="4"/>
-      <c r="CJW3" s="4"/>
-      <c r="CJX3" s="4"/>
-      <c r="CJY3" s="4"/>
-      <c r="CJZ3" s="4"/>
-      <c r="CKA3" s="4"/>
-      <c r="CKB3" s="4"/>
-      <c r="CKC3" s="4"/>
-      <c r="CKD3" s="4"/>
-      <c r="CKE3" s="4"/>
-      <c r="CKF3" s="4"/>
-      <c r="CKG3" s="4"/>
-      <c r="CKH3" s="4"/>
-      <c r="CKI3" s="4"/>
-      <c r="CKJ3" s="4"/>
-      <c r="CKK3" s="4"/>
-      <c r="CKL3" s="4"/>
-      <c r="CKM3" s="4"/>
-      <c r="CKN3" s="4"/>
-      <c r="CKO3" s="4"/>
-      <c r="CKP3" s="4"/>
-      <c r="CKQ3" s="4"/>
-      <c r="CKR3" s="4"/>
-      <c r="CKS3" s="4"/>
-      <c r="CKT3" s="4"/>
-      <c r="CKU3" s="4"/>
-      <c r="CKV3" s="4"/>
-      <c r="CKW3" s="4"/>
-      <c r="CKX3" s="4"/>
-      <c r="CKY3" s="4"/>
-      <c r="CKZ3" s="4"/>
-      <c r="CLA3" s="4"/>
-      <c r="CLB3" s="4"/>
-      <c r="CLC3" s="4"/>
-      <c r="CLD3" s="4"/>
-      <c r="CLE3" s="4"/>
-      <c r="CLF3" s="4"/>
-      <c r="CLG3" s="4"/>
-      <c r="CLH3" s="4"/>
-      <c r="CLI3" s="4"/>
-      <c r="CLJ3" s="4"/>
-      <c r="CLK3" s="4"/>
-      <c r="CLL3" s="4"/>
-      <c r="CLM3" s="4"/>
-      <c r="CLN3" s="4"/>
-      <c r="CLO3" s="4"/>
-      <c r="CLP3" s="4"/>
-      <c r="CLQ3" s="4"/>
-      <c r="CLR3" s="4"/>
-      <c r="CLS3" s="4"/>
-      <c r="CLT3" s="4"/>
-      <c r="CLU3" s="4"/>
-      <c r="CLV3" s="4"/>
-      <c r="CLW3" s="4"/>
-      <c r="CLX3" s="4"/>
-      <c r="CLY3" s="4"/>
-      <c r="CLZ3" s="4"/>
-      <c r="CMA3" s="4"/>
-      <c r="CMB3" s="4"/>
-      <c r="CMC3" s="4"/>
-      <c r="CMD3" s="4"/>
-      <c r="CME3" s="4"/>
-      <c r="CMF3" s="4"/>
-      <c r="CMG3" s="4"/>
-      <c r="CMH3" s="4"/>
-      <c r="CMI3" s="4"/>
-      <c r="CMJ3" s="4"/>
-      <c r="CMK3" s="4"/>
-      <c r="CML3" s="4"/>
-      <c r="CMM3" s="4"/>
-      <c r="CMN3" s="4"/>
-      <c r="CMO3" s="4"/>
-      <c r="CMP3" s="4"/>
-      <c r="CMQ3" s="4"/>
-      <c r="CMR3" s="4"/>
-      <c r="CMS3" s="4"/>
-      <c r="CMT3" s="4"/>
-      <c r="CMU3" s="4"/>
-      <c r="CMV3" s="4"/>
-      <c r="CMW3" s="4"/>
-      <c r="CMX3" s="4"/>
-      <c r="CMY3" s="4"/>
-      <c r="CMZ3" s="4"/>
-      <c r="CNA3" s="4"/>
-      <c r="CNB3" s="4"/>
-      <c r="CNC3" s="4"/>
-      <c r="CND3" s="4"/>
-      <c r="CNE3" s="4"/>
-      <c r="CNF3" s="4"/>
-      <c r="CNG3" s="4"/>
-      <c r="CNH3" s="4"/>
-      <c r="CNI3" s="4"/>
-      <c r="CNJ3" s="4"/>
-      <c r="CNK3" s="4"/>
-      <c r="CNL3" s="4"/>
-      <c r="CNM3" s="4"/>
-      <c r="CNN3" s="4"/>
-      <c r="CNO3" s="4"/>
-      <c r="CNP3" s="4"/>
-      <c r="CNQ3" s="4"/>
-      <c r="CNR3" s="4"/>
-      <c r="CNS3" s="4"/>
-      <c r="CNT3" s="4"/>
-      <c r="CNU3" s="4"/>
-      <c r="CNV3" s="4"/>
-      <c r="CNW3" s="4"/>
-      <c r="CNX3" s="4"/>
-      <c r="CNY3" s="4"/>
-      <c r="CNZ3" s="4"/>
-      <c r="COA3" s="4"/>
-      <c r="COB3" s="4"/>
-      <c r="COC3" s="4"/>
-      <c r="COD3" s="4"/>
-      <c r="COE3" s="4"/>
-      <c r="COF3" s="4"/>
-      <c r="COG3" s="4"/>
-      <c r="COH3" s="4"/>
-      <c r="COI3" s="4"/>
-      <c r="COJ3" s="4"/>
-      <c r="COK3" s="4"/>
-      <c r="COL3" s="4"/>
-      <c r="COM3" s="4"/>
-      <c r="CON3" s="4"/>
-      <c r="COO3" s="4"/>
-      <c r="COP3" s="4"/>
-      <c r="COQ3" s="4"/>
-      <c r="COR3" s="4"/>
-      <c r="COS3" s="4"/>
-      <c r="COT3" s="4"/>
-      <c r="COU3" s="4"/>
-      <c r="COV3" s="4"/>
-      <c r="COW3" s="4"/>
-      <c r="COX3" s="4"/>
-      <c r="COY3" s="4"/>
-      <c r="COZ3" s="4"/>
-      <c r="CPA3" s="4"/>
-      <c r="CPB3" s="4"/>
-      <c r="CPC3" s="4"/>
-      <c r="CPD3" s="4"/>
-      <c r="CPE3" s="4"/>
-      <c r="CPF3" s="4"/>
-      <c r="CPG3" s="4"/>
-      <c r="CPH3" s="4"/>
-      <c r="CPI3" s="4"/>
-      <c r="CPJ3" s="4"/>
-      <c r="CPK3" s="4"/>
-      <c r="CPL3" s="4"/>
-      <c r="CPM3" s="4"/>
-      <c r="CPN3" s="4"/>
-      <c r="CPO3" s="4"/>
-      <c r="CPP3" s="4"/>
-      <c r="CPQ3" s="4"/>
-      <c r="CPR3" s="4"/>
-      <c r="CPS3" s="4"/>
-      <c r="CPT3" s="4"/>
-      <c r="CPU3" s="4"/>
-      <c r="CPV3" s="4"/>
-      <c r="CPW3" s="4"/>
-      <c r="CPX3" s="4"/>
-      <c r="CPY3" s="4"/>
-      <c r="CPZ3" s="4"/>
-      <c r="CQA3" s="4"/>
-      <c r="CQB3" s="4"/>
-      <c r="CQC3" s="4"/>
-      <c r="CQD3" s="4"/>
-      <c r="CQE3" s="4"/>
-      <c r="CQF3" s="4"/>
-      <c r="CQG3" s="4"/>
-      <c r="CQH3" s="4"/>
-      <c r="CQI3" s="4"/>
-      <c r="CQJ3" s="4"/>
-      <c r="CQK3" s="4"/>
-      <c r="CQL3" s="4"/>
-      <c r="CQM3" s="4"/>
-      <c r="CQN3" s="4"/>
-      <c r="CQO3" s="4"/>
-      <c r="CQP3" s="4"/>
-      <c r="CQQ3" s="4"/>
-      <c r="CQR3" s="4"/>
-      <c r="CQS3" s="4"/>
-      <c r="CQT3" s="4"/>
-      <c r="CQU3" s="4"/>
-      <c r="CQV3" s="4"/>
-      <c r="CQW3" s="4"/>
-      <c r="CQX3" s="4"/>
-      <c r="CQY3" s="4"/>
-      <c r="CQZ3" s="4"/>
-      <c r="CRA3" s="4"/>
-      <c r="CRB3" s="4"/>
-      <c r="CRC3" s="4"/>
-      <c r="CRD3" s="4"/>
-      <c r="CRE3" s="4"/>
-      <c r="CRF3" s="4"/>
-      <c r="CRG3" s="4"/>
-      <c r="CRH3" s="4"/>
-      <c r="CRI3" s="4"/>
-      <c r="CRJ3" s="4"/>
-      <c r="CRK3" s="4"/>
-      <c r="CRL3" s="4"/>
-      <c r="CRM3" s="4"/>
-      <c r="CRN3" s="4"/>
-      <c r="CRO3" s="4"/>
-      <c r="CRP3" s="4"/>
-      <c r="CRQ3" s="4"/>
-      <c r="CRR3" s="4"/>
-      <c r="CRS3" s="4"/>
-      <c r="CRT3" s="4"/>
-      <c r="CRU3" s="4"/>
-      <c r="CRV3" s="4"/>
-      <c r="CRW3" s="4"/>
-      <c r="CRX3" s="4"/>
-      <c r="CRY3" s="4"/>
-      <c r="CRZ3" s="4"/>
-      <c r="CSA3" s="4"/>
-      <c r="CSB3" s="4"/>
-      <c r="CSC3" s="4"/>
-      <c r="CSD3" s="4"/>
-      <c r="CSE3" s="4"/>
-      <c r="CSF3" s="4"/>
-      <c r="CSG3" s="4"/>
-      <c r="CSH3" s="4"/>
-      <c r="CSI3" s="4"/>
-      <c r="CSJ3" s="4"/>
-      <c r="CSK3" s="4"/>
-      <c r="CSL3" s="4"/>
-      <c r="CSM3" s="4"/>
-      <c r="CSN3" s="4"/>
-      <c r="CSO3" s="4"/>
-      <c r="CSP3" s="4"/>
-      <c r="CSQ3" s="4"/>
-      <c r="CSR3" s="4"/>
-      <c r="CSS3" s="4"/>
-      <c r="CST3" s="4"/>
-      <c r="CSU3" s="4"/>
-      <c r="CSV3" s="4"/>
-      <c r="CSW3" s="4"/>
-      <c r="CSX3" s="4"/>
-      <c r="CSY3" s="4"/>
-      <c r="CSZ3" s="4"/>
-      <c r="CTA3" s="4"/>
-      <c r="CTB3" s="4"/>
-      <c r="CTC3" s="4"/>
-      <c r="CTD3" s="4"/>
-      <c r="CTE3" s="4"/>
-      <c r="CTF3" s="4"/>
-      <c r="CTG3" s="4"/>
-      <c r="CTH3" s="4"/>
-      <c r="CTI3" s="4"/>
-      <c r="CTJ3" s="4"/>
-      <c r="CTK3" s="4"/>
-      <c r="CTL3" s="4"/>
-      <c r="CTM3" s="4"/>
-      <c r="CTN3" s="4"/>
-      <c r="CTO3" s="4"/>
-      <c r="CTP3" s="4"/>
-      <c r="CTQ3" s="4"/>
-      <c r="CTR3" s="4"/>
-      <c r="CTS3" s="4"/>
-      <c r="CTT3" s="4"/>
-      <c r="CTU3" s="4"/>
-      <c r="CTV3" s="4"/>
-      <c r="CTW3" s="4"/>
-      <c r="CTX3" s="4"/>
-      <c r="CTY3" s="4"/>
-      <c r="CTZ3" s="4"/>
-      <c r="CUA3" s="4"/>
-    </row>
-    <row r="4" spans="1:2575" s="3" customFormat="1">
-      <c r="B4" s="6">
-        <v>301</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6">
-        <v>30101</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:2575" ht="15">
-      <c r="B5" s="6">
-        <v>302</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6">
-        <v>30102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2575" ht="15">
-      <c r="B6" s="6">
-        <v>303</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:2575" ht="15">
-      <c r="B7" s="6">
-        <v>304</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041844A9-4271-F44A-9F9A-BC6E4A0C7D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F85F15-F01A-EF4D-AD92-EB0EA9E960D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2220" windowWidth="27840" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="4020" windowWidth="27840" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -90,28 +90,10 @@
     <t>Router</t>
   </si>
   <si>
-    <t>Router01</t>
-  </si>
-  <si>
-    <t>Router02</t>
-  </si>
-  <si>
-    <t>Router03</t>
-  </si>
-  <si>
-    <t>Router04</t>
-  </si>
-  <si>
     <t>Realm</t>
   </si>
   <si>
     <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
   </si>
   <si>
     <t>Location</t>
@@ -123,12 +105,20 @@
   <si>
     <t>ServiceDiscovery</t>
   </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +163,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD69D85"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -225,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -239,7 +223,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -546,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CUA9"/>
+  <dimension ref="A1:CTZ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -559,11 +542,11 @@
     <col min="3" max="4" width="12.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="13.1640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:2574" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3152,9 +3135,8 @@
       <c r="CTX1" s="4"/>
       <c r="CTY1" s="4"/>
       <c r="CTZ1" s="4"/>
-      <c r="CUA1" s="4"/>
     </row>
-    <row r="2" spans="1:2575" s="2" customFormat="1" ht="15">
+    <row r="2" spans="1:2574" s="2" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -5743,9 +5725,8 @@
       <c r="CTX2" s="4"/>
       <c r="CTY2" s="4"/>
       <c r="CTZ2" s="4"/>
-      <c r="CUA2" s="4"/>
     </row>
-    <row r="3" spans="1:2575" s="1" customFormat="1" ht="15">
+    <row r="3" spans="1:2574" s="1" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -8334,9 +8315,8 @@
       <c r="CTX3" s="4"/>
       <c r="CTY3" s="4"/>
       <c r="CTZ3" s="4"/>
-      <c r="CUA3" s="4"/>
     </row>
-    <row r="4" spans="1:2575" customFormat="1">
+    <row r="4" spans="1:2574" customFormat="1">
       <c r="B4" s="6">
         <v>101</v>
       </c>
@@ -8347,13 +8327,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2575">
+    <row r="5" spans="1:2574">
       <c r="B5" s="6">
         <v>102</v>
       </c>
@@ -8373,7 +8353,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="6" spans="1:2575">
+    <row r="6" spans="1:2574">
       <c r="B6" s="6">
         <v>103</v>
       </c>
@@ -8387,70 +8367,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="6">
-        <v>10102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2575">
-      <c r="B7" s="6">
-        <v>104</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2575">
-      <c r="B8" s="6">
-        <v>105</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6">
-        <v>10104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2575">
-      <c r="B9" s="6">
-        <v>106</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6">
-        <v>10105</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -8462,10 +8382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CUA8"/>
+  <dimension ref="A1:CTZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8473,10 +8393,11 @@
     <col min="2" max="2" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2575" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:2574" s="1" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11065,9 +10986,8 @@
       <c r="CTX1" s="4"/>
       <c r="CTY1" s="4"/>
       <c r="CTZ1" s="4"/>
-      <c r="CUA1" s="4"/>
     </row>
-    <row r="2" spans="1:2575" s="2" customFormat="1" ht="15">
+    <row r="2" spans="1:2574" s="2" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -13656,9 +13576,8 @@
       <c r="CTX2" s="4"/>
       <c r="CTY2" s="4"/>
       <c r="CTZ2" s="4"/>
-      <c r="CUA2" s="4"/>
     </row>
-    <row r="3" spans="1:2575" s="1" customFormat="1" ht="15">
+    <row r="3" spans="1:2574" s="1" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -16247,105 +16166,82 @@
       <c r="CTX3" s="4"/>
       <c r="CTY3" s="4"/>
       <c r="CTZ3" s="4"/>
-      <c r="CUA3" s="4"/>
     </row>
-    <row r="4" spans="1:2575" s="3" customFormat="1" ht="15">
+    <row r="4" spans="1:2574" s="3" customFormat="1" ht="15">
       <c r="B4" s="6">
         <v>201</v>
       </c>
       <c r="C4" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6">
         <v>20101</v>
       </c>
-      <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:2575" s="3" customFormat="1">
+    <row r="5" spans="1:2574" s="3" customFormat="1">
       <c r="B5" s="6">
         <v>202</v>
       </c>
       <c r="C5" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="6">
-        <v>20102</v>
+        <v>-1</v>
       </c>
-      <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:2575" ht="15">
+    <row r="6" spans="1:2574" ht="15">
       <c r="B6" s="6">
         <v>203</v>
       </c>
       <c r="C6" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
-      <c r="G6" s="6">
-        <v>20103</v>
-      </c>
+      <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:2575" ht="15">
+    <row r="7" spans="1:2574" ht="15">
       <c r="B7" s="6">
         <v>204</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:2575" ht="15">
-      <c r="B8" s="6">
-        <v>205</v>
-      </c>
-      <c r="C8" s="6">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F85F15-F01A-EF4D-AD92-EB0EA9E960D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF1A2DB-C669-624B-A9C9-DCD91D21190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="4020" windowWidth="27840" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:CTZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8369,9 +8369,7 @@
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6">
-        <v>-1</v>
-      </c>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8385,7 +8383,7 @@
   <dimension ref="A1:CTZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -16183,9 +16181,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6">
-        <v>20101</v>
-      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:2574" s="3" customFormat="1">
       <c r="B5" s="6">
@@ -16203,9 +16199,7 @@
       <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6">
-        <v>-1</v>
-      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:2574" ht="15">
       <c r="B6" s="6">

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartScene.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF1A2DB-C669-624B-A9C9-DCD91D21190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8541EB05-967B-1345-A28D-98C31B2F3EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="4020" windowWidth="27840" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15980" yWindow="2680" windowWidth="27840" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Router" sheetId="1" r:id="rId1"/>
-    <sheet name="Realm" sheetId="2" r:id="rId2"/>
+    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -529,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CTZ6"/>
+  <dimension ref="A1:CTZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8318,7 +8316,7 @@
     </row>
     <row r="4" spans="1:2574" customFormat="1">
       <c r="B4" s="6">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -8335,7 +8333,7 @@
     </row>
     <row r="5" spans="1:2574">
       <c r="B5" s="6">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -8355,7 +8353,7 @@
     </row>
     <row r="6" spans="1:2574">
       <c r="B6" s="6">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
@@ -8371,7874 +8369,83 @@
       </c>
       <c r="G6" s="6"/>
     </row>
+    <row r="7" spans="1:2574" ht="15">
+      <c r="B7" s="6">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:2574">
+      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:2574" ht="15">
+      <c r="A9"/>
+      <c r="B9" s="6">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:2574" ht="15">
+      <c r="A10"/>
+      <c r="B10" s="6">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CTZ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2574" s="1" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
-      <c r="EB1" s="4"/>
-      <c r="EC1" s="4"/>
-      <c r="ED1" s="4"/>
-      <c r="EE1" s="4"/>
-      <c r="EF1" s="4"/>
-      <c r="EG1" s="4"/>
-      <c r="EH1" s="4"/>
-      <c r="EI1" s="4"/>
-      <c r="EJ1" s="4"/>
-      <c r="EK1" s="4"/>
-      <c r="EL1" s="4"/>
-      <c r="EM1" s="4"/>
-      <c r="EN1" s="4"/>
-      <c r="EO1" s="4"/>
-      <c r="EP1" s="4"/>
-      <c r="EQ1" s="4"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
-      <c r="ET1" s="4"/>
-      <c r="EU1" s="4"/>
-      <c r="EV1" s="4"/>
-      <c r="EW1" s="4"/>
-      <c r="EX1" s="4"/>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-      <c r="FO1" s="4"/>
-      <c r="FP1" s="4"/>
-      <c r="FQ1" s="4"/>
-      <c r="FR1" s="4"/>
-      <c r="FS1" s="4"/>
-      <c r="FT1" s="4"/>
-      <c r="FU1" s="4"/>
-      <c r="FV1" s="4"/>
-      <c r="FW1" s="4"/>
-      <c r="FX1" s="4"/>
-      <c r="FY1" s="4"/>
-      <c r="FZ1" s="4"/>
-      <c r="GA1" s="4"/>
-      <c r="GB1" s="4"/>
-      <c r="GC1" s="4"/>
-      <c r="GD1" s="4"/>
-      <c r="GE1" s="4"/>
-      <c r="GF1" s="4"/>
-      <c r="GG1" s="4"/>
-      <c r="GH1" s="4"/>
-      <c r="GI1" s="4"/>
-      <c r="GJ1" s="4"/>
-      <c r="GK1" s="4"/>
-      <c r="GL1" s="4"/>
-      <c r="GM1" s="4"/>
-      <c r="GN1" s="4"/>
-      <c r="GO1" s="4"/>
-      <c r="GP1" s="4"/>
-      <c r="GQ1" s="4"/>
-      <c r="GR1" s="4"/>
-      <c r="GS1" s="4"/>
-      <c r="GT1" s="4"/>
-      <c r="GU1" s="4"/>
-      <c r="GV1" s="4"/>
-      <c r="GW1" s="4"/>
-      <c r="GX1" s="4"/>
-      <c r="GY1" s="4"/>
-      <c r="GZ1" s="4"/>
-      <c r="HA1" s="4"/>
-      <c r="HB1" s="4"/>
-      <c r="HC1" s="4"/>
-      <c r="HD1" s="4"/>
-      <c r="HE1" s="4"/>
-      <c r="HF1" s="4"/>
-      <c r="HG1" s="4"/>
-      <c r="HH1" s="4"/>
-      <c r="HI1" s="4"/>
-      <c r="HJ1" s="4"/>
-      <c r="HK1" s="4"/>
-      <c r="HL1" s="4"/>
-      <c r="HM1" s="4"/>
-      <c r="HN1" s="4"/>
-      <c r="HO1" s="4"/>
-      <c r="HP1" s="4"/>
-      <c r="HQ1" s="4"/>
-      <c r="HR1" s="4"/>
-      <c r="HS1" s="4"/>
-      <c r="HT1" s="4"/>
-      <c r="HU1" s="4"/>
-      <c r="HV1" s="4"/>
-      <c r="HW1" s="4"/>
-      <c r="HX1" s="4"/>
-      <c r="HY1" s="4"/>
-      <c r="HZ1" s="4"/>
-      <c r="IA1" s="4"/>
-      <c r="IB1" s="4"/>
-      <c r="IC1" s="4"/>
-      <c r="ID1" s="4"/>
-      <c r="IE1" s="4"/>
-      <c r="IF1" s="4"/>
-      <c r="IG1" s="4"/>
-      <c r="IH1" s="4"/>
-      <c r="II1" s="4"/>
-      <c r="IJ1" s="4"/>
-      <c r="IK1" s="4"/>
-      <c r="IL1" s="4"/>
-      <c r="IM1" s="4"/>
-      <c r="IN1" s="4"/>
-      <c r="IO1" s="4"/>
-      <c r="IP1" s="4"/>
-      <c r="IQ1" s="4"/>
-      <c r="IR1" s="4"/>
-      <c r="IS1" s="4"/>
-      <c r="IT1" s="4"/>
-      <c r="IU1" s="4"/>
-      <c r="IV1" s="4"/>
-      <c r="IW1" s="4"/>
-      <c r="IX1" s="4"/>
-      <c r="IY1" s="4"/>
-      <c r="IZ1" s="4"/>
-      <c r="JA1" s="4"/>
-      <c r="JB1" s="4"/>
-      <c r="JC1" s="4"/>
-      <c r="JD1" s="4"/>
-      <c r="JE1" s="4"/>
-      <c r="JF1" s="4"/>
-      <c r="JG1" s="4"/>
-      <c r="JH1" s="4"/>
-      <c r="JI1" s="4"/>
-      <c r="JJ1" s="4"/>
-      <c r="JK1" s="4"/>
-      <c r="JL1" s="4"/>
-      <c r="JM1" s="4"/>
-      <c r="JN1" s="4"/>
-      <c r="JO1" s="4"/>
-      <c r="JP1" s="4"/>
-      <c r="JQ1" s="4"/>
-      <c r="JR1" s="4"/>
-      <c r="JS1" s="4"/>
-      <c r="JT1" s="4"/>
-      <c r="JU1" s="4"/>
-      <c r="JV1" s="4"/>
-      <c r="JW1" s="4"/>
-      <c r="JX1" s="4"/>
-      <c r="JY1" s="4"/>
-      <c r="JZ1" s="4"/>
-      <c r="KA1" s="4"/>
-      <c r="KB1" s="4"/>
-      <c r="KC1" s="4"/>
-      <c r="KD1" s="4"/>
-      <c r="KE1" s="4"/>
-      <c r="KF1" s="4"/>
-      <c r="KG1" s="4"/>
-      <c r="KH1" s="4"/>
-      <c r="KI1" s="4"/>
-      <c r="KJ1" s="4"/>
-      <c r="KK1" s="4"/>
-      <c r="KL1" s="4"/>
-      <c r="KM1" s="4"/>
-      <c r="KN1" s="4"/>
-      <c r="KO1" s="4"/>
-      <c r="KP1" s="4"/>
-      <c r="KQ1" s="4"/>
-      <c r="KR1" s="4"/>
-      <c r="KS1" s="4"/>
-      <c r="KT1" s="4"/>
-      <c r="KU1" s="4"/>
-      <c r="KV1" s="4"/>
-      <c r="KW1" s="4"/>
-      <c r="KX1" s="4"/>
-      <c r="KY1" s="4"/>
-      <c r="KZ1" s="4"/>
-      <c r="LA1" s="4"/>
-      <c r="LB1" s="4"/>
-      <c r="LC1" s="4"/>
-      <c r="LD1" s="4"/>
-      <c r="LE1" s="4"/>
-      <c r="LF1" s="4"/>
-      <c r="LG1" s="4"/>
-      <c r="LH1" s="4"/>
-      <c r="LI1" s="4"/>
-      <c r="LJ1" s="4"/>
-      <c r="LK1" s="4"/>
-      <c r="LL1" s="4"/>
-      <c r="LM1" s="4"/>
-      <c r="LN1" s="4"/>
-      <c r="LO1" s="4"/>
-      <c r="LP1" s="4"/>
-      <c r="LQ1" s="4"/>
-      <c r="LR1" s="4"/>
-      <c r="LS1" s="4"/>
-      <c r="LT1" s="4"/>
-      <c r="LU1" s="4"/>
-      <c r="LV1" s="4"/>
-      <c r="LW1" s="4"/>
-      <c r="LX1" s="4"/>
-      <c r="LY1" s="4"/>
-      <c r="LZ1" s="4"/>
-      <c r="MA1" s="4"/>
-      <c r="MB1" s="4"/>
-      <c r="MC1" s="4"/>
-      <c r="MD1" s="4"/>
-      <c r="ME1" s="4"/>
-      <c r="MF1" s="4"/>
-      <c r="MG1" s="4"/>
-      <c r="MH1" s="4"/>
-      <c r="MI1" s="4"/>
-      <c r="MJ1" s="4"/>
-      <c r="MK1" s="4"/>
-      <c r="ML1" s="4"/>
-      <c r="MM1" s="4"/>
-      <c r="MN1" s="4"/>
-      <c r="MO1" s="4"/>
-      <c r="MP1" s="4"/>
-      <c r="MQ1" s="4"/>
-      <c r="MR1" s="4"/>
-      <c r="MS1" s="4"/>
-      <c r="MT1" s="4"/>
-      <c r="MU1" s="4"/>
-      <c r="MV1" s="4"/>
-      <c r="MW1" s="4"/>
-      <c r="MX1" s="4"/>
-      <c r="MY1" s="4"/>
-      <c r="MZ1" s="4"/>
-      <c r="NA1" s="4"/>
-      <c r="NB1" s="4"/>
-      <c r="NC1" s="4"/>
-      <c r="ND1" s="4"/>
-      <c r="NE1" s="4"/>
-      <c r="NF1" s="4"/>
-      <c r="NG1" s="4"/>
-      <c r="NH1" s="4"/>
-      <c r="NI1" s="4"/>
-      <c r="NJ1" s="4"/>
-      <c r="NK1" s="4"/>
-      <c r="NL1" s="4"/>
-      <c r="NM1" s="4"/>
-      <c r="NN1" s="4"/>
-      <c r="NO1" s="4"/>
-      <c r="NP1" s="4"/>
-      <c r="NQ1" s="4"/>
-      <c r="NR1" s="4"/>
-      <c r="NS1" s="4"/>
-      <c r="NT1" s="4"/>
-      <c r="NU1" s="4"/>
-      <c r="NV1" s="4"/>
-      <c r="NW1" s="4"/>
-      <c r="NX1" s="4"/>
-      <c r="NY1" s="4"/>
-      <c r="NZ1" s="4"/>
-      <c r="OA1" s="4"/>
-      <c r="OB1" s="4"/>
-      <c r="OC1" s="4"/>
-      <c r="OD1" s="4"/>
-      <c r="OE1" s="4"/>
-      <c r="OF1" s="4"/>
-      <c r="OG1" s="4"/>
-      <c r="OH1" s="4"/>
-      <c r="OI1" s="4"/>
-      <c r="OJ1" s="4"/>
-      <c r="OK1" s="4"/>
-      <c r="OL1" s="4"/>
-      <c r="OM1" s="4"/>
-      <c r="ON1" s="4"/>
-      <c r="OO1" s="4"/>
-      <c r="OP1" s="4"/>
-      <c r="OQ1" s="4"/>
-      <c r="OR1" s="4"/>
-      <c r="OS1" s="4"/>
-      <c r="OT1" s="4"/>
-      <c r="OU1" s="4"/>
-      <c r="OV1" s="4"/>
-      <c r="OW1" s="4"/>
-      <c r="OX1" s="4"/>
-      <c r="OY1" s="4"/>
-      <c r="OZ1" s="4"/>
-      <c r="PA1" s="4"/>
-      <c r="PB1" s="4"/>
-      <c r="PC1" s="4"/>
-      <c r="PD1" s="4"/>
-      <c r="PE1" s="4"/>
-      <c r="PF1" s="4"/>
-      <c r="PG1" s="4"/>
-      <c r="PH1" s="4"/>
-      <c r="PI1" s="4"/>
-      <c r="PJ1" s="4"/>
-      <c r="PK1" s="4"/>
-      <c r="PL1" s="4"/>
-      <c r="PM1" s="4"/>
-      <c r="PN1" s="4"/>
-      <c r="PO1" s="4"/>
-      <c r="PP1" s="4"/>
-      <c r="PQ1" s="4"/>
-      <c r="PR1" s="4"/>
-      <c r="PS1" s="4"/>
-      <c r="PT1" s="4"/>
-      <c r="PU1" s="4"/>
-      <c r="PV1" s="4"/>
-      <c r="PW1" s="4"/>
-      <c r="PX1" s="4"/>
-      <c r="PY1" s="4"/>
-      <c r="PZ1" s="4"/>
-      <c r="QA1" s="4"/>
-      <c r="QB1" s="4"/>
-      <c r="QC1" s="4"/>
-      <c r="QD1" s="4"/>
-      <c r="QE1" s="4"/>
-      <c r="QF1" s="4"/>
-      <c r="QG1" s="4"/>
-      <c r="QH1" s="4"/>
-      <c r="QI1" s="4"/>
-      <c r="QJ1" s="4"/>
-      <c r="QK1" s="4"/>
-      <c r="QL1" s="4"/>
-      <c r="QM1" s="4"/>
-      <c r="QN1" s="4"/>
-      <c r="QO1" s="4"/>
-      <c r="QP1" s="4"/>
-      <c r="QQ1" s="4"/>
-      <c r="QR1" s="4"/>
-      <c r="QS1" s="4"/>
-      <c r="QT1" s="4"/>
-      <c r="QU1" s="4"/>
-      <c r="QV1" s="4"/>
-      <c r="QW1" s="4"/>
-      <c r="QX1" s="4"/>
-      <c r="QY1" s="4"/>
-      <c r="QZ1" s="4"/>
-      <c r="RA1" s="4"/>
-      <c r="RB1" s="4"/>
-      <c r="RC1" s="4"/>
-      <c r="RD1" s="4"/>
-      <c r="RE1" s="4"/>
-      <c r="RF1" s="4"/>
-      <c r="RG1" s="4"/>
-      <c r="RH1" s="4"/>
-      <c r="RI1" s="4"/>
-      <c r="RJ1" s="4"/>
-      <c r="RK1" s="4"/>
-      <c r="RL1" s="4"/>
-      <c r="RM1" s="4"/>
-      <c r="RN1" s="4"/>
-      <c r="RO1" s="4"/>
-      <c r="RP1" s="4"/>
-      <c r="RQ1" s="4"/>
-      <c r="RR1" s="4"/>
-      <c r="RS1" s="4"/>
-      <c r="RT1" s="4"/>
-      <c r="RU1" s="4"/>
-      <c r="RV1" s="4"/>
-      <c r="RW1" s="4"/>
-      <c r="RX1" s="4"/>
-      <c r="RY1" s="4"/>
-      <c r="RZ1" s="4"/>
-      <c r="SA1" s="4"/>
-      <c r="SB1" s="4"/>
-      <c r="SC1" s="4"/>
-      <c r="SD1" s="4"/>
-      <c r="SE1" s="4"/>
-      <c r="SF1" s="4"/>
-      <c r="SG1" s="4"/>
-      <c r="SH1" s="4"/>
-      <c r="SI1" s="4"/>
-      <c r="SJ1" s="4"/>
-      <c r="SK1" s="4"/>
-      <c r="SL1" s="4"/>
-      <c r="SM1" s="4"/>
-      <c r="SN1" s="4"/>
-      <c r="SO1" s="4"/>
-      <c r="SP1" s="4"/>
-      <c r="SQ1" s="4"/>
-      <c r="SR1" s="4"/>
-      <c r="SS1" s="4"/>
-      <c r="ST1" s="4"/>
-      <c r="SU1" s="4"/>
-      <c r="SV1" s="4"/>
-      <c r="SW1" s="4"/>
-      <c r="SX1" s="4"/>
-      <c r="SY1" s="4"/>
-      <c r="SZ1" s="4"/>
-      <c r="TA1" s="4"/>
-      <c r="TB1" s="4"/>
-      <c r="TC1" s="4"/>
-      <c r="TD1" s="4"/>
-      <c r="TE1" s="4"/>
-      <c r="TF1" s="4"/>
-      <c r="TG1" s="4"/>
-      <c r="TH1" s="4"/>
-      <c r="TI1" s="4"/>
-      <c r="TJ1" s="4"/>
-      <c r="TK1" s="4"/>
-      <c r="TL1" s="4"/>
-      <c r="TM1" s="4"/>
-      <c r="TN1" s="4"/>
-      <c r="TO1" s="4"/>
-      <c r="TP1" s="4"/>
-      <c r="TQ1" s="4"/>
-      <c r="TR1" s="4"/>
-      <c r="TS1" s="4"/>
-      <c r="TT1" s="4"/>
-      <c r="TU1" s="4"/>
-      <c r="TV1" s="4"/>
-      <c r="TW1" s="4"/>
-      <c r="TX1" s="4"/>
-      <c r="TY1" s="4"/>
-      <c r="TZ1" s="4"/>
-      <c r="UA1" s="4"/>
-      <c r="UB1" s="4"/>
-      <c r="UC1" s="4"/>
-      <c r="UD1" s="4"/>
-      <c r="UE1" s="4"/>
-      <c r="UF1" s="4"/>
-      <c r="UG1" s="4"/>
-      <c r="UH1" s="4"/>
-      <c r="UI1" s="4"/>
-      <c r="UJ1" s="4"/>
-      <c r="UK1" s="4"/>
-      <c r="UL1" s="4"/>
-      <c r="UM1" s="4"/>
-      <c r="UN1" s="4"/>
-      <c r="UO1" s="4"/>
-      <c r="UP1" s="4"/>
-      <c r="UQ1" s="4"/>
-      <c r="UR1" s="4"/>
-      <c r="US1" s="4"/>
-      <c r="UT1" s="4"/>
-      <c r="UU1" s="4"/>
-      <c r="UV1" s="4"/>
-      <c r="UW1" s="4"/>
-      <c r="UX1" s="4"/>
-      <c r="UY1" s="4"/>
-      <c r="UZ1" s="4"/>
-      <c r="VA1" s="4"/>
-      <c r="VB1" s="4"/>
-      <c r="VC1" s="4"/>
-      <c r="VD1" s="4"/>
-      <c r="VE1" s="4"/>
-      <c r="VF1" s="4"/>
-      <c r="VG1" s="4"/>
-      <c r="VH1" s="4"/>
-      <c r="VI1" s="4"/>
-      <c r="VJ1" s="4"/>
-      <c r="VK1" s="4"/>
-      <c r="VL1" s="4"/>
-      <c r="VM1" s="4"/>
-      <c r="VN1" s="4"/>
-      <c r="VO1" s="4"/>
-      <c r="VP1" s="4"/>
-      <c r="VQ1" s="4"/>
-      <c r="VR1" s="4"/>
-      <c r="VS1" s="4"/>
-      <c r="VT1" s="4"/>
-      <c r="VU1" s="4"/>
-      <c r="VV1" s="4"/>
-      <c r="VW1" s="4"/>
-      <c r="VX1" s="4"/>
-      <c r="VY1" s="4"/>
-      <c r="VZ1" s="4"/>
-      <c r="WA1" s="4"/>
-      <c r="WB1" s="4"/>
-      <c r="WC1" s="4"/>
-      <c r="WD1" s="4"/>
-      <c r="WE1" s="4"/>
-      <c r="WF1" s="4"/>
-      <c r="WG1" s="4"/>
-      <c r="WH1" s="4"/>
-      <c r="WI1" s="4"/>
-      <c r="WJ1" s="4"/>
-      <c r="WK1" s="4"/>
-      <c r="WL1" s="4"/>
-      <c r="WM1" s="4"/>
-      <c r="WN1" s="4"/>
-      <c r="WO1" s="4"/>
-      <c r="WP1" s="4"/>
-      <c r="WQ1" s="4"/>
-      <c r="WR1" s="4"/>
-      <c r="WS1" s="4"/>
-      <c r="WT1" s="4"/>
-      <c r="WU1" s="4"/>
-      <c r="WV1" s="4"/>
-      <c r="WW1" s="4"/>
-      <c r="WX1" s="4"/>
-      <c r="WY1" s="4"/>
-      <c r="WZ1" s="4"/>
-      <c r="XA1" s="4"/>
-      <c r="XB1" s="4"/>
-      <c r="XC1" s="4"/>
-      <c r="XD1" s="4"/>
-      <c r="XE1" s="4"/>
-      <c r="XF1" s="4"/>
-      <c r="XG1" s="4"/>
-      <c r="XH1" s="4"/>
-      <c r="XI1" s="4"/>
-      <c r="XJ1" s="4"/>
-      <c r="XK1" s="4"/>
-      <c r="XL1" s="4"/>
-      <c r="XM1" s="4"/>
-      <c r="XN1" s="4"/>
-      <c r="XO1" s="4"/>
-      <c r="XP1" s="4"/>
-      <c r="XQ1" s="4"/>
-      <c r="XR1" s="4"/>
-      <c r="XS1" s="4"/>
-      <c r="XT1" s="4"/>
-      <c r="XU1" s="4"/>
-      <c r="XV1" s="4"/>
-      <c r="XW1" s="4"/>
-      <c r="XX1" s="4"/>
-      <c r="XY1" s="4"/>
-      <c r="XZ1" s="4"/>
-      <c r="YA1" s="4"/>
-      <c r="YB1" s="4"/>
-      <c r="YC1" s="4"/>
-      <c r="YD1" s="4"/>
-      <c r="YE1" s="4"/>
-      <c r="YF1" s="4"/>
-      <c r="YG1" s="4"/>
-      <c r="YH1" s="4"/>
-      <c r="YI1" s="4"/>
-      <c r="YJ1" s="4"/>
-      <c r="YK1" s="4"/>
-      <c r="YL1" s="4"/>
-      <c r="YM1" s="4"/>
-      <c r="YN1" s="4"/>
-      <c r="YO1" s="4"/>
-      <c r="YP1" s="4"/>
-      <c r="YQ1" s="4"/>
-      <c r="YR1" s="4"/>
-      <c r="YS1" s="4"/>
-      <c r="YT1" s="4"/>
-      <c r="YU1" s="4"/>
-      <c r="YV1" s="4"/>
-      <c r="YW1" s="4"/>
-      <c r="YX1" s="4"/>
-      <c r="YY1" s="4"/>
-      <c r="YZ1" s="4"/>
-      <c r="ZA1" s="4"/>
-      <c r="ZB1" s="4"/>
-      <c r="ZC1" s="4"/>
-      <c r="ZD1" s="4"/>
-      <c r="ZE1" s="4"/>
-      <c r="ZF1" s="4"/>
-      <c r="ZG1" s="4"/>
-      <c r="ZH1" s="4"/>
-      <c r="ZI1" s="4"/>
-      <c r="ZJ1" s="4"/>
-      <c r="ZK1" s="4"/>
-      <c r="ZL1" s="4"/>
-      <c r="ZM1" s="4"/>
-      <c r="ZN1" s="4"/>
-      <c r="ZO1" s="4"/>
-      <c r="ZP1" s="4"/>
-      <c r="ZQ1" s="4"/>
-      <c r="ZR1" s="4"/>
-      <c r="ZS1" s="4"/>
-      <c r="ZT1" s="4"/>
-      <c r="ZU1" s="4"/>
-      <c r="ZV1" s="4"/>
-      <c r="ZW1" s="4"/>
-      <c r="ZX1" s="4"/>
-      <c r="ZY1" s="4"/>
-      <c r="ZZ1" s="4"/>
-      <c r="AAA1" s="4"/>
-      <c r="AAB1" s="4"/>
-      <c r="AAC1" s="4"/>
-      <c r="AAD1" s="4"/>
-      <c r="AAE1" s="4"/>
-      <c r="AAF1" s="4"/>
-      <c r="AAG1" s="4"/>
-      <c r="AAH1" s="4"/>
-      <c r="AAI1" s="4"/>
-      <c r="AAJ1" s="4"/>
-      <c r="AAK1" s="4"/>
-      <c r="AAL1" s="4"/>
-      <c r="AAM1" s="4"/>
-      <c r="AAN1" s="4"/>
-      <c r="AAO1" s="4"/>
-      <c r="AAP1" s="4"/>
-      <c r="AAQ1" s="4"/>
-      <c r="AAR1" s="4"/>
-      <c r="AAS1" s="4"/>
-      <c r="AAT1" s="4"/>
-      <c r="AAU1" s="4"/>
-      <c r="AAV1" s="4"/>
-      <c r="AAW1" s="4"/>
-      <c r="AAX1" s="4"/>
-      <c r="AAY1" s="4"/>
-      <c r="AAZ1" s="4"/>
-      <c r="ABA1" s="4"/>
-      <c r="ABB1" s="4"/>
-      <c r="ABC1" s="4"/>
-      <c r="ABD1" s="4"/>
-      <c r="ABE1" s="4"/>
-      <c r="ABF1" s="4"/>
-      <c r="ABG1" s="4"/>
-      <c r="ABH1" s="4"/>
-      <c r="ABI1" s="4"/>
-      <c r="ABJ1" s="4"/>
-      <c r="ABK1" s="4"/>
-      <c r="ABL1" s="4"/>
-      <c r="ABM1" s="4"/>
-      <c r="ABN1" s="4"/>
-      <c r="ABO1" s="4"/>
-      <c r="ABP1" s="4"/>
-      <c r="ABQ1" s="4"/>
-      <c r="ABR1" s="4"/>
-      <c r="ABS1" s="4"/>
-      <c r="ABT1" s="4"/>
-      <c r="ABU1" s="4"/>
-      <c r="ABV1" s="4"/>
-      <c r="ABW1" s="4"/>
-      <c r="ABX1" s="4"/>
-      <c r="ABY1" s="4"/>
-      <c r="ABZ1" s="4"/>
-      <c r="ACA1" s="4"/>
-      <c r="ACB1" s="4"/>
-      <c r="ACC1" s="4"/>
-      <c r="ACD1" s="4"/>
-      <c r="ACE1" s="4"/>
-      <c r="ACF1" s="4"/>
-      <c r="ACG1" s="4"/>
-      <c r="ACH1" s="4"/>
-      <c r="ACI1" s="4"/>
-      <c r="ACJ1" s="4"/>
-      <c r="ACK1" s="4"/>
-      <c r="ACL1" s="4"/>
-      <c r="ACM1" s="4"/>
-      <c r="ACN1" s="4"/>
-      <c r="ACO1" s="4"/>
-      <c r="ACP1" s="4"/>
-      <c r="ACQ1" s="4"/>
-      <c r="ACR1" s="4"/>
-      <c r="ACS1" s="4"/>
-      <c r="ACT1" s="4"/>
-      <c r="ACU1" s="4"/>
-      <c r="ACV1" s="4"/>
-      <c r="ACW1" s="4"/>
-      <c r="ACX1" s="4"/>
-      <c r="ACY1" s="4"/>
-      <c r="ACZ1" s="4"/>
-      <c r="ADA1" s="4"/>
-      <c r="ADB1" s="4"/>
-      <c r="ADC1" s="4"/>
-      <c r="ADD1" s="4"/>
-      <c r="ADE1" s="4"/>
-      <c r="ADF1" s="4"/>
-      <c r="ADG1" s="4"/>
-      <c r="ADH1" s="4"/>
-      <c r="ADI1" s="4"/>
-      <c r="ADJ1" s="4"/>
-      <c r="ADK1" s="4"/>
-      <c r="ADL1" s="4"/>
-      <c r="ADM1" s="4"/>
-      <c r="ADN1" s="4"/>
-      <c r="ADO1" s="4"/>
-      <c r="ADP1" s="4"/>
-      <c r="ADQ1" s="4"/>
-      <c r="ADR1" s="4"/>
-      <c r="ADS1" s="4"/>
-      <c r="ADT1" s="4"/>
-      <c r="ADU1" s="4"/>
-      <c r="ADV1" s="4"/>
-      <c r="ADW1" s="4"/>
-      <c r="ADX1" s="4"/>
-      <c r="ADY1" s="4"/>
-      <c r="ADZ1" s="4"/>
-      <c r="AEA1" s="4"/>
-      <c r="AEB1" s="4"/>
-      <c r="AEC1" s="4"/>
-      <c r="AED1" s="4"/>
-      <c r="AEE1" s="4"/>
-      <c r="AEF1" s="4"/>
-      <c r="AEG1" s="4"/>
-      <c r="AEH1" s="4"/>
-      <c r="AEI1" s="4"/>
-      <c r="AEJ1" s="4"/>
-      <c r="AEK1" s="4"/>
-      <c r="AEL1" s="4"/>
-      <c r="AEM1" s="4"/>
-      <c r="AEN1" s="4"/>
-      <c r="AEO1" s="4"/>
-      <c r="AEP1" s="4"/>
-      <c r="AEQ1" s="4"/>
-      <c r="AER1" s="4"/>
-      <c r="AES1" s="4"/>
-      <c r="AET1" s="4"/>
-      <c r="AEU1" s="4"/>
-      <c r="AEV1" s="4"/>
-      <c r="AEW1" s="4"/>
-      <c r="AEX1" s="4"/>
-      <c r="AEY1" s="4"/>
-      <c r="AEZ1" s="4"/>
-      <c r="AFA1" s="4"/>
-      <c r="AFB1" s="4"/>
-      <c r="AFC1" s="4"/>
-      <c r="AFD1" s="4"/>
-      <c r="AFE1" s="4"/>
-      <c r="AFF1" s="4"/>
-      <c r="AFG1" s="4"/>
-      <c r="AFH1" s="4"/>
-      <c r="AFI1" s="4"/>
-      <c r="AFJ1" s="4"/>
-      <c r="AFK1" s="4"/>
-      <c r="AFL1" s="4"/>
-      <c r="AFM1" s="4"/>
-      <c r="AFN1" s="4"/>
-      <c r="AFO1" s="4"/>
-      <c r="AFP1" s="4"/>
-      <c r="AFQ1" s="4"/>
-      <c r="AFR1" s="4"/>
-      <c r="AFS1" s="4"/>
-      <c r="AFT1" s="4"/>
-      <c r="AFU1" s="4"/>
-      <c r="AFV1" s="4"/>
-      <c r="AFW1" s="4"/>
-      <c r="AFX1" s="4"/>
-      <c r="AFY1" s="4"/>
-      <c r="AFZ1" s="4"/>
-      <c r="AGA1" s="4"/>
-      <c r="AGB1" s="4"/>
-      <c r="AGC1" s="4"/>
-      <c r="AGD1" s="4"/>
-      <c r="AGE1" s="4"/>
-      <c r="AGF1" s="4"/>
-      <c r="AGG1" s="4"/>
-      <c r="AGH1" s="4"/>
-      <c r="AGI1" s="4"/>
-      <c r="AGJ1" s="4"/>
-      <c r="AGK1" s="4"/>
-      <c r="AGL1" s="4"/>
-      <c r="AGM1" s="4"/>
-      <c r="AGN1" s="4"/>
-      <c r="AGO1" s="4"/>
-      <c r="AGP1" s="4"/>
-      <c r="AGQ1" s="4"/>
-      <c r="AGR1" s="4"/>
-      <c r="AGS1" s="4"/>
-      <c r="AGT1" s="4"/>
-      <c r="AGU1" s="4"/>
-      <c r="AGV1" s="4"/>
-      <c r="AGW1" s="4"/>
-      <c r="AGX1" s="4"/>
-      <c r="AGY1" s="4"/>
-      <c r="AGZ1" s="4"/>
-      <c r="AHA1" s="4"/>
-      <c r="AHB1" s="4"/>
-      <c r="AHC1" s="4"/>
-      <c r="AHD1" s="4"/>
-      <c r="AHE1" s="4"/>
-      <c r="AHF1" s="4"/>
-      <c r="AHG1" s="4"/>
-      <c r="AHH1" s="4"/>
-      <c r="AHI1" s="4"/>
-      <c r="AHJ1" s="4"/>
-      <c r="AHK1" s="4"/>
-      <c r="AHL1" s="4"/>
-      <c r="AHM1" s="4"/>
-      <c r="AHN1" s="4"/>
-      <c r="AHO1" s="4"/>
-      <c r="AHP1" s="4"/>
-      <c r="AHQ1" s="4"/>
-      <c r="AHR1" s="4"/>
-      <c r="AHS1" s="4"/>
-      <c r="AHT1" s="4"/>
-      <c r="AHU1" s="4"/>
-      <c r="AHV1" s="4"/>
-      <c r="AHW1" s="4"/>
-      <c r="AHX1" s="4"/>
-      <c r="AHY1" s="4"/>
-      <c r="AHZ1" s="4"/>
-      <c r="AIA1" s="4"/>
-      <c r="AIB1" s="4"/>
-      <c r="AIC1" s="4"/>
-      <c r="AID1" s="4"/>
-      <c r="AIE1" s="4"/>
-      <c r="AIF1" s="4"/>
-      <c r="AIG1" s="4"/>
-      <c r="AIH1" s="4"/>
-      <c r="AII1" s="4"/>
-      <c r="AIJ1" s="4"/>
-      <c r="AIK1" s="4"/>
-      <c r="AIL1" s="4"/>
-      <c r="AIM1" s="4"/>
-      <c r="AIN1" s="4"/>
-      <c r="AIO1" s="4"/>
-      <c r="AIP1" s="4"/>
-      <c r="AIQ1" s="4"/>
-      <c r="AIR1" s="4"/>
-      <c r="AIS1" s="4"/>
-      <c r="AIT1" s="4"/>
-      <c r="AIU1" s="4"/>
-      <c r="AIV1" s="4"/>
-      <c r="AIW1" s="4"/>
-      <c r="AIX1" s="4"/>
-      <c r="AIY1" s="4"/>
-      <c r="AIZ1" s="4"/>
-      <c r="AJA1" s="4"/>
-      <c r="AJB1" s="4"/>
-      <c r="AJC1" s="4"/>
-      <c r="AJD1" s="4"/>
-      <c r="AJE1" s="4"/>
-      <c r="AJF1" s="4"/>
-      <c r="AJG1" s="4"/>
-      <c r="AJH1" s="4"/>
-      <c r="AJI1" s="4"/>
-      <c r="AJJ1" s="4"/>
-      <c r="AJK1" s="4"/>
-      <c r="AJL1" s="4"/>
-      <c r="AJM1" s="4"/>
-      <c r="AJN1" s="4"/>
-      <c r="AJO1" s="4"/>
-      <c r="AJP1" s="4"/>
-      <c r="AJQ1" s="4"/>
-      <c r="AJR1" s="4"/>
-      <c r="AJS1" s="4"/>
-      <c r="AJT1" s="4"/>
-      <c r="AJU1" s="4"/>
-      <c r="AJV1" s="4"/>
-      <c r="AJW1" s="4"/>
-      <c r="AJX1" s="4"/>
-      <c r="AJY1" s="4"/>
-      <c r="AJZ1" s="4"/>
-      <c r="AKA1" s="4"/>
-      <c r="AKB1" s="4"/>
-      <c r="AKC1" s="4"/>
-      <c r="AKD1" s="4"/>
-      <c r="AKE1" s="4"/>
-      <c r="AKF1" s="4"/>
-      <c r="AKG1" s="4"/>
-      <c r="AKH1" s="4"/>
-      <c r="AKI1" s="4"/>
-      <c r="AKJ1" s="4"/>
-      <c r="AKK1" s="4"/>
-      <c r="AKL1" s="4"/>
-      <c r="AKM1" s="4"/>
-      <c r="AKN1" s="4"/>
-      <c r="AKO1" s="4"/>
-      <c r="AKP1" s="4"/>
-      <c r="AKQ1" s="4"/>
-      <c r="AKR1" s="4"/>
-      <c r="AKS1" s="4"/>
-      <c r="AKT1" s="4"/>
-      <c r="AKU1" s="4"/>
-      <c r="AKV1" s="4"/>
-      <c r="AKW1" s="4"/>
-      <c r="AKX1" s="4"/>
-      <c r="AKY1" s="4"/>
-      <c r="AKZ1" s="4"/>
-      <c r="ALA1" s="4"/>
-      <c r="ALB1" s="4"/>
-      <c r="ALC1" s="4"/>
-      <c r="ALD1" s="4"/>
-      <c r="ALE1" s="4"/>
-      <c r="ALF1" s="4"/>
-      <c r="ALG1" s="4"/>
-      <c r="ALH1" s="4"/>
-      <c r="ALI1" s="4"/>
-      <c r="ALJ1" s="4"/>
-      <c r="ALK1" s="4"/>
-      <c r="ALL1" s="4"/>
-      <c r="ALM1" s="4"/>
-      <c r="ALN1" s="4"/>
-      <c r="ALO1" s="4"/>
-      <c r="ALP1" s="4"/>
-      <c r="ALQ1" s="4"/>
-      <c r="ALR1" s="4"/>
-      <c r="ALS1" s="4"/>
-      <c r="ALT1" s="4"/>
-      <c r="ALU1" s="4"/>
-      <c r="ALV1" s="4"/>
-      <c r="ALW1" s="4"/>
-      <c r="ALX1" s="4"/>
-      <c r="ALY1" s="4"/>
-      <c r="ALZ1" s="4"/>
-      <c r="AMA1" s="4"/>
-      <c r="AMB1" s="4"/>
-      <c r="AMC1" s="4"/>
-      <c r="AMD1" s="4"/>
-      <c r="AME1" s="4"/>
-      <c r="AMF1" s="4"/>
-      <c r="AMG1" s="4"/>
-      <c r="AMH1" s="4"/>
-      <c r="AMI1" s="4"/>
-      <c r="AMJ1" s="4"/>
-      <c r="AMK1" s="4"/>
-      <c r="AML1" s="4"/>
-      <c r="AMM1" s="4"/>
-      <c r="AMN1" s="4"/>
-      <c r="AMO1" s="4"/>
-      <c r="AMP1" s="4"/>
-      <c r="AMQ1" s="4"/>
-      <c r="AMR1" s="4"/>
-      <c r="AMS1" s="4"/>
-      <c r="AMT1" s="4"/>
-      <c r="AMU1" s="4"/>
-      <c r="AMV1" s="4"/>
-      <c r="AMW1" s="4"/>
-      <c r="AMX1" s="4"/>
-      <c r="AMY1" s="4"/>
-      <c r="AMZ1" s="4"/>
-      <c r="ANA1" s="4"/>
-      <c r="ANB1" s="4"/>
-      <c r="ANC1" s="4"/>
-      <c r="AND1" s="4"/>
-      <c r="ANE1" s="4"/>
-      <c r="ANF1" s="4"/>
-      <c r="ANG1" s="4"/>
-      <c r="ANH1" s="4"/>
-      <c r="ANI1" s="4"/>
-      <c r="ANJ1" s="4"/>
-      <c r="ANK1" s="4"/>
-      <c r="ANL1" s="4"/>
-      <c r="ANM1" s="4"/>
-      <c r="ANN1" s="4"/>
-      <c r="ANO1" s="4"/>
-      <c r="ANP1" s="4"/>
-      <c r="ANQ1" s="4"/>
-      <c r="ANR1" s="4"/>
-      <c r="ANS1" s="4"/>
-      <c r="ANT1" s="4"/>
-      <c r="ANU1" s="4"/>
-      <c r="ANV1" s="4"/>
-      <c r="ANW1" s="4"/>
-      <c r="ANX1" s="4"/>
-      <c r="ANY1" s="4"/>
-      <c r="ANZ1" s="4"/>
-      <c r="AOA1" s="4"/>
-      <c r="AOB1" s="4"/>
-      <c r="AOC1" s="4"/>
-      <c r="AOD1" s="4"/>
-      <c r="AOE1" s="4"/>
-      <c r="AOF1" s="4"/>
-      <c r="AOG1" s="4"/>
-      <c r="AOH1" s="4"/>
-      <c r="AOI1" s="4"/>
-      <c r="AOJ1" s="4"/>
-      <c r="AOK1" s="4"/>
-      <c r="AOL1" s="4"/>
-      <c r="AOM1" s="4"/>
-      <c r="AON1" s="4"/>
-      <c r="AOO1" s="4"/>
-      <c r="AOP1" s="4"/>
-      <c r="AOQ1" s="4"/>
-      <c r="AOR1" s="4"/>
-      <c r="AOS1" s="4"/>
-      <c r="AOT1" s="4"/>
-      <c r="AOU1" s="4"/>
-      <c r="AOV1" s="4"/>
-      <c r="AOW1" s="4"/>
-      <c r="AOX1" s="4"/>
-      <c r="AOY1" s="4"/>
-      <c r="AOZ1" s="4"/>
-      <c r="APA1" s="4"/>
-      <c r="APB1" s="4"/>
-      <c r="APC1" s="4"/>
-      <c r="APD1" s="4"/>
-      <c r="APE1" s="4"/>
-      <c r="APF1" s="4"/>
-      <c r="APG1" s="4"/>
-      <c r="APH1" s="4"/>
-      <c r="API1" s="4"/>
-      <c r="APJ1" s="4"/>
-      <c r="APK1" s="4"/>
-      <c r="APL1" s="4"/>
-      <c r="APM1" s="4"/>
-      <c r="APN1" s="4"/>
-      <c r="APO1" s="4"/>
-      <c r="APP1" s="4"/>
-      <c r="APQ1" s="4"/>
-      <c r="APR1" s="4"/>
-      <c r="APS1" s="4"/>
-      <c r="APT1" s="4"/>
-      <c r="APU1" s="4"/>
-      <c r="APV1" s="4"/>
-      <c r="APW1" s="4"/>
-      <c r="APX1" s="4"/>
-      <c r="APY1" s="4"/>
-      <c r="APZ1" s="4"/>
-      <c r="AQA1" s="4"/>
-      <c r="AQB1" s="4"/>
-      <c r="AQC1" s="4"/>
-      <c r="AQD1" s="4"/>
-      <c r="AQE1" s="4"/>
-      <c r="AQF1" s="4"/>
-      <c r="AQG1" s="4"/>
-      <c r="AQH1" s="4"/>
-      <c r="AQI1" s="4"/>
-      <c r="AQJ1" s="4"/>
-      <c r="AQK1" s="4"/>
-      <c r="AQL1" s="4"/>
-      <c r="AQM1" s="4"/>
-      <c r="AQN1" s="4"/>
-      <c r="AQO1" s="4"/>
-      <c r="AQP1" s="4"/>
-      <c r="AQQ1" s="4"/>
-      <c r="AQR1" s="4"/>
-      <c r="AQS1" s="4"/>
-      <c r="AQT1" s="4"/>
-      <c r="AQU1" s="4"/>
-      <c r="AQV1" s="4"/>
-      <c r="AQW1" s="4"/>
-      <c r="AQX1" s="4"/>
-      <c r="AQY1" s="4"/>
-      <c r="AQZ1" s="4"/>
-      <c r="ARA1" s="4"/>
-      <c r="ARB1" s="4"/>
-      <c r="ARC1" s="4"/>
-      <c r="ARD1" s="4"/>
-      <c r="ARE1" s="4"/>
-      <c r="ARF1" s="4"/>
-      <c r="ARG1" s="4"/>
-      <c r="ARH1" s="4"/>
-      <c r="ARI1" s="4"/>
-      <c r="ARJ1" s="4"/>
-      <c r="ARK1" s="4"/>
-      <c r="ARL1" s="4"/>
-      <c r="ARM1" s="4"/>
-      <c r="ARN1" s="4"/>
-      <c r="ARO1" s="4"/>
-      <c r="ARP1" s="4"/>
-      <c r="ARQ1" s="4"/>
-      <c r="ARR1" s="4"/>
-      <c r="ARS1" s="4"/>
-      <c r="ART1" s="4"/>
-      <c r="ARU1" s="4"/>
-      <c r="ARV1" s="4"/>
-      <c r="ARW1" s="4"/>
-      <c r="ARX1" s="4"/>
-      <c r="ARY1" s="4"/>
-      <c r="ARZ1" s="4"/>
-      <c r="ASA1" s="4"/>
-      <c r="ASB1" s="4"/>
-      <c r="ASC1" s="4"/>
-      <c r="ASD1" s="4"/>
-      <c r="ASE1" s="4"/>
-      <c r="ASF1" s="4"/>
-      <c r="ASG1" s="4"/>
-      <c r="ASH1" s="4"/>
-      <c r="ASI1" s="4"/>
-      <c r="ASJ1" s="4"/>
-      <c r="ASK1" s="4"/>
-      <c r="ASL1" s="4"/>
-      <c r="ASM1" s="4"/>
-      <c r="ASN1" s="4"/>
-      <c r="ASO1" s="4"/>
-      <c r="ASP1" s="4"/>
-      <c r="ASQ1" s="4"/>
-      <c r="ASR1" s="4"/>
-      <c r="ASS1" s="4"/>
-      <c r="AST1" s="4"/>
-      <c r="ASU1" s="4"/>
-      <c r="ASV1" s="4"/>
-      <c r="ASW1" s="4"/>
-      <c r="ASX1" s="4"/>
-      <c r="ASY1" s="4"/>
-      <c r="ASZ1" s="4"/>
-      <c r="ATA1" s="4"/>
-      <c r="ATB1" s="4"/>
-      <c r="ATC1" s="4"/>
-      <c r="ATD1" s="4"/>
-      <c r="ATE1" s="4"/>
-      <c r="ATF1" s="4"/>
-      <c r="ATG1" s="4"/>
-      <c r="ATH1" s="4"/>
-      <c r="ATI1" s="4"/>
-      <c r="ATJ1" s="4"/>
-      <c r="ATK1" s="4"/>
-      <c r="ATL1" s="4"/>
-      <c r="ATM1" s="4"/>
-      <c r="ATN1" s="4"/>
-      <c r="ATO1" s="4"/>
-      <c r="ATP1" s="4"/>
-      <c r="ATQ1" s="4"/>
-      <c r="ATR1" s="4"/>
-      <c r="ATS1" s="4"/>
-      <c r="ATT1" s="4"/>
-      <c r="ATU1" s="4"/>
-      <c r="ATV1" s="4"/>
-      <c r="ATW1" s="4"/>
-      <c r="ATX1" s="4"/>
-      <c r="ATY1" s="4"/>
-      <c r="ATZ1" s="4"/>
-      <c r="AUA1" s="4"/>
-      <c r="AUB1" s="4"/>
-      <c r="AUC1" s="4"/>
-      <c r="AUD1" s="4"/>
-      <c r="AUE1" s="4"/>
-      <c r="AUF1" s="4"/>
-      <c r="AUG1" s="4"/>
-      <c r="AUH1" s="4"/>
-      <c r="AUI1" s="4"/>
-      <c r="AUJ1" s="4"/>
-      <c r="AUK1" s="4"/>
-      <c r="AUL1" s="4"/>
-      <c r="AUM1" s="4"/>
-      <c r="AUN1" s="4"/>
-      <c r="AUO1" s="4"/>
-      <c r="AUP1" s="4"/>
-      <c r="AUQ1" s="4"/>
-      <c r="AUR1" s="4"/>
-      <c r="AUS1" s="4"/>
-      <c r="AUT1" s="4"/>
-      <c r="AUU1" s="4"/>
-      <c r="AUV1" s="4"/>
-      <c r="AUW1" s="4"/>
-      <c r="AUX1" s="4"/>
-      <c r="AUY1" s="4"/>
-      <c r="AUZ1" s="4"/>
-      <c r="AVA1" s="4"/>
-      <c r="AVB1" s="4"/>
-      <c r="AVC1" s="4"/>
-      <c r="AVD1" s="4"/>
-      <c r="AVE1" s="4"/>
-      <c r="AVF1" s="4"/>
-      <c r="AVG1" s="4"/>
-      <c r="AVH1" s="4"/>
-      <c r="AVI1" s="4"/>
-      <c r="AVJ1" s="4"/>
-      <c r="AVK1" s="4"/>
-      <c r="AVL1" s="4"/>
-      <c r="AVM1" s="4"/>
-      <c r="AVN1" s="4"/>
-      <c r="AVO1" s="4"/>
-      <c r="AVP1" s="4"/>
-      <c r="AVQ1" s="4"/>
-      <c r="AVR1" s="4"/>
-      <c r="AVS1" s="4"/>
-      <c r="AVT1" s="4"/>
-      <c r="AVU1" s="4"/>
-      <c r="AVV1" s="4"/>
-      <c r="AVW1" s="4"/>
-      <c r="AVX1" s="4"/>
-      <c r="AVY1" s="4"/>
-      <c r="AVZ1" s="4"/>
-      <c r="AWA1" s="4"/>
-      <c r="AWB1" s="4"/>
-      <c r="AWC1" s="4"/>
-      <c r="AWD1" s="4"/>
-      <c r="AWE1" s="4"/>
-      <c r="AWF1" s="4"/>
-      <c r="AWG1" s="4"/>
-      <c r="AWH1" s="4"/>
-      <c r="AWI1" s="4"/>
-      <c r="AWJ1" s="4"/>
-      <c r="AWK1" s="4"/>
-      <c r="AWL1" s="4"/>
-      <c r="AWM1" s="4"/>
-      <c r="AWN1" s="4"/>
-      <c r="AWO1" s="4"/>
-      <c r="AWP1" s="4"/>
-      <c r="AWQ1" s="4"/>
-      <c r="AWR1" s="4"/>
-      <c r="AWS1" s="4"/>
-      <c r="AWT1" s="4"/>
-      <c r="AWU1" s="4"/>
-      <c r="AWV1" s="4"/>
-      <c r="AWW1" s="4"/>
-      <c r="AWX1" s="4"/>
-      <c r="AWY1" s="4"/>
-      <c r="AWZ1" s="4"/>
-      <c r="AXA1" s="4"/>
-      <c r="AXB1" s="4"/>
-      <c r="AXC1" s="4"/>
-      <c r="AXD1" s="4"/>
-      <c r="AXE1" s="4"/>
-      <c r="AXF1" s="4"/>
-      <c r="AXG1" s="4"/>
-      <c r="AXH1" s="4"/>
-      <c r="AXI1" s="4"/>
-      <c r="AXJ1" s="4"/>
-      <c r="AXK1" s="4"/>
-      <c r="AXL1" s="4"/>
-      <c r="AXM1" s="4"/>
-      <c r="AXN1" s="4"/>
-      <c r="AXO1" s="4"/>
-      <c r="AXP1" s="4"/>
-      <c r="AXQ1" s="4"/>
-      <c r="AXR1" s="4"/>
-      <c r="AXS1" s="4"/>
-      <c r="AXT1" s="4"/>
-      <c r="AXU1" s="4"/>
-      <c r="AXV1" s="4"/>
-      <c r="AXW1" s="4"/>
-      <c r="AXX1" s="4"/>
-      <c r="AXY1" s="4"/>
-      <c r="AXZ1" s="4"/>
-      <c r="AYA1" s="4"/>
-      <c r="AYB1" s="4"/>
-      <c r="AYC1" s="4"/>
-      <c r="AYD1" s="4"/>
-      <c r="AYE1" s="4"/>
-      <c r="AYF1" s="4"/>
-      <c r="AYG1" s="4"/>
-      <c r="AYH1" s="4"/>
-      <c r="AYI1" s="4"/>
-      <c r="AYJ1" s="4"/>
-      <c r="AYK1" s="4"/>
-      <c r="AYL1" s="4"/>
-      <c r="AYM1" s="4"/>
-      <c r="AYN1" s="4"/>
-      <c r="AYO1" s="4"/>
-      <c r="AYP1" s="4"/>
-      <c r="AYQ1" s="4"/>
-      <c r="AYR1" s="4"/>
-      <c r="AYS1" s="4"/>
-      <c r="AYT1" s="4"/>
-      <c r="AYU1" s="4"/>
-      <c r="AYV1" s="4"/>
-      <c r="AYW1" s="4"/>
-      <c r="AYX1" s="4"/>
-      <c r="AYY1" s="4"/>
-      <c r="AYZ1" s="4"/>
-      <c r="AZA1" s="4"/>
-      <c r="AZB1" s="4"/>
-      <c r="AZC1" s="4"/>
-      <c r="AZD1" s="4"/>
-      <c r="AZE1" s="4"/>
-      <c r="AZF1" s="4"/>
-      <c r="AZG1" s="4"/>
-      <c r="AZH1" s="4"/>
-      <c r="AZI1" s="4"/>
-      <c r="AZJ1" s="4"/>
-      <c r="AZK1" s="4"/>
-      <c r="AZL1" s="4"/>
-      <c r="AZM1" s="4"/>
-      <c r="AZN1" s="4"/>
-      <c r="AZO1" s="4"/>
-      <c r="AZP1" s="4"/>
-      <c r="AZQ1" s="4"/>
-      <c r="AZR1" s="4"/>
-      <c r="AZS1" s="4"/>
-      <c r="AZT1" s="4"/>
-      <c r="AZU1" s="4"/>
-      <c r="AZV1" s="4"/>
-      <c r="AZW1" s="4"/>
-      <c r="AZX1" s="4"/>
-      <c r="AZY1" s="4"/>
-      <c r="AZZ1" s="4"/>
-      <c r="BAA1" s="4"/>
-      <c r="BAB1" s="4"/>
-      <c r="BAC1" s="4"/>
-      <c r="BAD1" s="4"/>
-      <c r="BAE1" s="4"/>
-      <c r="BAF1" s="4"/>
-      <c r="BAG1" s="4"/>
-      <c r="BAH1" s="4"/>
-      <c r="BAI1" s="4"/>
-      <c r="BAJ1" s="4"/>
-      <c r="BAK1" s="4"/>
-      <c r="BAL1" s="4"/>
-      <c r="BAM1" s="4"/>
-      <c r="BAN1" s="4"/>
-      <c r="BAO1" s="4"/>
-      <c r="BAP1" s="4"/>
-      <c r="BAQ1" s="4"/>
-      <c r="BAR1" s="4"/>
-      <c r="BAS1" s="4"/>
-      <c r="BAT1" s="4"/>
-      <c r="BAU1" s="4"/>
-      <c r="BAV1" s="4"/>
-      <c r="BAW1" s="4"/>
-      <c r="BAX1" s="4"/>
-      <c r="BAY1" s="4"/>
-      <c r="BAZ1" s="4"/>
-      <c r="BBA1" s="4"/>
-      <c r="BBB1" s="4"/>
-      <c r="BBC1" s="4"/>
-      <c r="BBD1" s="4"/>
-      <c r="BBE1" s="4"/>
-      <c r="BBF1" s="4"/>
-      <c r="BBG1" s="4"/>
-      <c r="BBH1" s="4"/>
-      <c r="BBI1" s="4"/>
-      <c r="BBJ1" s="4"/>
-      <c r="BBK1" s="4"/>
-      <c r="BBL1" s="4"/>
-      <c r="BBM1" s="4"/>
-      <c r="BBN1" s="4"/>
-      <c r="BBO1" s="4"/>
-      <c r="BBP1" s="4"/>
-      <c r="BBQ1" s="4"/>
-      <c r="BBR1" s="4"/>
-      <c r="BBS1" s="4"/>
-      <c r="BBT1" s="4"/>
-      <c r="BBU1" s="4"/>
-      <c r="BBV1" s="4"/>
-      <c r="BBW1" s="4"/>
-      <c r="BBX1" s="4"/>
-      <c r="BBY1" s="4"/>
-      <c r="BBZ1" s="4"/>
-      <c r="BCA1" s="4"/>
-      <c r="BCB1" s="4"/>
-      <c r="BCC1" s="4"/>
-      <c r="BCD1" s="4"/>
-      <c r="BCE1" s="4"/>
-      <c r="BCF1" s="4"/>
-      <c r="BCG1" s="4"/>
-      <c r="BCH1" s="4"/>
-      <c r="BCI1" s="4"/>
-      <c r="BCJ1" s="4"/>
-      <c r="BCK1" s="4"/>
-      <c r="BCL1" s="4"/>
-      <c r="BCM1" s="4"/>
-      <c r="BCN1" s="4"/>
-      <c r="BCO1" s="4"/>
-      <c r="BCP1" s="4"/>
-      <c r="BCQ1" s="4"/>
-      <c r="BCR1" s="4"/>
-      <c r="BCS1" s="4"/>
-      <c r="BCT1" s="4"/>
-      <c r="BCU1" s="4"/>
-      <c r="BCV1" s="4"/>
-      <c r="BCW1" s="4"/>
-      <c r="BCX1" s="4"/>
-      <c r="BCY1" s="4"/>
-      <c r="BCZ1" s="4"/>
-      <c r="BDA1" s="4"/>
-      <c r="BDB1" s="4"/>
-      <c r="BDC1" s="4"/>
-      <c r="BDD1" s="4"/>
-      <c r="BDE1" s="4"/>
-      <c r="BDF1" s="4"/>
-      <c r="BDG1" s="4"/>
-      <c r="BDH1" s="4"/>
-      <c r="BDI1" s="4"/>
-      <c r="BDJ1" s="4"/>
-      <c r="BDK1" s="4"/>
-      <c r="BDL1" s="4"/>
-      <c r="BDM1" s="4"/>
-      <c r="BDN1" s="4"/>
-      <c r="BDO1" s="4"/>
-      <c r="BDP1" s="4"/>
-      <c r="BDQ1" s="4"/>
-      <c r="BDR1" s="4"/>
-      <c r="BDS1" s="4"/>
-      <c r="BDT1" s="4"/>
-      <c r="BDU1" s="4"/>
-      <c r="BDV1" s="4"/>
-      <c r="BDW1" s="4"/>
-      <c r="BDX1" s="4"/>
-      <c r="BDY1" s="4"/>
-      <c r="BDZ1" s="4"/>
-      <c r="BEA1" s="4"/>
-      <c r="BEB1" s="4"/>
-      <c r="BEC1" s="4"/>
-      <c r="BED1" s="4"/>
-      <c r="BEE1" s="4"/>
-      <c r="BEF1" s="4"/>
-      <c r="BEG1" s="4"/>
-      <c r="BEH1" s="4"/>
-      <c r="BEI1" s="4"/>
-      <c r="BEJ1" s="4"/>
-      <c r="BEK1" s="4"/>
-      <c r="BEL1" s="4"/>
-      <c r="BEM1" s="4"/>
-      <c r="BEN1" s="4"/>
-      <c r="BEO1" s="4"/>
-      <c r="BEP1" s="4"/>
-      <c r="BEQ1" s="4"/>
-      <c r="BER1" s="4"/>
-      <c r="BES1" s="4"/>
-      <c r="BET1" s="4"/>
-      <c r="BEU1" s="4"/>
-      <c r="BEV1" s="4"/>
-      <c r="BEW1" s="4"/>
-      <c r="BEX1" s="4"/>
-      <c r="BEY1" s="4"/>
-      <c r="BEZ1" s="4"/>
-      <c r="BFA1" s="4"/>
-      <c r="BFB1" s="4"/>
-      <c r="BFC1" s="4"/>
-      <c r="BFD1" s="4"/>
-      <c r="BFE1" s="4"/>
-      <c r="BFF1" s="4"/>
-      <c r="BFG1" s="4"/>
-      <c r="BFH1" s="4"/>
-      <c r="BFI1" s="4"/>
-      <c r="BFJ1" s="4"/>
-      <c r="BFK1" s="4"/>
-      <c r="BFL1" s="4"/>
-      <c r="BFM1" s="4"/>
-      <c r="BFN1" s="4"/>
-      <c r="BFO1" s="4"/>
-      <c r="BFP1" s="4"/>
-      <c r="BFQ1" s="4"/>
-      <c r="BFR1" s="4"/>
-      <c r="BFS1" s="4"/>
-      <c r="BFT1" s="4"/>
-      <c r="BFU1" s="4"/>
-      <c r="BFV1" s="4"/>
-      <c r="BFW1" s="4"/>
-      <c r="BFX1" s="4"/>
-      <c r="BFY1" s="4"/>
-      <c r="BFZ1" s="4"/>
-      <c r="BGA1" s="4"/>
-      <c r="BGB1" s="4"/>
-      <c r="BGC1" s="4"/>
-      <c r="BGD1" s="4"/>
-      <c r="BGE1" s="4"/>
-      <c r="BGF1" s="4"/>
-      <c r="BGG1" s="4"/>
-      <c r="BGH1" s="4"/>
-      <c r="BGI1" s="4"/>
-      <c r="BGJ1" s="4"/>
-      <c r="BGK1" s="4"/>
-      <c r="BGL1" s="4"/>
-      <c r="BGM1" s="4"/>
-      <c r="BGN1" s="4"/>
-      <c r="BGO1" s="4"/>
-      <c r="BGP1" s="4"/>
-      <c r="BGQ1" s="4"/>
-      <c r="BGR1" s="4"/>
-      <c r="BGS1" s="4"/>
-      <c r="BGT1" s="4"/>
-      <c r="BGU1" s="4"/>
-      <c r="BGV1" s="4"/>
-      <c r="BGW1" s="4"/>
-      <c r="BGX1" s="4"/>
-      <c r="BGY1" s="4"/>
-      <c r="BGZ1" s="4"/>
-      <c r="BHA1" s="4"/>
-      <c r="BHB1" s="4"/>
-      <c r="BHC1" s="4"/>
-      <c r="BHD1" s="4"/>
-      <c r="BHE1" s="4"/>
-      <c r="BHF1" s="4"/>
-      <c r="BHG1" s="4"/>
-      <c r="BHH1" s="4"/>
-      <c r="BHI1" s="4"/>
-      <c r="BHJ1" s="4"/>
-      <c r="BHK1" s="4"/>
-      <c r="BHL1" s="4"/>
-      <c r="BHM1" s="4"/>
-      <c r="BHN1" s="4"/>
-      <c r="BHO1" s="4"/>
-      <c r="BHP1" s="4"/>
-      <c r="BHQ1" s="4"/>
-      <c r="BHR1" s="4"/>
-      <c r="BHS1" s="4"/>
-      <c r="BHT1" s="4"/>
-      <c r="BHU1" s="4"/>
-      <c r="BHV1" s="4"/>
-      <c r="BHW1" s="4"/>
-      <c r="BHX1" s="4"/>
-      <c r="BHY1" s="4"/>
-      <c r="BHZ1" s="4"/>
-      <c r="BIA1" s="4"/>
-      <c r="BIB1" s="4"/>
-      <c r="BIC1" s="4"/>
-      <c r="BID1" s="4"/>
-      <c r="BIE1" s="4"/>
-      <c r="BIF1" s="4"/>
-      <c r="BIG1" s="4"/>
-      <c r="BIH1" s="4"/>
-      <c r="BII1" s="4"/>
-      <c r="BIJ1" s="4"/>
-      <c r="BIK1" s="4"/>
-      <c r="BIL1" s="4"/>
-      <c r="BIM1" s="4"/>
-      <c r="BIN1" s="4"/>
-      <c r="BIO1" s="4"/>
-      <c r="BIP1" s="4"/>
-      <c r="BIQ1" s="4"/>
-      <c r="BIR1" s="4"/>
-      <c r="BIS1" s="4"/>
-      <c r="BIT1" s="4"/>
-      <c r="BIU1" s="4"/>
-      <c r="BIV1" s="4"/>
-      <c r="BIW1" s="4"/>
-      <c r="BIX1" s="4"/>
-      <c r="BIY1" s="4"/>
-      <c r="BIZ1" s="4"/>
-      <c r="BJA1" s="4"/>
-      <c r="BJB1" s="4"/>
-      <c r="BJC1" s="4"/>
-      <c r="BJD1" s="4"/>
-      <c r="BJE1" s="4"/>
-      <c r="BJF1" s="4"/>
-      <c r="BJG1" s="4"/>
-      <c r="BJH1" s="4"/>
-      <c r="BJI1" s="4"/>
-      <c r="BJJ1" s="4"/>
-      <c r="BJK1" s="4"/>
-      <c r="BJL1" s="4"/>
-      <c r="BJM1" s="4"/>
-      <c r="BJN1" s="4"/>
-      <c r="BJO1" s="4"/>
-      <c r="BJP1" s="4"/>
-      <c r="BJQ1" s="4"/>
-      <c r="BJR1" s="4"/>
-      <c r="BJS1" s="4"/>
-      <c r="BJT1" s="4"/>
-      <c r="BJU1" s="4"/>
-      <c r="BJV1" s="4"/>
-      <c r="BJW1" s="4"/>
-      <c r="BJX1" s="4"/>
-      <c r="BJY1" s="4"/>
-      <c r="BJZ1" s="4"/>
-      <c r="BKA1" s="4"/>
-      <c r="BKB1" s="4"/>
-      <c r="BKC1" s="4"/>
-      <c r="BKD1" s="4"/>
-      <c r="BKE1" s="4"/>
-      <c r="BKF1" s="4"/>
-      <c r="BKG1" s="4"/>
-      <c r="BKH1" s="4"/>
-      <c r="BKI1" s="4"/>
-      <c r="BKJ1" s="4"/>
-      <c r="BKK1" s="4"/>
-      <c r="BKL1" s="4"/>
-      <c r="BKM1" s="4"/>
-      <c r="BKN1" s="4"/>
-      <c r="BKO1" s="4"/>
-      <c r="BKP1" s="4"/>
-      <c r="BKQ1" s="4"/>
-      <c r="BKR1" s="4"/>
-      <c r="BKS1" s="4"/>
-      <c r="BKT1" s="4"/>
-      <c r="BKU1" s="4"/>
-      <c r="BKV1" s="4"/>
-      <c r="BKW1" s="4"/>
-      <c r="BKX1" s="4"/>
-      <c r="BKY1" s="4"/>
-      <c r="BKZ1" s="4"/>
-      <c r="BLA1" s="4"/>
-      <c r="BLB1" s="4"/>
-      <c r="BLC1" s="4"/>
-      <c r="BLD1" s="4"/>
-      <c r="BLE1" s="4"/>
-      <c r="BLF1" s="4"/>
-      <c r="BLG1" s="4"/>
-      <c r="BLH1" s="4"/>
-      <c r="BLI1" s="4"/>
-      <c r="BLJ1" s="4"/>
-      <c r="BLK1" s="4"/>
-      <c r="BLL1" s="4"/>
-      <c r="BLM1" s="4"/>
-      <c r="BLN1" s="4"/>
-      <c r="BLO1" s="4"/>
-      <c r="BLP1" s="4"/>
-      <c r="BLQ1" s="4"/>
-      <c r="BLR1" s="4"/>
-      <c r="BLS1" s="4"/>
-      <c r="BLT1" s="4"/>
-      <c r="BLU1" s="4"/>
-      <c r="BLV1" s="4"/>
-      <c r="BLW1" s="4"/>
-      <c r="BLX1" s="4"/>
-      <c r="BLY1" s="4"/>
-      <c r="BLZ1" s="4"/>
-      <c r="BMA1" s="4"/>
-      <c r="BMB1" s="4"/>
-      <c r="BMC1" s="4"/>
-      <c r="BMD1" s="4"/>
-      <c r="BME1" s="4"/>
-      <c r="BMF1" s="4"/>
-      <c r="BMG1" s="4"/>
-      <c r="BMH1" s="4"/>
-      <c r="BMI1" s="4"/>
-      <c r="BMJ1" s="4"/>
-      <c r="BMK1" s="4"/>
-      <c r="BML1" s="4"/>
-      <c r="BMM1" s="4"/>
-      <c r="BMN1" s="4"/>
-      <c r="BMO1" s="4"/>
-      <c r="BMP1" s="4"/>
-      <c r="BMQ1" s="4"/>
-      <c r="BMR1" s="4"/>
-      <c r="BMS1" s="4"/>
-      <c r="BMT1" s="4"/>
-      <c r="BMU1" s="4"/>
-      <c r="BMV1" s="4"/>
-      <c r="BMW1" s="4"/>
-      <c r="BMX1" s="4"/>
-      <c r="BMY1" s="4"/>
-      <c r="BMZ1" s="4"/>
-      <c r="BNA1" s="4"/>
-      <c r="BNB1" s="4"/>
-      <c r="BNC1" s="4"/>
-      <c r="BND1" s="4"/>
-      <c r="BNE1" s="4"/>
-      <c r="BNF1" s="4"/>
-      <c r="BNG1" s="4"/>
-      <c r="BNH1" s="4"/>
-      <c r="BNI1" s="4"/>
-      <c r="BNJ1" s="4"/>
-      <c r="BNK1" s="4"/>
-      <c r="BNL1" s="4"/>
-      <c r="BNM1" s="4"/>
-      <c r="BNN1" s="4"/>
-      <c r="BNO1" s="4"/>
-      <c r="BNP1" s="4"/>
-      <c r="BNQ1" s="4"/>
-      <c r="BNR1" s="4"/>
-      <c r="BNS1" s="4"/>
-      <c r="BNT1" s="4"/>
-      <c r="BNU1" s="4"/>
-      <c r="BNV1" s="4"/>
-      <c r="BNW1" s="4"/>
-      <c r="BNX1" s="4"/>
-      <c r="BNY1" s="4"/>
-      <c r="BNZ1" s="4"/>
-      <c r="BOA1" s="4"/>
-      <c r="BOB1" s="4"/>
-      <c r="BOC1" s="4"/>
-      <c r="BOD1" s="4"/>
-      <c r="BOE1" s="4"/>
-      <c r="BOF1" s="4"/>
-      <c r="BOG1" s="4"/>
-      <c r="BOH1" s="4"/>
-      <c r="BOI1" s="4"/>
-      <c r="BOJ1" s="4"/>
-      <c r="BOK1" s="4"/>
-      <c r="BOL1" s="4"/>
-      <c r="BOM1" s="4"/>
-      <c r="BON1" s="4"/>
-      <c r="BOO1" s="4"/>
-      <c r="BOP1" s="4"/>
-      <c r="BOQ1" s="4"/>
-      <c r="BOR1" s="4"/>
-      <c r="BOS1" s="4"/>
-      <c r="BOT1" s="4"/>
-      <c r="BOU1" s="4"/>
-      <c r="BOV1" s="4"/>
-      <c r="BOW1" s="4"/>
-      <c r="BOX1" s="4"/>
-      <c r="BOY1" s="4"/>
-      <c r="BOZ1" s="4"/>
-      <c r="BPA1" s="4"/>
-      <c r="BPB1" s="4"/>
-      <c r="BPC1" s="4"/>
-      <c r="BPD1" s="4"/>
-      <c r="BPE1" s="4"/>
-      <c r="BPF1" s="4"/>
-      <c r="BPG1" s="4"/>
-      <c r="BPH1" s="4"/>
-      <c r="BPI1" s="4"/>
-      <c r="BPJ1" s="4"/>
-      <c r="BPK1" s="4"/>
-      <c r="BPL1" s="4"/>
-      <c r="BPM1" s="4"/>
-      <c r="BPN1" s="4"/>
-      <c r="BPO1" s="4"/>
-      <c r="BPP1" s="4"/>
-      <c r="BPQ1" s="4"/>
-      <c r="BPR1" s="4"/>
-      <c r="BPS1" s="4"/>
-      <c r="BPT1" s="4"/>
-      <c r="BPU1" s="4"/>
-      <c r="BPV1" s="4"/>
-      <c r="BPW1" s="4"/>
-      <c r="BPX1" s="4"/>
-      <c r="BPY1" s="4"/>
-      <c r="BPZ1" s="4"/>
-      <c r="BQA1" s="4"/>
-      <c r="BQB1" s="4"/>
-      <c r="BQC1" s="4"/>
-      <c r="BQD1" s="4"/>
-      <c r="BQE1" s="4"/>
-      <c r="BQF1" s="4"/>
-      <c r="BQG1" s="4"/>
-      <c r="BQH1" s="4"/>
-      <c r="BQI1" s="4"/>
-      <c r="BQJ1" s="4"/>
-      <c r="BQK1" s="4"/>
-      <c r="BQL1" s="4"/>
-      <c r="BQM1" s="4"/>
-      <c r="BQN1" s="4"/>
-      <c r="BQO1" s="4"/>
-      <c r="BQP1" s="4"/>
-      <c r="BQQ1" s="4"/>
-      <c r="BQR1" s="4"/>
-      <c r="BQS1" s="4"/>
-      <c r="BQT1" s="4"/>
-      <c r="BQU1" s="4"/>
-      <c r="BQV1" s="4"/>
-      <c r="BQW1" s="4"/>
-      <c r="BQX1" s="4"/>
-      <c r="BQY1" s="4"/>
-      <c r="BQZ1" s="4"/>
-      <c r="BRA1" s="4"/>
-      <c r="BRB1" s="4"/>
-      <c r="BRC1" s="4"/>
-      <c r="BRD1" s="4"/>
-      <c r="BRE1" s="4"/>
-      <c r="BRF1" s="4"/>
-      <c r="BRG1" s="4"/>
-      <c r="BRH1" s="4"/>
-      <c r="BRI1" s="4"/>
-      <c r="BRJ1" s="4"/>
-      <c r="BRK1" s="4"/>
-      <c r="BRL1" s="4"/>
-      <c r="BRM1" s="4"/>
-      <c r="BRN1" s="4"/>
-      <c r="BRO1" s="4"/>
-      <c r="BRP1" s="4"/>
-      <c r="BRQ1" s="4"/>
-      <c r="BRR1" s="4"/>
-      <c r="BRS1" s="4"/>
-      <c r="BRT1" s="4"/>
-      <c r="BRU1" s="4"/>
-      <c r="BRV1" s="4"/>
-      <c r="BRW1" s="4"/>
-      <c r="BRX1" s="4"/>
-      <c r="BRY1" s="4"/>
-      <c r="BRZ1" s="4"/>
-      <c r="BSA1" s="4"/>
-      <c r="BSB1" s="4"/>
-      <c r="BSC1" s="4"/>
-      <c r="BSD1" s="4"/>
-      <c r="BSE1" s="4"/>
-      <c r="BSF1" s="4"/>
-      <c r="BSG1" s="4"/>
-      <c r="BSH1" s="4"/>
-      <c r="BSI1" s="4"/>
-      <c r="BSJ1" s="4"/>
-      <c r="BSK1" s="4"/>
-      <c r="BSL1" s="4"/>
-      <c r="BSM1" s="4"/>
-      <c r="BSN1" s="4"/>
-      <c r="BSO1" s="4"/>
-      <c r="BSP1" s="4"/>
-      <c r="BSQ1" s="4"/>
-      <c r="BSR1" s="4"/>
-      <c r="BSS1" s="4"/>
-      <c r="BST1" s="4"/>
-      <c r="BSU1" s="4"/>
-      <c r="BSV1" s="4"/>
-      <c r="BSW1" s="4"/>
-      <c r="BSX1" s="4"/>
-      <c r="BSY1" s="4"/>
-      <c r="BSZ1" s="4"/>
-      <c r="BTA1" s="4"/>
-      <c r="BTB1" s="4"/>
-      <c r="BTC1" s="4"/>
-      <c r="BTD1" s="4"/>
-      <c r="BTE1" s="4"/>
-      <c r="BTF1" s="4"/>
-      <c r="BTG1" s="4"/>
-      <c r="BTH1" s="4"/>
-      <c r="BTI1" s="4"/>
-      <c r="BTJ1" s="4"/>
-      <c r="BTK1" s="4"/>
-      <c r="BTL1" s="4"/>
-      <c r="BTM1" s="4"/>
-      <c r="BTN1" s="4"/>
-      <c r="BTO1" s="4"/>
-      <c r="BTP1" s="4"/>
-      <c r="BTQ1" s="4"/>
-      <c r="BTR1" s="4"/>
-      <c r="BTS1" s="4"/>
-      <c r="BTT1" s="4"/>
-      <c r="BTU1" s="4"/>
-      <c r="BTV1" s="4"/>
-      <c r="BTW1" s="4"/>
-      <c r="BTX1" s="4"/>
-      <c r="BTY1" s="4"/>
-      <c r="BTZ1" s="4"/>
-      <c r="BUA1" s="4"/>
-      <c r="BUB1" s="4"/>
-      <c r="BUC1" s="4"/>
-      <c r="BUD1" s="4"/>
-      <c r="BUE1" s="4"/>
-      <c r="BUF1" s="4"/>
-      <c r="BUG1" s="4"/>
-      <c r="BUH1" s="4"/>
-      <c r="BUI1" s="4"/>
-      <c r="BUJ1" s="4"/>
-      <c r="BUK1" s="4"/>
-      <c r="BUL1" s="4"/>
-      <c r="BUM1" s="4"/>
-      <c r="BUN1" s="4"/>
-      <c r="BUO1" s="4"/>
-      <c r="BUP1" s="4"/>
-      <c r="BUQ1" s="4"/>
-      <c r="BUR1" s="4"/>
-      <c r="BUS1" s="4"/>
-      <c r="BUT1" s="4"/>
-      <c r="BUU1" s="4"/>
-      <c r="BUV1" s="4"/>
-      <c r="BUW1" s="4"/>
-      <c r="BUX1" s="4"/>
-      <c r="BUY1" s="4"/>
-      <c r="BUZ1" s="4"/>
-      <c r="BVA1" s="4"/>
-      <c r="BVB1" s="4"/>
-      <c r="BVC1" s="4"/>
-      <c r="BVD1" s="4"/>
-      <c r="BVE1" s="4"/>
-      <c r="BVF1" s="4"/>
-      <c r="BVG1" s="4"/>
-      <c r="BVH1" s="4"/>
-      <c r="BVI1" s="4"/>
-      <c r="BVJ1" s="4"/>
-      <c r="BVK1" s="4"/>
-      <c r="BVL1" s="4"/>
-      <c r="BVM1" s="4"/>
-      <c r="BVN1" s="4"/>
-      <c r="BVO1" s="4"/>
-      <c r="BVP1" s="4"/>
-      <c r="BVQ1" s="4"/>
-      <c r="BVR1" s="4"/>
-      <c r="BVS1" s="4"/>
-      <c r="BVT1" s="4"/>
-      <c r="BVU1" s="4"/>
-      <c r="BVV1" s="4"/>
-      <c r="BVW1" s="4"/>
-      <c r="BVX1" s="4"/>
-      <c r="BVY1" s="4"/>
-      <c r="BVZ1" s="4"/>
-      <c r="BWA1" s="4"/>
-      <c r="BWB1" s="4"/>
-      <c r="BWC1" s="4"/>
-      <c r="BWD1" s="4"/>
-      <c r="BWE1" s="4"/>
-      <c r="BWF1" s="4"/>
-      <c r="BWG1" s="4"/>
-      <c r="BWH1" s="4"/>
-      <c r="BWI1" s="4"/>
-      <c r="BWJ1" s="4"/>
-      <c r="BWK1" s="4"/>
-      <c r="BWL1" s="4"/>
-      <c r="BWM1" s="4"/>
-      <c r="BWN1" s="4"/>
-      <c r="BWO1" s="4"/>
-      <c r="BWP1" s="4"/>
-      <c r="BWQ1" s="4"/>
-      <c r="BWR1" s="4"/>
-      <c r="BWS1" s="4"/>
-      <c r="BWT1" s="4"/>
-      <c r="BWU1" s="4"/>
-      <c r="BWV1" s="4"/>
-      <c r="BWW1" s="4"/>
-      <c r="BWX1" s="4"/>
-      <c r="BWY1" s="4"/>
-      <c r="BWZ1" s="4"/>
-      <c r="BXA1" s="4"/>
-      <c r="BXB1" s="4"/>
-      <c r="BXC1" s="4"/>
-      <c r="BXD1" s="4"/>
-      <c r="BXE1" s="4"/>
-      <c r="BXF1" s="4"/>
-      <c r="BXG1" s="4"/>
-      <c r="BXH1" s="4"/>
-      <c r="BXI1" s="4"/>
-      <c r="BXJ1" s="4"/>
-      <c r="BXK1" s="4"/>
-      <c r="BXL1" s="4"/>
-      <c r="BXM1" s="4"/>
-      <c r="BXN1" s="4"/>
-      <c r="BXO1" s="4"/>
-      <c r="BXP1" s="4"/>
-      <c r="BXQ1" s="4"/>
-      <c r="BXR1" s="4"/>
-      <c r="BXS1" s="4"/>
-      <c r="BXT1" s="4"/>
-      <c r="BXU1" s="4"/>
-      <c r="BXV1" s="4"/>
-      <c r="BXW1" s="4"/>
-      <c r="BXX1" s="4"/>
-      <c r="BXY1" s="4"/>
-      <c r="BXZ1" s="4"/>
-      <c r="BYA1" s="4"/>
-      <c r="BYB1" s="4"/>
-      <c r="BYC1" s="4"/>
-      <c r="BYD1" s="4"/>
-      <c r="BYE1" s="4"/>
-      <c r="BYF1" s="4"/>
-      <c r="BYG1" s="4"/>
-      <c r="BYH1" s="4"/>
-      <c r="BYI1" s="4"/>
-      <c r="BYJ1" s="4"/>
-      <c r="BYK1" s="4"/>
-      <c r="BYL1" s="4"/>
-      <c r="BYM1" s="4"/>
-      <c r="BYN1" s="4"/>
-      <c r="BYO1" s="4"/>
-      <c r="BYP1" s="4"/>
-      <c r="BYQ1" s="4"/>
-      <c r="BYR1" s="4"/>
-      <c r="BYS1" s="4"/>
-      <c r="BYT1" s="4"/>
-      <c r="BYU1" s="4"/>
-      <c r="BYV1" s="4"/>
-      <c r="BYW1" s="4"/>
-      <c r="BYX1" s="4"/>
-      <c r="BYY1" s="4"/>
-      <c r="BYZ1" s="4"/>
-      <c r="BZA1" s="4"/>
-      <c r="BZB1" s="4"/>
-      <c r="BZC1" s="4"/>
-      <c r="BZD1" s="4"/>
-      <c r="BZE1" s="4"/>
-      <c r="BZF1" s="4"/>
-      <c r="BZG1" s="4"/>
-      <c r="BZH1" s="4"/>
-      <c r="BZI1" s="4"/>
-      <c r="BZJ1" s="4"/>
-      <c r="BZK1" s="4"/>
-      <c r="BZL1" s="4"/>
-      <c r="BZM1" s="4"/>
-      <c r="BZN1" s="4"/>
-      <c r="BZO1" s="4"/>
-      <c r="BZP1" s="4"/>
-      <c r="BZQ1" s="4"/>
-      <c r="BZR1" s="4"/>
-      <c r="BZS1" s="4"/>
-      <c r="BZT1" s="4"/>
-      <c r="BZU1" s="4"/>
-      <c r="BZV1" s="4"/>
-      <c r="BZW1" s="4"/>
-      <c r="BZX1" s="4"/>
-      <c r="BZY1" s="4"/>
-      <c r="BZZ1" s="4"/>
-      <c r="CAA1" s="4"/>
-      <c r="CAB1" s="4"/>
-      <c r="CAC1" s="4"/>
-      <c r="CAD1" s="4"/>
-      <c r="CAE1" s="4"/>
-      <c r="CAF1" s="4"/>
-      <c r="CAG1" s="4"/>
-      <c r="CAH1" s="4"/>
-      <c r="CAI1" s="4"/>
-      <c r="CAJ1" s="4"/>
-      <c r="CAK1" s="4"/>
-      <c r="CAL1" s="4"/>
-      <c r="CAM1" s="4"/>
-      <c r="CAN1" s="4"/>
-      <c r="CAO1" s="4"/>
-      <c r="CAP1" s="4"/>
-      <c r="CAQ1" s="4"/>
-      <c r="CAR1" s="4"/>
-      <c r="CAS1" s="4"/>
-      <c r="CAT1" s="4"/>
-      <c r="CAU1" s="4"/>
-      <c r="CAV1" s="4"/>
-      <c r="CAW1" s="4"/>
-      <c r="CAX1" s="4"/>
-      <c r="CAY1" s="4"/>
-      <c r="CAZ1" s="4"/>
-      <c r="CBA1" s="4"/>
-      <c r="CBB1" s="4"/>
-      <c r="CBC1" s="4"/>
-      <c r="CBD1" s="4"/>
-      <c r="CBE1" s="4"/>
-      <c r="CBF1" s="4"/>
-      <c r="CBG1" s="4"/>
-      <c r="CBH1" s="4"/>
-      <c r="CBI1" s="4"/>
-      <c r="CBJ1" s="4"/>
-      <c r="CBK1" s="4"/>
-      <c r="CBL1" s="4"/>
-      <c r="CBM1" s="4"/>
-      <c r="CBN1" s="4"/>
-      <c r="CBO1" s="4"/>
-      <c r="CBP1" s="4"/>
-      <c r="CBQ1" s="4"/>
-      <c r="CBR1" s="4"/>
-      <c r="CBS1" s="4"/>
-      <c r="CBT1" s="4"/>
-      <c r="CBU1" s="4"/>
-      <c r="CBV1" s="4"/>
-      <c r="CBW1" s="4"/>
-      <c r="CBX1" s="4"/>
-      <c r="CBY1" s="4"/>
-      <c r="CBZ1" s="4"/>
-      <c r="CCA1" s="4"/>
-      <c r="CCB1" s="4"/>
-      <c r="CCC1" s="4"/>
-      <c r="CCD1" s="4"/>
-      <c r="CCE1" s="4"/>
-      <c r="CCF1" s="4"/>
-      <c r="CCG1" s="4"/>
-      <c r="CCH1" s="4"/>
-      <c r="CCI1" s="4"/>
-      <c r="CCJ1" s="4"/>
-      <c r="CCK1" s="4"/>
-      <c r="CCL1" s="4"/>
-      <c r="CCM1" s="4"/>
-      <c r="CCN1" s="4"/>
-      <c r="CCO1" s="4"/>
-      <c r="CCP1" s="4"/>
-      <c r="CCQ1" s="4"/>
-      <c r="CCR1" s="4"/>
-      <c r="CCS1" s="4"/>
-      <c r="CCT1" s="4"/>
-      <c r="CCU1" s="4"/>
-      <c r="CCV1" s="4"/>
-      <c r="CCW1" s="4"/>
-      <c r="CCX1" s="4"/>
-      <c r="CCY1" s="4"/>
-      <c r="CCZ1" s="4"/>
-      <c r="CDA1" s="4"/>
-      <c r="CDB1" s="4"/>
-      <c r="CDC1" s="4"/>
-      <c r="CDD1" s="4"/>
-      <c r="CDE1" s="4"/>
-      <c r="CDF1" s="4"/>
-      <c r="CDG1" s="4"/>
-      <c r="CDH1" s="4"/>
-      <c r="CDI1" s="4"/>
-      <c r="CDJ1" s="4"/>
-      <c r="CDK1" s="4"/>
-      <c r="CDL1" s="4"/>
-      <c r="CDM1" s="4"/>
-      <c r="CDN1" s="4"/>
-      <c r="CDO1" s="4"/>
-      <c r="CDP1" s="4"/>
-      <c r="CDQ1" s="4"/>
-      <c r="CDR1" s="4"/>
-      <c r="CDS1" s="4"/>
-      <c r="CDT1" s="4"/>
-      <c r="CDU1" s="4"/>
-      <c r="CDV1" s="4"/>
-      <c r="CDW1" s="4"/>
-      <c r="CDX1" s="4"/>
-      <c r="CDY1" s="4"/>
-      <c r="CDZ1" s="4"/>
-      <c r="CEA1" s="4"/>
-      <c r="CEB1" s="4"/>
-      <c r="CEC1" s="4"/>
-      <c r="CED1" s="4"/>
-      <c r="CEE1" s="4"/>
-      <c r="CEF1" s="4"/>
-      <c r="CEG1" s="4"/>
-      <c r="CEH1" s="4"/>
-      <c r="CEI1" s="4"/>
-      <c r="CEJ1" s="4"/>
-      <c r="CEK1" s="4"/>
-      <c r="CEL1" s="4"/>
-      <c r="CEM1" s="4"/>
-      <c r="CEN1" s="4"/>
-      <c r="CEO1" s="4"/>
-      <c r="CEP1" s="4"/>
-      <c r="CEQ1" s="4"/>
-      <c r="CER1" s="4"/>
-      <c r="CES1" s="4"/>
-      <c r="CET1" s="4"/>
-      <c r="CEU1" s="4"/>
-      <c r="CEV1" s="4"/>
-      <c r="CEW1" s="4"/>
-      <c r="CEX1" s="4"/>
-      <c r="CEY1" s="4"/>
-      <c r="CEZ1" s="4"/>
-      <c r="CFA1" s="4"/>
-      <c r="CFB1" s="4"/>
-      <c r="CFC1" s="4"/>
-      <c r="CFD1" s="4"/>
-      <c r="CFE1" s="4"/>
-      <c r="CFF1" s="4"/>
-      <c r="CFG1" s="4"/>
-      <c r="CFH1" s="4"/>
-      <c r="CFI1" s="4"/>
-      <c r="CFJ1" s="4"/>
-      <c r="CFK1" s="4"/>
-      <c r="CFL1" s="4"/>
-      <c r="CFM1" s="4"/>
-      <c r="CFN1" s="4"/>
-      <c r="CFO1" s="4"/>
-      <c r="CFP1" s="4"/>
-      <c r="CFQ1" s="4"/>
-      <c r="CFR1" s="4"/>
-      <c r="CFS1" s="4"/>
-      <c r="CFT1" s="4"/>
-      <c r="CFU1" s="4"/>
-      <c r="CFV1" s="4"/>
-      <c r="CFW1" s="4"/>
-      <c r="CFX1" s="4"/>
-      <c r="CFY1" s="4"/>
-      <c r="CFZ1" s="4"/>
-      <c r="CGA1" s="4"/>
-      <c r="CGB1" s="4"/>
-      <c r="CGC1" s="4"/>
-      <c r="CGD1" s="4"/>
-      <c r="CGE1" s="4"/>
-      <c r="CGF1" s="4"/>
-      <c r="CGG1" s="4"/>
-      <c r="CGH1" s="4"/>
-      <c r="CGI1" s="4"/>
-      <c r="CGJ1" s="4"/>
-      <c r="CGK1" s="4"/>
-      <c r="CGL1" s="4"/>
-      <c r="CGM1" s="4"/>
-      <c r="CGN1" s="4"/>
-      <c r="CGO1" s="4"/>
-      <c r="CGP1" s="4"/>
-      <c r="CGQ1" s="4"/>
-      <c r="CGR1" s="4"/>
-      <c r="CGS1" s="4"/>
-      <c r="CGT1" s="4"/>
-      <c r="CGU1" s="4"/>
-      <c r="CGV1" s="4"/>
-      <c r="CGW1" s="4"/>
-      <c r="CGX1" s="4"/>
-      <c r="CGY1" s="4"/>
-      <c r="CGZ1" s="4"/>
-      <c r="CHA1" s="4"/>
-      <c r="CHB1" s="4"/>
-      <c r="CHC1" s="4"/>
-      <c r="CHD1" s="4"/>
-      <c r="CHE1" s="4"/>
-      <c r="CHF1" s="4"/>
-      <c r="CHG1" s="4"/>
-      <c r="CHH1" s="4"/>
-      <c r="CHI1" s="4"/>
-      <c r="CHJ1" s="4"/>
-      <c r="CHK1" s="4"/>
-      <c r="CHL1" s="4"/>
-      <c r="CHM1" s="4"/>
-      <c r="CHN1" s="4"/>
-      <c r="CHO1" s="4"/>
-      <c r="CHP1" s="4"/>
-      <c r="CHQ1" s="4"/>
-      <c r="CHR1" s="4"/>
-      <c r="CHS1" s="4"/>
-      <c r="CHT1" s="4"/>
-      <c r="CHU1" s="4"/>
-      <c r="CHV1" s="4"/>
-      <c r="CHW1" s="4"/>
-      <c r="CHX1" s="4"/>
-      <c r="CHY1" s="4"/>
-      <c r="CHZ1" s="4"/>
-      <c r="CIA1" s="4"/>
-      <c r="CIB1" s="4"/>
-      <c r="CIC1" s="4"/>
-      <c r="CID1" s="4"/>
-      <c r="CIE1" s="4"/>
-      <c r="CIF1" s="4"/>
-      <c r="CIG1" s="4"/>
-      <c r="CIH1" s="4"/>
-      <c r="CII1" s="4"/>
-      <c r="CIJ1" s="4"/>
-      <c r="CIK1" s="4"/>
-      <c r="CIL1" s="4"/>
-      <c r="CIM1" s="4"/>
-      <c r="CIN1" s="4"/>
-      <c r="CIO1" s="4"/>
-      <c r="CIP1" s="4"/>
-      <c r="CIQ1" s="4"/>
-      <c r="CIR1" s="4"/>
-      <c r="CIS1" s="4"/>
-      <c r="CIT1" s="4"/>
-      <c r="CIU1" s="4"/>
-      <c r="CIV1" s="4"/>
-      <c r="CIW1" s="4"/>
-      <c r="CIX1" s="4"/>
-      <c r="CIY1" s="4"/>
-      <c r="CIZ1" s="4"/>
-      <c r="CJA1" s="4"/>
-      <c r="CJB1" s="4"/>
-      <c r="CJC1" s="4"/>
-      <c r="CJD1" s="4"/>
-      <c r="CJE1" s="4"/>
-      <c r="CJF1" s="4"/>
-      <c r="CJG1" s="4"/>
-      <c r="CJH1" s="4"/>
-      <c r="CJI1" s="4"/>
-      <c r="CJJ1" s="4"/>
-      <c r="CJK1" s="4"/>
-      <c r="CJL1" s="4"/>
-      <c r="CJM1" s="4"/>
-      <c r="CJN1" s="4"/>
-      <c r="CJO1" s="4"/>
-      <c r="CJP1" s="4"/>
-      <c r="CJQ1" s="4"/>
-      <c r="CJR1" s="4"/>
-      <c r="CJS1" s="4"/>
-      <c r="CJT1" s="4"/>
-      <c r="CJU1" s="4"/>
-      <c r="CJV1" s="4"/>
-      <c r="CJW1" s="4"/>
-      <c r="CJX1" s="4"/>
-      <c r="CJY1" s="4"/>
-      <c r="CJZ1" s="4"/>
-      <c r="CKA1" s="4"/>
-      <c r="CKB1" s="4"/>
-      <c r="CKC1" s="4"/>
-      <c r="CKD1" s="4"/>
-      <c r="CKE1" s="4"/>
-      <c r="CKF1" s="4"/>
-      <c r="CKG1" s="4"/>
-      <c r="CKH1" s="4"/>
-      <c r="CKI1" s="4"/>
-      <c r="CKJ1" s="4"/>
-      <c r="CKK1" s="4"/>
-      <c r="CKL1" s="4"/>
-      <c r="CKM1" s="4"/>
-      <c r="CKN1" s="4"/>
-      <c r="CKO1" s="4"/>
-      <c r="CKP1" s="4"/>
-      <c r="CKQ1" s="4"/>
-      <c r="CKR1" s="4"/>
-      <c r="CKS1" s="4"/>
-      <c r="CKT1" s="4"/>
-      <c r="CKU1" s="4"/>
-      <c r="CKV1" s="4"/>
-      <c r="CKW1" s="4"/>
-      <c r="CKX1" s="4"/>
-      <c r="CKY1" s="4"/>
-      <c r="CKZ1" s="4"/>
-      <c r="CLA1" s="4"/>
-      <c r="CLB1" s="4"/>
-      <c r="CLC1" s="4"/>
-      <c r="CLD1" s="4"/>
-      <c r="CLE1" s="4"/>
-      <c r="CLF1" s="4"/>
-      <c r="CLG1" s="4"/>
-      <c r="CLH1" s="4"/>
-      <c r="CLI1" s="4"/>
-      <c r="CLJ1" s="4"/>
-      <c r="CLK1" s="4"/>
-      <c r="CLL1" s="4"/>
-      <c r="CLM1" s="4"/>
-      <c r="CLN1" s="4"/>
-      <c r="CLO1" s="4"/>
-      <c r="CLP1" s="4"/>
-      <c r="CLQ1" s="4"/>
-      <c r="CLR1" s="4"/>
-      <c r="CLS1" s="4"/>
-      <c r="CLT1" s="4"/>
-      <c r="CLU1" s="4"/>
-      <c r="CLV1" s="4"/>
-      <c r="CLW1" s="4"/>
-      <c r="CLX1" s="4"/>
-      <c r="CLY1" s="4"/>
-      <c r="CLZ1" s="4"/>
-      <c r="CMA1" s="4"/>
-      <c r="CMB1" s="4"/>
-      <c r="CMC1" s="4"/>
-      <c r="CMD1" s="4"/>
-      <c r="CME1" s="4"/>
-      <c r="CMF1" s="4"/>
-      <c r="CMG1" s="4"/>
-      <c r="CMH1" s="4"/>
-      <c r="CMI1" s="4"/>
-      <c r="CMJ1" s="4"/>
-      <c r="CMK1" s="4"/>
-      <c r="CML1" s="4"/>
-      <c r="CMM1" s="4"/>
-      <c r="CMN1" s="4"/>
-      <c r="CMO1" s="4"/>
-      <c r="CMP1" s="4"/>
-      <c r="CMQ1" s="4"/>
-      <c r="CMR1" s="4"/>
-      <c r="CMS1" s="4"/>
-      <c r="CMT1" s="4"/>
-      <c r="CMU1" s="4"/>
-      <c r="CMV1" s="4"/>
-      <c r="CMW1" s="4"/>
-      <c r="CMX1" s="4"/>
-      <c r="CMY1" s="4"/>
-      <c r="CMZ1" s="4"/>
-      <c r="CNA1" s="4"/>
-      <c r="CNB1" s="4"/>
-      <c r="CNC1" s="4"/>
-      <c r="CND1" s="4"/>
-      <c r="CNE1" s="4"/>
-      <c r="CNF1" s="4"/>
-      <c r="CNG1" s="4"/>
-      <c r="CNH1" s="4"/>
-      <c r="CNI1" s="4"/>
-      <c r="CNJ1" s="4"/>
-      <c r="CNK1" s="4"/>
-      <c r="CNL1" s="4"/>
-      <c r="CNM1" s="4"/>
-      <c r="CNN1" s="4"/>
-      <c r="CNO1" s="4"/>
-      <c r="CNP1" s="4"/>
-      <c r="CNQ1" s="4"/>
-      <c r="CNR1" s="4"/>
-      <c r="CNS1" s="4"/>
-      <c r="CNT1" s="4"/>
-      <c r="CNU1" s="4"/>
-      <c r="CNV1" s="4"/>
-      <c r="CNW1" s="4"/>
-      <c r="CNX1" s="4"/>
-      <c r="CNY1" s="4"/>
-      <c r="CNZ1" s="4"/>
-      <c r="COA1" s="4"/>
-      <c r="COB1" s="4"/>
-      <c r="COC1" s="4"/>
-      <c r="COD1" s="4"/>
-      <c r="COE1" s="4"/>
-      <c r="COF1" s="4"/>
-      <c r="COG1" s="4"/>
-      <c r="COH1" s="4"/>
-      <c r="COI1" s="4"/>
-      <c r="COJ1" s="4"/>
-      <c r="COK1" s="4"/>
-      <c r="COL1" s="4"/>
-      <c r="COM1" s="4"/>
-      <c r="CON1" s="4"/>
-      <c r="COO1" s="4"/>
-      <c r="COP1" s="4"/>
-      <c r="COQ1" s="4"/>
-      <c r="COR1" s="4"/>
-      <c r="COS1" s="4"/>
-      <c r="COT1" s="4"/>
-      <c r="COU1" s="4"/>
-      <c r="COV1" s="4"/>
-      <c r="COW1" s="4"/>
-      <c r="COX1" s="4"/>
-      <c r="COY1" s="4"/>
-      <c r="COZ1" s="4"/>
-      <c r="CPA1" s="4"/>
-      <c r="CPB1" s="4"/>
-      <c r="CPC1" s="4"/>
-      <c r="CPD1" s="4"/>
-      <c r="CPE1" s="4"/>
-      <c r="CPF1" s="4"/>
-      <c r="CPG1" s="4"/>
-      <c r="CPH1" s="4"/>
-      <c r="CPI1" s="4"/>
-      <c r="CPJ1" s="4"/>
-      <c r="CPK1" s="4"/>
-      <c r="CPL1" s="4"/>
-      <c r="CPM1" s="4"/>
-      <c r="CPN1" s="4"/>
-      <c r="CPO1" s="4"/>
-      <c r="CPP1" s="4"/>
-      <c r="CPQ1" s="4"/>
-      <c r="CPR1" s="4"/>
-      <c r="CPS1" s="4"/>
-      <c r="CPT1" s="4"/>
-      <c r="CPU1" s="4"/>
-      <c r="CPV1" s="4"/>
-      <c r="CPW1" s="4"/>
-      <c r="CPX1" s="4"/>
-      <c r="CPY1" s="4"/>
-      <c r="CPZ1" s="4"/>
-      <c r="CQA1" s="4"/>
-      <c r="CQB1" s="4"/>
-      <c r="CQC1" s="4"/>
-      <c r="CQD1" s="4"/>
-      <c r="CQE1" s="4"/>
-      <c r="CQF1" s="4"/>
-      <c r="CQG1" s="4"/>
-      <c r="CQH1" s="4"/>
-      <c r="CQI1" s="4"/>
-      <c r="CQJ1" s="4"/>
-      <c r="CQK1" s="4"/>
-      <c r="CQL1" s="4"/>
-      <c r="CQM1" s="4"/>
-      <c r="CQN1" s="4"/>
-      <c r="CQO1" s="4"/>
-      <c r="CQP1" s="4"/>
-      <c r="CQQ1" s="4"/>
-      <c r="CQR1" s="4"/>
-      <c r="CQS1" s="4"/>
-      <c r="CQT1" s="4"/>
-      <c r="CQU1" s="4"/>
-      <c r="CQV1" s="4"/>
-      <c r="CQW1" s="4"/>
-      <c r="CQX1" s="4"/>
-      <c r="CQY1" s="4"/>
-      <c r="CQZ1" s="4"/>
-      <c r="CRA1" s="4"/>
-      <c r="CRB1" s="4"/>
-      <c r="CRC1" s="4"/>
-      <c r="CRD1" s="4"/>
-      <c r="CRE1" s="4"/>
-      <c r="CRF1" s="4"/>
-      <c r="CRG1" s="4"/>
-      <c r="CRH1" s="4"/>
-      <c r="CRI1" s="4"/>
-      <c r="CRJ1" s="4"/>
-      <c r="CRK1" s="4"/>
-      <c r="CRL1" s="4"/>
-      <c r="CRM1" s="4"/>
-      <c r="CRN1" s="4"/>
-      <c r="CRO1" s="4"/>
-      <c r="CRP1" s="4"/>
-      <c r="CRQ1" s="4"/>
-      <c r="CRR1" s="4"/>
-      <c r="CRS1" s="4"/>
-      <c r="CRT1" s="4"/>
-      <c r="CRU1" s="4"/>
-      <c r="CRV1" s="4"/>
-      <c r="CRW1" s="4"/>
-      <c r="CRX1" s="4"/>
-      <c r="CRY1" s="4"/>
-      <c r="CRZ1" s="4"/>
-      <c r="CSA1" s="4"/>
-      <c r="CSB1" s="4"/>
-      <c r="CSC1" s="4"/>
-      <c r="CSD1" s="4"/>
-      <c r="CSE1" s="4"/>
-      <c r="CSF1" s="4"/>
-      <c r="CSG1" s="4"/>
-      <c r="CSH1" s="4"/>
-      <c r="CSI1" s="4"/>
-      <c r="CSJ1" s="4"/>
-      <c r="CSK1" s="4"/>
-      <c r="CSL1" s="4"/>
-      <c r="CSM1" s="4"/>
-      <c r="CSN1" s="4"/>
-      <c r="CSO1" s="4"/>
-      <c r="CSP1" s="4"/>
-      <c r="CSQ1" s="4"/>
-      <c r="CSR1" s="4"/>
-      <c r="CSS1" s="4"/>
-      <c r="CST1" s="4"/>
-      <c r="CSU1" s="4"/>
-      <c r="CSV1" s="4"/>
-      <c r="CSW1" s="4"/>
-      <c r="CSX1" s="4"/>
-      <c r="CSY1" s="4"/>
-      <c r="CSZ1" s="4"/>
-      <c r="CTA1" s="4"/>
-      <c r="CTB1" s="4"/>
-      <c r="CTC1" s="4"/>
-      <c r="CTD1" s="4"/>
-      <c r="CTE1" s="4"/>
-      <c r="CTF1" s="4"/>
-      <c r="CTG1" s="4"/>
-      <c r="CTH1" s="4"/>
-      <c r="CTI1" s="4"/>
-      <c r="CTJ1" s="4"/>
-      <c r="CTK1" s="4"/>
-      <c r="CTL1" s="4"/>
-      <c r="CTM1" s="4"/>
-      <c r="CTN1" s="4"/>
-      <c r="CTO1" s="4"/>
-      <c r="CTP1" s="4"/>
-      <c r="CTQ1" s="4"/>
-      <c r="CTR1" s="4"/>
-      <c r="CTS1" s="4"/>
-      <c r="CTT1" s="4"/>
-      <c r="CTU1" s="4"/>
-      <c r="CTV1" s="4"/>
-      <c r="CTW1" s="4"/>
-      <c r="CTX1" s="4"/>
-      <c r="CTY1" s="4"/>
-      <c r="CTZ1" s="4"/>
-    </row>
-    <row r="2" spans="1:2574" s="2" customFormat="1" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
-      <c r="DM2" s="4"/>
-      <c r="DN2" s="4"/>
-      <c r="DO2" s="4"/>
-      <c r="DP2" s="4"/>
-      <c r="DQ2" s="4"/>
-      <c r="DR2" s="4"/>
-      <c r="DS2" s="4"/>
-      <c r="DT2" s="4"/>
-      <c r="DU2" s="4"/>
-      <c r="DV2" s="4"/>
-      <c r="DW2" s="4"/>
-      <c r="DX2" s="4"/>
-      <c r="DY2" s="4"/>
-      <c r="DZ2" s="4"/>
-      <c r="EA2" s="4"/>
-      <c r="EB2" s="4"/>
-      <c r="EC2" s="4"/>
-      <c r="ED2" s="4"/>
-      <c r="EE2" s="4"/>
-      <c r="EF2" s="4"/>
-      <c r="EG2" s="4"/>
-      <c r="EH2" s="4"/>
-      <c r="EI2" s="4"/>
-      <c r="EJ2" s="4"/>
-      <c r="EK2" s="4"/>
-      <c r="EL2" s="4"/>
-      <c r="EM2" s="4"/>
-      <c r="EN2" s="4"/>
-      <c r="EO2" s="4"/>
-      <c r="EP2" s="4"/>
-      <c r="EQ2" s="4"/>
-      <c r="ER2" s="4"/>
-      <c r="ES2" s="4"/>
-      <c r="ET2" s="4"/>
-      <c r="EU2" s="4"/>
-      <c r="EV2" s="4"/>
-      <c r="EW2" s="4"/>
-      <c r="EX2" s="4"/>
-      <c r="EY2" s="4"/>
-      <c r="EZ2" s="4"/>
-      <c r="FA2" s="4"/>
-      <c r="FB2" s="4"/>
-      <c r="FC2" s="4"/>
-      <c r="FD2" s="4"/>
-      <c r="FE2" s="4"/>
-      <c r="FF2" s="4"/>
-      <c r="FG2" s="4"/>
-      <c r="FH2" s="4"/>
-      <c r="FI2" s="4"/>
-      <c r="FJ2" s="4"/>
-      <c r="FK2" s="4"/>
-      <c r="FL2" s="4"/>
-      <c r="FM2" s="4"/>
-      <c r="FN2" s="4"/>
-      <c r="FO2" s="4"/>
-      <c r="FP2" s="4"/>
-      <c r="FQ2" s="4"/>
-      <c r="FR2" s="4"/>
-      <c r="FS2" s="4"/>
-      <c r="FT2" s="4"/>
-      <c r="FU2" s="4"/>
-      <c r="FV2" s="4"/>
-      <c r="FW2" s="4"/>
-      <c r="FX2" s="4"/>
-      <c r="FY2" s="4"/>
-      <c r="FZ2" s="4"/>
-      <c r="GA2" s="4"/>
-      <c r="GB2" s="4"/>
-      <c r="GC2" s="4"/>
-      <c r="GD2" s="4"/>
-      <c r="GE2" s="4"/>
-      <c r="GF2" s="4"/>
-      <c r="GG2" s="4"/>
-      <c r="GH2" s="4"/>
-      <c r="GI2" s="4"/>
-      <c r="GJ2" s="4"/>
-      <c r="GK2" s="4"/>
-      <c r="GL2" s="4"/>
-      <c r="GM2" s="4"/>
-      <c r="GN2" s="4"/>
-      <c r="GO2" s="4"/>
-      <c r="GP2" s="4"/>
-      <c r="GQ2" s="4"/>
-      <c r="GR2" s="4"/>
-      <c r="GS2" s="4"/>
-      <c r="GT2" s="4"/>
-      <c r="GU2" s="4"/>
-      <c r="GV2" s="4"/>
-      <c r="GW2" s="4"/>
-      <c r="GX2" s="4"/>
-      <c r="GY2" s="4"/>
-      <c r="GZ2" s="4"/>
-      <c r="HA2" s="4"/>
-      <c r="HB2" s="4"/>
-      <c r="HC2" s="4"/>
-      <c r="HD2" s="4"/>
-      <c r="HE2" s="4"/>
-      <c r="HF2" s="4"/>
-      <c r="HG2" s="4"/>
-      <c r="HH2" s="4"/>
-      <c r="HI2" s="4"/>
-      <c r="HJ2" s="4"/>
-      <c r="HK2" s="4"/>
-      <c r="HL2" s="4"/>
-      <c r="HM2" s="4"/>
-      <c r="HN2" s="4"/>
-      <c r="HO2" s="4"/>
-      <c r="HP2" s="4"/>
-      <c r="HQ2" s="4"/>
-      <c r="HR2" s="4"/>
-      <c r="HS2" s="4"/>
-      <c r="HT2" s="4"/>
-      <c r="HU2" s="4"/>
-      <c r="HV2" s="4"/>
-      <c r="HW2" s="4"/>
-      <c r="HX2" s="4"/>
-      <c r="HY2" s="4"/>
-      <c r="HZ2" s="4"/>
-      <c r="IA2" s="4"/>
-      <c r="IB2" s="4"/>
-      <c r="IC2" s="4"/>
-      <c r="ID2" s="4"/>
-      <c r="IE2" s="4"/>
-      <c r="IF2" s="4"/>
-      <c r="IG2" s="4"/>
-      <c r="IH2" s="4"/>
-      <c r="II2" s="4"/>
-      <c r="IJ2" s="4"/>
-      <c r="IK2" s="4"/>
-      <c r="IL2" s="4"/>
-      <c r="IM2" s="4"/>
-      <c r="IN2" s="4"/>
-      <c r="IO2" s="4"/>
-      <c r="IP2" s="4"/>
-      <c r="IQ2" s="4"/>
-      <c r="IR2" s="4"/>
-      <c r="IS2" s="4"/>
-      <c r="IT2" s="4"/>
-      <c r="IU2" s="4"/>
-      <c r="IV2" s="4"/>
-      <c r="IW2" s="4"/>
-      <c r="IX2" s="4"/>
-      <c r="IY2" s="4"/>
-      <c r="IZ2" s="4"/>
-      <c r="JA2" s="4"/>
-      <c r="JB2" s="4"/>
-      <c r="JC2" s="4"/>
-      <c r="JD2" s="4"/>
-      <c r="JE2" s="4"/>
-      <c r="JF2" s="4"/>
-      <c r="JG2" s="4"/>
-      <c r="JH2" s="4"/>
-      <c r="JI2" s="4"/>
-      <c r="JJ2" s="4"/>
-      <c r="JK2" s="4"/>
-      <c r="JL2" s="4"/>
-      <c r="JM2" s="4"/>
-      <c r="JN2" s="4"/>
-      <c r="JO2" s="4"/>
-      <c r="JP2" s="4"/>
-      <c r="JQ2" s="4"/>
-      <c r="JR2" s="4"/>
-      <c r="JS2" s="4"/>
-      <c r="JT2" s="4"/>
-      <c r="JU2" s="4"/>
-      <c r="JV2" s="4"/>
-      <c r="JW2" s="4"/>
-      <c r="JX2" s="4"/>
-      <c r="JY2" s="4"/>
-      <c r="JZ2" s="4"/>
-      <c r="KA2" s="4"/>
-      <c r="KB2" s="4"/>
-      <c r="KC2" s="4"/>
-      <c r="KD2" s="4"/>
-      <c r="KE2" s="4"/>
-      <c r="KF2" s="4"/>
-      <c r="KG2" s="4"/>
-      <c r="KH2" s="4"/>
-      <c r="KI2" s="4"/>
-      <c r="KJ2" s="4"/>
-      <c r="KK2" s="4"/>
-      <c r="KL2" s="4"/>
-      <c r="KM2" s="4"/>
-      <c r="KN2" s="4"/>
-      <c r="KO2" s="4"/>
-      <c r="KP2" s="4"/>
-      <c r="KQ2" s="4"/>
-      <c r="KR2" s="4"/>
-      <c r="KS2" s="4"/>
-      <c r="KT2" s="4"/>
-      <c r="KU2" s="4"/>
-      <c r="KV2" s="4"/>
-      <c r="KW2" s="4"/>
-      <c r="KX2" s="4"/>
-      <c r="KY2" s="4"/>
-      <c r="KZ2" s="4"/>
-      <c r="LA2" s="4"/>
-      <c r="LB2" s="4"/>
-      <c r="LC2" s="4"/>
-      <c r="LD2" s="4"/>
-      <c r="LE2" s="4"/>
-      <c r="LF2" s="4"/>
-      <c r="LG2" s="4"/>
-      <c r="LH2" s="4"/>
-      <c r="LI2" s="4"/>
-      <c r="LJ2" s="4"/>
-      <c r="LK2" s="4"/>
-      <c r="LL2" s="4"/>
-      <c r="LM2" s="4"/>
-      <c r="LN2" s="4"/>
-      <c r="LO2" s="4"/>
-      <c r="LP2" s="4"/>
-      <c r="LQ2" s="4"/>
-      <c r="LR2" s="4"/>
-      <c r="LS2" s="4"/>
-      <c r="LT2" s="4"/>
-      <c r="LU2" s="4"/>
-      <c r="LV2" s="4"/>
-      <c r="LW2" s="4"/>
-      <c r="LX2" s="4"/>
-      <c r="LY2" s="4"/>
-      <c r="LZ2" s="4"/>
-      <c r="MA2" s="4"/>
-      <c r="MB2" s="4"/>
-      <c r="MC2" s="4"/>
-      <c r="MD2" s="4"/>
-      <c r="ME2" s="4"/>
-      <c r="MF2" s="4"/>
-      <c r="MG2" s="4"/>
-      <c r="MH2" s="4"/>
-      <c r="MI2" s="4"/>
-      <c r="MJ2" s="4"/>
-      <c r="MK2" s="4"/>
-      <c r="ML2" s="4"/>
-      <c r="MM2" s="4"/>
-      <c r="MN2" s="4"/>
-      <c r="MO2" s="4"/>
-      <c r="MP2" s="4"/>
-      <c r="MQ2" s="4"/>
-      <c r="MR2" s="4"/>
-      <c r="MS2" s="4"/>
-      <c r="MT2" s="4"/>
-      <c r="MU2" s="4"/>
-      <c r="MV2" s="4"/>
-      <c r="MW2" s="4"/>
-      <c r="MX2" s="4"/>
-      <c r="MY2" s="4"/>
-      <c r="MZ2" s="4"/>
-      <c r="NA2" s="4"/>
-      <c r="NB2" s="4"/>
-      <c r="NC2" s="4"/>
-      <c r="ND2" s="4"/>
-      <c r="NE2" s="4"/>
-      <c r="NF2" s="4"/>
-      <c r="NG2" s="4"/>
-      <c r="NH2" s="4"/>
-      <c r="NI2" s="4"/>
-      <c r="NJ2" s="4"/>
-      <c r="NK2" s="4"/>
-      <c r="NL2" s="4"/>
-      <c r="NM2" s="4"/>
-      <c r="NN2" s="4"/>
-      <c r="NO2" s="4"/>
-      <c r="NP2" s="4"/>
-      <c r="NQ2" s="4"/>
-      <c r="NR2" s="4"/>
-      <c r="NS2" s="4"/>
-      <c r="NT2" s="4"/>
-      <c r="NU2" s="4"/>
-      <c r="NV2" s="4"/>
-      <c r="NW2" s="4"/>
-      <c r="NX2" s="4"/>
-      <c r="NY2" s="4"/>
-      <c r="NZ2" s="4"/>
-      <c r="OA2" s="4"/>
-      <c r="OB2" s="4"/>
-      <c r="OC2" s="4"/>
-      <c r="OD2" s="4"/>
-      <c r="OE2" s="4"/>
-      <c r="OF2" s="4"/>
-      <c r="OG2" s="4"/>
-      <c r="OH2" s="4"/>
-      <c r="OI2" s="4"/>
-      <c r="OJ2" s="4"/>
-      <c r="OK2" s="4"/>
-      <c r="OL2" s="4"/>
-      <c r="OM2" s="4"/>
-      <c r="ON2" s="4"/>
-      <c r="OO2" s="4"/>
-      <c r="OP2" s="4"/>
-      <c r="OQ2" s="4"/>
-      <c r="OR2" s="4"/>
-      <c r="OS2" s="4"/>
-      <c r="OT2" s="4"/>
-      <c r="OU2" s="4"/>
-      <c r="OV2" s="4"/>
-      <c r="OW2" s="4"/>
-      <c r="OX2" s="4"/>
-      <c r="OY2" s="4"/>
-      <c r="OZ2" s="4"/>
-      <c r="PA2" s="4"/>
-      <c r="PB2" s="4"/>
-      <c r="PC2" s="4"/>
-      <c r="PD2" s="4"/>
-      <c r="PE2" s="4"/>
-      <c r="PF2" s="4"/>
-      <c r="PG2" s="4"/>
-      <c r="PH2" s="4"/>
-      <c r="PI2" s="4"/>
-      <c r="PJ2" s="4"/>
-      <c r="PK2" s="4"/>
-      <c r="PL2" s="4"/>
-      <c r="PM2" s="4"/>
-      <c r="PN2" s="4"/>
-      <c r="PO2" s="4"/>
-      <c r="PP2" s="4"/>
-      <c r="PQ2" s="4"/>
-      <c r="PR2" s="4"/>
-      <c r="PS2" s="4"/>
-      <c r="PT2" s="4"/>
-      <c r="PU2" s="4"/>
-      <c r="PV2" s="4"/>
-      <c r="PW2" s="4"/>
-      <c r="PX2" s="4"/>
-      <c r="PY2" s="4"/>
-      <c r="PZ2" s="4"/>
-      <c r="QA2" s="4"/>
-      <c r="QB2" s="4"/>
-      <c r="QC2" s="4"/>
-      <c r="QD2" s="4"/>
-      <c r="QE2" s="4"/>
-      <c r="QF2" s="4"/>
-      <c r="QG2" s="4"/>
-      <c r="QH2" s="4"/>
-      <c r="QI2" s="4"/>
-      <c r="QJ2" s="4"/>
-      <c r="QK2" s="4"/>
-      <c r="QL2" s="4"/>
-      <c r="QM2" s="4"/>
-      <c r="QN2" s="4"/>
-      <c r="QO2" s="4"/>
-      <c r="QP2" s="4"/>
-      <c r="QQ2" s="4"/>
-      <c r="QR2" s="4"/>
-      <c r="QS2" s="4"/>
-      <c r="QT2" s="4"/>
-      <c r="QU2" s="4"/>
-      <c r="QV2" s="4"/>
-      <c r="QW2" s="4"/>
-      <c r="QX2" s="4"/>
-      <c r="QY2" s="4"/>
-      <c r="QZ2" s="4"/>
-      <c r="RA2" s="4"/>
-      <c r="RB2" s="4"/>
-      <c r="RC2" s="4"/>
-      <c r="RD2" s="4"/>
-      <c r="RE2" s="4"/>
-      <c r="RF2" s="4"/>
-      <c r="RG2" s="4"/>
-      <c r="RH2" s="4"/>
-      <c r="RI2" s="4"/>
-      <c r="RJ2" s="4"/>
-      <c r="RK2" s="4"/>
-      <c r="RL2" s="4"/>
-      <c r="RM2" s="4"/>
-      <c r="RN2" s="4"/>
-      <c r="RO2" s="4"/>
-      <c r="RP2" s="4"/>
-      <c r="RQ2" s="4"/>
-      <c r="RR2" s="4"/>
-      <c r="RS2" s="4"/>
-      <c r="RT2" s="4"/>
-      <c r="RU2" s="4"/>
-      <c r="RV2" s="4"/>
-      <c r="RW2" s="4"/>
-      <c r="RX2" s="4"/>
-      <c r="RY2" s="4"/>
-      <c r="RZ2" s="4"/>
-      <c r="SA2" s="4"/>
-      <c r="SB2" s="4"/>
-      <c r="SC2" s="4"/>
-      <c r="SD2" s="4"/>
-      <c r="SE2" s="4"/>
-      <c r="SF2" s="4"/>
-      <c r="SG2" s="4"/>
-      <c r="SH2" s="4"/>
-      <c r="SI2" s="4"/>
-      <c r="SJ2" s="4"/>
-      <c r="SK2" s="4"/>
-      <c r="SL2" s="4"/>
-      <c r="SM2" s="4"/>
-      <c r="SN2" s="4"/>
-      <c r="SO2" s="4"/>
-      <c r="SP2" s="4"/>
-      <c r="SQ2" s="4"/>
-      <c r="SR2" s="4"/>
-      <c r="SS2" s="4"/>
-      <c r="ST2" s="4"/>
-      <c r="SU2" s="4"/>
-      <c r="SV2" s="4"/>
-      <c r="SW2" s="4"/>
-      <c r="SX2" s="4"/>
-      <c r="SY2" s="4"/>
-      <c r="SZ2" s="4"/>
-      <c r="TA2" s="4"/>
-      <c r="TB2" s="4"/>
-      <c r="TC2" s="4"/>
-      <c r="TD2" s="4"/>
-      <c r="TE2" s="4"/>
-      <c r="TF2" s="4"/>
-      <c r="TG2" s="4"/>
-      <c r="TH2" s="4"/>
-      <c r="TI2" s="4"/>
-      <c r="TJ2" s="4"/>
-      <c r="TK2" s="4"/>
-      <c r="TL2" s="4"/>
-      <c r="TM2" s="4"/>
-      <c r="TN2" s="4"/>
-      <c r="TO2" s="4"/>
-      <c r="TP2" s="4"/>
-      <c r="TQ2" s="4"/>
-      <c r="TR2" s="4"/>
-      <c r="TS2" s="4"/>
-      <c r="TT2" s="4"/>
-      <c r="TU2" s="4"/>
-      <c r="TV2" s="4"/>
-      <c r="TW2" s="4"/>
-      <c r="TX2" s="4"/>
-      <c r="TY2" s="4"/>
-      <c r="TZ2" s="4"/>
-      <c r="UA2" s="4"/>
-      <c r="UB2" s="4"/>
-      <c r="UC2" s="4"/>
-      <c r="UD2" s="4"/>
-      <c r="UE2" s="4"/>
-      <c r="UF2" s="4"/>
-      <c r="UG2" s="4"/>
-      <c r="UH2" s="4"/>
-      <c r="UI2" s="4"/>
-      <c r="UJ2" s="4"/>
-      <c r="UK2" s="4"/>
-      <c r="UL2" s="4"/>
-      <c r="UM2" s="4"/>
-      <c r="UN2" s="4"/>
-      <c r="UO2" s="4"/>
-      <c r="UP2" s="4"/>
-      <c r="UQ2" s="4"/>
-      <c r="UR2" s="4"/>
-      <c r="US2" s="4"/>
-      <c r="UT2" s="4"/>
-      <c r="UU2" s="4"/>
-      <c r="UV2" s="4"/>
-      <c r="UW2" s="4"/>
-      <c r="UX2" s="4"/>
-      <c r="UY2" s="4"/>
-      <c r="UZ2" s="4"/>
-      <c r="VA2" s="4"/>
-      <c r="VB2" s="4"/>
-      <c r="VC2" s="4"/>
-      <c r="VD2" s="4"/>
-      <c r="VE2" s="4"/>
-      <c r="VF2" s="4"/>
-      <c r="VG2" s="4"/>
-      <c r="VH2" s="4"/>
-      <c r="VI2" s="4"/>
-      <c r="VJ2" s="4"/>
-      <c r="VK2" s="4"/>
-      <c r="VL2" s="4"/>
-      <c r="VM2" s="4"/>
-      <c r="VN2" s="4"/>
-      <c r="VO2" s="4"/>
-      <c r="VP2" s="4"/>
-      <c r="VQ2" s="4"/>
-      <c r="VR2" s="4"/>
-      <c r="VS2" s="4"/>
-      <c r="VT2" s="4"/>
-      <c r="VU2" s="4"/>
-      <c r="VV2" s="4"/>
-      <c r="VW2" s="4"/>
-      <c r="VX2" s="4"/>
-      <c r="VY2" s="4"/>
-      <c r="VZ2" s="4"/>
-      <c r="WA2" s="4"/>
-      <c r="WB2" s="4"/>
-      <c r="WC2" s="4"/>
-      <c r="WD2" s="4"/>
-      <c r="WE2" s="4"/>
-      <c r="WF2" s="4"/>
-      <c r="WG2" s="4"/>
-      <c r="WH2" s="4"/>
-      <c r="WI2" s="4"/>
-      <c r="WJ2" s="4"/>
-      <c r="WK2" s="4"/>
-      <c r="WL2" s="4"/>
-      <c r="WM2" s="4"/>
-      <c r="WN2" s="4"/>
-      <c r="WO2" s="4"/>
-      <c r="WP2" s="4"/>
-      <c r="WQ2" s="4"/>
-      <c r="WR2" s="4"/>
-      <c r="WS2" s="4"/>
-      <c r="WT2" s="4"/>
-      <c r="WU2" s="4"/>
-      <c r="WV2" s="4"/>
-      <c r="WW2" s="4"/>
-      <c r="WX2" s="4"/>
-      <c r="WY2" s="4"/>
-      <c r="WZ2" s="4"/>
-      <c r="XA2" s="4"/>
-      <c r="XB2" s="4"/>
-      <c r="XC2" s="4"/>
-      <c r="XD2" s="4"/>
-      <c r="XE2" s="4"/>
-      <c r="XF2" s="4"/>
-      <c r="XG2" s="4"/>
-      <c r="XH2" s="4"/>
-      <c r="XI2" s="4"/>
-      <c r="XJ2" s="4"/>
-      <c r="XK2" s="4"/>
-      <c r="XL2" s="4"/>
-      <c r="XM2" s="4"/>
-      <c r="XN2" s="4"/>
-      <c r="XO2" s="4"/>
-      <c r="XP2" s="4"/>
-      <c r="XQ2" s="4"/>
-      <c r="XR2" s="4"/>
-      <c r="XS2" s="4"/>
-      <c r="XT2" s="4"/>
-      <c r="XU2" s="4"/>
-      <c r="XV2" s="4"/>
-      <c r="XW2" s="4"/>
-      <c r="XX2" s="4"/>
-      <c r="XY2" s="4"/>
-      <c r="XZ2" s="4"/>
-      <c r="YA2" s="4"/>
-      <c r="YB2" s="4"/>
-      <c r="YC2" s="4"/>
-      <c r="YD2" s="4"/>
-      <c r="YE2" s="4"/>
-      <c r="YF2" s="4"/>
-      <c r="YG2" s="4"/>
-      <c r="YH2" s="4"/>
-      <c r="YI2" s="4"/>
-      <c r="YJ2" s="4"/>
-      <c r="YK2" s="4"/>
-      <c r="YL2" s="4"/>
-      <c r="YM2" s="4"/>
-      <c r="YN2" s="4"/>
-      <c r="YO2" s="4"/>
-      <c r="YP2" s="4"/>
-      <c r="YQ2" s="4"/>
-      <c r="YR2" s="4"/>
-      <c r="YS2" s="4"/>
-      <c r="YT2" s="4"/>
-      <c r="YU2" s="4"/>
-      <c r="YV2" s="4"/>
-      <c r="YW2" s="4"/>
-      <c r="YX2" s="4"/>
-      <c r="YY2" s="4"/>
-      <c r="YZ2" s="4"/>
-      <c r="ZA2" s="4"/>
-      <c r="ZB2" s="4"/>
-      <c r="ZC2" s="4"/>
-      <c r="ZD2" s="4"/>
-      <c r="ZE2" s="4"/>
-      <c r="ZF2" s="4"/>
-      <c r="ZG2" s="4"/>
-      <c r="ZH2" s="4"/>
-      <c r="ZI2" s="4"/>
-      <c r="ZJ2" s="4"/>
-      <c r="ZK2" s="4"/>
-      <c r="ZL2" s="4"/>
-      <c r="ZM2" s="4"/>
-      <c r="ZN2" s="4"/>
-      <c r="ZO2" s="4"/>
-      <c r="ZP2" s="4"/>
-      <c r="ZQ2" s="4"/>
-      <c r="ZR2" s="4"/>
-      <c r="ZS2" s="4"/>
-      <c r="ZT2" s="4"/>
-      <c r="ZU2" s="4"/>
-      <c r="ZV2" s="4"/>
-      <c r="ZW2" s="4"/>
-      <c r="ZX2" s="4"/>
-      <c r="ZY2" s="4"/>
-      <c r="ZZ2" s="4"/>
-      <c r="AAA2" s="4"/>
-      <c r="AAB2" s="4"/>
-      <c r="AAC2" s="4"/>
-      <c r="AAD2" s="4"/>
-      <c r="AAE2" s="4"/>
-      <c r="AAF2" s="4"/>
-      <c r="AAG2" s="4"/>
-      <c r="AAH2" s="4"/>
-      <c r="AAI2" s="4"/>
-      <c r="AAJ2" s="4"/>
-      <c r="AAK2" s="4"/>
-      <c r="AAL2" s="4"/>
-      <c r="AAM2" s="4"/>
-      <c r="AAN2" s="4"/>
-      <c r="AAO2" s="4"/>
-      <c r="AAP2" s="4"/>
-      <c r="AAQ2" s="4"/>
-      <c r="AAR2" s="4"/>
-      <c r="AAS2" s="4"/>
-      <c r="AAT2" s="4"/>
-      <c r="AAU2" s="4"/>
-      <c r="AAV2" s="4"/>
-      <c r="AAW2" s="4"/>
-      <c r="AAX2" s="4"/>
-      <c r="AAY2" s="4"/>
-      <c r="AAZ2" s="4"/>
-      <c r="ABA2" s="4"/>
-      <c r="ABB2" s="4"/>
-      <c r="ABC2" s="4"/>
-      <c r="ABD2" s="4"/>
-      <c r="ABE2" s="4"/>
-      <c r="ABF2" s="4"/>
-      <c r="ABG2" s="4"/>
-      <c r="ABH2" s="4"/>
-      <c r="ABI2" s="4"/>
-      <c r="ABJ2" s="4"/>
-      <c r="ABK2" s="4"/>
-      <c r="ABL2" s="4"/>
-      <c r="ABM2" s="4"/>
-      <c r="ABN2" s="4"/>
-      <c r="ABO2" s="4"/>
-      <c r="ABP2" s="4"/>
-      <c r="ABQ2" s="4"/>
-      <c r="ABR2" s="4"/>
-      <c r="ABS2" s="4"/>
-      <c r="ABT2" s="4"/>
-      <c r="ABU2" s="4"/>
-      <c r="ABV2" s="4"/>
-      <c r="ABW2" s="4"/>
-      <c r="ABX2" s="4"/>
-      <c r="ABY2" s="4"/>
-      <c r="ABZ2" s="4"/>
-      <c r="ACA2" s="4"/>
-      <c r="ACB2" s="4"/>
-      <c r="ACC2" s="4"/>
-      <c r="ACD2" s="4"/>
-      <c r="ACE2" s="4"/>
-      <c r="ACF2" s="4"/>
-      <c r="ACG2" s="4"/>
-      <c r="ACH2" s="4"/>
-      <c r="ACI2" s="4"/>
-      <c r="ACJ2" s="4"/>
-      <c r="ACK2" s="4"/>
-      <c r="ACL2" s="4"/>
-      <c r="ACM2" s="4"/>
-      <c r="ACN2" s="4"/>
-      <c r="ACO2" s="4"/>
-      <c r="ACP2" s="4"/>
-      <c r="ACQ2" s="4"/>
-      <c r="ACR2" s="4"/>
-      <c r="ACS2" s="4"/>
-      <c r="ACT2" s="4"/>
-      <c r="ACU2" s="4"/>
-      <c r="ACV2" s="4"/>
-      <c r="ACW2" s="4"/>
-      <c r="ACX2" s="4"/>
-      <c r="ACY2" s="4"/>
-      <c r="ACZ2" s="4"/>
-      <c r="ADA2" s="4"/>
-      <c r="ADB2" s="4"/>
-      <c r="ADC2" s="4"/>
-      <c r="ADD2" s="4"/>
-      <c r="ADE2" s="4"/>
-      <c r="ADF2" s="4"/>
-      <c r="ADG2" s="4"/>
-      <c r="ADH2" s="4"/>
-      <c r="ADI2" s="4"/>
-      <c r="ADJ2" s="4"/>
-      <c r="ADK2" s="4"/>
-      <c r="ADL2" s="4"/>
-      <c r="ADM2" s="4"/>
-      <c r="ADN2" s="4"/>
-      <c r="ADO2" s="4"/>
-      <c r="ADP2" s="4"/>
-      <c r="ADQ2" s="4"/>
-      <c r="ADR2" s="4"/>
-      <c r="ADS2" s="4"/>
-      <c r="ADT2" s="4"/>
-      <c r="ADU2" s="4"/>
-      <c r="ADV2" s="4"/>
-      <c r="ADW2" s="4"/>
-      <c r="ADX2" s="4"/>
-      <c r="ADY2" s="4"/>
-      <c r="ADZ2" s="4"/>
-      <c r="AEA2" s="4"/>
-      <c r="AEB2" s="4"/>
-      <c r="AEC2" s="4"/>
-      <c r="AED2" s="4"/>
-      <c r="AEE2" s="4"/>
-      <c r="AEF2" s="4"/>
-      <c r="AEG2" s="4"/>
-      <c r="AEH2" s="4"/>
-      <c r="AEI2" s="4"/>
-      <c r="AEJ2" s="4"/>
-      <c r="AEK2" s="4"/>
-      <c r="AEL2" s="4"/>
-      <c r="AEM2" s="4"/>
-      <c r="AEN2" s="4"/>
-      <c r="AEO2" s="4"/>
-      <c r="AEP2" s="4"/>
-      <c r="AEQ2" s="4"/>
-      <c r="AER2" s="4"/>
-      <c r="AES2" s="4"/>
-      <c r="AET2" s="4"/>
-      <c r="AEU2" s="4"/>
-      <c r="AEV2" s="4"/>
-      <c r="AEW2" s="4"/>
-      <c r="AEX2" s="4"/>
-      <c r="AEY2" s="4"/>
-      <c r="AEZ2" s="4"/>
-      <c r="AFA2" s="4"/>
-      <c r="AFB2" s="4"/>
-      <c r="AFC2" s="4"/>
-      <c r="AFD2" s="4"/>
-      <c r="AFE2" s="4"/>
-      <c r="AFF2" s="4"/>
-      <c r="AFG2" s="4"/>
-      <c r="AFH2" s="4"/>
-      <c r="AFI2" s="4"/>
-      <c r="AFJ2" s="4"/>
-      <c r="AFK2" s="4"/>
-      <c r="AFL2" s="4"/>
-      <c r="AFM2" s="4"/>
-      <c r="AFN2" s="4"/>
-      <c r="AFO2" s="4"/>
-      <c r="AFP2" s="4"/>
-      <c r="AFQ2" s="4"/>
-      <c r="AFR2" s="4"/>
-      <c r="AFS2" s="4"/>
-      <c r="AFT2" s="4"/>
-      <c r="AFU2" s="4"/>
-      <c r="AFV2" s="4"/>
-      <c r="AFW2" s="4"/>
-      <c r="AFX2" s="4"/>
-      <c r="AFY2" s="4"/>
-      <c r="AFZ2" s="4"/>
-      <c r="AGA2" s="4"/>
-      <c r="AGB2" s="4"/>
-      <c r="AGC2" s="4"/>
-      <c r="AGD2" s="4"/>
-      <c r="AGE2" s="4"/>
-      <c r="AGF2" s="4"/>
-      <c r="AGG2" s="4"/>
-      <c r="AGH2" s="4"/>
-      <c r="AGI2" s="4"/>
-      <c r="AGJ2" s="4"/>
-      <c r="AGK2" s="4"/>
-      <c r="AGL2" s="4"/>
-      <c r="AGM2" s="4"/>
-      <c r="AGN2" s="4"/>
-      <c r="AGO2" s="4"/>
-      <c r="AGP2" s="4"/>
-      <c r="AGQ2" s="4"/>
-      <c r="AGR2" s="4"/>
-      <c r="AGS2" s="4"/>
-      <c r="AGT2" s="4"/>
-      <c r="AGU2" s="4"/>
-      <c r="AGV2" s="4"/>
-      <c r="AGW2" s="4"/>
-      <c r="AGX2" s="4"/>
-      <c r="AGY2" s="4"/>
-      <c r="AGZ2" s="4"/>
-      <c r="AHA2" s="4"/>
-      <c r="AHB2" s="4"/>
-      <c r="AHC2" s="4"/>
-      <c r="AHD2" s="4"/>
-      <c r="AHE2" s="4"/>
-      <c r="AHF2" s="4"/>
-      <c r="AHG2" s="4"/>
-      <c r="AHH2" s="4"/>
-      <c r="AHI2" s="4"/>
-      <c r="AHJ2" s="4"/>
-      <c r="AHK2" s="4"/>
-      <c r="AHL2" s="4"/>
-      <c r="AHM2" s="4"/>
-      <c r="AHN2" s="4"/>
-      <c r="AHO2" s="4"/>
-      <c r="AHP2" s="4"/>
-      <c r="AHQ2" s="4"/>
-      <c r="AHR2" s="4"/>
-      <c r="AHS2" s="4"/>
-      <c r="AHT2" s="4"/>
-      <c r="AHU2" s="4"/>
-      <c r="AHV2" s="4"/>
-      <c r="AHW2" s="4"/>
-      <c r="AHX2" s="4"/>
-      <c r="AHY2" s="4"/>
-      <c r="AHZ2" s="4"/>
-      <c r="AIA2" s="4"/>
-      <c r="AIB2" s="4"/>
-      <c r="AIC2" s="4"/>
-      <c r="AID2" s="4"/>
-      <c r="AIE2" s="4"/>
-      <c r="AIF2" s="4"/>
-      <c r="AIG2" s="4"/>
-      <c r="AIH2" s="4"/>
-      <c r="AII2" s="4"/>
-      <c r="AIJ2" s="4"/>
-      <c r="AIK2" s="4"/>
-      <c r="AIL2" s="4"/>
-      <c r="AIM2" s="4"/>
-      <c r="AIN2" s="4"/>
-      <c r="AIO2" s="4"/>
-      <c r="AIP2" s="4"/>
-      <c r="AIQ2" s="4"/>
-      <c r="AIR2" s="4"/>
-      <c r="AIS2" s="4"/>
-      <c r="AIT2" s="4"/>
-      <c r="AIU2" s="4"/>
-      <c r="AIV2" s="4"/>
-      <c r="AIW2" s="4"/>
-      <c r="AIX2" s="4"/>
-      <c r="AIY2" s="4"/>
-      <c r="AIZ2" s="4"/>
-      <c r="AJA2" s="4"/>
-      <c r="AJB2" s="4"/>
-      <c r="AJC2" s="4"/>
-      <c r="AJD2" s="4"/>
-      <c r="AJE2" s="4"/>
-      <c r="AJF2" s="4"/>
-      <c r="AJG2" s="4"/>
-      <c r="AJH2" s="4"/>
-      <c r="AJI2" s="4"/>
-      <c r="AJJ2" s="4"/>
-      <c r="AJK2" s="4"/>
-      <c r="AJL2" s="4"/>
-      <c r="AJM2" s="4"/>
-      <c r="AJN2" s="4"/>
-      <c r="AJO2" s="4"/>
-      <c r="AJP2" s="4"/>
-      <c r="AJQ2" s="4"/>
-      <c r="AJR2" s="4"/>
-      <c r="AJS2" s="4"/>
-      <c r="AJT2" s="4"/>
-      <c r="AJU2" s="4"/>
-      <c r="AJV2" s="4"/>
-      <c r="AJW2" s="4"/>
-      <c r="AJX2" s="4"/>
-      <c r="AJY2" s="4"/>
-      <c r="AJZ2" s="4"/>
-      <c r="AKA2" s="4"/>
-      <c r="AKB2" s="4"/>
-      <c r="AKC2" s="4"/>
-      <c r="AKD2" s="4"/>
-      <c r="AKE2" s="4"/>
-      <c r="AKF2" s="4"/>
-      <c r="AKG2" s="4"/>
-      <c r="AKH2" s="4"/>
-      <c r="AKI2" s="4"/>
-      <c r="AKJ2" s="4"/>
-      <c r="AKK2" s="4"/>
-      <c r="AKL2" s="4"/>
-      <c r="AKM2" s="4"/>
-      <c r="AKN2" s="4"/>
-      <c r="AKO2" s="4"/>
-      <c r="AKP2" s="4"/>
-      <c r="AKQ2" s="4"/>
-      <c r="AKR2" s="4"/>
-      <c r="AKS2" s="4"/>
-      <c r="AKT2" s="4"/>
-      <c r="AKU2" s="4"/>
-      <c r="AKV2" s="4"/>
-      <c r="AKW2" s="4"/>
-      <c r="AKX2" s="4"/>
-      <c r="AKY2" s="4"/>
-      <c r="AKZ2" s="4"/>
-      <c r="ALA2" s="4"/>
-      <c r="ALB2" s="4"/>
-      <c r="ALC2" s="4"/>
-      <c r="ALD2" s="4"/>
-      <c r="ALE2" s="4"/>
-      <c r="ALF2" s="4"/>
-      <c r="ALG2" s="4"/>
-      <c r="ALH2" s="4"/>
-      <c r="ALI2" s="4"/>
-      <c r="ALJ2" s="4"/>
-      <c r="ALK2" s="4"/>
-      <c r="ALL2" s="4"/>
-      <c r="ALM2" s="4"/>
-      <c r="ALN2" s="4"/>
-      <c r="ALO2" s="4"/>
-      <c r="ALP2" s="4"/>
-      <c r="ALQ2" s="4"/>
-      <c r="ALR2" s="4"/>
-      <c r="ALS2" s="4"/>
-      <c r="ALT2" s="4"/>
-      <c r="ALU2" s="4"/>
-      <c r="ALV2" s="4"/>
-      <c r="ALW2" s="4"/>
-      <c r="ALX2" s="4"/>
-      <c r="ALY2" s="4"/>
-      <c r="ALZ2" s="4"/>
-      <c r="AMA2" s="4"/>
-      <c r="AMB2" s="4"/>
-      <c r="AMC2" s="4"/>
-      <c r="AMD2" s="4"/>
-      <c r="AME2" s="4"/>
-      <c r="AMF2" s="4"/>
-      <c r="AMG2" s="4"/>
-      <c r="AMH2" s="4"/>
-      <c r="AMI2" s="4"/>
-      <c r="AMJ2" s="4"/>
-      <c r="AMK2" s="4"/>
-      <c r="AML2" s="4"/>
-      <c r="AMM2" s="4"/>
-      <c r="AMN2" s="4"/>
-      <c r="AMO2" s="4"/>
-      <c r="AMP2" s="4"/>
-      <c r="AMQ2" s="4"/>
-      <c r="AMR2" s="4"/>
-      <c r="AMS2" s="4"/>
-      <c r="AMT2" s="4"/>
-      <c r="AMU2" s="4"/>
-      <c r="AMV2" s="4"/>
-      <c r="AMW2" s="4"/>
-      <c r="AMX2" s="4"/>
-      <c r="AMY2" s="4"/>
-      <c r="AMZ2" s="4"/>
-      <c r="ANA2" s="4"/>
-      <c r="ANB2" s="4"/>
-      <c r="ANC2" s="4"/>
-      <c r="AND2" s="4"/>
-      <c r="ANE2" s="4"/>
-      <c r="ANF2" s="4"/>
-      <c r="ANG2" s="4"/>
-      <c r="ANH2" s="4"/>
-      <c r="ANI2" s="4"/>
-      <c r="ANJ2" s="4"/>
-      <c r="ANK2" s="4"/>
-      <c r="ANL2" s="4"/>
-      <c r="ANM2" s="4"/>
-      <c r="ANN2" s="4"/>
-      <c r="ANO2" s="4"/>
-      <c r="ANP2" s="4"/>
-      <c r="ANQ2" s="4"/>
-      <c r="ANR2" s="4"/>
-      <c r="ANS2" s="4"/>
-      <c r="ANT2" s="4"/>
-      <c r="ANU2" s="4"/>
-      <c r="ANV2" s="4"/>
-      <c r="ANW2" s="4"/>
-      <c r="ANX2" s="4"/>
-      <c r="ANY2" s="4"/>
-      <c r="ANZ2" s="4"/>
-      <c r="AOA2" s="4"/>
-      <c r="AOB2" s="4"/>
-      <c r="AOC2" s="4"/>
-      <c r="AOD2" s="4"/>
-      <c r="AOE2" s="4"/>
-      <c r="AOF2" s="4"/>
-      <c r="AOG2" s="4"/>
-      <c r="AOH2" s="4"/>
-      <c r="AOI2" s="4"/>
-      <c r="AOJ2" s="4"/>
-      <c r="AOK2" s="4"/>
-      <c r="AOL2" s="4"/>
-      <c r="AOM2" s="4"/>
-      <c r="AON2" s="4"/>
-      <c r="AOO2" s="4"/>
-      <c r="AOP2" s="4"/>
-      <c r="AOQ2" s="4"/>
-      <c r="AOR2" s="4"/>
-      <c r="AOS2" s="4"/>
-      <c r="AOT2" s="4"/>
-      <c r="AOU2" s="4"/>
-      <c r="AOV2" s="4"/>
-      <c r="AOW2" s="4"/>
-      <c r="AOX2" s="4"/>
-      <c r="AOY2" s="4"/>
-      <c r="AOZ2" s="4"/>
-      <c r="APA2" s="4"/>
-      <c r="APB2" s="4"/>
-      <c r="APC2" s="4"/>
-      <c r="APD2" s="4"/>
-      <c r="APE2" s="4"/>
-      <c r="APF2" s="4"/>
-      <c r="APG2" s="4"/>
-      <c r="APH2" s="4"/>
-      <c r="API2" s="4"/>
-      <c r="APJ2" s="4"/>
-      <c r="APK2" s="4"/>
-      <c r="APL2" s="4"/>
-      <c r="APM2" s="4"/>
-      <c r="APN2" s="4"/>
-      <c r="APO2" s="4"/>
-      <c r="APP2" s="4"/>
-      <c r="APQ2" s="4"/>
-      <c r="APR2" s="4"/>
-      <c r="APS2" s="4"/>
-      <c r="APT2" s="4"/>
-      <c r="APU2" s="4"/>
-      <c r="APV2" s="4"/>
-      <c r="APW2" s="4"/>
-      <c r="APX2" s="4"/>
-      <c r="APY2" s="4"/>
-      <c r="APZ2" s="4"/>
-      <c r="AQA2" s="4"/>
-      <c r="AQB2" s="4"/>
-      <c r="AQC2" s="4"/>
-      <c r="AQD2" s="4"/>
-      <c r="AQE2" s="4"/>
-      <c r="AQF2" s="4"/>
-      <c r="AQG2" s="4"/>
-      <c r="AQH2" s="4"/>
-      <c r="AQI2" s="4"/>
-      <c r="AQJ2" s="4"/>
-      <c r="AQK2" s="4"/>
-      <c r="AQL2" s="4"/>
-      <c r="AQM2" s="4"/>
-      <c r="AQN2" s="4"/>
-      <c r="AQO2" s="4"/>
-      <c r="AQP2" s="4"/>
-      <c r="AQQ2" s="4"/>
-      <c r="AQR2" s="4"/>
-      <c r="AQS2" s="4"/>
-      <c r="AQT2" s="4"/>
-      <c r="AQU2" s="4"/>
-      <c r="AQV2" s="4"/>
-      <c r="AQW2" s="4"/>
-      <c r="AQX2" s="4"/>
-      <c r="AQY2" s="4"/>
-      <c r="AQZ2" s="4"/>
-      <c r="ARA2" s="4"/>
-      <c r="ARB2" s="4"/>
-      <c r="ARC2" s="4"/>
-      <c r="ARD2" s="4"/>
-      <c r="ARE2" s="4"/>
-      <c r="ARF2" s="4"/>
-      <c r="ARG2" s="4"/>
-      <c r="ARH2" s="4"/>
-      <c r="ARI2" s="4"/>
-      <c r="ARJ2" s="4"/>
-      <c r="ARK2" s="4"/>
-      <c r="ARL2" s="4"/>
-      <c r="ARM2" s="4"/>
-      <c r="ARN2" s="4"/>
-      <c r="ARO2" s="4"/>
-      <c r="ARP2" s="4"/>
-      <c r="ARQ2" s="4"/>
-      <c r="ARR2" s="4"/>
-      <c r="ARS2" s="4"/>
-      <c r="ART2" s="4"/>
-      <c r="ARU2" s="4"/>
-      <c r="ARV2" s="4"/>
-      <c r="ARW2" s="4"/>
-      <c r="ARX2" s="4"/>
-      <c r="ARY2" s="4"/>
-      <c r="ARZ2" s="4"/>
-      <c r="ASA2" s="4"/>
-      <c r="ASB2" s="4"/>
-      <c r="ASC2" s="4"/>
-      <c r="ASD2" s="4"/>
-      <c r="ASE2" s="4"/>
-      <c r="ASF2" s="4"/>
-      <c r="ASG2" s="4"/>
-      <c r="ASH2" s="4"/>
-      <c r="ASI2" s="4"/>
-      <c r="ASJ2" s="4"/>
-      <c r="ASK2" s="4"/>
-      <c r="ASL2" s="4"/>
-      <c r="ASM2" s="4"/>
-      <c r="ASN2" s="4"/>
-      <c r="ASO2" s="4"/>
-      <c r="ASP2" s="4"/>
-      <c r="ASQ2" s="4"/>
-      <c r="ASR2" s="4"/>
-      <c r="ASS2" s="4"/>
-      <c r="AST2" s="4"/>
-      <c r="ASU2" s="4"/>
-      <c r="ASV2" s="4"/>
-      <c r="ASW2" s="4"/>
-      <c r="ASX2" s="4"/>
-      <c r="ASY2" s="4"/>
-      <c r="ASZ2" s="4"/>
-      <c r="ATA2" s="4"/>
-      <c r="ATB2" s="4"/>
-      <c r="ATC2" s="4"/>
-      <c r="ATD2" s="4"/>
-      <c r="ATE2" s="4"/>
-      <c r="ATF2" s="4"/>
-      <c r="ATG2" s="4"/>
-      <c r="ATH2" s="4"/>
-      <c r="ATI2" s="4"/>
-      <c r="ATJ2" s="4"/>
-      <c r="ATK2" s="4"/>
-      <c r="ATL2" s="4"/>
-      <c r="ATM2" s="4"/>
-      <c r="ATN2" s="4"/>
-      <c r="ATO2" s="4"/>
-      <c r="ATP2" s="4"/>
-      <c r="ATQ2" s="4"/>
-      <c r="ATR2" s="4"/>
-      <c r="ATS2" s="4"/>
-      <c r="ATT2" s="4"/>
-      <c r="ATU2" s="4"/>
-      <c r="ATV2" s="4"/>
-      <c r="ATW2" s="4"/>
-      <c r="ATX2" s="4"/>
-      <c r="ATY2" s="4"/>
-      <c r="ATZ2" s="4"/>
-      <c r="AUA2" s="4"/>
-      <c r="AUB2" s="4"/>
-      <c r="AUC2" s="4"/>
-      <c r="AUD2" s="4"/>
-      <c r="AUE2" s="4"/>
-      <c r="AUF2" s="4"/>
-      <c r="AUG2" s="4"/>
-      <c r="AUH2" s="4"/>
-      <c r="AUI2" s="4"/>
-      <c r="AUJ2" s="4"/>
-      <c r="AUK2" s="4"/>
-      <c r="AUL2" s="4"/>
-      <c r="AUM2" s="4"/>
-      <c r="AUN2" s="4"/>
-      <c r="AUO2" s="4"/>
-      <c r="AUP2" s="4"/>
-      <c r="AUQ2" s="4"/>
-      <c r="AUR2" s="4"/>
-      <c r="AUS2" s="4"/>
-      <c r="AUT2" s="4"/>
-      <c r="AUU2" s="4"/>
-      <c r="AUV2" s="4"/>
-      <c r="AUW2" s="4"/>
-      <c r="AUX2" s="4"/>
-      <c r="AUY2" s="4"/>
-      <c r="AUZ2" s="4"/>
-      <c r="AVA2" s="4"/>
-      <c r="AVB2" s="4"/>
-      <c r="AVC2" s="4"/>
-      <c r="AVD2" s="4"/>
-      <c r="AVE2" s="4"/>
-      <c r="AVF2" s="4"/>
-      <c r="AVG2" s="4"/>
-      <c r="AVH2" s="4"/>
-      <c r="AVI2" s="4"/>
-      <c r="AVJ2" s="4"/>
-      <c r="AVK2" s="4"/>
-      <c r="AVL2" s="4"/>
-      <c r="AVM2" s="4"/>
-      <c r="AVN2" s="4"/>
-      <c r="AVO2" s="4"/>
-      <c r="AVP2" s="4"/>
-      <c r="AVQ2" s="4"/>
-      <c r="AVR2" s="4"/>
-      <c r="AVS2" s="4"/>
-      <c r="AVT2" s="4"/>
-      <c r="AVU2" s="4"/>
-      <c r="AVV2" s="4"/>
-      <c r="AVW2" s="4"/>
-      <c r="AVX2" s="4"/>
-      <c r="AVY2" s="4"/>
-      <c r="AVZ2" s="4"/>
-      <c r="AWA2" s="4"/>
-      <c r="AWB2" s="4"/>
-      <c r="AWC2" s="4"/>
-      <c r="AWD2" s="4"/>
-      <c r="AWE2" s="4"/>
-      <c r="AWF2" s="4"/>
-      <c r="AWG2" s="4"/>
-      <c r="AWH2" s="4"/>
-      <c r="AWI2" s="4"/>
-      <c r="AWJ2" s="4"/>
-      <c r="AWK2" s="4"/>
-      <c r="AWL2" s="4"/>
-      <c r="AWM2" s="4"/>
-      <c r="AWN2" s="4"/>
-      <c r="AWO2" s="4"/>
-      <c r="AWP2" s="4"/>
-      <c r="AWQ2" s="4"/>
-      <c r="AWR2" s="4"/>
-      <c r="AWS2" s="4"/>
-      <c r="AWT2" s="4"/>
-      <c r="AWU2" s="4"/>
-      <c r="AWV2" s="4"/>
-      <c r="AWW2" s="4"/>
-      <c r="AWX2" s="4"/>
-      <c r="AWY2" s="4"/>
-      <c r="AWZ2" s="4"/>
-      <c r="AXA2" s="4"/>
-      <c r="AXB2" s="4"/>
-      <c r="AXC2" s="4"/>
-      <c r="AXD2" s="4"/>
-      <c r="AXE2" s="4"/>
-      <c r="AXF2" s="4"/>
-      <c r="AXG2" s="4"/>
-      <c r="AXH2" s="4"/>
-      <c r="AXI2" s="4"/>
-      <c r="AXJ2" s="4"/>
-      <c r="AXK2" s="4"/>
-      <c r="AXL2" s="4"/>
-      <c r="AXM2" s="4"/>
-      <c r="AXN2" s="4"/>
-      <c r="AXO2" s="4"/>
-      <c r="AXP2" s="4"/>
-      <c r="AXQ2" s="4"/>
-      <c r="AXR2" s="4"/>
-      <c r="AXS2" s="4"/>
-      <c r="AXT2" s="4"/>
-      <c r="AXU2" s="4"/>
-      <c r="AXV2" s="4"/>
-      <c r="AXW2" s="4"/>
-      <c r="AXX2" s="4"/>
-      <c r="AXY2" s="4"/>
-      <c r="AXZ2" s="4"/>
-      <c r="AYA2" s="4"/>
-      <c r="AYB2" s="4"/>
-      <c r="AYC2" s="4"/>
-      <c r="AYD2" s="4"/>
-      <c r="AYE2" s="4"/>
-      <c r="AYF2" s="4"/>
-      <c r="AYG2" s="4"/>
-      <c r="AYH2" s="4"/>
-      <c r="AYI2" s="4"/>
-      <c r="AYJ2" s="4"/>
-      <c r="AYK2" s="4"/>
-      <c r="AYL2" s="4"/>
-      <c r="AYM2" s="4"/>
-      <c r="AYN2" s="4"/>
-      <c r="AYO2" s="4"/>
-      <c r="AYP2" s="4"/>
-      <c r="AYQ2" s="4"/>
-      <c r="AYR2" s="4"/>
-      <c r="AYS2" s="4"/>
-      <c r="AYT2" s="4"/>
-      <c r="AYU2" s="4"/>
-      <c r="AYV2" s="4"/>
-      <c r="AYW2" s="4"/>
-      <c r="AYX2" s="4"/>
-      <c r="AYY2" s="4"/>
-      <c r="AYZ2" s="4"/>
-      <c r="AZA2" s="4"/>
-      <c r="AZB2" s="4"/>
-      <c r="AZC2" s="4"/>
-      <c r="AZD2" s="4"/>
-      <c r="AZE2" s="4"/>
-      <c r="AZF2" s="4"/>
-      <c r="AZG2" s="4"/>
-      <c r="AZH2" s="4"/>
-      <c r="AZI2" s="4"/>
-      <c r="AZJ2" s="4"/>
-      <c r="AZK2" s="4"/>
-      <c r="AZL2" s="4"/>
-      <c r="AZM2" s="4"/>
-      <c r="AZN2" s="4"/>
-      <c r="AZO2" s="4"/>
-      <c r="AZP2" s="4"/>
-      <c r="AZQ2" s="4"/>
-      <c r="AZR2" s="4"/>
-      <c r="AZS2" s="4"/>
-      <c r="AZT2" s="4"/>
-      <c r="AZU2" s="4"/>
-      <c r="AZV2" s="4"/>
-      <c r="AZW2" s="4"/>
-      <c r="AZX2" s="4"/>
-      <c r="AZY2" s="4"/>
-      <c r="AZZ2" s="4"/>
-      <c r="BAA2" s="4"/>
-      <c r="BAB2" s="4"/>
-      <c r="BAC2" s="4"/>
-      <c r="BAD2" s="4"/>
-      <c r="BAE2" s="4"/>
-      <c r="BAF2" s="4"/>
-      <c r="BAG2" s="4"/>
-      <c r="BAH2" s="4"/>
-      <c r="BAI2" s="4"/>
-      <c r="BAJ2" s="4"/>
-      <c r="BAK2" s="4"/>
-      <c r="BAL2" s="4"/>
-      <c r="BAM2" s="4"/>
-      <c r="BAN2" s="4"/>
-      <c r="BAO2" s="4"/>
-      <c r="BAP2" s="4"/>
-      <c r="BAQ2" s="4"/>
-      <c r="BAR2" s="4"/>
-      <c r="BAS2" s="4"/>
-      <c r="BAT2" s="4"/>
-      <c r="BAU2" s="4"/>
-      <c r="BAV2" s="4"/>
-      <c r="BAW2" s="4"/>
-      <c r="BAX2" s="4"/>
-      <c r="BAY2" s="4"/>
-      <c r="BAZ2" s="4"/>
-      <c r="BBA2" s="4"/>
-      <c r="BBB2" s="4"/>
-      <c r="BBC2" s="4"/>
-      <c r="BBD2" s="4"/>
-      <c r="BBE2" s="4"/>
-      <c r="BBF2" s="4"/>
-      <c r="BBG2" s="4"/>
-      <c r="BBH2" s="4"/>
-      <c r="BBI2" s="4"/>
-      <c r="BBJ2" s="4"/>
-      <c r="BBK2" s="4"/>
-      <c r="BBL2" s="4"/>
-      <c r="BBM2" s="4"/>
-      <c r="BBN2" s="4"/>
-      <c r="BBO2" s="4"/>
-      <c r="BBP2" s="4"/>
-      <c r="BBQ2" s="4"/>
-      <c r="BBR2" s="4"/>
-      <c r="BBS2" s="4"/>
-      <c r="BBT2" s="4"/>
-      <c r="BBU2" s="4"/>
-      <c r="BBV2" s="4"/>
-      <c r="BBW2" s="4"/>
-      <c r="BBX2" s="4"/>
-      <c r="BBY2" s="4"/>
-      <c r="BBZ2" s="4"/>
-      <c r="BCA2" s="4"/>
-      <c r="BCB2" s="4"/>
-      <c r="BCC2" s="4"/>
-      <c r="BCD2" s="4"/>
-      <c r="BCE2" s="4"/>
-      <c r="BCF2" s="4"/>
-      <c r="BCG2" s="4"/>
-      <c r="BCH2" s="4"/>
-      <c r="BCI2" s="4"/>
-      <c r="BCJ2" s="4"/>
-      <c r="BCK2" s="4"/>
-      <c r="BCL2" s="4"/>
-      <c r="BCM2" s="4"/>
-      <c r="BCN2" s="4"/>
-      <c r="BCO2" s="4"/>
-      <c r="BCP2" s="4"/>
-      <c r="BCQ2" s="4"/>
-      <c r="BCR2" s="4"/>
-      <c r="BCS2" s="4"/>
-      <c r="BCT2" s="4"/>
-      <c r="BCU2" s="4"/>
-      <c r="BCV2" s="4"/>
-      <c r="BCW2" s="4"/>
-      <c r="BCX2" s="4"/>
-      <c r="BCY2" s="4"/>
-      <c r="BCZ2" s="4"/>
-      <c r="BDA2" s="4"/>
-      <c r="BDB2" s="4"/>
-      <c r="BDC2" s="4"/>
-      <c r="BDD2" s="4"/>
-      <c r="BDE2" s="4"/>
-      <c r="BDF2" s="4"/>
-      <c r="BDG2" s="4"/>
-      <c r="BDH2" s="4"/>
-      <c r="BDI2" s="4"/>
-      <c r="BDJ2" s="4"/>
-      <c r="BDK2" s="4"/>
-      <c r="BDL2" s="4"/>
-      <c r="BDM2" s="4"/>
-      <c r="BDN2" s="4"/>
-      <c r="BDO2" s="4"/>
-      <c r="BDP2" s="4"/>
-      <c r="BDQ2" s="4"/>
-      <c r="BDR2" s="4"/>
-      <c r="BDS2" s="4"/>
-      <c r="BDT2" s="4"/>
-      <c r="BDU2" s="4"/>
-      <c r="BDV2" s="4"/>
-      <c r="BDW2" s="4"/>
-      <c r="BDX2" s="4"/>
-      <c r="BDY2" s="4"/>
-      <c r="BDZ2" s="4"/>
-      <c r="BEA2" s="4"/>
-      <c r="BEB2" s="4"/>
-      <c r="BEC2" s="4"/>
-      <c r="BED2" s="4"/>
-      <c r="BEE2" s="4"/>
-      <c r="BEF2" s="4"/>
-      <c r="BEG2" s="4"/>
-      <c r="BEH2" s="4"/>
-      <c r="BEI2" s="4"/>
-      <c r="BEJ2" s="4"/>
-      <c r="BEK2" s="4"/>
-      <c r="BEL2" s="4"/>
-      <c r="BEM2" s="4"/>
-      <c r="BEN2" s="4"/>
-      <c r="BEO2" s="4"/>
-      <c r="BEP2" s="4"/>
-      <c r="BEQ2" s="4"/>
-      <c r="BER2" s="4"/>
-      <c r="BES2" s="4"/>
-      <c r="BET2" s="4"/>
-      <c r="BEU2" s="4"/>
-      <c r="BEV2" s="4"/>
-      <c r="BEW2" s="4"/>
-      <c r="BEX2" s="4"/>
-      <c r="BEY2" s="4"/>
-      <c r="BEZ2" s="4"/>
-      <c r="BFA2" s="4"/>
-      <c r="BFB2" s="4"/>
-      <c r="BFC2" s="4"/>
-      <c r="BFD2" s="4"/>
-      <c r="BFE2" s="4"/>
-      <c r="BFF2" s="4"/>
-      <c r="BFG2" s="4"/>
-      <c r="BFH2" s="4"/>
-      <c r="BFI2" s="4"/>
-      <c r="BFJ2" s="4"/>
-      <c r="BFK2" s="4"/>
-      <c r="BFL2" s="4"/>
-      <c r="BFM2" s="4"/>
-      <c r="BFN2" s="4"/>
-      <c r="BFO2" s="4"/>
-      <c r="BFP2" s="4"/>
-      <c r="BFQ2" s="4"/>
-      <c r="BFR2" s="4"/>
-      <c r="BFS2" s="4"/>
-      <c r="BFT2" s="4"/>
-      <c r="BFU2" s="4"/>
-      <c r="BFV2" s="4"/>
-      <c r="BFW2" s="4"/>
-      <c r="BFX2" s="4"/>
-      <c r="BFY2" s="4"/>
-      <c r="BFZ2" s="4"/>
-      <c r="BGA2" s="4"/>
-      <c r="BGB2" s="4"/>
-      <c r="BGC2" s="4"/>
-      <c r="BGD2" s="4"/>
-      <c r="BGE2" s="4"/>
-      <c r="BGF2" s="4"/>
-      <c r="BGG2" s="4"/>
-      <c r="BGH2" s="4"/>
-      <c r="BGI2" s="4"/>
-      <c r="BGJ2" s="4"/>
-      <c r="BGK2" s="4"/>
-      <c r="BGL2" s="4"/>
-      <c r="BGM2" s="4"/>
-      <c r="BGN2" s="4"/>
-      <c r="BGO2" s="4"/>
-      <c r="BGP2" s="4"/>
-      <c r="BGQ2" s="4"/>
-      <c r="BGR2" s="4"/>
-      <c r="BGS2" s="4"/>
-      <c r="BGT2" s="4"/>
-      <c r="BGU2" s="4"/>
-      <c r="BGV2" s="4"/>
-      <c r="BGW2" s="4"/>
-      <c r="BGX2" s="4"/>
-      <c r="BGY2" s="4"/>
-      <c r="BGZ2" s="4"/>
-      <c r="BHA2" s="4"/>
-      <c r="BHB2" s="4"/>
-      <c r="BHC2" s="4"/>
-      <c r="BHD2" s="4"/>
-      <c r="BHE2" s="4"/>
-      <c r="BHF2" s="4"/>
-      <c r="BHG2" s="4"/>
-      <c r="BHH2" s="4"/>
-      <c r="BHI2" s="4"/>
-      <c r="BHJ2" s="4"/>
-      <c r="BHK2" s="4"/>
-      <c r="BHL2" s="4"/>
-      <c r="BHM2" s="4"/>
-      <c r="BHN2" s="4"/>
-      <c r="BHO2" s="4"/>
-      <c r="BHP2" s="4"/>
-      <c r="BHQ2" s="4"/>
-      <c r="BHR2" s="4"/>
-      <c r="BHS2" s="4"/>
-      <c r="BHT2" s="4"/>
-      <c r="BHU2" s="4"/>
-      <c r="BHV2" s="4"/>
-      <c r="BHW2" s="4"/>
-      <c r="BHX2" s="4"/>
-      <c r="BHY2" s="4"/>
-      <c r="BHZ2" s="4"/>
-      <c r="BIA2" s="4"/>
-      <c r="BIB2" s="4"/>
-      <c r="BIC2" s="4"/>
-      <c r="BID2" s="4"/>
-      <c r="BIE2" s="4"/>
-      <c r="BIF2" s="4"/>
-      <c r="BIG2" s="4"/>
-      <c r="BIH2" s="4"/>
-      <c r="BII2" s="4"/>
-      <c r="BIJ2" s="4"/>
-      <c r="BIK2" s="4"/>
-      <c r="BIL2" s="4"/>
-      <c r="BIM2" s="4"/>
-      <c r="BIN2" s="4"/>
-      <c r="BIO2" s="4"/>
-      <c r="BIP2" s="4"/>
-      <c r="BIQ2" s="4"/>
-      <c r="BIR2" s="4"/>
-      <c r="BIS2" s="4"/>
-      <c r="BIT2" s="4"/>
-      <c r="BIU2" s="4"/>
-      <c r="BIV2" s="4"/>
-      <c r="BIW2" s="4"/>
-      <c r="BIX2" s="4"/>
-      <c r="BIY2" s="4"/>
-      <c r="BIZ2" s="4"/>
-      <c r="BJA2" s="4"/>
-      <c r="BJB2" s="4"/>
-      <c r="BJC2" s="4"/>
-      <c r="BJD2" s="4"/>
-      <c r="BJE2" s="4"/>
-      <c r="BJF2" s="4"/>
-      <c r="BJG2" s="4"/>
-      <c r="BJH2" s="4"/>
-      <c r="BJI2" s="4"/>
-      <c r="BJJ2" s="4"/>
-      <c r="BJK2" s="4"/>
-      <c r="BJL2" s="4"/>
-      <c r="BJM2" s="4"/>
-      <c r="BJN2" s="4"/>
-      <c r="BJO2" s="4"/>
-      <c r="BJP2" s="4"/>
-      <c r="BJQ2" s="4"/>
-      <c r="BJR2" s="4"/>
-      <c r="BJS2" s="4"/>
-      <c r="BJT2" s="4"/>
-      <c r="BJU2" s="4"/>
-      <c r="BJV2" s="4"/>
-      <c r="BJW2" s="4"/>
-      <c r="BJX2" s="4"/>
-      <c r="BJY2" s="4"/>
-      <c r="BJZ2" s="4"/>
-      <c r="BKA2" s="4"/>
-      <c r="BKB2" s="4"/>
-      <c r="BKC2" s="4"/>
-      <c r="BKD2" s="4"/>
-      <c r="BKE2" s="4"/>
-      <c r="BKF2" s="4"/>
-      <c r="BKG2" s="4"/>
-      <c r="BKH2" s="4"/>
-      <c r="BKI2" s="4"/>
-      <c r="BKJ2" s="4"/>
-      <c r="BKK2" s="4"/>
-      <c r="BKL2" s="4"/>
-      <c r="BKM2" s="4"/>
-      <c r="BKN2" s="4"/>
-      <c r="BKO2" s="4"/>
-      <c r="BKP2" s="4"/>
-      <c r="BKQ2" s="4"/>
-      <c r="BKR2" s="4"/>
-      <c r="BKS2" s="4"/>
-      <c r="BKT2" s="4"/>
-      <c r="BKU2" s="4"/>
-      <c r="BKV2" s="4"/>
-      <c r="BKW2" s="4"/>
-      <c r="BKX2" s="4"/>
-      <c r="BKY2" s="4"/>
-      <c r="BKZ2" s="4"/>
-      <c r="BLA2" s="4"/>
-      <c r="BLB2" s="4"/>
-      <c r="BLC2" s="4"/>
-      <c r="BLD2" s="4"/>
-      <c r="BLE2" s="4"/>
-      <c r="BLF2" s="4"/>
-      <c r="BLG2" s="4"/>
-      <c r="BLH2" s="4"/>
-      <c r="BLI2" s="4"/>
-      <c r="BLJ2" s="4"/>
-      <c r="BLK2" s="4"/>
-      <c r="BLL2" s="4"/>
-      <c r="BLM2" s="4"/>
-      <c r="BLN2" s="4"/>
-      <c r="BLO2" s="4"/>
-      <c r="BLP2" s="4"/>
-      <c r="BLQ2" s="4"/>
-      <c r="BLR2" s="4"/>
-      <c r="BLS2" s="4"/>
-      <c r="BLT2" s="4"/>
-      <c r="BLU2" s="4"/>
-      <c r="BLV2" s="4"/>
-      <c r="BLW2" s="4"/>
-      <c r="BLX2" s="4"/>
-      <c r="BLY2" s="4"/>
-      <c r="BLZ2" s="4"/>
-      <c r="BMA2" s="4"/>
-      <c r="BMB2" s="4"/>
-      <c r="BMC2" s="4"/>
-      <c r="BMD2" s="4"/>
-      <c r="BME2" s="4"/>
-      <c r="BMF2" s="4"/>
-      <c r="BMG2" s="4"/>
-      <c r="BMH2" s="4"/>
-      <c r="BMI2" s="4"/>
-      <c r="BMJ2" s="4"/>
-      <c r="BMK2" s="4"/>
-      <c r="BML2" s="4"/>
-      <c r="BMM2" s="4"/>
-      <c r="BMN2" s="4"/>
-      <c r="BMO2" s="4"/>
-      <c r="BMP2" s="4"/>
-      <c r="BMQ2" s="4"/>
-      <c r="BMR2" s="4"/>
-      <c r="BMS2" s="4"/>
-      <c r="BMT2" s="4"/>
-      <c r="BMU2" s="4"/>
-      <c r="BMV2" s="4"/>
-      <c r="BMW2" s="4"/>
-      <c r="BMX2" s="4"/>
-      <c r="BMY2" s="4"/>
-      <c r="BMZ2" s="4"/>
-      <c r="BNA2" s="4"/>
-      <c r="BNB2" s="4"/>
-      <c r="BNC2" s="4"/>
-      <c r="BND2" s="4"/>
-      <c r="BNE2" s="4"/>
-      <c r="BNF2" s="4"/>
-      <c r="BNG2" s="4"/>
-      <c r="BNH2" s="4"/>
-      <c r="BNI2" s="4"/>
-      <c r="BNJ2" s="4"/>
-      <c r="BNK2" s="4"/>
-      <c r="BNL2" s="4"/>
-      <c r="BNM2" s="4"/>
-      <c r="BNN2" s="4"/>
-      <c r="BNO2" s="4"/>
-      <c r="BNP2" s="4"/>
-      <c r="BNQ2" s="4"/>
-      <c r="BNR2" s="4"/>
-      <c r="BNS2" s="4"/>
-      <c r="BNT2" s="4"/>
-      <c r="BNU2" s="4"/>
-      <c r="BNV2" s="4"/>
-      <c r="BNW2" s="4"/>
-      <c r="BNX2" s="4"/>
-      <c r="BNY2" s="4"/>
-      <c r="BNZ2" s="4"/>
-      <c r="BOA2" s="4"/>
-      <c r="BOB2" s="4"/>
-      <c r="BOC2" s="4"/>
-      <c r="BOD2" s="4"/>
-      <c r="BOE2" s="4"/>
-      <c r="BOF2" s="4"/>
-      <c r="BOG2" s="4"/>
-      <c r="BOH2" s="4"/>
-      <c r="BOI2" s="4"/>
-      <c r="BOJ2" s="4"/>
-      <c r="BOK2" s="4"/>
-      <c r="BOL2" s="4"/>
-      <c r="BOM2" s="4"/>
-      <c r="BON2" s="4"/>
-      <c r="BOO2" s="4"/>
-      <c r="BOP2" s="4"/>
-      <c r="BOQ2" s="4"/>
-      <c r="BOR2" s="4"/>
-      <c r="BOS2" s="4"/>
-      <c r="BOT2" s="4"/>
-      <c r="BOU2" s="4"/>
-      <c r="BOV2" s="4"/>
-      <c r="BOW2" s="4"/>
-      <c r="BOX2" s="4"/>
-      <c r="BOY2" s="4"/>
-      <c r="BOZ2" s="4"/>
-      <c r="BPA2" s="4"/>
-      <c r="BPB2" s="4"/>
-      <c r="BPC2" s="4"/>
-      <c r="BPD2" s="4"/>
-      <c r="BPE2" s="4"/>
-      <c r="BPF2" s="4"/>
-      <c r="BPG2" s="4"/>
-      <c r="BPH2" s="4"/>
-      <c r="BPI2" s="4"/>
-      <c r="BPJ2" s="4"/>
-      <c r="BPK2" s="4"/>
-      <c r="BPL2" s="4"/>
-      <c r="BPM2" s="4"/>
-      <c r="BPN2" s="4"/>
-      <c r="BPO2" s="4"/>
-      <c r="BPP2" s="4"/>
-      <c r="BPQ2" s="4"/>
-      <c r="BPR2" s="4"/>
-      <c r="BPS2" s="4"/>
-      <c r="BPT2" s="4"/>
-      <c r="BPU2" s="4"/>
-      <c r="BPV2" s="4"/>
-      <c r="BPW2" s="4"/>
-      <c r="BPX2" s="4"/>
-      <c r="BPY2" s="4"/>
-      <c r="BPZ2" s="4"/>
-      <c r="BQA2" s="4"/>
-      <c r="BQB2" s="4"/>
-      <c r="BQC2" s="4"/>
-      <c r="BQD2" s="4"/>
-      <c r="BQE2" s="4"/>
-      <c r="BQF2" s="4"/>
-      <c r="BQG2" s="4"/>
-      <c r="BQH2" s="4"/>
-      <c r="BQI2" s="4"/>
-      <c r="BQJ2" s="4"/>
-      <c r="BQK2" s="4"/>
-      <c r="BQL2" s="4"/>
-      <c r="BQM2" s="4"/>
-      <c r="BQN2" s="4"/>
-      <c r="BQO2" s="4"/>
-      <c r="BQP2" s="4"/>
-      <c r="BQQ2" s="4"/>
-      <c r="BQR2" s="4"/>
-      <c r="BQS2" s="4"/>
-      <c r="BQT2" s="4"/>
-      <c r="BQU2" s="4"/>
-      <c r="BQV2" s="4"/>
-      <c r="BQW2" s="4"/>
-      <c r="BQX2" s="4"/>
-      <c r="BQY2" s="4"/>
-      <c r="BQZ2" s="4"/>
-      <c r="BRA2" s="4"/>
-      <c r="BRB2" s="4"/>
-      <c r="BRC2" s="4"/>
-      <c r="BRD2" s="4"/>
-      <c r="BRE2" s="4"/>
-      <c r="BRF2" s="4"/>
-      <c r="BRG2" s="4"/>
-      <c r="BRH2" s="4"/>
-      <c r="BRI2" s="4"/>
-      <c r="BRJ2" s="4"/>
-      <c r="BRK2" s="4"/>
-      <c r="BRL2" s="4"/>
-      <c r="BRM2" s="4"/>
-      <c r="BRN2" s="4"/>
-      <c r="BRO2" s="4"/>
-      <c r="BRP2" s="4"/>
-      <c r="BRQ2" s="4"/>
-      <c r="BRR2" s="4"/>
-      <c r="BRS2" s="4"/>
-      <c r="BRT2" s="4"/>
-      <c r="BRU2" s="4"/>
-      <c r="BRV2" s="4"/>
-      <c r="BRW2" s="4"/>
-      <c r="BRX2" s="4"/>
-      <c r="BRY2" s="4"/>
-      <c r="BRZ2" s="4"/>
-      <c r="BSA2" s="4"/>
-      <c r="BSB2" s="4"/>
-      <c r="BSC2" s="4"/>
-      <c r="BSD2" s="4"/>
-      <c r="BSE2" s="4"/>
-      <c r="BSF2" s="4"/>
-      <c r="BSG2" s="4"/>
-      <c r="BSH2" s="4"/>
-      <c r="BSI2" s="4"/>
-      <c r="BSJ2" s="4"/>
-      <c r="BSK2" s="4"/>
-      <c r="BSL2" s="4"/>
-      <c r="BSM2" s="4"/>
-      <c r="BSN2" s="4"/>
-      <c r="BSO2" s="4"/>
-      <c r="BSP2" s="4"/>
-      <c r="BSQ2" s="4"/>
-      <c r="BSR2" s="4"/>
-      <c r="BSS2" s="4"/>
-      <c r="BST2" s="4"/>
-      <c r="BSU2" s="4"/>
-      <c r="BSV2" s="4"/>
-      <c r="BSW2" s="4"/>
-      <c r="BSX2" s="4"/>
-      <c r="BSY2" s="4"/>
-      <c r="BSZ2" s="4"/>
-      <c r="BTA2" s="4"/>
-      <c r="BTB2" s="4"/>
-      <c r="BTC2" s="4"/>
-      <c r="BTD2" s="4"/>
-      <c r="BTE2" s="4"/>
-      <c r="BTF2" s="4"/>
-      <c r="BTG2" s="4"/>
-      <c r="BTH2" s="4"/>
-      <c r="BTI2" s="4"/>
-      <c r="BTJ2" s="4"/>
-      <c r="BTK2" s="4"/>
-      <c r="BTL2" s="4"/>
-      <c r="BTM2" s="4"/>
-      <c r="BTN2" s="4"/>
-      <c r="BTO2" s="4"/>
-      <c r="BTP2" s="4"/>
-      <c r="BTQ2" s="4"/>
-      <c r="BTR2" s="4"/>
-      <c r="BTS2" s="4"/>
-      <c r="BTT2" s="4"/>
-      <c r="BTU2" s="4"/>
-      <c r="BTV2" s="4"/>
-      <c r="BTW2" s="4"/>
-      <c r="BTX2" s="4"/>
-      <c r="BTY2" s="4"/>
-      <c r="BTZ2" s="4"/>
-      <c r="BUA2" s="4"/>
-      <c r="BUB2" s="4"/>
-      <c r="BUC2" s="4"/>
-      <c r="BUD2" s="4"/>
-      <c r="BUE2" s="4"/>
-      <c r="BUF2" s="4"/>
-      <c r="BUG2" s="4"/>
-      <c r="BUH2" s="4"/>
-      <c r="BUI2" s="4"/>
-      <c r="BUJ2" s="4"/>
-      <c r="BUK2" s="4"/>
-      <c r="BUL2" s="4"/>
-      <c r="BUM2" s="4"/>
-      <c r="BUN2" s="4"/>
-      <c r="BUO2" s="4"/>
-      <c r="BUP2" s="4"/>
-      <c r="BUQ2" s="4"/>
-      <c r="BUR2" s="4"/>
-      <c r="BUS2" s="4"/>
-      <c r="BUT2" s="4"/>
-      <c r="BUU2" s="4"/>
-      <c r="BUV2" s="4"/>
-      <c r="BUW2" s="4"/>
-      <c r="BUX2" s="4"/>
-      <c r="BUY2" s="4"/>
-      <c r="BUZ2" s="4"/>
-      <c r="BVA2" s="4"/>
-      <c r="BVB2" s="4"/>
-      <c r="BVC2" s="4"/>
-      <c r="BVD2" s="4"/>
-      <c r="BVE2" s="4"/>
-      <c r="BVF2" s="4"/>
-      <c r="BVG2" s="4"/>
-      <c r="BVH2" s="4"/>
-      <c r="BVI2" s="4"/>
-      <c r="BVJ2" s="4"/>
-      <c r="BVK2" s="4"/>
-      <c r="BVL2" s="4"/>
-      <c r="BVM2" s="4"/>
-      <c r="BVN2" s="4"/>
-      <c r="BVO2" s="4"/>
-      <c r="BVP2" s="4"/>
-      <c r="BVQ2" s="4"/>
-      <c r="BVR2" s="4"/>
-      <c r="BVS2" s="4"/>
-      <c r="BVT2" s="4"/>
-      <c r="BVU2" s="4"/>
-      <c r="BVV2" s="4"/>
-      <c r="BVW2" s="4"/>
-      <c r="BVX2" s="4"/>
-      <c r="BVY2" s="4"/>
-      <c r="BVZ2" s="4"/>
-      <c r="BWA2" s="4"/>
-      <c r="BWB2" s="4"/>
-      <c r="BWC2" s="4"/>
-      <c r="BWD2" s="4"/>
-      <c r="BWE2" s="4"/>
-      <c r="BWF2" s="4"/>
-      <c r="BWG2" s="4"/>
-      <c r="BWH2" s="4"/>
-      <c r="BWI2" s="4"/>
-      <c r="BWJ2" s="4"/>
-      <c r="BWK2" s="4"/>
-      <c r="BWL2" s="4"/>
-      <c r="BWM2" s="4"/>
-      <c r="BWN2" s="4"/>
-      <c r="BWO2" s="4"/>
-      <c r="BWP2" s="4"/>
-      <c r="BWQ2" s="4"/>
-      <c r="BWR2" s="4"/>
-      <c r="BWS2" s="4"/>
-      <c r="BWT2" s="4"/>
-      <c r="BWU2" s="4"/>
-      <c r="BWV2" s="4"/>
-      <c r="BWW2" s="4"/>
-      <c r="BWX2" s="4"/>
-      <c r="BWY2" s="4"/>
-      <c r="BWZ2" s="4"/>
-      <c r="BXA2" s="4"/>
-      <c r="BXB2" s="4"/>
-      <c r="BXC2" s="4"/>
-      <c r="BXD2" s="4"/>
-      <c r="BXE2" s="4"/>
-      <c r="BXF2" s="4"/>
-      <c r="BXG2" s="4"/>
-      <c r="BXH2" s="4"/>
-      <c r="BXI2" s="4"/>
-      <c r="BXJ2" s="4"/>
-      <c r="BXK2" s="4"/>
-      <c r="BXL2" s="4"/>
-      <c r="BXM2" s="4"/>
-      <c r="BXN2" s="4"/>
-      <c r="BXO2" s="4"/>
-      <c r="BXP2" s="4"/>
-      <c r="BXQ2" s="4"/>
-      <c r="BXR2" s="4"/>
-      <c r="BXS2" s="4"/>
-      <c r="BXT2" s="4"/>
-      <c r="BXU2" s="4"/>
-      <c r="BXV2" s="4"/>
-      <c r="BXW2" s="4"/>
-      <c r="BXX2" s="4"/>
-      <c r="BXY2" s="4"/>
-      <c r="BXZ2" s="4"/>
-      <c r="BYA2" s="4"/>
-      <c r="BYB2" s="4"/>
-      <c r="BYC2" s="4"/>
-      <c r="BYD2" s="4"/>
-      <c r="BYE2" s="4"/>
-      <c r="BYF2" s="4"/>
-      <c r="BYG2" s="4"/>
-      <c r="BYH2" s="4"/>
-      <c r="BYI2" s="4"/>
-      <c r="BYJ2" s="4"/>
-      <c r="BYK2" s="4"/>
-      <c r="BYL2" s="4"/>
-      <c r="BYM2" s="4"/>
-      <c r="BYN2" s="4"/>
-      <c r="BYO2" s="4"/>
-      <c r="BYP2" s="4"/>
-      <c r="BYQ2" s="4"/>
-      <c r="BYR2" s="4"/>
-      <c r="BYS2" s="4"/>
-      <c r="BYT2" s="4"/>
-      <c r="BYU2" s="4"/>
-      <c r="BYV2" s="4"/>
-      <c r="BYW2" s="4"/>
-      <c r="BYX2" s="4"/>
-      <c r="BYY2" s="4"/>
-      <c r="BYZ2" s="4"/>
-      <c r="BZA2" s="4"/>
-      <c r="BZB2" s="4"/>
-      <c r="BZC2" s="4"/>
-      <c r="BZD2" s="4"/>
-      <c r="BZE2" s="4"/>
-      <c r="BZF2" s="4"/>
-      <c r="BZG2" s="4"/>
-      <c r="BZH2" s="4"/>
-      <c r="BZI2" s="4"/>
-      <c r="BZJ2" s="4"/>
-      <c r="BZK2" s="4"/>
-      <c r="BZL2" s="4"/>
-      <c r="BZM2" s="4"/>
-      <c r="BZN2" s="4"/>
-      <c r="BZO2" s="4"/>
-      <c r="BZP2" s="4"/>
-      <c r="BZQ2" s="4"/>
-      <c r="BZR2" s="4"/>
-      <c r="BZS2" s="4"/>
-      <c r="BZT2" s="4"/>
-      <c r="BZU2" s="4"/>
-      <c r="BZV2" s="4"/>
-      <c r="BZW2" s="4"/>
-      <c r="BZX2" s="4"/>
-      <c r="BZY2" s="4"/>
-      <c r="BZZ2" s="4"/>
-      <c r="CAA2" s="4"/>
-      <c r="CAB2" s="4"/>
-      <c r="CAC2" s="4"/>
-      <c r="CAD2" s="4"/>
-      <c r="CAE2" s="4"/>
-      <c r="CAF2" s="4"/>
-      <c r="CAG2" s="4"/>
-      <c r="CAH2" s="4"/>
-      <c r="CAI2" s="4"/>
-      <c r="CAJ2" s="4"/>
-      <c r="CAK2" s="4"/>
-      <c r="CAL2" s="4"/>
-      <c r="CAM2" s="4"/>
-      <c r="CAN2" s="4"/>
-      <c r="CAO2" s="4"/>
-      <c r="CAP2" s="4"/>
-      <c r="CAQ2" s="4"/>
-      <c r="CAR2" s="4"/>
-      <c r="CAS2" s="4"/>
-      <c r="CAT2" s="4"/>
-      <c r="CAU2" s="4"/>
-      <c r="CAV2" s="4"/>
-      <c r="CAW2" s="4"/>
-      <c r="CAX2" s="4"/>
-      <c r="CAY2" s="4"/>
-      <c r="CAZ2" s="4"/>
-      <c r="CBA2" s="4"/>
-      <c r="CBB2" s="4"/>
-      <c r="CBC2" s="4"/>
-      <c r="CBD2" s="4"/>
-      <c r="CBE2" s="4"/>
-      <c r="CBF2" s="4"/>
-      <c r="CBG2" s="4"/>
-      <c r="CBH2" s="4"/>
-      <c r="CBI2" s="4"/>
-      <c r="CBJ2" s="4"/>
-      <c r="CBK2" s="4"/>
-      <c r="CBL2" s="4"/>
-      <c r="CBM2" s="4"/>
-      <c r="CBN2" s="4"/>
-      <c r="CBO2" s="4"/>
-      <c r="CBP2" s="4"/>
-      <c r="CBQ2" s="4"/>
-      <c r="CBR2" s="4"/>
-      <c r="CBS2" s="4"/>
-      <c r="CBT2" s="4"/>
-      <c r="CBU2" s="4"/>
-      <c r="CBV2" s="4"/>
-      <c r="CBW2" s="4"/>
-      <c r="CBX2" s="4"/>
-      <c r="CBY2" s="4"/>
-      <c r="CBZ2" s="4"/>
-      <c r="CCA2" s="4"/>
-      <c r="CCB2" s="4"/>
-      <c r="CCC2" s="4"/>
-      <c r="CCD2" s="4"/>
-      <c r="CCE2" s="4"/>
-      <c r="CCF2" s="4"/>
-      <c r="CCG2" s="4"/>
-      <c r="CCH2" s="4"/>
-      <c r="CCI2" s="4"/>
-      <c r="CCJ2" s="4"/>
-      <c r="CCK2" s="4"/>
-      <c r="CCL2" s="4"/>
-      <c r="CCM2" s="4"/>
-      <c r="CCN2" s="4"/>
-      <c r="CCO2" s="4"/>
-      <c r="CCP2" s="4"/>
-      <c r="CCQ2" s="4"/>
-      <c r="CCR2" s="4"/>
-      <c r="CCS2" s="4"/>
-      <c r="CCT2" s="4"/>
-      <c r="CCU2" s="4"/>
-      <c r="CCV2" s="4"/>
-      <c r="CCW2" s="4"/>
-      <c r="CCX2" s="4"/>
-      <c r="CCY2" s="4"/>
-      <c r="CCZ2" s="4"/>
-      <c r="CDA2" s="4"/>
-      <c r="CDB2" s="4"/>
-      <c r="CDC2" s="4"/>
-      <c r="CDD2" s="4"/>
-      <c r="CDE2" s="4"/>
-      <c r="CDF2" s="4"/>
-      <c r="CDG2" s="4"/>
-      <c r="CDH2" s="4"/>
-      <c r="CDI2" s="4"/>
-      <c r="CDJ2" s="4"/>
-      <c r="CDK2" s="4"/>
-      <c r="CDL2" s="4"/>
-      <c r="CDM2" s="4"/>
-      <c r="CDN2" s="4"/>
-      <c r="CDO2" s="4"/>
-      <c r="CDP2" s="4"/>
-      <c r="CDQ2" s="4"/>
-      <c r="CDR2" s="4"/>
-      <c r="CDS2" s="4"/>
-      <c r="CDT2" s="4"/>
-      <c r="CDU2" s="4"/>
-      <c r="CDV2" s="4"/>
-      <c r="CDW2" s="4"/>
-      <c r="CDX2" s="4"/>
-      <c r="CDY2" s="4"/>
-      <c r="CDZ2" s="4"/>
-      <c r="CEA2" s="4"/>
-      <c r="CEB2" s="4"/>
-      <c r="CEC2" s="4"/>
-      <c r="CED2" s="4"/>
-      <c r="CEE2" s="4"/>
-      <c r="CEF2" s="4"/>
-      <c r="CEG2" s="4"/>
-      <c r="CEH2" s="4"/>
-      <c r="CEI2" s="4"/>
-      <c r="CEJ2" s="4"/>
-      <c r="CEK2" s="4"/>
-      <c r="CEL2" s="4"/>
-      <c r="CEM2" s="4"/>
-      <c r="CEN2" s="4"/>
-      <c r="CEO2" s="4"/>
-      <c r="CEP2" s="4"/>
-      <c r="CEQ2" s="4"/>
-      <c r="CER2" s="4"/>
-      <c r="CES2" s="4"/>
-      <c r="CET2" s="4"/>
-      <c r="CEU2" s="4"/>
-      <c r="CEV2" s="4"/>
-      <c r="CEW2" s="4"/>
-      <c r="CEX2" s="4"/>
-      <c r="CEY2" s="4"/>
-      <c r="CEZ2" s="4"/>
-      <c r="CFA2" s="4"/>
-      <c r="CFB2" s="4"/>
-      <c r="CFC2" s="4"/>
-      <c r="CFD2" s="4"/>
-      <c r="CFE2" s="4"/>
-      <c r="CFF2" s="4"/>
-      <c r="CFG2" s="4"/>
-      <c r="CFH2" s="4"/>
-      <c r="CFI2" s="4"/>
-      <c r="CFJ2" s="4"/>
-      <c r="CFK2" s="4"/>
-      <c r="CFL2" s="4"/>
-      <c r="CFM2" s="4"/>
-      <c r="CFN2" s="4"/>
-      <c r="CFO2" s="4"/>
-      <c r="CFP2" s="4"/>
-      <c r="CFQ2" s="4"/>
-      <c r="CFR2" s="4"/>
-      <c r="CFS2" s="4"/>
-      <c r="CFT2" s="4"/>
-      <c r="CFU2" s="4"/>
-      <c r="CFV2" s="4"/>
-      <c r="CFW2" s="4"/>
-      <c r="CFX2" s="4"/>
-      <c r="CFY2" s="4"/>
-      <c r="CFZ2" s="4"/>
-      <c r="CGA2" s="4"/>
-      <c r="CGB2" s="4"/>
-      <c r="CGC2" s="4"/>
-      <c r="CGD2" s="4"/>
-      <c r="CGE2" s="4"/>
-      <c r="CGF2" s="4"/>
-      <c r="CGG2" s="4"/>
-      <c r="CGH2" s="4"/>
-      <c r="CGI2" s="4"/>
-      <c r="CGJ2" s="4"/>
-      <c r="CGK2" s="4"/>
-      <c r="CGL2" s="4"/>
-      <c r="CGM2" s="4"/>
-      <c r="CGN2" s="4"/>
-      <c r="CGO2" s="4"/>
-      <c r="CGP2" s="4"/>
-      <c r="CGQ2" s="4"/>
-      <c r="CGR2" s="4"/>
-      <c r="CGS2" s="4"/>
-      <c r="CGT2" s="4"/>
-      <c r="CGU2" s="4"/>
-      <c r="CGV2" s="4"/>
-      <c r="CGW2" s="4"/>
-      <c r="CGX2" s="4"/>
-      <c r="CGY2" s="4"/>
-      <c r="CGZ2" s="4"/>
-      <c r="CHA2" s="4"/>
-      <c r="CHB2" s="4"/>
-      <c r="CHC2" s="4"/>
-      <c r="CHD2" s="4"/>
-      <c r="CHE2" s="4"/>
-      <c r="CHF2" s="4"/>
-      <c r="CHG2" s="4"/>
-      <c r="CHH2" s="4"/>
-      <c r="CHI2" s="4"/>
-      <c r="CHJ2" s="4"/>
-      <c r="CHK2" s="4"/>
-      <c r="CHL2" s="4"/>
-      <c r="CHM2" s="4"/>
-      <c r="CHN2" s="4"/>
-      <c r="CHO2" s="4"/>
-      <c r="CHP2" s="4"/>
-      <c r="CHQ2" s="4"/>
-      <c r="CHR2" s="4"/>
-      <c r="CHS2" s="4"/>
-      <c r="CHT2" s="4"/>
-      <c r="CHU2" s="4"/>
-      <c r="CHV2" s="4"/>
-      <c r="CHW2" s="4"/>
-      <c r="CHX2" s="4"/>
-      <c r="CHY2" s="4"/>
-      <c r="CHZ2" s="4"/>
-      <c r="CIA2" s="4"/>
-      <c r="CIB2" s="4"/>
-      <c r="CIC2" s="4"/>
-      <c r="CID2" s="4"/>
-      <c r="CIE2" s="4"/>
-      <c r="CIF2" s="4"/>
-      <c r="CIG2" s="4"/>
-      <c r="CIH2" s="4"/>
-      <c r="CII2" s="4"/>
-      <c r="CIJ2" s="4"/>
-      <c r="CIK2" s="4"/>
-      <c r="CIL2" s="4"/>
-      <c r="CIM2" s="4"/>
-      <c r="CIN2" s="4"/>
-      <c r="CIO2" s="4"/>
-      <c r="CIP2" s="4"/>
-      <c r="CIQ2" s="4"/>
-      <c r="CIR2" s="4"/>
-      <c r="CIS2" s="4"/>
-      <c r="CIT2" s="4"/>
-      <c r="CIU2" s="4"/>
-      <c r="CIV2" s="4"/>
-      <c r="CIW2" s="4"/>
-      <c r="CIX2" s="4"/>
-      <c r="CIY2" s="4"/>
-      <c r="CIZ2" s="4"/>
-      <c r="CJA2" s="4"/>
-      <c r="CJB2" s="4"/>
-      <c r="CJC2" s="4"/>
-      <c r="CJD2" s="4"/>
-      <c r="CJE2" s="4"/>
-      <c r="CJF2" s="4"/>
-      <c r="CJG2" s="4"/>
-      <c r="CJH2" s="4"/>
-      <c r="CJI2" s="4"/>
-      <c r="CJJ2" s="4"/>
-      <c r="CJK2" s="4"/>
-      <c r="CJL2" s="4"/>
-      <c r="CJM2" s="4"/>
-      <c r="CJN2" s="4"/>
-      <c r="CJO2" s="4"/>
-      <c r="CJP2" s="4"/>
-      <c r="CJQ2" s="4"/>
-      <c r="CJR2" s="4"/>
-      <c r="CJS2" s="4"/>
-      <c r="CJT2" s="4"/>
-      <c r="CJU2" s="4"/>
-      <c r="CJV2" s="4"/>
-      <c r="CJW2" s="4"/>
-      <c r="CJX2" s="4"/>
-      <c r="CJY2" s="4"/>
-      <c r="CJZ2" s="4"/>
-      <c r="CKA2" s="4"/>
-      <c r="CKB2" s="4"/>
-      <c r="CKC2" s="4"/>
-      <c r="CKD2" s="4"/>
-      <c r="CKE2" s="4"/>
-      <c r="CKF2" s="4"/>
-      <c r="CKG2" s="4"/>
-      <c r="CKH2" s="4"/>
-      <c r="CKI2" s="4"/>
-      <c r="CKJ2" s="4"/>
-      <c r="CKK2" s="4"/>
-      <c r="CKL2" s="4"/>
-      <c r="CKM2" s="4"/>
-      <c r="CKN2" s="4"/>
-      <c r="CKO2" s="4"/>
-      <c r="CKP2" s="4"/>
-      <c r="CKQ2" s="4"/>
-      <c r="CKR2" s="4"/>
-      <c r="CKS2" s="4"/>
-      <c r="CKT2" s="4"/>
-      <c r="CKU2" s="4"/>
-      <c r="CKV2" s="4"/>
-      <c r="CKW2" s="4"/>
-      <c r="CKX2" s="4"/>
-      <c r="CKY2" s="4"/>
-      <c r="CKZ2" s="4"/>
-      <c r="CLA2" s="4"/>
-      <c r="CLB2" s="4"/>
-      <c r="CLC2" s="4"/>
-      <c r="CLD2" s="4"/>
-      <c r="CLE2" s="4"/>
-      <c r="CLF2" s="4"/>
-      <c r="CLG2" s="4"/>
-      <c r="CLH2" s="4"/>
-      <c r="CLI2" s="4"/>
-      <c r="CLJ2" s="4"/>
-      <c r="CLK2" s="4"/>
-      <c r="CLL2" s="4"/>
-      <c r="CLM2" s="4"/>
-      <c r="CLN2" s="4"/>
-      <c r="CLO2" s="4"/>
-      <c r="CLP2" s="4"/>
-      <c r="CLQ2" s="4"/>
-      <c r="CLR2" s="4"/>
-      <c r="CLS2" s="4"/>
-      <c r="CLT2" s="4"/>
-      <c r="CLU2" s="4"/>
-      <c r="CLV2" s="4"/>
-      <c r="CLW2" s="4"/>
-      <c r="CLX2" s="4"/>
-      <c r="CLY2" s="4"/>
-      <c r="CLZ2" s="4"/>
-      <c r="CMA2" s="4"/>
-      <c r="CMB2" s="4"/>
-      <c r="CMC2" s="4"/>
-      <c r="CMD2" s="4"/>
-      <c r="CME2" s="4"/>
-      <c r="CMF2" s="4"/>
-      <c r="CMG2" s="4"/>
-      <c r="CMH2" s="4"/>
-      <c r="CMI2" s="4"/>
-      <c r="CMJ2" s="4"/>
-      <c r="CMK2" s="4"/>
-      <c r="CML2" s="4"/>
-      <c r="CMM2" s="4"/>
-      <c r="CMN2" s="4"/>
-      <c r="CMO2" s="4"/>
-      <c r="CMP2" s="4"/>
-      <c r="CMQ2" s="4"/>
-      <c r="CMR2" s="4"/>
-      <c r="CMS2" s="4"/>
-      <c r="CMT2" s="4"/>
-      <c r="CMU2" s="4"/>
-      <c r="CMV2" s="4"/>
-      <c r="CMW2" s="4"/>
-      <c r="CMX2" s="4"/>
-      <c r="CMY2" s="4"/>
-      <c r="CMZ2" s="4"/>
-      <c r="CNA2" s="4"/>
-      <c r="CNB2" s="4"/>
-      <c r="CNC2" s="4"/>
-      <c r="CND2" s="4"/>
-      <c r="CNE2" s="4"/>
-      <c r="CNF2" s="4"/>
-      <c r="CNG2" s="4"/>
-      <c r="CNH2" s="4"/>
-      <c r="CNI2" s="4"/>
-      <c r="CNJ2" s="4"/>
-      <c r="CNK2" s="4"/>
-      <c r="CNL2" s="4"/>
-      <c r="CNM2" s="4"/>
-      <c r="CNN2" s="4"/>
-      <c r="CNO2" s="4"/>
-      <c r="CNP2" s="4"/>
-      <c r="CNQ2" s="4"/>
-      <c r="CNR2" s="4"/>
-      <c r="CNS2" s="4"/>
-      <c r="CNT2" s="4"/>
-      <c r="CNU2" s="4"/>
-      <c r="CNV2" s="4"/>
-      <c r="CNW2" s="4"/>
-      <c r="CNX2" s="4"/>
-      <c r="CNY2" s="4"/>
-      <c r="CNZ2" s="4"/>
-      <c r="COA2" s="4"/>
-      <c r="COB2" s="4"/>
-      <c r="COC2" s="4"/>
-      <c r="COD2" s="4"/>
-      <c r="COE2" s="4"/>
-      <c r="COF2" s="4"/>
-      <c r="COG2" s="4"/>
-      <c r="COH2" s="4"/>
-      <c r="COI2" s="4"/>
-      <c r="COJ2" s="4"/>
-      <c r="COK2" s="4"/>
-      <c r="COL2" s="4"/>
-      <c r="COM2" s="4"/>
-      <c r="CON2" s="4"/>
-      <c r="COO2" s="4"/>
-      <c r="COP2" s="4"/>
-      <c r="COQ2" s="4"/>
-      <c r="COR2" s="4"/>
-      <c r="COS2" s="4"/>
-      <c r="COT2" s="4"/>
-      <c r="COU2" s="4"/>
-      <c r="COV2" s="4"/>
-      <c r="COW2" s="4"/>
-      <c r="COX2" s="4"/>
-      <c r="COY2" s="4"/>
-      <c r="COZ2" s="4"/>
-      <c r="CPA2" s="4"/>
-      <c r="CPB2" s="4"/>
-      <c r="CPC2" s="4"/>
-      <c r="CPD2" s="4"/>
-      <c r="CPE2" s="4"/>
-      <c r="CPF2" s="4"/>
-      <c r="CPG2" s="4"/>
-      <c r="CPH2" s="4"/>
-      <c r="CPI2" s="4"/>
-      <c r="CPJ2" s="4"/>
-      <c r="CPK2" s="4"/>
-      <c r="CPL2" s="4"/>
-      <c r="CPM2" s="4"/>
-      <c r="CPN2" s="4"/>
-      <c r="CPO2" s="4"/>
-      <c r="CPP2" s="4"/>
-      <c r="CPQ2" s="4"/>
-      <c r="CPR2" s="4"/>
-      <c r="CPS2" s="4"/>
-      <c r="CPT2" s="4"/>
-      <c r="CPU2" s="4"/>
-      <c r="CPV2" s="4"/>
-      <c r="CPW2" s="4"/>
-      <c r="CPX2" s="4"/>
-      <c r="CPY2" s="4"/>
-      <c r="CPZ2" s="4"/>
-      <c r="CQA2" s="4"/>
-      <c r="CQB2" s="4"/>
-      <c r="CQC2" s="4"/>
-      <c r="CQD2" s="4"/>
-      <c r="CQE2" s="4"/>
-      <c r="CQF2" s="4"/>
-      <c r="CQG2" s="4"/>
-      <c r="CQH2" s="4"/>
-      <c r="CQI2" s="4"/>
-      <c r="CQJ2" s="4"/>
-      <c r="CQK2" s="4"/>
-      <c r="CQL2" s="4"/>
-      <c r="CQM2" s="4"/>
-      <c r="CQN2" s="4"/>
-      <c r="CQO2" s="4"/>
-      <c r="CQP2" s="4"/>
-      <c r="CQQ2" s="4"/>
-      <c r="CQR2" s="4"/>
-      <c r="CQS2" s="4"/>
-      <c r="CQT2" s="4"/>
-      <c r="CQU2" s="4"/>
-      <c r="CQV2" s="4"/>
-      <c r="CQW2" s="4"/>
-      <c r="CQX2" s="4"/>
-      <c r="CQY2" s="4"/>
-      <c r="CQZ2" s="4"/>
-      <c r="CRA2" s="4"/>
-      <c r="CRB2" s="4"/>
-      <c r="CRC2" s="4"/>
-      <c r="CRD2" s="4"/>
-      <c r="CRE2" s="4"/>
-      <c r="CRF2" s="4"/>
-      <c r="CRG2" s="4"/>
-      <c r="CRH2" s="4"/>
-      <c r="CRI2" s="4"/>
-      <c r="CRJ2" s="4"/>
-      <c r="CRK2" s="4"/>
-      <c r="CRL2" s="4"/>
-      <c r="CRM2" s="4"/>
-      <c r="CRN2" s="4"/>
-      <c r="CRO2" s="4"/>
-      <c r="CRP2" s="4"/>
-      <c r="CRQ2" s="4"/>
-      <c r="CRR2" s="4"/>
-      <c r="CRS2" s="4"/>
-      <c r="CRT2" s="4"/>
-      <c r="CRU2" s="4"/>
-      <c r="CRV2" s="4"/>
-      <c r="CRW2" s="4"/>
-      <c r="CRX2" s="4"/>
-      <c r="CRY2" s="4"/>
-      <c r="CRZ2" s="4"/>
-      <c r="CSA2" s="4"/>
-      <c r="CSB2" s="4"/>
-      <c r="CSC2" s="4"/>
-      <c r="CSD2" s="4"/>
-      <c r="CSE2" s="4"/>
-      <c r="CSF2" s="4"/>
-      <c r="CSG2" s="4"/>
-      <c r="CSH2" s="4"/>
-      <c r="CSI2" s="4"/>
-      <c r="CSJ2" s="4"/>
-      <c r="CSK2" s="4"/>
-      <c r="CSL2" s="4"/>
-      <c r="CSM2" s="4"/>
-      <c r="CSN2" s="4"/>
-      <c r="CSO2" s="4"/>
-      <c r="CSP2" s="4"/>
-      <c r="CSQ2" s="4"/>
-      <c r="CSR2" s="4"/>
-      <c r="CSS2" s="4"/>
-      <c r="CST2" s="4"/>
-      <c r="CSU2" s="4"/>
-      <c r="CSV2" s="4"/>
-      <c r="CSW2" s="4"/>
-      <c r="CSX2" s="4"/>
-      <c r="CSY2" s="4"/>
-      <c r="CSZ2" s="4"/>
-      <c r="CTA2" s="4"/>
-      <c r="CTB2" s="4"/>
-      <c r="CTC2" s="4"/>
-      <c r="CTD2" s="4"/>
-      <c r="CTE2" s="4"/>
-      <c r="CTF2" s="4"/>
-      <c r="CTG2" s="4"/>
-      <c r="CTH2" s="4"/>
-      <c r="CTI2" s="4"/>
-      <c r="CTJ2" s="4"/>
-      <c r="CTK2" s="4"/>
-      <c r="CTL2" s="4"/>
-      <c r="CTM2" s="4"/>
-      <c r="CTN2" s="4"/>
-      <c r="CTO2" s="4"/>
-      <c r="CTP2" s="4"/>
-      <c r="CTQ2" s="4"/>
-      <c r="CTR2" s="4"/>
-      <c r="CTS2" s="4"/>
-      <c r="CTT2" s="4"/>
-      <c r="CTU2" s="4"/>
-      <c r="CTV2" s="4"/>
-      <c r="CTW2" s="4"/>
-      <c r="CTX2" s="4"/>
-      <c r="CTY2" s="4"/>
-      <c r="CTZ2" s="4"/>
-    </row>
-    <row r="3" spans="1:2574" s="1" customFormat="1" ht="15">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
-      <c r="CA3" s="4"/>
-      <c r="CB3" s="4"/>
-      <c r="CC3" s="4"/>
-      <c r="CD3" s="4"/>
-      <c r="CE3" s="4"/>
-      <c r="CF3" s="4"/>
-      <c r="CG3" s="4"/>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="4"/>
-      <c r="CM3" s="4"/>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
-      <c r="CP3" s="4"/>
-      <c r="CQ3" s="4"/>
-      <c r="CR3" s="4"/>
-      <c r="CS3" s="4"/>
-      <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
-      <c r="CY3" s="4"/>
-      <c r="CZ3" s="4"/>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="4"/>
-      <c r="DC3" s="4"/>
-      <c r="DD3" s="4"/>
-      <c r="DE3" s="4"/>
-      <c r="DF3" s="4"/>
-      <c r="DG3" s="4"/>
-      <c r="DH3" s="4"/>
-      <c r="DI3" s="4"/>
-      <c r="DJ3" s="4"/>
-      <c r="DK3" s="4"/>
-      <c r="DL3" s="4"/>
-      <c r="DM3" s="4"/>
-      <c r="DN3" s="4"/>
-      <c r="DO3" s="4"/>
-      <c r="DP3" s="4"/>
-      <c r="DQ3" s="4"/>
-      <c r="DR3" s="4"/>
-      <c r="DS3" s="4"/>
-      <c r="DT3" s="4"/>
-      <c r="DU3" s="4"/>
-      <c r="DV3" s="4"/>
-      <c r="DW3" s="4"/>
-      <c r="DX3" s="4"/>
-      <c r="DY3" s="4"/>
-      <c r="DZ3" s="4"/>
-      <c r="EA3" s="4"/>
-      <c r="EB3" s="4"/>
-      <c r="EC3" s="4"/>
-      <c r="ED3" s="4"/>
-      <c r="EE3" s="4"/>
-      <c r="EF3" s="4"/>
-      <c r="EG3" s="4"/>
-      <c r="EH3" s="4"/>
-      <c r="EI3" s="4"/>
-      <c r="EJ3" s="4"/>
-      <c r="EK3" s="4"/>
-      <c r="EL3" s="4"/>
-      <c r="EM3" s="4"/>
-      <c r="EN3" s="4"/>
-      <c r="EO3" s="4"/>
-      <c r="EP3" s="4"/>
-      <c r="EQ3" s="4"/>
-      <c r="ER3" s="4"/>
-      <c r="ES3" s="4"/>
-      <c r="ET3" s="4"/>
-      <c r="EU3" s="4"/>
-      <c r="EV3" s="4"/>
-      <c r="EW3" s="4"/>
-      <c r="EX3" s="4"/>
-      <c r="EY3" s="4"/>
-      <c r="EZ3" s="4"/>
-      <c r="FA3" s="4"/>
-      <c r="FB3" s="4"/>
-      <c r="FC3" s="4"/>
-      <c r="FD3" s="4"/>
-      <c r="FE3" s="4"/>
-      <c r="FF3" s="4"/>
-      <c r="FG3" s="4"/>
-      <c r="FH3" s="4"/>
-      <c r="FI3" s="4"/>
-      <c r="FJ3" s="4"/>
-      <c r="FK3" s="4"/>
-      <c r="FL3" s="4"/>
-      <c r="FM3" s="4"/>
-      <c r="FN3" s="4"/>
-      <c r="FO3" s="4"/>
-      <c r="FP3" s="4"/>
-      <c r="FQ3" s="4"/>
-      <c r="FR3" s="4"/>
-      <c r="FS3" s="4"/>
-      <c r="FT3" s="4"/>
-      <c r="FU3" s="4"/>
-      <c r="FV3" s="4"/>
-      <c r="FW3" s="4"/>
-      <c r="FX3" s="4"/>
-      <c r="FY3" s="4"/>
-      <c r="FZ3" s="4"/>
-      <c r="GA3" s="4"/>
-      <c r="GB3" s="4"/>
-      <c r="GC3" s="4"/>
-      <c r="GD3" s="4"/>
-      <c r="GE3" s="4"/>
-      <c r="GF3" s="4"/>
-      <c r="GG3" s="4"/>
-      <c r="GH3" s="4"/>
-      <c r="GI3" s="4"/>
-      <c r="GJ3" s="4"/>
-      <c r="GK3" s="4"/>
-      <c r="GL3" s="4"/>
-      <c r="GM3" s="4"/>
-      <c r="GN3" s="4"/>
-      <c r="GO3" s="4"/>
-      <c r="GP3" s="4"/>
-      <c r="GQ3" s="4"/>
-      <c r="GR3" s="4"/>
-      <c r="GS3" s="4"/>
-      <c r="GT3" s="4"/>
-      <c r="GU3" s="4"/>
-      <c r="GV3" s="4"/>
-      <c r="GW3" s="4"/>
-      <c r="GX3" s="4"/>
-      <c r="GY3" s="4"/>
-      <c r="GZ3" s="4"/>
-      <c r="HA3" s="4"/>
-      <c r="HB3" s="4"/>
-      <c r="HC3" s="4"/>
-      <c r="HD3" s="4"/>
-      <c r="HE3" s="4"/>
-      <c r="HF3" s="4"/>
-      <c r="HG3" s="4"/>
-      <c r="HH3" s="4"/>
-      <c r="HI3" s="4"/>
-      <c r="HJ3" s="4"/>
-      <c r="HK3" s="4"/>
-      <c r="HL3" s="4"/>
-      <c r="HM3" s="4"/>
-      <c r="HN3" s="4"/>
-      <c r="HO3" s="4"/>
-      <c r="HP3" s="4"/>
-      <c r="HQ3" s="4"/>
-      <c r="HR3" s="4"/>
-      <c r="HS3" s="4"/>
-      <c r="HT3" s="4"/>
-      <c r="HU3" s="4"/>
-      <c r="HV3" s="4"/>
-      <c r="HW3" s="4"/>
-      <c r="HX3" s="4"/>
-      <c r="HY3" s="4"/>
-      <c r="HZ3" s="4"/>
-      <c r="IA3" s="4"/>
-      <c r="IB3" s="4"/>
-      <c r="IC3" s="4"/>
-      <c r="ID3" s="4"/>
-      <c r="IE3" s="4"/>
-      <c r="IF3" s="4"/>
-      <c r="IG3" s="4"/>
-      <c r="IH3" s="4"/>
-      <c r="II3" s="4"/>
-      <c r="IJ3" s="4"/>
-      <c r="IK3" s="4"/>
-      <c r="IL3" s="4"/>
-      <c r="IM3" s="4"/>
-      <c r="IN3" s="4"/>
-      <c r="IO3" s="4"/>
-      <c r="IP3" s="4"/>
-      <c r="IQ3" s="4"/>
-      <c r="IR3" s="4"/>
-      <c r="IS3" s="4"/>
-      <c r="IT3" s="4"/>
-      <c r="IU3" s="4"/>
-      <c r="IV3" s="4"/>
-      <c r="IW3" s="4"/>
-      <c r="IX3" s="4"/>
-      <c r="IY3" s="4"/>
-      <c r="IZ3" s="4"/>
-      <c r="JA3" s="4"/>
-      <c r="JB3" s="4"/>
-      <c r="JC3" s="4"/>
-      <c r="JD3" s="4"/>
-      <c r="JE3" s="4"/>
-      <c r="JF3" s="4"/>
-      <c r="JG3" s="4"/>
-      <c r="JH3" s="4"/>
-      <c r="JI3" s="4"/>
-      <c r="JJ3" s="4"/>
-      <c r="JK3" s="4"/>
-      <c r="JL3" s="4"/>
-      <c r="JM3" s="4"/>
-      <c r="JN3" s="4"/>
-      <c r="JO3" s="4"/>
-      <c r="JP3" s="4"/>
-      <c r="JQ3" s="4"/>
-      <c r="JR3" s="4"/>
-      <c r="JS3" s="4"/>
-      <c r="JT3" s="4"/>
-      <c r="JU3" s="4"/>
-      <c r="JV3" s="4"/>
-      <c r="JW3" s="4"/>
-      <c r="JX3" s="4"/>
-      <c r="JY3" s="4"/>
-      <c r="JZ3" s="4"/>
-      <c r="KA3" s="4"/>
-      <c r="KB3" s="4"/>
-      <c r="KC3" s="4"/>
-      <c r="KD3" s="4"/>
-      <c r="KE3" s="4"/>
-      <c r="KF3" s="4"/>
-      <c r="KG3" s="4"/>
-      <c r="KH3" s="4"/>
-      <c r="KI3" s="4"/>
-      <c r="KJ3" s="4"/>
-      <c r="KK3" s="4"/>
-      <c r="KL3" s="4"/>
-      <c r="KM3" s="4"/>
-      <c r="KN3" s="4"/>
-      <c r="KO3" s="4"/>
-      <c r="KP3" s="4"/>
-      <c r="KQ3" s="4"/>
-      <c r="KR3" s="4"/>
-      <c r="KS3" s="4"/>
-      <c r="KT3" s="4"/>
-      <c r="KU3" s="4"/>
-      <c r="KV3" s="4"/>
-      <c r="KW3" s="4"/>
-      <c r="KX3" s="4"/>
-      <c r="KY3" s="4"/>
-      <c r="KZ3" s="4"/>
-      <c r="LA3" s="4"/>
-      <c r="LB3" s="4"/>
-      <c r="LC3" s="4"/>
-      <c r="LD3" s="4"/>
-      <c r="LE3" s="4"/>
-      <c r="LF3" s="4"/>
-      <c r="LG3" s="4"/>
-      <c r="LH3" s="4"/>
-      <c r="LI3" s="4"/>
-      <c r="LJ3" s="4"/>
-      <c r="LK3" s="4"/>
-      <c r="LL3" s="4"/>
-      <c r="LM3" s="4"/>
-      <c r="LN3" s="4"/>
-      <c r="LO3" s="4"/>
-      <c r="LP3" s="4"/>
-      <c r="LQ3" s="4"/>
-      <c r="LR3" s="4"/>
-      <c r="LS3" s="4"/>
-      <c r="LT3" s="4"/>
-      <c r="LU3" s="4"/>
-      <c r="LV3" s="4"/>
-      <c r="LW3" s="4"/>
-      <c r="LX3" s="4"/>
-      <c r="LY3" s="4"/>
-      <c r="LZ3" s="4"/>
-      <c r="MA3" s="4"/>
-      <c r="MB3" s="4"/>
-      <c r="MC3" s="4"/>
-      <c r="MD3" s="4"/>
-      <c r="ME3" s="4"/>
-      <c r="MF3" s="4"/>
-      <c r="MG3" s="4"/>
-      <c r="MH3" s="4"/>
-      <c r="MI3" s="4"/>
-      <c r="MJ3" s="4"/>
-      <c r="MK3" s="4"/>
-      <c r="ML3" s="4"/>
-      <c r="MM3" s="4"/>
-      <c r="MN3" s="4"/>
-      <c r="MO3" s="4"/>
-      <c r="MP3" s="4"/>
-      <c r="MQ3" s="4"/>
-      <c r="MR3" s="4"/>
-      <c r="MS3" s="4"/>
-      <c r="MT3" s="4"/>
-      <c r="MU3" s="4"/>
-      <c r="MV3" s="4"/>
-      <c r="MW3" s="4"/>
-      <c r="MX3" s="4"/>
-      <c r="MY3" s="4"/>
-      <c r="MZ3" s="4"/>
-      <c r="NA3" s="4"/>
-      <c r="NB3" s="4"/>
-      <c r="NC3" s="4"/>
-      <c r="ND3" s="4"/>
-      <c r="NE3" s="4"/>
-      <c r="NF3" s="4"/>
-      <c r="NG3" s="4"/>
-      <c r="NH3" s="4"/>
-      <c r="NI3" s="4"/>
-      <c r="NJ3" s="4"/>
-      <c r="NK3" s="4"/>
-      <c r="NL3" s="4"/>
-      <c r="NM3" s="4"/>
-      <c r="NN3" s="4"/>
-      <c r="NO3" s="4"/>
-      <c r="NP3" s="4"/>
-      <c r="NQ3" s="4"/>
-      <c r="NR3" s="4"/>
-      <c r="NS3" s="4"/>
-      <c r="NT3" s="4"/>
-      <c r="NU3" s="4"/>
-      <c r="NV3" s="4"/>
-      <c r="NW3" s="4"/>
-      <c r="NX3" s="4"/>
-      <c r="NY3" s="4"/>
-      <c r="NZ3" s="4"/>
-      <c r="OA3" s="4"/>
-      <c r="OB3" s="4"/>
-      <c r="OC3" s="4"/>
-      <c r="OD3" s="4"/>
-      <c r="OE3" s="4"/>
-      <c r="OF3" s="4"/>
-      <c r="OG3" s="4"/>
-      <c r="OH3" s="4"/>
-      <c r="OI3" s="4"/>
-      <c r="OJ3" s="4"/>
-      <c r="OK3" s="4"/>
-      <c r="OL3" s="4"/>
-      <c r="OM3" s="4"/>
-      <c r="ON3" s="4"/>
-      <c r="OO3" s="4"/>
-      <c r="OP3" s="4"/>
-      <c r="OQ3" s="4"/>
-      <c r="OR3" s="4"/>
-      <c r="OS3" s="4"/>
-      <c r="OT3" s="4"/>
-      <c r="OU3" s="4"/>
-      <c r="OV3" s="4"/>
-      <c r="OW3" s="4"/>
-      <c r="OX3" s="4"/>
-      <c r="OY3" s="4"/>
-      <c r="OZ3" s="4"/>
-      <c r="PA3" s="4"/>
-      <c r="PB3" s="4"/>
-      <c r="PC3" s="4"/>
-      <c r="PD3" s="4"/>
-      <c r="PE3" s="4"/>
-      <c r="PF3" s="4"/>
-      <c r="PG3" s="4"/>
-      <c r="PH3" s="4"/>
-      <c r="PI3" s="4"/>
-      <c r="PJ3" s="4"/>
-      <c r="PK3" s="4"/>
-      <c r="PL3" s="4"/>
-      <c r="PM3" s="4"/>
-      <c r="PN3" s="4"/>
-      <c r="PO3" s="4"/>
-      <c r="PP3" s="4"/>
-      <c r="PQ3" s="4"/>
-      <c r="PR3" s="4"/>
-      <c r="PS3" s="4"/>
-      <c r="PT3" s="4"/>
-      <c r="PU3" s="4"/>
-      <c r="PV3" s="4"/>
-      <c r="PW3" s="4"/>
-      <c r="PX3" s="4"/>
-      <c r="PY3" s="4"/>
-      <c r="PZ3" s="4"/>
-      <c r="QA3" s="4"/>
-      <c r="QB3" s="4"/>
-      <c r="QC3" s="4"/>
-      <c r="QD3" s="4"/>
-      <c r="QE3" s="4"/>
-      <c r="QF3" s="4"/>
-      <c r="QG3" s="4"/>
-      <c r="QH3" s="4"/>
-      <c r="QI3" s="4"/>
-      <c r="QJ3" s="4"/>
-      <c r="QK3" s="4"/>
-      <c r="QL3" s="4"/>
-      <c r="QM3" s="4"/>
-      <c r="QN3" s="4"/>
-      <c r="QO3" s="4"/>
-      <c r="QP3" s="4"/>
-      <c r="QQ3" s="4"/>
-      <c r="QR3" s="4"/>
-      <c r="QS3" s="4"/>
-      <c r="QT3" s="4"/>
-      <c r="QU3" s="4"/>
-      <c r="QV3" s="4"/>
-      <c r="QW3" s="4"/>
-      <c r="QX3" s="4"/>
-      <c r="QY3" s="4"/>
-      <c r="QZ3" s="4"/>
-      <c r="RA3" s="4"/>
-      <c r="RB3" s="4"/>
-      <c r="RC3" s="4"/>
-      <c r="RD3" s="4"/>
-      <c r="RE3" s="4"/>
-      <c r="RF3" s="4"/>
-      <c r="RG3" s="4"/>
-      <c r="RH3" s="4"/>
-      <c r="RI3" s="4"/>
-      <c r="RJ3" s="4"/>
-      <c r="RK3" s="4"/>
-      <c r="RL3" s="4"/>
-      <c r="RM3" s="4"/>
-      <c r="RN3" s="4"/>
-      <c r="RO3" s="4"/>
-      <c r="RP3" s="4"/>
-      <c r="RQ3" s="4"/>
-      <c r="RR3" s="4"/>
-      <c r="RS3" s="4"/>
-      <c r="RT3" s="4"/>
-      <c r="RU3" s="4"/>
-      <c r="RV3" s="4"/>
-      <c r="RW3" s="4"/>
-      <c r="RX3" s="4"/>
-      <c r="RY3" s="4"/>
-      <c r="RZ3" s="4"/>
-      <c r="SA3" s="4"/>
-      <c r="SB3" s="4"/>
-      <c r="SC3" s="4"/>
-      <c r="SD3" s="4"/>
-      <c r="SE3" s="4"/>
-      <c r="SF3" s="4"/>
-      <c r="SG3" s="4"/>
-      <c r="SH3" s="4"/>
-      <c r="SI3" s="4"/>
-      <c r="SJ3" s="4"/>
-      <c r="SK3" s="4"/>
-      <c r="SL3" s="4"/>
-      <c r="SM3" s="4"/>
-      <c r="SN3" s="4"/>
-      <c r="SO3" s="4"/>
-      <c r="SP3" s="4"/>
-      <c r="SQ3" s="4"/>
-      <c r="SR3" s="4"/>
-      <c r="SS3" s="4"/>
-      <c r="ST3" s="4"/>
-      <c r="SU3" s="4"/>
-      <c r="SV3" s="4"/>
-      <c r="SW3" s="4"/>
-      <c r="SX3" s="4"/>
-      <c r="SY3" s="4"/>
-      <c r="SZ3" s="4"/>
-      <c r="TA3" s="4"/>
-      <c r="TB3" s="4"/>
-      <c r="TC3" s="4"/>
-      <c r="TD3" s="4"/>
-      <c r="TE3" s="4"/>
-      <c r="TF3" s="4"/>
-      <c r="TG3" s="4"/>
-      <c r="TH3" s="4"/>
-      <c r="TI3" s="4"/>
-      <c r="TJ3" s="4"/>
-      <c r="TK3" s="4"/>
-      <c r="TL3" s="4"/>
-      <c r="TM3" s="4"/>
-      <c r="TN3" s="4"/>
-      <c r="TO3" s="4"/>
-      <c r="TP3" s="4"/>
-      <c r="TQ3" s="4"/>
-      <c r="TR3" s="4"/>
-      <c r="TS3" s="4"/>
-      <c r="TT3" s="4"/>
-      <c r="TU3" s="4"/>
-      <c r="TV3" s="4"/>
-      <c r="TW3" s="4"/>
-      <c r="TX3" s="4"/>
-      <c r="TY3" s="4"/>
-      <c r="TZ3" s="4"/>
-      <c r="UA3" s="4"/>
-      <c r="UB3" s="4"/>
-      <c r="UC3" s="4"/>
-      <c r="UD3" s="4"/>
-      <c r="UE3" s="4"/>
-      <c r="UF3" s="4"/>
-      <c r="UG3" s="4"/>
-      <c r="UH3" s="4"/>
-      <c r="UI3" s="4"/>
-      <c r="UJ3" s="4"/>
-      <c r="UK3" s="4"/>
-      <c r="UL3" s="4"/>
-      <c r="UM3" s="4"/>
-      <c r="UN3" s="4"/>
-      <c r="UO3" s="4"/>
-      <c r="UP3" s="4"/>
-      <c r="UQ3" s="4"/>
-      <c r="UR3" s="4"/>
-      <c r="US3" s="4"/>
-      <c r="UT3" s="4"/>
-      <c r="UU3" s="4"/>
-      <c r="UV3" s="4"/>
-      <c r="UW3" s="4"/>
-      <c r="UX3" s="4"/>
-      <c r="UY3" s="4"/>
-      <c r="UZ3" s="4"/>
-      <c r="VA3" s="4"/>
-      <c r="VB3" s="4"/>
-      <c r="VC3" s="4"/>
-      <c r="VD3" s="4"/>
-      <c r="VE3" s="4"/>
-      <c r="VF3" s="4"/>
-      <c r="VG3" s="4"/>
-      <c r="VH3" s="4"/>
-      <c r="VI3" s="4"/>
-      <c r="VJ3" s="4"/>
-      <c r="VK3" s="4"/>
-      <c r="VL3" s="4"/>
-      <c r="VM3" s="4"/>
-      <c r="VN3" s="4"/>
-      <c r="VO3" s="4"/>
-      <c r="VP3" s="4"/>
-      <c r="VQ3" s="4"/>
-      <c r="VR3" s="4"/>
-      <c r="VS3" s="4"/>
-      <c r="VT3" s="4"/>
-      <c r="VU3" s="4"/>
-      <c r="VV3" s="4"/>
-      <c r="VW3" s="4"/>
-      <c r="VX3" s="4"/>
-      <c r="VY3" s="4"/>
-      <c r="VZ3" s="4"/>
-      <c r="WA3" s="4"/>
-      <c r="WB3" s="4"/>
-      <c r="WC3" s="4"/>
-      <c r="WD3" s="4"/>
-      <c r="WE3" s="4"/>
-      <c r="WF3" s="4"/>
-      <c r="WG3" s="4"/>
-      <c r="WH3" s="4"/>
-      <c r="WI3" s="4"/>
-      <c r="WJ3" s="4"/>
-      <c r="WK3" s="4"/>
-      <c r="WL3" s="4"/>
-      <c r="WM3" s="4"/>
-      <c r="WN3" s="4"/>
-      <c r="WO3" s="4"/>
-      <c r="WP3" s="4"/>
-      <c r="WQ3" s="4"/>
-      <c r="WR3" s="4"/>
-      <c r="WS3" s="4"/>
-      <c r="WT3" s="4"/>
-      <c r="WU3" s="4"/>
-      <c r="WV3" s="4"/>
-      <c r="WW3" s="4"/>
-      <c r="WX3" s="4"/>
-      <c r="WY3" s="4"/>
-      <c r="WZ3" s="4"/>
-      <c r="XA3" s="4"/>
-      <c r="XB3" s="4"/>
-      <c r="XC3" s="4"/>
-      <c r="XD3" s="4"/>
-      <c r="XE3" s="4"/>
-      <c r="XF3" s="4"/>
-      <c r="XG3" s="4"/>
-      <c r="XH3" s="4"/>
-      <c r="XI3" s="4"/>
-      <c r="XJ3" s="4"/>
-      <c r="XK3" s="4"/>
-      <c r="XL3" s="4"/>
-      <c r="XM3" s="4"/>
-      <c r="XN3" s="4"/>
-      <c r="XO3" s="4"/>
-      <c r="XP3" s="4"/>
-      <c r="XQ3" s="4"/>
-      <c r="XR3" s="4"/>
-      <c r="XS3" s="4"/>
-      <c r="XT3" s="4"/>
-      <c r="XU3" s="4"/>
-      <c r="XV3" s="4"/>
-      <c r="XW3" s="4"/>
-      <c r="XX3" s="4"/>
-      <c r="XY3" s="4"/>
-      <c r="XZ3" s="4"/>
-      <c r="YA3" s="4"/>
-      <c r="YB3" s="4"/>
-      <c r="YC3" s="4"/>
-      <c r="YD3" s="4"/>
-      <c r="YE3" s="4"/>
-      <c r="YF3" s="4"/>
-      <c r="YG3" s="4"/>
-      <c r="YH3" s="4"/>
-      <c r="YI3" s="4"/>
-      <c r="YJ3" s="4"/>
-      <c r="YK3" s="4"/>
-      <c r="YL3" s="4"/>
-      <c r="YM3" s="4"/>
-      <c r="YN3" s="4"/>
-      <c r="YO3" s="4"/>
-      <c r="YP3" s="4"/>
-      <c r="YQ3" s="4"/>
-      <c r="YR3" s="4"/>
-      <c r="YS3" s="4"/>
-      <c r="YT3" s="4"/>
-      <c r="YU3" s="4"/>
-      <c r="YV3" s="4"/>
-      <c r="YW3" s="4"/>
-      <c r="YX3" s="4"/>
-      <c r="YY3" s="4"/>
-      <c r="YZ3" s="4"/>
-      <c r="ZA3" s="4"/>
-      <c r="ZB3" s="4"/>
-      <c r="ZC3" s="4"/>
-      <c r="ZD3" s="4"/>
-      <c r="ZE3" s="4"/>
-      <c r="ZF3" s="4"/>
-      <c r="ZG3" s="4"/>
-      <c r="ZH3" s="4"/>
-      <c r="ZI3" s="4"/>
-      <c r="ZJ3" s="4"/>
-      <c r="ZK3" s="4"/>
-      <c r="ZL3" s="4"/>
-      <c r="ZM3" s="4"/>
-      <c r="ZN3" s="4"/>
-      <c r="ZO3" s="4"/>
-      <c r="ZP3" s="4"/>
-      <c r="ZQ3" s="4"/>
-      <c r="ZR3" s="4"/>
-      <c r="ZS3" s="4"/>
-      <c r="ZT3" s="4"/>
-      <c r="ZU3" s="4"/>
-      <c r="ZV3" s="4"/>
-      <c r="ZW3" s="4"/>
-      <c r="ZX3" s="4"/>
-      <c r="ZY3" s="4"/>
-      <c r="ZZ3" s="4"/>
-      <c r="AAA3" s="4"/>
-      <c r="AAB3" s="4"/>
-      <c r="AAC3" s="4"/>
-      <c r="AAD3" s="4"/>
-      <c r="AAE3" s="4"/>
-      <c r="AAF3" s="4"/>
-      <c r="AAG3" s="4"/>
-      <c r="AAH3" s="4"/>
-      <c r="AAI3" s="4"/>
-      <c r="AAJ3" s="4"/>
-      <c r="AAK3" s="4"/>
-      <c r="AAL3" s="4"/>
-      <c r="AAM3" s="4"/>
-      <c r="AAN3" s="4"/>
-      <c r="AAO3" s="4"/>
-      <c r="AAP3" s="4"/>
-      <c r="AAQ3" s="4"/>
-      <c r="AAR3" s="4"/>
-      <c r="AAS3" s="4"/>
-      <c r="AAT3" s="4"/>
-      <c r="AAU3" s="4"/>
-      <c r="AAV3" s="4"/>
-      <c r="AAW3" s="4"/>
-      <c r="AAX3" s="4"/>
-      <c r="AAY3" s="4"/>
-      <c r="AAZ3" s="4"/>
-      <c r="ABA3" s="4"/>
-      <c r="ABB3" s="4"/>
-      <c r="ABC3" s="4"/>
-      <c r="ABD3" s="4"/>
-      <c r="ABE3" s="4"/>
-      <c r="ABF3" s="4"/>
-      <c r="ABG3" s="4"/>
-      <c r="ABH3" s="4"/>
-      <c r="ABI3" s="4"/>
-      <c r="ABJ3" s="4"/>
-      <c r="ABK3" s="4"/>
-      <c r="ABL3" s="4"/>
-      <c r="ABM3" s="4"/>
-      <c r="ABN3" s="4"/>
-      <c r="ABO3" s="4"/>
-      <c r="ABP3" s="4"/>
-      <c r="ABQ3" s="4"/>
-      <c r="ABR3" s="4"/>
-      <c r="ABS3" s="4"/>
-      <c r="ABT3" s="4"/>
-      <c r="ABU3" s="4"/>
-      <c r="ABV3" s="4"/>
-      <c r="ABW3" s="4"/>
-      <c r="ABX3" s="4"/>
-      <c r="ABY3" s="4"/>
-      <c r="ABZ3" s="4"/>
-      <c r="ACA3" s="4"/>
-      <c r="ACB3" s="4"/>
-      <c r="ACC3" s="4"/>
-      <c r="ACD3" s="4"/>
-      <c r="ACE3" s="4"/>
-      <c r="ACF3" s="4"/>
-      <c r="ACG3" s="4"/>
-      <c r="ACH3" s="4"/>
-      <c r="ACI3" s="4"/>
-      <c r="ACJ3" s="4"/>
-      <c r="ACK3" s="4"/>
-      <c r="ACL3" s="4"/>
-      <c r="ACM3" s="4"/>
-      <c r="ACN3" s="4"/>
-      <c r="ACO3" s="4"/>
-      <c r="ACP3" s="4"/>
-      <c r="ACQ3" s="4"/>
-      <c r="ACR3" s="4"/>
-      <c r="ACS3" s="4"/>
-      <c r="ACT3" s="4"/>
-      <c r="ACU3" s="4"/>
-      <c r="ACV3" s="4"/>
-      <c r="ACW3" s="4"/>
-      <c r="ACX3" s="4"/>
-      <c r="ACY3" s="4"/>
-      <c r="ACZ3" s="4"/>
-      <c r="ADA3" s="4"/>
-      <c r="ADB3" s="4"/>
-      <c r="ADC3" s="4"/>
-      <c r="ADD3" s="4"/>
-      <c r="ADE3" s="4"/>
-      <c r="ADF3" s="4"/>
-      <c r="ADG3" s="4"/>
-      <c r="ADH3" s="4"/>
-      <c r="ADI3" s="4"/>
-      <c r="ADJ3" s="4"/>
-      <c r="ADK3" s="4"/>
-      <c r="ADL3" s="4"/>
-      <c r="ADM3" s="4"/>
-      <c r="ADN3" s="4"/>
-      <c r="ADO3" s="4"/>
-      <c r="ADP3" s="4"/>
-      <c r="ADQ3" s="4"/>
-      <c r="ADR3" s="4"/>
-      <c r="ADS3" s="4"/>
-      <c r="ADT3" s="4"/>
-      <c r="ADU3" s="4"/>
-      <c r="ADV3" s="4"/>
-      <c r="ADW3" s="4"/>
-      <c r="ADX3" s="4"/>
-      <c r="ADY3" s="4"/>
-      <c r="ADZ3" s="4"/>
-      <c r="AEA3" s="4"/>
-      <c r="AEB3" s="4"/>
-      <c r="AEC3" s="4"/>
-      <c r="AED3" s="4"/>
-      <c r="AEE3" s="4"/>
-      <c r="AEF3" s="4"/>
-      <c r="AEG3" s="4"/>
-      <c r="AEH3" s="4"/>
-      <c r="AEI3" s="4"/>
-      <c r="AEJ3" s="4"/>
-      <c r="AEK3" s="4"/>
-      <c r="AEL3" s="4"/>
-      <c r="AEM3" s="4"/>
-      <c r="AEN3" s="4"/>
-      <c r="AEO3" s="4"/>
-      <c r="AEP3" s="4"/>
-      <c r="AEQ3" s="4"/>
-      <c r="AER3" s="4"/>
-      <c r="AES3" s="4"/>
-      <c r="AET3" s="4"/>
-      <c r="AEU3" s="4"/>
-      <c r="AEV3" s="4"/>
-      <c r="AEW3" s="4"/>
-      <c r="AEX3" s="4"/>
-      <c r="AEY3" s="4"/>
-      <c r="AEZ3" s="4"/>
-      <c r="AFA3" s="4"/>
-      <c r="AFB3" s="4"/>
-      <c r="AFC3" s="4"/>
-      <c r="AFD3" s="4"/>
-      <c r="AFE3" s="4"/>
-      <c r="AFF3" s="4"/>
-      <c r="AFG3" s="4"/>
-      <c r="AFH3" s="4"/>
-      <c r="AFI3" s="4"/>
-      <c r="AFJ3" s="4"/>
-      <c r="AFK3" s="4"/>
-      <c r="AFL3" s="4"/>
-      <c r="AFM3" s="4"/>
-      <c r="AFN3" s="4"/>
-      <c r="AFO3" s="4"/>
-      <c r="AFP3" s="4"/>
-      <c r="AFQ3" s="4"/>
-      <c r="AFR3" s="4"/>
-      <c r="AFS3" s="4"/>
-      <c r="AFT3" s="4"/>
-      <c r="AFU3" s="4"/>
-      <c r="AFV3" s="4"/>
-      <c r="AFW3" s="4"/>
-      <c r="AFX3" s="4"/>
-      <c r="AFY3" s="4"/>
-      <c r="AFZ3" s="4"/>
-      <c r="AGA3" s="4"/>
-      <c r="AGB3" s="4"/>
-      <c r="AGC3" s="4"/>
-      <c r="AGD3" s="4"/>
-      <c r="AGE3" s="4"/>
-      <c r="AGF3" s="4"/>
-      <c r="AGG3" s="4"/>
-      <c r="AGH3" s="4"/>
-      <c r="AGI3" s="4"/>
-      <c r="AGJ3" s="4"/>
-      <c r="AGK3" s="4"/>
-      <c r="AGL3" s="4"/>
-      <c r="AGM3" s="4"/>
-      <c r="AGN3" s="4"/>
-      <c r="AGO3" s="4"/>
-      <c r="AGP3" s="4"/>
-      <c r="AGQ3" s="4"/>
-      <c r="AGR3" s="4"/>
-      <c r="AGS3" s="4"/>
-      <c r="AGT3" s="4"/>
-      <c r="AGU3" s="4"/>
-      <c r="AGV3" s="4"/>
-      <c r="AGW3" s="4"/>
-      <c r="AGX3" s="4"/>
-      <c r="AGY3" s="4"/>
-      <c r="AGZ3" s="4"/>
-      <c r="AHA3" s="4"/>
-      <c r="AHB3" s="4"/>
-      <c r="AHC3" s="4"/>
-      <c r="AHD3" s="4"/>
-      <c r="AHE3" s="4"/>
-      <c r="AHF3" s="4"/>
-      <c r="AHG3" s="4"/>
-      <c r="AHH3" s="4"/>
-      <c r="AHI3" s="4"/>
-      <c r="AHJ3" s="4"/>
-      <c r="AHK3" s="4"/>
-      <c r="AHL3" s="4"/>
-      <c r="AHM3" s="4"/>
-      <c r="AHN3" s="4"/>
-      <c r="AHO3" s="4"/>
-      <c r="AHP3" s="4"/>
-      <c r="AHQ3" s="4"/>
-      <c r="AHR3" s="4"/>
-      <c r="AHS3" s="4"/>
-      <c r="AHT3" s="4"/>
-      <c r="AHU3" s="4"/>
-      <c r="AHV3" s="4"/>
-      <c r="AHW3" s="4"/>
-      <c r="AHX3" s="4"/>
-      <c r="AHY3" s="4"/>
-      <c r="AHZ3" s="4"/>
-      <c r="AIA3" s="4"/>
-      <c r="AIB3" s="4"/>
-      <c r="AIC3" s="4"/>
-      <c r="AID3" s="4"/>
-      <c r="AIE3" s="4"/>
-      <c r="AIF3" s="4"/>
-      <c r="AIG3" s="4"/>
-      <c r="AIH3" s="4"/>
-      <c r="AII3" s="4"/>
-      <c r="AIJ3" s="4"/>
-      <c r="AIK3" s="4"/>
-      <c r="AIL3" s="4"/>
-      <c r="AIM3" s="4"/>
-      <c r="AIN3" s="4"/>
-      <c r="AIO3" s="4"/>
-      <c r="AIP3" s="4"/>
-      <c r="AIQ3" s="4"/>
-      <c r="AIR3" s="4"/>
-      <c r="AIS3" s="4"/>
-      <c r="AIT3" s="4"/>
-      <c r="AIU3" s="4"/>
-      <c r="AIV3" s="4"/>
-      <c r="AIW3" s="4"/>
-      <c r="AIX3" s="4"/>
-      <c r="AIY3" s="4"/>
-      <c r="AIZ3" s="4"/>
-      <c r="AJA3" s="4"/>
-      <c r="AJB3" s="4"/>
-      <c r="AJC3" s="4"/>
-      <c r="AJD3" s="4"/>
-      <c r="AJE3" s="4"/>
-      <c r="AJF3" s="4"/>
-      <c r="AJG3" s="4"/>
-      <c r="AJH3" s="4"/>
-      <c r="AJI3" s="4"/>
-      <c r="AJJ3" s="4"/>
-      <c r="AJK3" s="4"/>
-      <c r="AJL3" s="4"/>
-      <c r="AJM3" s="4"/>
-      <c r="AJN3" s="4"/>
-      <c r="AJO3" s="4"/>
-      <c r="AJP3" s="4"/>
-      <c r="AJQ3" s="4"/>
-      <c r="AJR3" s="4"/>
-      <c r="AJS3" s="4"/>
-      <c r="AJT3" s="4"/>
-      <c r="AJU3" s="4"/>
-      <c r="AJV3" s="4"/>
-      <c r="AJW3" s="4"/>
-      <c r="AJX3" s="4"/>
-      <c r="AJY3" s="4"/>
-      <c r="AJZ3" s="4"/>
-      <c r="AKA3" s="4"/>
-      <c r="AKB3" s="4"/>
-      <c r="AKC3" s="4"/>
-      <c r="AKD3" s="4"/>
-      <c r="AKE3" s="4"/>
-      <c r="AKF3" s="4"/>
-      <c r="AKG3" s="4"/>
-      <c r="AKH3" s="4"/>
-      <c r="AKI3" s="4"/>
-      <c r="AKJ3" s="4"/>
-      <c r="AKK3" s="4"/>
-      <c r="AKL3" s="4"/>
-      <c r="AKM3" s="4"/>
-      <c r="AKN3" s="4"/>
-      <c r="AKO3" s="4"/>
-      <c r="AKP3" s="4"/>
-      <c r="AKQ3" s="4"/>
-      <c r="AKR3" s="4"/>
-      <c r="AKS3" s="4"/>
-      <c r="AKT3" s="4"/>
-      <c r="AKU3" s="4"/>
-      <c r="AKV3" s="4"/>
-      <c r="AKW3" s="4"/>
-      <c r="AKX3" s="4"/>
-      <c r="AKY3" s="4"/>
-      <c r="AKZ3" s="4"/>
-      <c r="ALA3" s="4"/>
-      <c r="ALB3" s="4"/>
-      <c r="ALC3" s="4"/>
-      <c r="ALD3" s="4"/>
-      <c r="ALE3" s="4"/>
-      <c r="ALF3" s="4"/>
-      <c r="ALG3" s="4"/>
-      <c r="ALH3" s="4"/>
-      <c r="ALI3" s="4"/>
-      <c r="ALJ3" s="4"/>
-      <c r="ALK3" s="4"/>
-      <c r="ALL3" s="4"/>
-      <c r="ALM3" s="4"/>
-      <c r="ALN3" s="4"/>
-      <c r="ALO3" s="4"/>
-      <c r="ALP3" s="4"/>
-      <c r="ALQ3" s="4"/>
-      <c r="ALR3" s="4"/>
-      <c r="ALS3" s="4"/>
-      <c r="ALT3" s="4"/>
-      <c r="ALU3" s="4"/>
-      <c r="ALV3" s="4"/>
-      <c r="ALW3" s="4"/>
-      <c r="ALX3" s="4"/>
-      <c r="ALY3" s="4"/>
-      <c r="ALZ3" s="4"/>
-      <c r="AMA3" s="4"/>
-      <c r="AMB3" s="4"/>
-      <c r="AMC3" s="4"/>
-      <c r="AMD3" s="4"/>
-      <c r="AME3" s="4"/>
-      <c r="AMF3" s="4"/>
-      <c r="AMG3" s="4"/>
-      <c r="AMH3" s="4"/>
-      <c r="AMI3" s="4"/>
-      <c r="AMJ3" s="4"/>
-      <c r="AMK3" s="4"/>
-      <c r="AML3" s="4"/>
-      <c r="AMM3" s="4"/>
-      <c r="AMN3" s="4"/>
-      <c r="AMO3" s="4"/>
-      <c r="AMP3" s="4"/>
-      <c r="AMQ3" s="4"/>
-      <c r="AMR3" s="4"/>
-      <c r="AMS3" s="4"/>
-      <c r="AMT3" s="4"/>
-      <c r="AMU3" s="4"/>
-      <c r="AMV3" s="4"/>
-      <c r="AMW3" s="4"/>
-      <c r="AMX3" s="4"/>
-      <c r="AMY3" s="4"/>
-      <c r="AMZ3" s="4"/>
-      <c r="ANA3" s="4"/>
-      <c r="ANB3" s="4"/>
-      <c r="ANC3" s="4"/>
-      <c r="AND3" s="4"/>
-      <c r="ANE3" s="4"/>
-      <c r="ANF3" s="4"/>
-      <c r="ANG3" s="4"/>
-      <c r="ANH3" s="4"/>
-      <c r="ANI3" s="4"/>
-      <c r="ANJ3" s="4"/>
-      <c r="ANK3" s="4"/>
-      <c r="ANL3" s="4"/>
-      <c r="ANM3" s="4"/>
-      <c r="ANN3" s="4"/>
-      <c r="ANO3" s="4"/>
-      <c r="ANP3" s="4"/>
-      <c r="ANQ3" s="4"/>
-      <c r="ANR3" s="4"/>
-      <c r="ANS3" s="4"/>
-      <c r="ANT3" s="4"/>
-      <c r="ANU3" s="4"/>
-      <c r="ANV3" s="4"/>
-      <c r="ANW3" s="4"/>
-      <c r="ANX3" s="4"/>
-      <c r="ANY3" s="4"/>
-      <c r="ANZ3" s="4"/>
-      <c r="AOA3" s="4"/>
-      <c r="AOB3" s="4"/>
-      <c r="AOC3" s="4"/>
-      <c r="AOD3" s="4"/>
-      <c r="AOE3" s="4"/>
-      <c r="AOF3" s="4"/>
-      <c r="AOG3" s="4"/>
-      <c r="AOH3" s="4"/>
-      <c r="AOI3" s="4"/>
-      <c r="AOJ3" s="4"/>
-      <c r="AOK3" s="4"/>
-      <c r="AOL3" s="4"/>
-      <c r="AOM3" s="4"/>
-      <c r="AON3" s="4"/>
-      <c r="AOO3" s="4"/>
-      <c r="AOP3" s="4"/>
-      <c r="AOQ3" s="4"/>
-      <c r="AOR3" s="4"/>
-      <c r="AOS3" s="4"/>
-      <c r="AOT3" s="4"/>
-      <c r="AOU3" s="4"/>
-      <c r="AOV3" s="4"/>
-      <c r="AOW3" s="4"/>
-      <c r="AOX3" s="4"/>
-      <c r="AOY3" s="4"/>
-      <c r="AOZ3" s="4"/>
-      <c r="APA3" s="4"/>
-      <c r="APB3" s="4"/>
-      <c r="APC3" s="4"/>
-      <c r="APD3" s="4"/>
-      <c r="APE3" s="4"/>
-      <c r="APF3" s="4"/>
-      <c r="APG3" s="4"/>
-      <c r="APH3" s="4"/>
-      <c r="API3" s="4"/>
-      <c r="APJ3" s="4"/>
-      <c r="APK3" s="4"/>
-      <c r="APL3" s="4"/>
-      <c r="APM3" s="4"/>
-      <c r="APN3" s="4"/>
-      <c r="APO3" s="4"/>
-      <c r="APP3" s="4"/>
-      <c r="APQ3" s="4"/>
-      <c r="APR3" s="4"/>
-      <c r="APS3" s="4"/>
-      <c r="APT3" s="4"/>
-      <c r="APU3" s="4"/>
-      <c r="APV3" s="4"/>
-      <c r="APW3" s="4"/>
-      <c r="APX3" s="4"/>
-      <c r="APY3" s="4"/>
-      <c r="APZ3" s="4"/>
-      <c r="AQA3" s="4"/>
-      <c r="AQB3" s="4"/>
-      <c r="AQC3" s="4"/>
-      <c r="AQD3" s="4"/>
-      <c r="AQE3" s="4"/>
-      <c r="AQF3" s="4"/>
-      <c r="AQG3" s="4"/>
-      <c r="AQH3" s="4"/>
-      <c r="AQI3" s="4"/>
-      <c r="AQJ3" s="4"/>
-      <c r="AQK3" s="4"/>
-      <c r="AQL3" s="4"/>
-      <c r="AQM3" s="4"/>
-      <c r="AQN3" s="4"/>
-      <c r="AQO3" s="4"/>
-      <c r="AQP3" s="4"/>
-      <c r="AQQ3" s="4"/>
-      <c r="AQR3" s="4"/>
-      <c r="AQS3" s="4"/>
-      <c r="AQT3" s="4"/>
-      <c r="AQU3" s="4"/>
-      <c r="AQV3" s="4"/>
-      <c r="AQW3" s="4"/>
-      <c r="AQX3" s="4"/>
-      <c r="AQY3" s="4"/>
-      <c r="AQZ3" s="4"/>
-      <c r="ARA3" s="4"/>
-      <c r="ARB3" s="4"/>
-      <c r="ARC3" s="4"/>
-      <c r="ARD3" s="4"/>
-      <c r="ARE3" s="4"/>
-      <c r="ARF3" s="4"/>
-      <c r="ARG3" s="4"/>
-      <c r="ARH3" s="4"/>
-      <c r="ARI3" s="4"/>
-      <c r="ARJ3" s="4"/>
-      <c r="ARK3" s="4"/>
-      <c r="ARL3" s="4"/>
-      <c r="ARM3" s="4"/>
-      <c r="ARN3" s="4"/>
-      <c r="ARO3" s="4"/>
-      <c r="ARP3" s="4"/>
-      <c r="ARQ3" s="4"/>
-      <c r="ARR3" s="4"/>
-      <c r="ARS3" s="4"/>
-      <c r="ART3" s="4"/>
-      <c r="ARU3" s="4"/>
-      <c r="ARV3" s="4"/>
-      <c r="ARW3" s="4"/>
-      <c r="ARX3" s="4"/>
-      <c r="ARY3" s="4"/>
-      <c r="ARZ3" s="4"/>
-      <c r="ASA3" s="4"/>
-      <c r="ASB3" s="4"/>
-      <c r="ASC3" s="4"/>
-      <c r="ASD3" s="4"/>
-      <c r="ASE3" s="4"/>
-      <c r="ASF3" s="4"/>
-      <c r="ASG3" s="4"/>
-      <c r="ASH3" s="4"/>
-      <c r="ASI3" s="4"/>
-      <c r="ASJ3" s="4"/>
-      <c r="ASK3" s="4"/>
-      <c r="ASL3" s="4"/>
-      <c r="ASM3" s="4"/>
-      <c r="ASN3" s="4"/>
-      <c r="ASO3" s="4"/>
-      <c r="ASP3" s="4"/>
-      <c r="ASQ3" s="4"/>
-      <c r="ASR3" s="4"/>
-      <c r="ASS3" s="4"/>
-      <c r="AST3" s="4"/>
-      <c r="ASU3" s="4"/>
-      <c r="ASV3" s="4"/>
-      <c r="ASW3" s="4"/>
-      <c r="ASX3" s="4"/>
-      <c r="ASY3" s="4"/>
-      <c r="ASZ3" s="4"/>
-      <c r="ATA3" s="4"/>
-      <c r="ATB3" s="4"/>
-      <c r="ATC3" s="4"/>
-      <c r="ATD3" s="4"/>
-      <c r="ATE3" s="4"/>
-      <c r="ATF3" s="4"/>
-      <c r="ATG3" s="4"/>
-      <c r="ATH3" s="4"/>
-      <c r="ATI3" s="4"/>
-      <c r="ATJ3" s="4"/>
-      <c r="ATK3" s="4"/>
-      <c r="ATL3" s="4"/>
-      <c r="ATM3" s="4"/>
-      <c r="ATN3" s="4"/>
-      <c r="ATO3" s="4"/>
-      <c r="ATP3" s="4"/>
-      <c r="ATQ3" s="4"/>
-      <c r="ATR3" s="4"/>
-      <c r="ATS3" s="4"/>
-      <c r="ATT3" s="4"/>
-      <c r="ATU3" s="4"/>
-      <c r="ATV3" s="4"/>
-      <c r="ATW3" s="4"/>
-      <c r="ATX3" s="4"/>
-      <c r="ATY3" s="4"/>
-      <c r="ATZ3" s="4"/>
-      <c r="AUA3" s="4"/>
-      <c r="AUB3" s="4"/>
-      <c r="AUC3" s="4"/>
-      <c r="AUD3" s="4"/>
-      <c r="AUE3" s="4"/>
-      <c r="AUF3" s="4"/>
-      <c r="AUG3" s="4"/>
-      <c r="AUH3" s="4"/>
-      <c r="AUI3" s="4"/>
-      <c r="AUJ3" s="4"/>
-      <c r="AUK3" s="4"/>
-      <c r="AUL3" s="4"/>
-      <c r="AUM3" s="4"/>
-      <c r="AUN3" s="4"/>
-      <c r="AUO3" s="4"/>
-      <c r="AUP3" s="4"/>
-      <c r="AUQ3" s="4"/>
-      <c r="AUR3" s="4"/>
-      <c r="AUS3" s="4"/>
-      <c r="AUT3" s="4"/>
-      <c r="AUU3" s="4"/>
-      <c r="AUV3" s="4"/>
-      <c r="AUW3" s="4"/>
-      <c r="AUX3" s="4"/>
-      <c r="AUY3" s="4"/>
-      <c r="AUZ3" s="4"/>
-      <c r="AVA3" s="4"/>
-      <c r="AVB3" s="4"/>
-      <c r="AVC3" s="4"/>
-      <c r="AVD3" s="4"/>
-      <c r="AVE3" s="4"/>
-      <c r="AVF3" s="4"/>
-      <c r="AVG3" s="4"/>
-      <c r="AVH3" s="4"/>
-      <c r="AVI3" s="4"/>
-      <c r="AVJ3" s="4"/>
-      <c r="AVK3" s="4"/>
-      <c r="AVL3" s="4"/>
-      <c r="AVM3" s="4"/>
-      <c r="AVN3" s="4"/>
-      <c r="AVO3" s="4"/>
-      <c r="AVP3" s="4"/>
-      <c r="AVQ3" s="4"/>
-      <c r="AVR3" s="4"/>
-      <c r="AVS3" s="4"/>
-      <c r="AVT3" s="4"/>
-      <c r="AVU3" s="4"/>
-      <c r="AVV3" s="4"/>
-      <c r="AVW3" s="4"/>
-      <c r="AVX3" s="4"/>
-      <c r="AVY3" s="4"/>
-      <c r="AVZ3" s="4"/>
-      <c r="AWA3" s="4"/>
-      <c r="AWB3" s="4"/>
-      <c r="AWC3" s="4"/>
-      <c r="AWD3" s="4"/>
-      <c r="AWE3" s="4"/>
-      <c r="AWF3" s="4"/>
-      <c r="AWG3" s="4"/>
-      <c r="AWH3" s="4"/>
-      <c r="AWI3" s="4"/>
-      <c r="AWJ3" s="4"/>
-      <c r="AWK3" s="4"/>
-      <c r="AWL3" s="4"/>
-      <c r="AWM3" s="4"/>
-      <c r="AWN3" s="4"/>
-      <c r="AWO3" s="4"/>
-      <c r="AWP3" s="4"/>
-      <c r="AWQ3" s="4"/>
-      <c r="AWR3" s="4"/>
-      <c r="AWS3" s="4"/>
-      <c r="AWT3" s="4"/>
-      <c r="AWU3" s="4"/>
-      <c r="AWV3" s="4"/>
-      <c r="AWW3" s="4"/>
-      <c r="AWX3" s="4"/>
-      <c r="AWY3" s="4"/>
-      <c r="AWZ3" s="4"/>
-      <c r="AXA3" s="4"/>
-      <c r="AXB3" s="4"/>
-      <c r="AXC3" s="4"/>
-      <c r="AXD3" s="4"/>
-      <c r="AXE3" s="4"/>
-      <c r="AXF3" s="4"/>
-      <c r="AXG3" s="4"/>
-      <c r="AXH3" s="4"/>
-      <c r="AXI3" s="4"/>
-      <c r="AXJ3" s="4"/>
-      <c r="AXK3" s="4"/>
-      <c r="AXL3" s="4"/>
-      <c r="AXM3" s="4"/>
-      <c r="AXN3" s="4"/>
-      <c r="AXO3" s="4"/>
-      <c r="AXP3" s="4"/>
-      <c r="AXQ3" s="4"/>
-      <c r="AXR3" s="4"/>
-      <c r="AXS3" s="4"/>
-      <c r="AXT3" s="4"/>
-      <c r="AXU3" s="4"/>
-      <c r="AXV3" s="4"/>
-      <c r="AXW3" s="4"/>
-      <c r="AXX3" s="4"/>
-      <c r="AXY3" s="4"/>
-      <c r="AXZ3" s="4"/>
-      <c r="AYA3" s="4"/>
-      <c r="AYB3" s="4"/>
-      <c r="AYC3" s="4"/>
-      <c r="AYD3" s="4"/>
-      <c r="AYE3" s="4"/>
-      <c r="AYF3" s="4"/>
-      <c r="AYG3" s="4"/>
-      <c r="AYH3" s="4"/>
-      <c r="AYI3" s="4"/>
-      <c r="AYJ3" s="4"/>
-      <c r="AYK3" s="4"/>
-      <c r="AYL3" s="4"/>
-      <c r="AYM3" s="4"/>
-      <c r="AYN3" s="4"/>
-      <c r="AYO3" s="4"/>
-      <c r="AYP3" s="4"/>
-      <c r="AYQ3" s="4"/>
-      <c r="AYR3" s="4"/>
-      <c r="AYS3" s="4"/>
-      <c r="AYT3" s="4"/>
-      <c r="AYU3" s="4"/>
-      <c r="AYV3" s="4"/>
-      <c r="AYW3" s="4"/>
-      <c r="AYX3" s="4"/>
-      <c r="AYY3" s="4"/>
-      <c r="AYZ3" s="4"/>
-      <c r="AZA3" s="4"/>
-      <c r="AZB3" s="4"/>
-      <c r="AZC3" s="4"/>
-      <c r="AZD3" s="4"/>
-      <c r="AZE3" s="4"/>
-      <c r="AZF3" s="4"/>
-      <c r="AZG3" s="4"/>
-      <c r="AZH3" s="4"/>
-      <c r="AZI3" s="4"/>
-      <c r="AZJ3" s="4"/>
-      <c r="AZK3" s="4"/>
-      <c r="AZL3" s="4"/>
-      <c r="AZM3" s="4"/>
-      <c r="AZN3" s="4"/>
-      <c r="AZO3" s="4"/>
-      <c r="AZP3" s="4"/>
-      <c r="AZQ3" s="4"/>
-      <c r="AZR3" s="4"/>
-      <c r="AZS3" s="4"/>
-      <c r="AZT3" s="4"/>
-      <c r="AZU3" s="4"/>
-      <c r="AZV3" s="4"/>
-      <c r="AZW3" s="4"/>
-      <c r="AZX3" s="4"/>
-      <c r="AZY3" s="4"/>
-      <c r="AZZ3" s="4"/>
-      <c r="BAA3" s="4"/>
-      <c r="BAB3" s="4"/>
-      <c r="BAC3" s="4"/>
-      <c r="BAD3" s="4"/>
-      <c r="BAE3" s="4"/>
-      <c r="BAF3" s="4"/>
-      <c r="BAG3" s="4"/>
-      <c r="BAH3" s="4"/>
-      <c r="BAI3" s="4"/>
-      <c r="BAJ3" s="4"/>
-      <c r="BAK3" s="4"/>
-      <c r="BAL3" s="4"/>
-      <c r="BAM3" s="4"/>
-      <c r="BAN3" s="4"/>
-      <c r="BAO3" s="4"/>
-      <c r="BAP3" s="4"/>
-      <c r="BAQ3" s="4"/>
-      <c r="BAR3" s="4"/>
-      <c r="BAS3" s="4"/>
-      <c r="BAT3" s="4"/>
-      <c r="BAU3" s="4"/>
-      <c r="BAV3" s="4"/>
-      <c r="BAW3" s="4"/>
-      <c r="BAX3" s="4"/>
-      <c r="BAY3" s="4"/>
-      <c r="BAZ3" s="4"/>
-      <c r="BBA3" s="4"/>
-      <c r="BBB3" s="4"/>
-      <c r="BBC3" s="4"/>
-      <c r="BBD3" s="4"/>
-      <c r="BBE3" s="4"/>
-      <c r="BBF3" s="4"/>
-      <c r="BBG3" s="4"/>
-      <c r="BBH3" s="4"/>
-      <c r="BBI3" s="4"/>
-      <c r="BBJ3" s="4"/>
-      <c r="BBK3" s="4"/>
-      <c r="BBL3" s="4"/>
-      <c r="BBM3" s="4"/>
-      <c r="BBN3" s="4"/>
-      <c r="BBO3" s="4"/>
-      <c r="BBP3" s="4"/>
-      <c r="BBQ3" s="4"/>
-      <c r="BBR3" s="4"/>
-      <c r="BBS3" s="4"/>
-      <c r="BBT3" s="4"/>
-      <c r="BBU3" s="4"/>
-      <c r="BBV3" s="4"/>
-      <c r="BBW3" s="4"/>
-      <c r="BBX3" s="4"/>
-      <c r="BBY3" s="4"/>
-      <c r="BBZ3" s="4"/>
-      <c r="BCA3" s="4"/>
-      <c r="BCB3" s="4"/>
-      <c r="BCC3" s="4"/>
-      <c r="BCD3" s="4"/>
-      <c r="BCE3" s="4"/>
-      <c r="BCF3" s="4"/>
-      <c r="BCG3" s="4"/>
-      <c r="BCH3" s="4"/>
-      <c r="BCI3" s="4"/>
-      <c r="BCJ3" s="4"/>
-      <c r="BCK3" s="4"/>
-      <c r="BCL3" s="4"/>
-      <c r="BCM3" s="4"/>
-      <c r="BCN3" s="4"/>
-      <c r="BCO3" s="4"/>
-      <c r="BCP3" s="4"/>
-      <c r="BCQ3" s="4"/>
-      <c r="BCR3" s="4"/>
-      <c r="BCS3" s="4"/>
-      <c r="BCT3" s="4"/>
-      <c r="BCU3" s="4"/>
-      <c r="BCV3" s="4"/>
-      <c r="BCW3" s="4"/>
-      <c r="BCX3" s="4"/>
-      <c r="BCY3" s="4"/>
-      <c r="BCZ3" s="4"/>
-      <c r="BDA3" s="4"/>
-      <c r="BDB3" s="4"/>
-      <c r="BDC3" s="4"/>
-      <c r="BDD3" s="4"/>
-      <c r="BDE3" s="4"/>
-      <c r="BDF3" s="4"/>
-      <c r="BDG3" s="4"/>
-      <c r="BDH3" s="4"/>
-      <c r="BDI3" s="4"/>
-      <c r="BDJ3" s="4"/>
-      <c r="BDK3" s="4"/>
-      <c r="BDL3" s="4"/>
-      <c r="BDM3" s="4"/>
-      <c r="BDN3" s="4"/>
-      <c r="BDO3" s="4"/>
-      <c r="BDP3" s="4"/>
-      <c r="BDQ3" s="4"/>
-      <c r="BDR3" s="4"/>
-      <c r="BDS3" s="4"/>
-      <c r="BDT3" s="4"/>
-      <c r="BDU3" s="4"/>
-      <c r="BDV3" s="4"/>
-      <c r="BDW3" s="4"/>
-      <c r="BDX3" s="4"/>
-      <c r="BDY3" s="4"/>
-      <c r="BDZ3" s="4"/>
-      <c r="BEA3" s="4"/>
-      <c r="BEB3" s="4"/>
-      <c r="BEC3" s="4"/>
-      <c r="BED3" s="4"/>
-      <c r="BEE3" s="4"/>
-      <c r="BEF3" s="4"/>
-      <c r="BEG3" s="4"/>
-      <c r="BEH3" s="4"/>
-      <c r="BEI3" s="4"/>
-      <c r="BEJ3" s="4"/>
-      <c r="BEK3" s="4"/>
-      <c r="BEL3" s="4"/>
-      <c r="BEM3" s="4"/>
-      <c r="BEN3" s="4"/>
-      <c r="BEO3" s="4"/>
-      <c r="BEP3" s="4"/>
-      <c r="BEQ3" s="4"/>
-      <c r="BER3" s="4"/>
-      <c r="BES3" s="4"/>
-      <c r="BET3" s="4"/>
-      <c r="BEU3" s="4"/>
-      <c r="BEV3" s="4"/>
-      <c r="BEW3" s="4"/>
-      <c r="BEX3" s="4"/>
-      <c r="BEY3" s="4"/>
-      <c r="BEZ3" s="4"/>
-      <c r="BFA3" s="4"/>
-      <c r="BFB3" s="4"/>
-      <c r="BFC3" s="4"/>
-      <c r="BFD3" s="4"/>
-      <c r="BFE3" s="4"/>
-      <c r="BFF3" s="4"/>
-      <c r="BFG3" s="4"/>
-      <c r="BFH3" s="4"/>
-      <c r="BFI3" s="4"/>
-      <c r="BFJ3" s="4"/>
-      <c r="BFK3" s="4"/>
-      <c r="BFL3" s="4"/>
-      <c r="BFM3" s="4"/>
-      <c r="BFN3" s="4"/>
-      <c r="BFO3" s="4"/>
-      <c r="BFP3" s="4"/>
-      <c r="BFQ3" s="4"/>
-      <c r="BFR3" s="4"/>
-      <c r="BFS3" s="4"/>
-      <c r="BFT3" s="4"/>
-      <c r="BFU3" s="4"/>
-      <c r="BFV3" s="4"/>
-      <c r="BFW3" s="4"/>
-      <c r="BFX3" s="4"/>
-      <c r="BFY3" s="4"/>
-      <c r="BFZ3" s="4"/>
-      <c r="BGA3" s="4"/>
-      <c r="BGB3" s="4"/>
-      <c r="BGC3" s="4"/>
-      <c r="BGD3" s="4"/>
-      <c r="BGE3" s="4"/>
-      <c r="BGF3" s="4"/>
-      <c r="BGG3" s="4"/>
-      <c r="BGH3" s="4"/>
-      <c r="BGI3" s="4"/>
-      <c r="BGJ3" s="4"/>
-      <c r="BGK3" s="4"/>
-      <c r="BGL3" s="4"/>
-      <c r="BGM3" s="4"/>
-      <c r="BGN3" s="4"/>
-      <c r="BGO3" s="4"/>
-      <c r="BGP3" s="4"/>
-      <c r="BGQ3" s="4"/>
-      <c r="BGR3" s="4"/>
-      <c r="BGS3" s="4"/>
-      <c r="BGT3" s="4"/>
-      <c r="BGU3" s="4"/>
-      <c r="BGV3" s="4"/>
-      <c r="BGW3" s="4"/>
-      <c r="BGX3" s="4"/>
-      <c r="BGY3" s="4"/>
-      <c r="BGZ3" s="4"/>
-      <c r="BHA3" s="4"/>
-      <c r="BHB3" s="4"/>
-      <c r="BHC3" s="4"/>
-      <c r="BHD3" s="4"/>
-      <c r="BHE3" s="4"/>
-      <c r="BHF3" s="4"/>
-      <c r="BHG3" s="4"/>
-      <c r="BHH3" s="4"/>
-      <c r="BHI3" s="4"/>
-      <c r="BHJ3" s="4"/>
-      <c r="BHK3" s="4"/>
-      <c r="BHL3" s="4"/>
-      <c r="BHM3" s="4"/>
-      <c r="BHN3" s="4"/>
-      <c r="BHO3" s="4"/>
-      <c r="BHP3" s="4"/>
-      <c r="BHQ3" s="4"/>
-      <c r="BHR3" s="4"/>
-      <c r="BHS3" s="4"/>
-      <c r="BHT3" s="4"/>
-      <c r="BHU3" s="4"/>
-      <c r="BHV3" s="4"/>
-      <c r="BHW3" s="4"/>
-      <c r="BHX3" s="4"/>
-      <c r="BHY3" s="4"/>
-      <c r="BHZ3" s="4"/>
-      <c r="BIA3" s="4"/>
-      <c r="BIB3" s="4"/>
-      <c r="BIC3" s="4"/>
-      <c r="BID3" s="4"/>
-      <c r="BIE3" s="4"/>
-      <c r="BIF3" s="4"/>
-      <c r="BIG3" s="4"/>
-      <c r="BIH3" s="4"/>
-      <c r="BII3" s="4"/>
-      <c r="BIJ3" s="4"/>
-      <c r="BIK3" s="4"/>
-      <c r="BIL3" s="4"/>
-      <c r="BIM3" s="4"/>
-      <c r="BIN3" s="4"/>
-      <c r="BIO3" s="4"/>
-      <c r="BIP3" s="4"/>
-      <c r="BIQ3" s="4"/>
-      <c r="BIR3" s="4"/>
-      <c r="BIS3" s="4"/>
-      <c r="BIT3" s="4"/>
-      <c r="BIU3" s="4"/>
-      <c r="BIV3" s="4"/>
-      <c r="BIW3" s="4"/>
-      <c r="BIX3" s="4"/>
-      <c r="BIY3" s="4"/>
-      <c r="BIZ3" s="4"/>
-      <c r="BJA3" s="4"/>
-      <c r="BJB3" s="4"/>
-      <c r="BJC3" s="4"/>
-      <c r="BJD3" s="4"/>
-      <c r="BJE3" s="4"/>
-      <c r="BJF3" s="4"/>
-      <c r="BJG3" s="4"/>
-      <c r="BJH3" s="4"/>
-      <c r="BJI3" s="4"/>
-      <c r="BJJ3" s="4"/>
-      <c r="BJK3" s="4"/>
-      <c r="BJL3" s="4"/>
-      <c r="BJM3" s="4"/>
-      <c r="BJN3" s="4"/>
-      <c r="BJO3" s="4"/>
-      <c r="BJP3" s="4"/>
-      <c r="BJQ3" s="4"/>
-      <c r="BJR3" s="4"/>
-      <c r="BJS3" s="4"/>
-      <c r="BJT3" s="4"/>
-      <c r="BJU3" s="4"/>
-      <c r="BJV3" s="4"/>
-      <c r="BJW3" s="4"/>
-      <c r="BJX3" s="4"/>
-      <c r="BJY3" s="4"/>
-      <c r="BJZ3" s="4"/>
-      <c r="BKA3" s="4"/>
-      <c r="BKB3" s="4"/>
-      <c r="BKC3" s="4"/>
-      <c r="BKD3" s="4"/>
-      <c r="BKE3" s="4"/>
-      <c r="BKF3" s="4"/>
-      <c r="BKG3" s="4"/>
-      <c r="BKH3" s="4"/>
-      <c r="BKI3" s="4"/>
-      <c r="BKJ3" s="4"/>
-      <c r="BKK3" s="4"/>
-      <c r="BKL3" s="4"/>
-      <c r="BKM3" s="4"/>
-      <c r="BKN3" s="4"/>
-      <c r="BKO3" s="4"/>
-      <c r="BKP3" s="4"/>
-      <c r="BKQ3" s="4"/>
-      <c r="BKR3" s="4"/>
-      <c r="BKS3" s="4"/>
-      <c r="BKT3" s="4"/>
-      <c r="BKU3" s="4"/>
-      <c r="BKV3" s="4"/>
-      <c r="BKW3" s="4"/>
-      <c r="BKX3" s="4"/>
-      <c r="BKY3" s="4"/>
-      <c r="BKZ3" s="4"/>
-      <c r="BLA3" s="4"/>
-      <c r="BLB3" s="4"/>
-      <c r="BLC3" s="4"/>
-      <c r="BLD3" s="4"/>
-      <c r="BLE3" s="4"/>
-      <c r="BLF3" s="4"/>
-      <c r="BLG3" s="4"/>
-      <c r="BLH3" s="4"/>
-      <c r="BLI3" s="4"/>
-      <c r="BLJ3" s="4"/>
-      <c r="BLK3" s="4"/>
-      <c r="BLL3" s="4"/>
-      <c r="BLM3" s="4"/>
-      <c r="BLN3" s="4"/>
-      <c r="BLO3" s="4"/>
-      <c r="BLP3" s="4"/>
-      <c r="BLQ3" s="4"/>
-      <c r="BLR3" s="4"/>
-      <c r="BLS3" s="4"/>
-      <c r="BLT3" s="4"/>
-      <c r="BLU3" s="4"/>
-      <c r="BLV3" s="4"/>
-      <c r="BLW3" s="4"/>
-      <c r="BLX3" s="4"/>
-      <c r="BLY3" s="4"/>
-      <c r="BLZ3" s="4"/>
-      <c r="BMA3" s="4"/>
-      <c r="BMB3" s="4"/>
-      <c r="BMC3" s="4"/>
-      <c r="BMD3" s="4"/>
-      <c r="BME3" s="4"/>
-      <c r="BMF3" s="4"/>
-      <c r="BMG3" s="4"/>
-      <c r="BMH3" s="4"/>
-      <c r="BMI3" s="4"/>
-      <c r="BMJ3" s="4"/>
-      <c r="BMK3" s="4"/>
-      <c r="BML3" s="4"/>
-      <c r="BMM3" s="4"/>
-      <c r="BMN3" s="4"/>
-      <c r="BMO3" s="4"/>
-      <c r="BMP3" s="4"/>
-      <c r="BMQ3" s="4"/>
-      <c r="BMR3" s="4"/>
-      <c r="BMS3" s="4"/>
-      <c r="BMT3" s="4"/>
-      <c r="BMU3" s="4"/>
-      <c r="BMV3" s="4"/>
-      <c r="BMW3" s="4"/>
-      <c r="BMX3" s="4"/>
-      <c r="BMY3" s="4"/>
-      <c r="BMZ3" s="4"/>
-      <c r="BNA3" s="4"/>
-      <c r="BNB3" s="4"/>
-      <c r="BNC3" s="4"/>
-      <c r="BND3" s="4"/>
-      <c r="BNE3" s="4"/>
-      <c r="BNF3" s="4"/>
-      <c r="BNG3" s="4"/>
-      <c r="BNH3" s="4"/>
-      <c r="BNI3" s="4"/>
-      <c r="BNJ3" s="4"/>
-      <c r="BNK3" s="4"/>
-      <c r="BNL3" s="4"/>
-      <c r="BNM3" s="4"/>
-      <c r="BNN3" s="4"/>
-      <c r="BNO3" s="4"/>
-      <c r="BNP3" s="4"/>
-      <c r="BNQ3" s="4"/>
-      <c r="BNR3" s="4"/>
-      <c r="BNS3" s="4"/>
-      <c r="BNT3" s="4"/>
-      <c r="BNU3" s="4"/>
-      <c r="BNV3" s="4"/>
-      <c r="BNW3" s="4"/>
-      <c r="BNX3" s="4"/>
-      <c r="BNY3" s="4"/>
-      <c r="BNZ3" s="4"/>
-      <c r="BOA3" s="4"/>
-      <c r="BOB3" s="4"/>
-      <c r="BOC3" s="4"/>
-      <c r="BOD3" s="4"/>
-      <c r="BOE3" s="4"/>
-      <c r="BOF3" s="4"/>
-      <c r="BOG3" s="4"/>
-      <c r="BOH3" s="4"/>
-      <c r="BOI3" s="4"/>
-      <c r="BOJ3" s="4"/>
-      <c r="BOK3" s="4"/>
-      <c r="BOL3" s="4"/>
-      <c r="BOM3" s="4"/>
-      <c r="BON3" s="4"/>
-      <c r="BOO3" s="4"/>
-      <c r="BOP3" s="4"/>
-      <c r="BOQ3" s="4"/>
-      <c r="BOR3" s="4"/>
-      <c r="BOS3" s="4"/>
-      <c r="BOT3" s="4"/>
-      <c r="BOU3" s="4"/>
-      <c r="BOV3" s="4"/>
-      <c r="BOW3" s="4"/>
-      <c r="BOX3" s="4"/>
-      <c r="BOY3" s="4"/>
-      <c r="BOZ3" s="4"/>
-      <c r="BPA3" s="4"/>
-      <c r="BPB3" s="4"/>
-      <c r="BPC3" s="4"/>
-      <c r="BPD3" s="4"/>
-      <c r="BPE3" s="4"/>
-      <c r="BPF3" s="4"/>
-      <c r="BPG3" s="4"/>
-      <c r="BPH3" s="4"/>
-      <c r="BPI3" s="4"/>
-      <c r="BPJ3" s="4"/>
-      <c r="BPK3" s="4"/>
-      <c r="BPL3" s="4"/>
-      <c r="BPM3" s="4"/>
-      <c r="BPN3" s="4"/>
-      <c r="BPO3" s="4"/>
-      <c r="BPP3" s="4"/>
-      <c r="BPQ3" s="4"/>
-      <c r="BPR3" s="4"/>
-      <c r="BPS3" s="4"/>
-      <c r="BPT3" s="4"/>
-      <c r="BPU3" s="4"/>
-      <c r="BPV3" s="4"/>
-      <c r="BPW3" s="4"/>
-      <c r="BPX3" s="4"/>
-      <c r="BPY3" s="4"/>
-      <c r="BPZ3" s="4"/>
-      <c r="BQA3" s="4"/>
-      <c r="BQB3" s="4"/>
-      <c r="BQC3" s="4"/>
-      <c r="BQD3" s="4"/>
-      <c r="BQE3" s="4"/>
-      <c r="BQF3" s="4"/>
-      <c r="BQG3" s="4"/>
-      <c r="BQH3" s="4"/>
-      <c r="BQI3" s="4"/>
-      <c r="BQJ3" s="4"/>
-      <c r="BQK3" s="4"/>
-      <c r="BQL3" s="4"/>
-      <c r="BQM3" s="4"/>
-      <c r="BQN3" s="4"/>
-      <c r="BQO3" s="4"/>
-      <c r="BQP3" s="4"/>
-      <c r="BQQ3" s="4"/>
-      <c r="BQR3" s="4"/>
-      <c r="BQS3" s="4"/>
-      <c r="BQT3" s="4"/>
-      <c r="BQU3" s="4"/>
-      <c r="BQV3" s="4"/>
-      <c r="BQW3" s="4"/>
-      <c r="BQX3" s="4"/>
-      <c r="BQY3" s="4"/>
-      <c r="BQZ3" s="4"/>
-      <c r="BRA3" s="4"/>
-      <c r="BRB3" s="4"/>
-      <c r="BRC3" s="4"/>
-      <c r="BRD3" s="4"/>
-      <c r="BRE3" s="4"/>
-      <c r="BRF3" s="4"/>
-      <c r="BRG3" s="4"/>
-      <c r="BRH3" s="4"/>
-      <c r="BRI3" s="4"/>
-      <c r="BRJ3" s="4"/>
-      <c r="BRK3" s="4"/>
-      <c r="BRL3" s="4"/>
-      <c r="BRM3" s="4"/>
-      <c r="BRN3" s="4"/>
-      <c r="BRO3" s="4"/>
-      <c r="BRP3" s="4"/>
-      <c r="BRQ3" s="4"/>
-      <c r="BRR3" s="4"/>
-      <c r="BRS3" s="4"/>
-      <c r="BRT3" s="4"/>
-      <c r="BRU3" s="4"/>
-      <c r="BRV3" s="4"/>
-      <c r="BRW3" s="4"/>
-      <c r="BRX3" s="4"/>
-      <c r="BRY3" s="4"/>
-      <c r="BRZ3" s="4"/>
-      <c r="BSA3" s="4"/>
-      <c r="BSB3" s="4"/>
-      <c r="BSC3" s="4"/>
-      <c r="BSD3" s="4"/>
-      <c r="BSE3" s="4"/>
-      <c r="BSF3" s="4"/>
-      <c r="BSG3" s="4"/>
-      <c r="BSH3" s="4"/>
-      <c r="BSI3" s="4"/>
-      <c r="BSJ3" s="4"/>
-      <c r="BSK3" s="4"/>
-      <c r="BSL3" s="4"/>
-      <c r="BSM3" s="4"/>
-      <c r="BSN3" s="4"/>
-      <c r="BSO3" s="4"/>
-      <c r="BSP3" s="4"/>
-      <c r="BSQ3" s="4"/>
-      <c r="BSR3" s="4"/>
-      <c r="BSS3" s="4"/>
-      <c r="BST3" s="4"/>
-      <c r="BSU3" s="4"/>
-      <c r="BSV3" s="4"/>
-      <c r="BSW3" s="4"/>
-      <c r="BSX3" s="4"/>
-      <c r="BSY3" s="4"/>
-      <c r="BSZ3" s="4"/>
-      <c r="BTA3" s="4"/>
-      <c r="BTB3" s="4"/>
-      <c r="BTC3" s="4"/>
-      <c r="BTD3" s="4"/>
-      <c r="BTE3" s="4"/>
-      <c r="BTF3" s="4"/>
-      <c r="BTG3" s="4"/>
-      <c r="BTH3" s="4"/>
-      <c r="BTI3" s="4"/>
-      <c r="BTJ3" s="4"/>
-      <c r="BTK3" s="4"/>
-      <c r="BTL3" s="4"/>
-      <c r="BTM3" s="4"/>
-      <c r="BTN3" s="4"/>
-      <c r="BTO3" s="4"/>
-      <c r="BTP3" s="4"/>
-      <c r="BTQ3" s="4"/>
-      <c r="BTR3" s="4"/>
-      <c r="BTS3" s="4"/>
-      <c r="BTT3" s="4"/>
-      <c r="BTU3" s="4"/>
-      <c r="BTV3" s="4"/>
-      <c r="BTW3" s="4"/>
-      <c r="BTX3" s="4"/>
-      <c r="BTY3" s="4"/>
-      <c r="BTZ3" s="4"/>
-      <c r="BUA3" s="4"/>
-      <c r="BUB3" s="4"/>
-      <c r="BUC3" s="4"/>
-      <c r="BUD3" s="4"/>
-      <c r="BUE3" s="4"/>
-      <c r="BUF3" s="4"/>
-      <c r="BUG3" s="4"/>
-      <c r="BUH3" s="4"/>
-      <c r="BUI3" s="4"/>
-      <c r="BUJ3" s="4"/>
-      <c r="BUK3" s="4"/>
-      <c r="BUL3" s="4"/>
-      <c r="BUM3" s="4"/>
-      <c r="BUN3" s="4"/>
-      <c r="BUO3" s="4"/>
-      <c r="BUP3" s="4"/>
-      <c r="BUQ3" s="4"/>
-      <c r="BUR3" s="4"/>
-      <c r="BUS3" s="4"/>
-      <c r="BUT3" s="4"/>
-      <c r="BUU3" s="4"/>
-      <c r="BUV3" s="4"/>
-      <c r="BUW3" s="4"/>
-      <c r="BUX3" s="4"/>
-      <c r="BUY3" s="4"/>
-      <c r="BUZ3" s="4"/>
-      <c r="BVA3" s="4"/>
-      <c r="BVB3" s="4"/>
-      <c r="BVC3" s="4"/>
-      <c r="BVD3" s="4"/>
-      <c r="BVE3" s="4"/>
-      <c r="BVF3" s="4"/>
-      <c r="BVG3" s="4"/>
-      <c r="BVH3" s="4"/>
-      <c r="BVI3" s="4"/>
-      <c r="BVJ3" s="4"/>
-      <c r="BVK3" s="4"/>
-      <c r="BVL3" s="4"/>
-      <c r="BVM3" s="4"/>
-      <c r="BVN3" s="4"/>
-      <c r="BVO3" s="4"/>
-      <c r="BVP3" s="4"/>
-      <c r="BVQ3" s="4"/>
-      <c r="BVR3" s="4"/>
-      <c r="BVS3" s="4"/>
-      <c r="BVT3" s="4"/>
-      <c r="BVU3" s="4"/>
-      <c r="BVV3" s="4"/>
-      <c r="BVW3" s="4"/>
-      <c r="BVX3" s="4"/>
-      <c r="BVY3" s="4"/>
-      <c r="BVZ3" s="4"/>
-      <c r="BWA3" s="4"/>
-      <c r="BWB3" s="4"/>
-      <c r="BWC3" s="4"/>
-      <c r="BWD3" s="4"/>
-      <c r="BWE3" s="4"/>
-      <c r="BWF3" s="4"/>
-      <c r="BWG3" s="4"/>
-      <c r="BWH3" s="4"/>
-      <c r="BWI3" s="4"/>
-      <c r="BWJ3" s="4"/>
-      <c r="BWK3" s="4"/>
-      <c r="BWL3" s="4"/>
-      <c r="BWM3" s="4"/>
-      <c r="BWN3" s="4"/>
-      <c r="BWO3" s="4"/>
-      <c r="BWP3" s="4"/>
-      <c r="BWQ3" s="4"/>
-      <c r="BWR3" s="4"/>
-      <c r="BWS3" s="4"/>
-      <c r="BWT3" s="4"/>
-      <c r="BWU3" s="4"/>
-      <c r="BWV3" s="4"/>
-      <c r="BWW3" s="4"/>
-      <c r="BWX3" s="4"/>
-      <c r="BWY3" s="4"/>
-      <c r="BWZ3" s="4"/>
-      <c r="BXA3" s="4"/>
-      <c r="BXB3" s="4"/>
-      <c r="BXC3" s="4"/>
-      <c r="BXD3" s="4"/>
-      <c r="BXE3" s="4"/>
-      <c r="BXF3" s="4"/>
-      <c r="BXG3" s="4"/>
-      <c r="BXH3" s="4"/>
-      <c r="BXI3" s="4"/>
-      <c r="BXJ3" s="4"/>
-      <c r="BXK3" s="4"/>
-      <c r="BXL3" s="4"/>
-      <c r="BXM3" s="4"/>
-      <c r="BXN3" s="4"/>
-      <c r="BXO3" s="4"/>
-      <c r="BXP3" s="4"/>
-      <c r="BXQ3" s="4"/>
-      <c r="BXR3" s="4"/>
-      <c r="BXS3" s="4"/>
-      <c r="BXT3" s="4"/>
-      <c r="BXU3" s="4"/>
-      <c r="BXV3" s="4"/>
-      <c r="BXW3" s="4"/>
-      <c r="BXX3" s="4"/>
-      <c r="BXY3" s="4"/>
-      <c r="BXZ3" s="4"/>
-      <c r="BYA3" s="4"/>
-      <c r="BYB3" s="4"/>
-      <c r="BYC3" s="4"/>
-      <c r="BYD3" s="4"/>
-      <c r="BYE3" s="4"/>
-      <c r="BYF3" s="4"/>
-      <c r="BYG3" s="4"/>
-      <c r="BYH3" s="4"/>
-      <c r="BYI3" s="4"/>
-      <c r="BYJ3" s="4"/>
-      <c r="BYK3" s="4"/>
-      <c r="BYL3" s="4"/>
-      <c r="BYM3" s="4"/>
-      <c r="BYN3" s="4"/>
-      <c r="BYO3" s="4"/>
-      <c r="BYP3" s="4"/>
-      <c r="BYQ3" s="4"/>
-      <c r="BYR3" s="4"/>
-      <c r="BYS3" s="4"/>
-      <c r="BYT3" s="4"/>
-      <c r="BYU3" s="4"/>
-      <c r="BYV3" s="4"/>
-      <c r="BYW3" s="4"/>
-      <c r="BYX3" s="4"/>
-      <c r="BYY3" s="4"/>
-      <c r="BYZ3" s="4"/>
-      <c r="BZA3" s="4"/>
-      <c r="BZB3" s="4"/>
-      <c r="BZC3" s="4"/>
-      <c r="BZD3" s="4"/>
-      <c r="BZE3" s="4"/>
-      <c r="BZF3" s="4"/>
-      <c r="BZG3" s="4"/>
-      <c r="BZH3" s="4"/>
-      <c r="BZI3" s="4"/>
-      <c r="BZJ3" s="4"/>
-      <c r="BZK3" s="4"/>
-      <c r="BZL3" s="4"/>
-      <c r="BZM3" s="4"/>
-      <c r="BZN3" s="4"/>
-      <c r="BZO3" s="4"/>
-      <c r="BZP3" s="4"/>
-      <c r="BZQ3" s="4"/>
-      <c r="BZR3" s="4"/>
-      <c r="BZS3" s="4"/>
-      <c r="BZT3" s="4"/>
-      <c r="BZU3" s="4"/>
-      <c r="BZV3" s="4"/>
-      <c r="BZW3" s="4"/>
-      <c r="BZX3" s="4"/>
-      <c r="BZY3" s="4"/>
-      <c r="BZZ3" s="4"/>
-      <c r="CAA3" s="4"/>
-      <c r="CAB3" s="4"/>
-      <c r="CAC3" s="4"/>
-      <c r="CAD3" s="4"/>
-      <c r="CAE3" s="4"/>
-      <c r="CAF3" s="4"/>
-      <c r="CAG3" s="4"/>
-      <c r="CAH3" s="4"/>
-      <c r="CAI3" s="4"/>
-      <c r="CAJ3" s="4"/>
-      <c r="CAK3" s="4"/>
-      <c r="CAL3" s="4"/>
-      <c r="CAM3" s="4"/>
-      <c r="CAN3" s="4"/>
-      <c r="CAO3" s="4"/>
-      <c r="CAP3" s="4"/>
-      <c r="CAQ3" s="4"/>
-      <c r="CAR3" s="4"/>
-      <c r="CAS3" s="4"/>
-      <c r="CAT3" s="4"/>
-      <c r="CAU3" s="4"/>
-      <c r="CAV3" s="4"/>
-      <c r="CAW3" s="4"/>
-      <c r="CAX3" s="4"/>
-      <c r="CAY3" s="4"/>
-      <c r="CAZ3" s="4"/>
-      <c r="CBA3" s="4"/>
-      <c r="CBB3" s="4"/>
-      <c r="CBC3" s="4"/>
-      <c r="CBD3" s="4"/>
-      <c r="CBE3" s="4"/>
-      <c r="CBF3" s="4"/>
-      <c r="CBG3" s="4"/>
-      <c r="CBH3" s="4"/>
-      <c r="CBI3" s="4"/>
-      <c r="CBJ3" s="4"/>
-      <c r="CBK3" s="4"/>
-      <c r="CBL3" s="4"/>
-      <c r="CBM3" s="4"/>
-      <c r="CBN3" s="4"/>
-      <c r="CBO3" s="4"/>
-      <c r="CBP3" s="4"/>
-      <c r="CBQ3" s="4"/>
-      <c r="CBR3" s="4"/>
-      <c r="CBS3" s="4"/>
-      <c r="CBT3" s="4"/>
-      <c r="CBU3" s="4"/>
-      <c r="CBV3" s="4"/>
-      <c r="CBW3" s="4"/>
-      <c r="CBX3" s="4"/>
-      <c r="CBY3" s="4"/>
-      <c r="CBZ3" s="4"/>
-      <c r="CCA3" s="4"/>
-      <c r="CCB3" s="4"/>
-      <c r="CCC3" s="4"/>
-      <c r="CCD3" s="4"/>
-      <c r="CCE3" s="4"/>
-      <c r="CCF3" s="4"/>
-      <c r="CCG3" s="4"/>
-      <c r="CCH3" s="4"/>
-      <c r="CCI3" s="4"/>
-      <c r="CCJ3" s="4"/>
-      <c r="CCK3" s="4"/>
-      <c r="CCL3" s="4"/>
-      <c r="CCM3" s="4"/>
-      <c r="CCN3" s="4"/>
-      <c r="CCO3" s="4"/>
-      <c r="CCP3" s="4"/>
-      <c r="CCQ3" s="4"/>
-      <c r="CCR3" s="4"/>
-      <c r="CCS3" s="4"/>
-      <c r="CCT3" s="4"/>
-      <c r="CCU3" s="4"/>
-      <c r="CCV3" s="4"/>
-      <c r="CCW3" s="4"/>
-      <c r="CCX3" s="4"/>
-      <c r="CCY3" s="4"/>
-      <c r="CCZ3" s="4"/>
-      <c r="CDA3" s="4"/>
-      <c r="CDB3" s="4"/>
-      <c r="CDC3" s="4"/>
-      <c r="CDD3" s="4"/>
-      <c r="CDE3" s="4"/>
-      <c r="CDF3" s="4"/>
-      <c r="CDG3" s="4"/>
-      <c r="CDH3" s="4"/>
-      <c r="CDI3" s="4"/>
-      <c r="CDJ3" s="4"/>
-      <c r="CDK3" s="4"/>
-      <c r="CDL3" s="4"/>
-      <c r="CDM3" s="4"/>
-      <c r="CDN3" s="4"/>
-      <c r="CDO3" s="4"/>
-      <c r="CDP3" s="4"/>
-      <c r="CDQ3" s="4"/>
-      <c r="CDR3" s="4"/>
-      <c r="CDS3" s="4"/>
-      <c r="CDT3" s="4"/>
-      <c r="CDU3" s="4"/>
-      <c r="CDV3" s="4"/>
-      <c r="CDW3" s="4"/>
-      <c r="CDX3" s="4"/>
-      <c r="CDY3" s="4"/>
-      <c r="CDZ3" s="4"/>
-      <c r="CEA3" s="4"/>
-      <c r="CEB3" s="4"/>
-      <c r="CEC3" s="4"/>
-      <c r="CED3" s="4"/>
-      <c r="CEE3" s="4"/>
-      <c r="CEF3" s="4"/>
-      <c r="CEG3" s="4"/>
-      <c r="CEH3" s="4"/>
-      <c r="CEI3" s="4"/>
-      <c r="CEJ3" s="4"/>
-      <c r="CEK3" s="4"/>
-      <c r="CEL3" s="4"/>
-      <c r="CEM3" s="4"/>
-      <c r="CEN3" s="4"/>
-      <c r="CEO3" s="4"/>
-      <c r="CEP3" s="4"/>
-      <c r="CEQ3" s="4"/>
-      <c r="CER3" s="4"/>
-      <c r="CES3" s="4"/>
-      <c r="CET3" s="4"/>
-      <c r="CEU3" s="4"/>
-      <c r="CEV3" s="4"/>
-      <c r="CEW3" s="4"/>
-      <c r="CEX3" s="4"/>
-      <c r="CEY3" s="4"/>
-      <c r="CEZ3" s="4"/>
-      <c r="CFA3" s="4"/>
-      <c r="CFB3" s="4"/>
-      <c r="CFC3" s="4"/>
-      <c r="CFD3" s="4"/>
-      <c r="CFE3" s="4"/>
-      <c r="CFF3" s="4"/>
-      <c r="CFG3" s="4"/>
-      <c r="CFH3" s="4"/>
-      <c r="CFI3" s="4"/>
-      <c r="CFJ3" s="4"/>
-      <c r="CFK3" s="4"/>
-      <c r="CFL3" s="4"/>
-      <c r="CFM3" s="4"/>
-      <c r="CFN3" s="4"/>
-      <c r="CFO3" s="4"/>
-      <c r="CFP3" s="4"/>
-      <c r="CFQ3" s="4"/>
-      <c r="CFR3" s="4"/>
-      <c r="CFS3" s="4"/>
-      <c r="CFT3" s="4"/>
-      <c r="CFU3" s="4"/>
-      <c r="CFV3" s="4"/>
-      <c r="CFW3" s="4"/>
-      <c r="CFX3" s="4"/>
-      <c r="CFY3" s="4"/>
-      <c r="CFZ3" s="4"/>
-      <c r="CGA3" s="4"/>
-      <c r="CGB3" s="4"/>
-      <c r="CGC3" s="4"/>
-      <c r="CGD3" s="4"/>
-      <c r="CGE3" s="4"/>
-      <c r="CGF3" s="4"/>
-      <c r="CGG3" s="4"/>
-      <c r="CGH3" s="4"/>
-      <c r="CGI3" s="4"/>
-      <c r="CGJ3" s="4"/>
-      <c r="CGK3" s="4"/>
-      <c r="CGL3" s="4"/>
-      <c r="CGM3" s="4"/>
-      <c r="CGN3" s="4"/>
-      <c r="CGO3" s="4"/>
-      <c r="CGP3" s="4"/>
-      <c r="CGQ3" s="4"/>
-      <c r="CGR3" s="4"/>
-      <c r="CGS3" s="4"/>
-      <c r="CGT3" s="4"/>
-      <c r="CGU3" s="4"/>
-      <c r="CGV3" s="4"/>
-      <c r="CGW3" s="4"/>
-      <c r="CGX3" s="4"/>
-      <c r="CGY3" s="4"/>
-      <c r="CGZ3" s="4"/>
-      <c r="CHA3" s="4"/>
-      <c r="CHB3" s="4"/>
-      <c r="CHC3" s="4"/>
-      <c r="CHD3" s="4"/>
-      <c r="CHE3" s="4"/>
-      <c r="CHF3" s="4"/>
-      <c r="CHG3" s="4"/>
-      <c r="CHH3" s="4"/>
-      <c r="CHI3" s="4"/>
-      <c r="CHJ3" s="4"/>
-      <c r="CHK3" s="4"/>
-      <c r="CHL3" s="4"/>
-      <c r="CHM3" s="4"/>
-      <c r="CHN3" s="4"/>
-      <c r="CHO3" s="4"/>
-      <c r="CHP3" s="4"/>
-      <c r="CHQ3" s="4"/>
-      <c r="CHR3" s="4"/>
-      <c r="CHS3" s="4"/>
-      <c r="CHT3" s="4"/>
-      <c r="CHU3" s="4"/>
-      <c r="CHV3" s="4"/>
-      <c r="CHW3" s="4"/>
-      <c r="CHX3" s="4"/>
-      <c r="CHY3" s="4"/>
-      <c r="CHZ3" s="4"/>
-      <c r="CIA3" s="4"/>
-      <c r="CIB3" s="4"/>
-      <c r="CIC3" s="4"/>
-      <c r="CID3" s="4"/>
-      <c r="CIE3" s="4"/>
-      <c r="CIF3" s="4"/>
-      <c r="CIG3" s="4"/>
-      <c r="CIH3" s="4"/>
-      <c r="CII3" s="4"/>
-      <c r="CIJ3" s="4"/>
-      <c r="CIK3" s="4"/>
-      <c r="CIL3" s="4"/>
-      <c r="CIM3" s="4"/>
-      <c r="CIN3" s="4"/>
-      <c r="CIO3" s="4"/>
-      <c r="CIP3" s="4"/>
-      <c r="CIQ3" s="4"/>
-      <c r="CIR3" s="4"/>
-      <c r="CIS3" s="4"/>
-      <c r="CIT3" s="4"/>
-      <c r="CIU3" s="4"/>
-      <c r="CIV3" s="4"/>
-      <c r="CIW3" s="4"/>
-      <c r="CIX3" s="4"/>
-      <c r="CIY3" s="4"/>
-      <c r="CIZ3" s="4"/>
-      <c r="CJA3" s="4"/>
-      <c r="CJB3" s="4"/>
-      <c r="CJC3" s="4"/>
-      <c r="CJD3" s="4"/>
-      <c r="CJE3" s="4"/>
-      <c r="CJF3" s="4"/>
-      <c r="CJG3" s="4"/>
-      <c r="CJH3" s="4"/>
-      <c r="CJI3" s="4"/>
-      <c r="CJJ3" s="4"/>
-      <c r="CJK3" s="4"/>
-      <c r="CJL3" s="4"/>
-      <c r="CJM3" s="4"/>
-      <c r="CJN3" s="4"/>
-      <c r="CJO3" s="4"/>
-      <c r="CJP3" s="4"/>
-      <c r="CJQ3" s="4"/>
-      <c r="CJR3" s="4"/>
-      <c r="CJS3" s="4"/>
-      <c r="CJT3" s="4"/>
-      <c r="CJU3" s="4"/>
-      <c r="CJV3" s="4"/>
-      <c r="CJW3" s="4"/>
-      <c r="CJX3" s="4"/>
-      <c r="CJY3" s="4"/>
-      <c r="CJZ3" s="4"/>
-      <c r="CKA3" s="4"/>
-      <c r="CKB3" s="4"/>
-      <c r="CKC3" s="4"/>
-      <c r="CKD3" s="4"/>
-      <c r="CKE3" s="4"/>
-      <c r="CKF3" s="4"/>
-      <c r="CKG3" s="4"/>
-      <c r="CKH3" s="4"/>
-      <c r="CKI3" s="4"/>
-      <c r="CKJ3" s="4"/>
-      <c r="CKK3" s="4"/>
-      <c r="CKL3" s="4"/>
-      <c r="CKM3" s="4"/>
-      <c r="CKN3" s="4"/>
-      <c r="CKO3" s="4"/>
-      <c r="CKP3" s="4"/>
-      <c r="CKQ3" s="4"/>
-      <c r="CKR3" s="4"/>
-      <c r="CKS3" s="4"/>
-      <c r="CKT3" s="4"/>
-      <c r="CKU3" s="4"/>
-      <c r="CKV3" s="4"/>
-      <c r="CKW3" s="4"/>
-      <c r="CKX3" s="4"/>
-      <c r="CKY3" s="4"/>
-      <c r="CKZ3" s="4"/>
-      <c r="CLA3" s="4"/>
-      <c r="CLB3" s="4"/>
-      <c r="CLC3" s="4"/>
-      <c r="CLD3" s="4"/>
-      <c r="CLE3" s="4"/>
-      <c r="CLF3" s="4"/>
-      <c r="CLG3" s="4"/>
-      <c r="CLH3" s="4"/>
-      <c r="CLI3" s="4"/>
-      <c r="CLJ3" s="4"/>
-      <c r="CLK3" s="4"/>
-      <c r="CLL3" s="4"/>
-      <c r="CLM3" s="4"/>
-      <c r="CLN3" s="4"/>
-      <c r="CLO3" s="4"/>
-      <c r="CLP3" s="4"/>
-      <c r="CLQ3" s="4"/>
-      <c r="CLR3" s="4"/>
-      <c r="CLS3" s="4"/>
-      <c r="CLT3" s="4"/>
-      <c r="CLU3" s="4"/>
-      <c r="CLV3" s="4"/>
-      <c r="CLW3" s="4"/>
-      <c r="CLX3" s="4"/>
-      <c r="CLY3" s="4"/>
-      <c r="CLZ3" s="4"/>
-      <c r="CMA3" s="4"/>
-      <c r="CMB3" s="4"/>
-      <c r="CMC3" s="4"/>
-      <c r="CMD3" s="4"/>
-      <c r="CME3" s="4"/>
-      <c r="CMF3" s="4"/>
-      <c r="CMG3" s="4"/>
-      <c r="CMH3" s="4"/>
-      <c r="CMI3" s="4"/>
-      <c r="CMJ3" s="4"/>
-      <c r="CMK3" s="4"/>
-      <c r="CML3" s="4"/>
-      <c r="CMM3" s="4"/>
-      <c r="CMN3" s="4"/>
-      <c r="CMO3" s="4"/>
-      <c r="CMP3" s="4"/>
-      <c r="CMQ3" s="4"/>
-      <c r="CMR3" s="4"/>
-      <c r="CMS3" s="4"/>
-      <c r="CMT3" s="4"/>
-      <c r="CMU3" s="4"/>
-      <c r="CMV3" s="4"/>
-      <c r="CMW3" s="4"/>
-      <c r="CMX3" s="4"/>
-      <c r="CMY3" s="4"/>
-      <c r="CMZ3" s="4"/>
-      <c r="CNA3" s="4"/>
-      <c r="CNB3" s="4"/>
-      <c r="CNC3" s="4"/>
-      <c r="CND3" s="4"/>
-      <c r="CNE3" s="4"/>
-      <c r="CNF3" s="4"/>
-      <c r="CNG3" s="4"/>
-      <c r="CNH3" s="4"/>
-      <c r="CNI3" s="4"/>
-      <c r="CNJ3" s="4"/>
-      <c r="CNK3" s="4"/>
-      <c r="CNL3" s="4"/>
-      <c r="CNM3" s="4"/>
-      <c r="CNN3" s="4"/>
-      <c r="CNO3" s="4"/>
-      <c r="CNP3" s="4"/>
-      <c r="CNQ3" s="4"/>
-      <c r="CNR3" s="4"/>
-      <c r="CNS3" s="4"/>
-      <c r="CNT3" s="4"/>
-      <c r="CNU3" s="4"/>
-      <c r="CNV3" s="4"/>
-      <c r="CNW3" s="4"/>
-      <c r="CNX3" s="4"/>
-      <c r="CNY3" s="4"/>
-      <c r="CNZ3" s="4"/>
-      <c r="COA3" s="4"/>
-      <c r="COB3" s="4"/>
-      <c r="COC3" s="4"/>
-      <c r="COD3" s="4"/>
-      <c r="COE3" s="4"/>
-      <c r="COF3" s="4"/>
-      <c r="COG3" s="4"/>
-      <c r="COH3" s="4"/>
-      <c r="COI3" s="4"/>
-      <c r="COJ3" s="4"/>
-      <c r="COK3" s="4"/>
-      <c r="COL3" s="4"/>
-      <c r="COM3" s="4"/>
-      <c r="CON3" s="4"/>
-      <c r="COO3" s="4"/>
-      <c r="COP3" s="4"/>
-      <c r="COQ3" s="4"/>
-      <c r="COR3" s="4"/>
-      <c r="COS3" s="4"/>
-      <c r="COT3" s="4"/>
-      <c r="COU3" s="4"/>
-      <c r="COV3" s="4"/>
-      <c r="COW3" s="4"/>
-      <c r="COX3" s="4"/>
-      <c r="COY3" s="4"/>
-      <c r="COZ3" s="4"/>
-      <c r="CPA3" s="4"/>
-      <c r="CPB3" s="4"/>
-      <c r="CPC3" s="4"/>
-      <c r="CPD3" s="4"/>
-      <c r="CPE3" s="4"/>
-      <c r="CPF3" s="4"/>
-      <c r="CPG3" s="4"/>
-      <c r="CPH3" s="4"/>
-      <c r="CPI3" s="4"/>
-      <c r="CPJ3" s="4"/>
-      <c r="CPK3" s="4"/>
-      <c r="CPL3" s="4"/>
-      <c r="CPM3" s="4"/>
-      <c r="CPN3" s="4"/>
-      <c r="CPO3" s="4"/>
-      <c r="CPP3" s="4"/>
-      <c r="CPQ3" s="4"/>
-      <c r="CPR3" s="4"/>
-      <c r="CPS3" s="4"/>
-      <c r="CPT3" s="4"/>
-      <c r="CPU3" s="4"/>
-      <c r="CPV3" s="4"/>
-      <c r="CPW3" s="4"/>
-      <c r="CPX3" s="4"/>
-      <c r="CPY3" s="4"/>
-      <c r="CPZ3" s="4"/>
-      <c r="CQA3" s="4"/>
-      <c r="CQB3" s="4"/>
-      <c r="CQC3" s="4"/>
-      <c r="CQD3" s="4"/>
-      <c r="CQE3" s="4"/>
-      <c r="CQF3" s="4"/>
-      <c r="CQG3" s="4"/>
-      <c r="CQH3" s="4"/>
-      <c r="CQI3" s="4"/>
-      <c r="CQJ3" s="4"/>
-      <c r="CQK3" s="4"/>
-      <c r="CQL3" s="4"/>
-      <c r="CQM3" s="4"/>
-      <c r="CQN3" s="4"/>
-      <c r="CQO3" s="4"/>
-      <c r="CQP3" s="4"/>
-      <c r="CQQ3" s="4"/>
-      <c r="CQR3" s="4"/>
-      <c r="CQS3" s="4"/>
-      <c r="CQT3" s="4"/>
-      <c r="CQU3" s="4"/>
-      <c r="CQV3" s="4"/>
-      <c r="CQW3" s="4"/>
-      <c r="CQX3" s="4"/>
-      <c r="CQY3" s="4"/>
-      <c r="CQZ3" s="4"/>
-      <c r="CRA3" s="4"/>
-      <c r="CRB3" s="4"/>
-      <c r="CRC3" s="4"/>
-      <c r="CRD3" s="4"/>
-      <c r="CRE3" s="4"/>
-      <c r="CRF3" s="4"/>
-      <c r="CRG3" s="4"/>
-      <c r="CRH3" s="4"/>
-      <c r="CRI3" s="4"/>
-      <c r="CRJ3" s="4"/>
-      <c r="CRK3" s="4"/>
-      <c r="CRL3" s="4"/>
-      <c r="CRM3" s="4"/>
-      <c r="CRN3" s="4"/>
-      <c r="CRO3" s="4"/>
-      <c r="CRP3" s="4"/>
-      <c r="CRQ3" s="4"/>
-      <c r="CRR3" s="4"/>
-      <c r="CRS3" s="4"/>
-      <c r="CRT3" s="4"/>
-      <c r="CRU3" s="4"/>
-      <c r="CRV3" s="4"/>
-      <c r="CRW3" s="4"/>
-      <c r="CRX3" s="4"/>
-      <c r="CRY3" s="4"/>
-      <c r="CRZ3" s="4"/>
-      <c r="CSA3" s="4"/>
-      <c r="CSB3" s="4"/>
-      <c r="CSC3" s="4"/>
-      <c r="CSD3" s="4"/>
-      <c r="CSE3" s="4"/>
-      <c r="CSF3" s="4"/>
-      <c r="CSG3" s="4"/>
-      <c r="CSH3" s="4"/>
-      <c r="CSI3" s="4"/>
-      <c r="CSJ3" s="4"/>
-      <c r="CSK3" s="4"/>
-      <c r="CSL3" s="4"/>
-      <c r="CSM3" s="4"/>
-      <c r="CSN3" s="4"/>
-      <c r="CSO3" s="4"/>
-      <c r="CSP3" s="4"/>
-      <c r="CSQ3" s="4"/>
-      <c r="CSR3" s="4"/>
-      <c r="CSS3" s="4"/>
-      <c r="CST3" s="4"/>
-      <c r="CSU3" s="4"/>
-      <c r="CSV3" s="4"/>
-      <c r="CSW3" s="4"/>
-      <c r="CSX3" s="4"/>
-      <c r="CSY3" s="4"/>
-      <c r="CSZ3" s="4"/>
-      <c r="CTA3" s="4"/>
-      <c r="CTB3" s="4"/>
-      <c r="CTC3" s="4"/>
-      <c r="CTD3" s="4"/>
-      <c r="CTE3" s="4"/>
-      <c r="CTF3" s="4"/>
-      <c r="CTG3" s="4"/>
-      <c r="CTH3" s="4"/>
-      <c r="CTI3" s="4"/>
-      <c r="CTJ3" s="4"/>
-      <c r="CTK3" s="4"/>
-      <c r="CTL3" s="4"/>
-      <c r="CTM3" s="4"/>
-      <c r="CTN3" s="4"/>
-      <c r="CTO3" s="4"/>
-      <c r="CTP3" s="4"/>
-      <c r="CTQ3" s="4"/>
-      <c r="CTR3" s="4"/>
-      <c r="CTS3" s="4"/>
-      <c r="CTT3" s="4"/>
-      <c r="CTU3" s="4"/>
-      <c r="CTV3" s="4"/>
-      <c r="CTW3" s="4"/>
-      <c r="CTX3" s="4"/>
-      <c r="CTY3" s="4"/>
-      <c r="CTZ3" s="4"/>
-    </row>
-    <row r="4" spans="1:2574" s="3" customFormat="1" ht="15">
-      <c r="B4" s="6">
-        <v>201</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:2574" s="3" customFormat="1">
-      <c r="B5" s="6">
-        <v>202</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:2574" ht="15">
-      <c r="B6" s="6">
-        <v>203</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:2574" ht="15">
-      <c r="B7" s="6">
-        <v>204</v>
-      </c>
-      <c r="C7" s="6">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>